--- a/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="38300" windowHeight="19500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="220" yWindow="820" windowWidth="38300" windowHeight="19500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑9" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="727">
   <si>
     <t>里程碑目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4874,7 +4874,13 @@
     <t>道具指引各个系统回归</t>
   </si>
   <si>
-    <t>确定成长数值是否包括技能等级开放， 回归相关能力拆分。 回归相关投放包括PVP，公会，通天塔商店等，宠物分解碎片跟等级挂钩， 装备是否需要分职业</t>
+    <t>礼包推广内容设计</t>
+  </si>
+  <si>
+    <t>锁孔需求</t>
+  </si>
+  <si>
+    <t>回归相关投放包括PVP，公会，通天塔商店等，宠物分解碎片跟等级挂钩， 装备是否需要分职业</t>
   </si>
 </sst>
 </file>
@@ -9971,13 +9977,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W228"/>
+  <dimension ref="A2:W230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F168" sqref="F168"/>
+      <selection pane="bottomRight" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -15125,77 +15131,34 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="B106" s="52" t="s">
-        <v>115</v>
+      <c r="B106" s="61" t="s">
+        <v>725</v>
       </c>
       <c r="C106" s="52"/>
-      <c r="D106" s="61">
-        <v>3</v>
-      </c>
-      <c r="E106" s="54">
-        <v>7</v>
-      </c>
-      <c r="G106" s="53" t="str">
-        <f>IF($E106=1,$B106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H106" s="59" t="str">
-        <f>IF($E106=1,$D106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="D106" s="61"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="59"/>
       <c r="I106" s="60"/>
-      <c r="J106" s="53" t="str">
-        <f>IF($E106=2,$B106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K106" s="59" t="str">
-        <f>IF($E106=2,$D106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J106" s="53"/>
+      <c r="K106" s="59"/>
       <c r="L106" s="60"/>
-      <c r="M106" s="53" t="str">
-        <f>IF($E106=3,$B106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N106" s="59" t="str">
-        <f>IF($E106=3,$D106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M106" s="53"/>
+      <c r="N106" s="59"/>
       <c r="O106" s="60"/>
-      <c r="P106" s="53" t="str">
-        <f>IF($E106=4,$B106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q106" s="59" t="str">
-        <f>IF($E106=4,$D106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P106" s="53"/>
+      <c r="Q106" s="59"/>
       <c r="R106" s="60"/>
-      <c r="S106" s="53" t="str">
-        <f>IF($E106=5,$B106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T106" s="59" t="str">
-        <f>IF($E106=5,$D106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V106" s="53" t="str">
-        <f>IF($E106=6,$B106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W106" s="77" t="str">
-        <f>IF($E106=6,$D106," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S106" s="53"/>
+      <c r="T106" s="59"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="54">
-        <v>2</v>
+      <c r="B107" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="52"/>
+      <c r="D107" s="61">
+        <v>3</v>
       </c>
       <c r="E107" s="54">
         <v>7</v>
@@ -15244,14 +15207,23 @@
         <f>IF($E107=5,$D107," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="V107" s="53" t="str">
+        <f>IF($E107=6,$B107," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W107" s="77" t="str">
+        <f>IF($E107=6,$D107," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="56" t="s">
-        <v>236</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C108" s="56"/>
       <c r="D108" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" s="54">
         <v>7</v>
@@ -15304,37 +15276,74 @@
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="C109" s="56"/>
+        <v>236</v>
+      </c>
       <c r="D109" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109" s="54">
         <v>7</v>
       </c>
-      <c r="F109" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="G109" s="53"/>
-      <c r="H109" s="59"/>
+      <c r="G109" s="53" t="str">
+        <f>IF($E109=1,$B109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H109" s="59" t="str">
+        <f>IF($E109=1,$D109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I109" s="60"/>
-      <c r="J109" s="53"/>
-      <c r="K109" s="59"/>
+      <c r="J109" s="53" t="str">
+        <f>IF($E109=2,$B109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K109" s="59" t="str">
+        <f>IF($E109=2,$D109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L109" s="60"/>
-      <c r="M109" s="53"/>
-      <c r="N109" s="59"/>
+      <c r="M109" s="53" t="str">
+        <f>IF($E109=3,$B109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N109" s="59" t="str">
+        <f>IF($E109=3,$D109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O109" s="60"/>
-      <c r="P109" s="53"/>
-      <c r="Q109" s="59"/>
+      <c r="P109" s="53" t="str">
+        <f>IF($E109=4,$B109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q109" s="59" t="str">
+        <f>IF($E109=4,$D109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R109" s="60"/>
-      <c r="S109" s="53"/>
-      <c r="T109" s="59"/>
+      <c r="S109" s="53" t="str">
+        <f>IF($E109=5,$B109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T109" s="59" t="str">
+        <f>IF($E109=5,$D109," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="56"/>
+      <c r="B110" s="56" t="s">
+        <v>240</v>
+      </c>
       <c r="C110" s="56"/>
+      <c r="D110" s="54">
+        <v>2</v>
+      </c>
+      <c r="E110" s="54">
+        <v>7</v>
+      </c>
+      <c r="F110" s="53" t="s">
+        <v>390</v>
+      </c>
       <c r="G110" s="53"/>
       <c r="H110" s="59"/>
       <c r="I110" s="60"/>
@@ -15352,19 +15361,8 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="56" t="s">
-        <v>391</v>
-      </c>
+      <c r="B111" s="56"/>
       <c r="C111" s="56"/>
-      <c r="D111" s="54">
-        <v>2</v>
-      </c>
-      <c r="E111" s="54">
-        <v>7</v>
-      </c>
-      <c r="F111" s="53" t="s">
-        <v>392</v>
-      </c>
       <c r="G111" s="53"/>
       <c r="H111" s="59"/>
       <c r="I111" s="60"/>
@@ -15382,8 +15380,19 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="B112" s="56"/>
+      <c r="B112" s="56" t="s">
+        <v>391</v>
+      </c>
       <c r="C112" s="56"/>
+      <c r="D112" s="54">
+        <v>2</v>
+      </c>
+      <c r="E112" s="54">
+        <v>7</v>
+      </c>
+      <c r="F112" s="53" t="s">
+        <v>392</v>
+      </c>
       <c r="G112" s="53"/>
       <c r="H112" s="59"/>
       <c r="I112" s="60"/>
@@ -15401,16 +15410,8 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="B113" s="56" t="s">
-        <v>425</v>
-      </c>
+      <c r="B113" s="56"/>
       <c r="C113" s="56"/>
-      <c r="D113" s="54">
-        <v>1</v>
-      </c>
-      <c r="E113" s="54">
-        <v>7</v>
-      </c>
       <c r="G113" s="53"/>
       <c r="H113" s="59"/>
       <c r="I113" s="60"/>
@@ -15426,74 +15427,46 @@
       <c r="S113" s="53"/>
       <c r="T113" s="59"/>
     </row>
-    <row r="114" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
-      <c r="B114" s="52" t="s">
-        <v>393</v>
-      </c>
+      <c r="B114" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="C114" s="56"/>
       <c r="D114" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" s="54">
         <v>7</v>
       </c>
-      <c r="F114" s="53" t="s">
-        <v>394</v>
-      </c>
-      <c r="G114" s="53" t="str">
-        <f>IF($E114=1,$B114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H114" s="59" t="str">
-        <f>IF($E114=1,$D114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G114" s="53"/>
+      <c r="H114" s="59"/>
       <c r="I114" s="60"/>
-      <c r="J114" s="53" t="str">
-        <f>IF($E114=2,$B114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K114" s="59" t="str">
-        <f>IF($E114=2,$D114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J114" s="53"/>
+      <c r="K114" s="59"/>
       <c r="L114" s="60"/>
-      <c r="M114" s="53" t="str">
-        <f>IF($E114=3,$B114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N114" s="59" t="str">
-        <f>IF($E114=3,$D114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M114" s="53"/>
+      <c r="N114" s="59"/>
       <c r="O114" s="60"/>
-      <c r="P114" s="53" t="str">
-        <f>IF($E114=4,$B114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q114" s="59" t="str">
-        <f>IF($E114=4,$D114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P114" s="53"/>
+      <c r="Q114" s="59"/>
       <c r="R114" s="60"/>
-      <c r="S114" s="53" t="str">
-        <f>IF($E114=5,$B114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T114" s="59" t="str">
-        <f>IF($E114=5,$D114," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S114" s="53"/>
+      <c r="T114" s="59"/>
+    </row>
+    <row r="115" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
       <c r="B115" s="52" t="s">
-        <v>202</v>
+        <v>393</v>
       </c>
       <c r="D115" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" s="54">
         <v>7</v>
+      </c>
+      <c r="F115" s="53" t="s">
+        <v>394</v>
       </c>
       <c r="G115" s="53" t="str">
         <f>IF($E115=1,$B115," ")</f>
@@ -15542,7 +15515,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B116" s="52" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="D116" s="54">
         <v>1</v>
@@ -15596,30 +15569,62 @@
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B117" s="52"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="59"/>
+      <c r="B117" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D117" s="54">
+        <v>1</v>
+      </c>
+      <c r="E117" s="54">
+        <v>7</v>
+      </c>
+      <c r="G117" s="53" t="str">
+        <f>IF($E117=1,$B117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H117" s="59" t="str">
+        <f>IF($E117=1,$D117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I117" s="60"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="59"/>
+      <c r="J117" s="53" t="str">
+        <f>IF($E117=2,$B117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K117" s="59" t="str">
+        <f>IF($E117=2,$D117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L117" s="60"/>
-      <c r="M117" s="53"/>
-      <c r="N117" s="59"/>
+      <c r="M117" s="53" t="str">
+        <f>IF($E117=3,$B117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N117" s="59" t="str">
+        <f>IF($E117=3,$D117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O117" s="60"/>
-      <c r="P117" s="53"/>
-      <c r="Q117" s="59"/>
+      <c r="P117" s="53" t="str">
+        <f>IF($E117=4,$B117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q117" s="59" t="str">
+        <f>IF($E117=4,$D117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R117" s="60"/>
-      <c r="S117" s="53"/>
-      <c r="T117" s="59"/>
+      <c r="S117" s="53" t="str">
+        <f>IF($E117=5,$B117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T117" s="59" t="str">
+        <f>IF($E117=5,$D117," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B118" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="D118" s="35">
-        <f>SUM(D106:D116)</f>
-        <v>15</v>
-      </c>
+      <c r="B118" s="52"/>
       <c r="G118" s="53"/>
       <c r="H118" s="59"/>
       <c r="I118" s="60"/>
@@ -15636,7 +15641,13 @@
       <c r="T118" s="59"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B119" s="52"/>
+      <c r="B119" s="89" t="s">
+        <v>384</v>
+      </c>
+      <c r="D119" s="35">
+        <f>SUM(D107:D117)</f>
+        <v>15</v>
+      </c>
       <c r="G119" s="53"/>
       <c r="H119" s="59"/>
       <c r="I119" s="60"/>
@@ -15652,282 +15663,231 @@
       <c r="S119" s="53"/>
       <c r="T119" s="59"/>
     </row>
-    <row r="120" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B120" s="56" t="s">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B120" s="52"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="60"/>
+      <c r="J120" s="53"/>
+      <c r="K120" s="59"/>
+      <c r="L120" s="60"/>
+      <c r="M120" s="53"/>
+      <c r="N120" s="59"/>
+      <c r="O120" s="60"/>
+      <c r="P120" s="53"/>
+      <c r="Q120" s="59"/>
+      <c r="R120" s="60"/>
+      <c r="S120" s="53"/>
+      <c r="T120" s="59"/>
+    </row>
+    <row r="121" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B121" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="56"/>
-      <c r="D120" s="54">
+      <c r="C121" s="56"/>
+      <c r="D121" s="54">
         <v>3</v>
-      </c>
-      <c r="E120" s="54">
-        <v>7</v>
-      </c>
-      <c r="F120" s="53" t="s">
-        <v>395</v>
-      </c>
-      <c r="G120" s="53" t="str">
-        <f>IF($E120=1,$B120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H120" s="59" t="str">
-        <f>IF($E120=1,$D120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I120" s="60"/>
-      <c r="J120" s="53" t="str">
-        <f>IF($E120=2,$B120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K120" s="59" t="str">
-        <f>IF($E120=2,$D120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L120" s="60"/>
-      <c r="M120" s="53" t="str">
-        <f>IF($E120=3,$B120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N120" s="59" t="str">
-        <f>IF($E120=3,$D120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O120" s="60"/>
-      <c r="P120" s="53" t="str">
-        <f>IF($E120=4,$B120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q120" s="59" t="str">
-        <f>IF($E120=4,$D120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R120" s="60"/>
-      <c r="S120" s="53" t="str">
-        <f>IF($E120=5,$B120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T120" s="59" t="str">
-        <f>IF($E120=5,$D120," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U120" s="5"/>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B121" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D121" s="54">
-        <v>1</v>
       </c>
       <c r="E121" s="54">
         <v>7</v>
       </c>
+      <c r="F121" s="53" t="s">
+        <v>395</v>
+      </c>
       <c r="G121" s="53" t="str">
-        <f t="shared" ref="G121" si="47">IF($E121=1,$B121," ")</f>
+        <f>IF($E121=1,$B121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H121" s="59" t="str">
-        <f t="shared" ref="H121" si="48">IF($E121=1,$D121," ")</f>
+        <f>IF($E121=1,$D121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I121" s="60"/>
       <c r="J121" s="53" t="str">
-        <f t="shared" ref="J121" si="49">IF($E121=2,$B121," ")</f>
+        <f>IF($E121=2,$B121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K121" s="59" t="str">
-        <f t="shared" ref="K121" si="50">IF($E121=2,$D121," ")</f>
+        <f>IF($E121=2,$D121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L121" s="60"/>
       <c r="M121" s="53" t="str">
-        <f t="shared" ref="M121" si="51">IF($E121=3,$B121," ")</f>
+        <f>IF($E121=3,$B121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N121" s="59" t="str">
-        <f t="shared" ref="N121" si="52">IF($E121=3,$D121," ")</f>
+        <f>IF($E121=3,$D121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O121" s="60"/>
       <c r="P121" s="53" t="str">
-        <f t="shared" ref="P121" si="53">IF($E121=4,$B121," ")</f>
+        <f>IF($E121=4,$B121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q121" s="59" t="str">
-        <f t="shared" ref="Q121" si="54">IF($E121=4,$D121," ")</f>
+        <f>IF($E121=4,$D121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R121" s="60"/>
       <c r="S121" s="53" t="str">
-        <f t="shared" ref="S121" si="55">IF($E121=5,$B121," ")</f>
+        <f>IF($E121=5,$B121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T121" s="59" t="str">
-        <f t="shared" ref="T121" si="56">IF($E121=5,$D121," ")</f>
+        <f>IF($E121=5,$D121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U121" s="5"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B123" s="56"/>
-      <c r="C123" s="56"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="59"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="59"/>
-      <c r="L123" s="60"/>
-      <c r="M123" s="53"/>
-      <c r="N123" s="59"/>
-      <c r="O123" s="60"/>
-      <c r="P123" s="53"/>
-      <c r="Q123" s="59"/>
-      <c r="R123" s="60"/>
-      <c r="S123" s="53"/>
-      <c r="T123" s="59"/>
-      <c r="U123" s="5"/>
-    </row>
-    <row r="124" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="66"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="69"/>
-      <c r="J124" s="71"/>
-      <c r="L124" s="69"/>
-      <c r="O124" s="69"/>
-      <c r="R124" s="69"/>
-      <c r="U124" s="69"/>
-      <c r="W124" s="68"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" s="54">
+        <v>1</v>
+      </c>
+      <c r="E122" s="54">
+        <v>7</v>
+      </c>
+      <c r="G122" s="53" t="str">
+        <f t="shared" ref="G122" si="47">IF($E122=1,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H122" s="59" t="str">
+        <f t="shared" ref="H122" si="48">IF($E122=1,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I122" s="60"/>
+      <c r="J122" s="53" t="str">
+        <f t="shared" ref="J122" si="49">IF($E122=2,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K122" s="59" t="str">
+        <f t="shared" ref="K122" si="50">IF($E122=2,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L122" s="60"/>
+      <c r="M122" s="53" t="str">
+        <f t="shared" ref="M122" si="51">IF($E122=3,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N122" s="59" t="str">
+        <f t="shared" ref="N122" si="52">IF($E122=3,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O122" s="60"/>
+      <c r="P122" s="53" t="str">
+        <f t="shared" ref="P122" si="53">IF($E122=4,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q122" s="59" t="str">
+        <f t="shared" ref="Q122" si="54">IF($E122=4,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R122" s="60"/>
+      <c r="S122" s="53" t="str">
+        <f t="shared" ref="S122" si="55">IF($E122=5,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T122" s="59" t="str">
+        <f t="shared" ref="T122" si="56">IF($E122=5,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U122" s="5"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B124" s="56"/>
+      <c r="C124" s="56"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="59"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="59"/>
+      <c r="L124" s="60"/>
+      <c r="M124" s="53"/>
+      <c r="N124" s="59"/>
+      <c r="O124" s="60"/>
+      <c r="P124" s="53"/>
+      <c r="Q124" s="59"/>
+      <c r="R124" s="60"/>
+      <c r="S124" s="53"/>
+      <c r="T124" s="59"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="39"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="66"/>
+      <c r="H125" s="68"/>
+      <c r="I125" s="69"/>
+      <c r="J125" s="71"/>
+      <c r="L125" s="69"/>
+      <c r="O125" s="69"/>
+      <c r="R125" s="69"/>
+      <c r="U125" s="69"/>
+      <c r="W125" s="68"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B125" s="72"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="58"/>
-      <c r="F125" s="53" t="str">
-        <f t="shared" ref="F125:G145" si="57">IF($E125=1,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G125" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H125" s="59" t="str">
-        <f t="shared" ref="H125:H148" si="58">IF($E125=1,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I125" s="60"/>
-      <c r="J125" s="53" t="str">
-        <f t="shared" ref="J125:J148" si="59">IF($E125=2,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K125" s="59" t="str">
-        <f t="shared" ref="K125:K148" si="60">IF($E125=2,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L125" s="60"/>
-      <c r="M125" s="53" t="str">
-        <f t="shared" ref="M125:M148" si="61">IF($E125=3,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N125" s="59" t="str">
-        <f t="shared" ref="N125:N148" si="62">IF($E125=3,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O125" s="60"/>
-      <c r="P125" s="53" t="str">
-        <f t="shared" ref="P125:P148" si="63">IF($E125=4,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q125" s="59" t="str">
-        <f t="shared" ref="Q125:Q148" si="64">IF($E125=4,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R125" s="60"/>
-      <c r="S125" s="53" t="str">
-        <f t="shared" ref="S125:S148" si="65">IF($E125=5,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T125" s="59" t="str">
-        <f t="shared" ref="T125:T148" si="66">IF($E125=5,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B126" s="52" t="s">
-        <v>229</v>
-      </c>
+      <c r="B126" s="72"/>
       <c r="C126" s="72"/>
-      <c r="D126" s="79">
-        <v>1</v>
-      </c>
-      <c r="E126" s="54">
-        <v>1</v>
-      </c>
+      <c r="D126" s="58"/>
       <c r="F126" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v>前2天内容调整-测试版本配置，debug</v>
+        <f t="shared" ref="F126:G146" si="57">IF($E126=1,$B126," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G126" s="53" t="str">
         <f t="shared" si="57"/>
-        <v>前2天内容调整-测试版本配置，debug</v>
-      </c>
-      <c r="H126" s="59">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H126" s="59" t="str">
+        <f t="shared" ref="H126:H149" si="58">IF($E126=1,$D126," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I126" s="60"/>
       <c r="J126" s="53" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="J126:J149" si="59">IF($E126=2,$B126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K126" s="59" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="K126:K149" si="60">IF($E126=2,$D126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L126" s="60"/>
       <c r="M126" s="53" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="M126:M149" si="61">IF($E126=3,$B126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N126" s="59" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="N126:N149" si="62">IF($E126=3,$D126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O126" s="60"/>
       <c r="P126" s="53" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="P126:P149" si="63">IF($E126=4,$B126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q126" s="59" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="Q126:Q149" si="64">IF($E126=4,$D126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R126" s="60"/>
       <c r="S126" s="53" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="S126:S149" si="65">IF($E126=5,$B126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T126" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V126" s="53" t="str">
-        <f t="shared" ref="V126:V148" si="67">IF($E126=6,$B126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W126" s="77" t="str">
-        <f t="shared" ref="W126:W148" si="68">IF($E126=6,$D126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B127" s="76" t="s">
-        <v>710</v>
+        <f t="shared" ref="T126:T149" si="66">IF($E126=5,$D126," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B127" s="52" t="s">
+        <v>229</v>
       </c>
       <c r="C127" s="72"/>
       <c r="D127" s="79">
@@ -15936,12 +15896,13 @@
       <c r="E127" s="54">
         <v>1</v>
       </c>
-      <c r="F127" s="53" t="s">
-        <v>711</v>
+      <c r="F127" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v>前2天内容调整-测试版本配置，debug</v>
       </c>
       <c r="G127" s="53" t="str">
         <f t="shared" si="57"/>
-        <v>AOE特效具体需求</v>
+        <v>前2天内容调整-测试版本配置，debug</v>
       </c>
       <c r="H127" s="59">
         <f t="shared" si="58"/>
@@ -15984,17 +15945,17 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="V127" s="53" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="V127:V149" si="67">IF($E127=6,$B127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W127" s="77" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="W127:W149" si="68">IF($E127=6,$D127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B128" s="76" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C128" s="72"/>
       <c r="D128" s="79">
@@ -16003,98 +15964,108 @@
       <c r="E128" s="54">
         <v>1</v>
       </c>
-      <c r="G128" s="53"/>
-      <c r="H128" s="59"/>
+      <c r="F128" s="53" t="s">
+        <v>711</v>
+      </c>
+      <c r="G128" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v>AOE特效具体需求</v>
+      </c>
+      <c r="H128" s="59">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
       <c r="I128" s="60"/>
-      <c r="J128" s="53"/>
-      <c r="K128" s="59"/>
+      <c r="J128" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K128" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L128" s="60"/>
-      <c r="M128" s="53"/>
-      <c r="N128" s="59"/>
+      <c r="M128" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N128" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O128" s="60"/>
-      <c r="P128" s="53"/>
-      <c r="Q128" s="59"/>
+      <c r="P128" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q128" s="59" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R128" s="60"/>
-      <c r="S128" s="53"/>
-      <c r="T128" s="59"/>
-      <c r="V128" s="53"/>
-      <c r="W128" s="77"/>
+      <c r="S128" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T128" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V128" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W128" s="77" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B129" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="C129" s="73"/>
-      <c r="D129" s="73">
+      <c r="B129" s="76" t="s">
+        <v>712</v>
+      </c>
+      <c r="C129" s="72"/>
+      <c r="D129" s="79">
         <v>1</v>
       </c>
       <c r="E129" s="54">
         <v>1</v>
       </c>
-      <c r="G129" s="53" t="str">
+      <c r="G129" s="53"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="53"/>
+      <c r="K129" s="59"/>
+      <c r="L129" s="60"/>
+      <c r="M129" s="53"/>
+      <c r="N129" s="59"/>
+      <c r="O129" s="60"/>
+      <c r="P129" s="53"/>
+      <c r="Q129" s="59"/>
+      <c r="R129" s="60"/>
+      <c r="S129" s="53"/>
+      <c r="T129" s="59"/>
+      <c r="V129" s="53"/>
+      <c r="W129" s="77"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B130" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" s="73"/>
+      <c r="D130" s="73">
+        <v>1</v>
+      </c>
+      <c r="E130" s="54">
+        <v>1</v>
+      </c>
+      <c r="G130" s="53" t="str">
         <f t="shared" si="57"/>
         <v>通天塔场景， 金钱经验试炼场景需求</v>
       </c>
-      <c r="H129" s="59">
+      <c r="H130" s="59">
         <f t="shared" si="58"/>
         <v>1</v>
-      </c>
-      <c r="I129" s="60"/>
-      <c r="J129" s="53" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K129" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L129" s="60"/>
-      <c r="M129" s="53" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N129" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O129" s="60"/>
-      <c r="P129" s="53" t="str">
-        <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q129" s="59" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R129" s="60"/>
-      <c r="S129" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T129" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V129" s="53" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W129" s="77" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B130" s="52"/>
-      <c r="C130" s="73"/>
-      <c r="D130" s="73"/>
-      <c r="G130" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H130" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
       </c>
       <c r="I130" s="60"/>
       <c r="J130" s="53" t="str">
@@ -16141,21 +16112,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="131" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
-      <c r="B131" s="52" t="s">
-        <v>73</v>
-      </c>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B131" s="52"/>
       <c r="C131" s="73"/>
-      <c r="D131" s="73">
-        <v>1</v>
-      </c>
-      <c r="E131" s="54">
-        <v>2</v>
-      </c>
-      <c r="F131" s="53" t="s">
-        <v>396</v>
-      </c>
+      <c r="D131" s="73"/>
       <c r="G131" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -16167,11 +16127,11 @@
       <c r="I131" s="60"/>
       <c r="J131" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>第三四章副本设计</v>
-      </c>
-      <c r="K131" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K131" s="59" t="str">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L131" s="60"/>
       <c r="M131" s="53" t="str">
@@ -16209,19 +16169,20 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B132" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="C132" s="72"/>
-      <c r="D132" s="58">
+    <row r="132" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="34"/>
+      <c r="B132" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="73"/>
+      <c r="D132" s="73">
         <v>1</v>
       </c>
       <c r="E132" s="54">
         <v>2</v>
       </c>
       <c r="F132" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G132" s="53" t="str">
         <f t="shared" si="57"/>
@@ -16234,7 +16195,7 @@
       <c r="I132" s="60"/>
       <c r="J132" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>技能升级逻辑和界面需求</v>
+        <v>第三四章副本设计</v>
       </c>
       <c r="K132" s="59">
         <f t="shared" si="60"/>
@@ -16277,15 +16238,18 @@
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B133" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73">
-        <v>3</v>
+      <c r="B133" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C133" s="72"/>
+      <c r="D133" s="58">
+        <v>1</v>
       </c>
       <c r="E133" s="54">
         <v>2</v>
+      </c>
+      <c r="F133" s="53" t="s">
+        <v>397</v>
       </c>
       <c r="G133" s="53" t="str">
         <f t="shared" si="57"/>
@@ -16298,11 +16262,11 @@
       <c r="I133" s="60"/>
       <c r="J133" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>第3章副本配置</v>
+        <v>技能升级逻辑和界面需求</v>
       </c>
       <c r="K133" s="59">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L133" s="60"/>
       <c r="M133" s="53" t="str">
@@ -16340,19 +16304,16 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B134" s="52" t="s">
-        <v>398</v>
+        <v>223</v>
       </c>
       <c r="C134" s="73"/>
       <c r="D134" s="73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E134" s="54">
         <v>2</v>
-      </c>
-      <c r="F134" s="53" t="s">
-        <v>693</v>
       </c>
       <c r="G134" s="53" t="str">
         <f t="shared" si="57"/>
@@ -16365,11 +16326,11 @@
       <c r="I134" s="60"/>
       <c r="J134" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>总体怪投放修改</v>
+        <v>第3章副本配置</v>
       </c>
       <c r="K134" s="59">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L134" s="60"/>
       <c r="M134" s="53" t="str">
@@ -16407,10 +16368,20 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B135" s="52"/>
+    <row r="135" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B135" s="52" t="s">
+        <v>398</v>
+      </c>
       <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
+      <c r="D135" s="73">
+        <v>1</v>
+      </c>
+      <c r="E135" s="54">
+        <v>2</v>
+      </c>
+      <c r="F135" s="53" t="s">
+        <v>693</v>
+      </c>
       <c r="G135" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -16422,11 +16393,11 @@
       <c r="I135" s="60"/>
       <c r="J135" s="53" t="str">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K135" s="59" t="str">
+        <v>总体怪投放修改</v>
+      </c>
+      <c r="K135" s="59">
         <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="L135" s="60"/>
       <c r="M135" s="53" t="str">
@@ -16464,21 +16435,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
-      <c r="B136" s="52" t="s">
-        <v>222</v>
-      </c>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B136" s="52"/>
       <c r="C136" s="73"/>
-      <c r="D136" s="73">
-        <v>2</v>
-      </c>
-      <c r="E136" s="54">
-        <v>3</v>
-      </c>
-      <c r="F136" s="53" t="s">
-        <v>120</v>
-      </c>
+      <c r="D136" s="73"/>
       <c r="G136" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -16499,11 +16459,11 @@
       <c r="L136" s="60"/>
       <c r="M136" s="53" t="str">
         <f t="shared" si="61"/>
-        <v>第3章副本-debug</v>
-      </c>
-      <c r="N136" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N136" s="59" t="str">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O136" s="60"/>
       <c r="P136" s="53" t="str">
@@ -16534,17 +16494,19 @@
     </row>
     <row r="137" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="34"/>
-      <c r="B137" s="5" t="s">
-        <v>224</v>
+      <c r="B137" s="52" t="s">
+        <v>222</v>
       </c>
       <c r="C137" s="73"/>
       <c r="D137" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E137" s="54">
         <v>3</v>
       </c>
-      <c r="F137" s="53"/>
+      <c r="F137" s="53" t="s">
+        <v>120</v>
+      </c>
       <c r="G137" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -16565,11 +16527,11 @@
       <c r="L137" s="60"/>
       <c r="M137" s="53" t="str">
         <f t="shared" si="61"/>
-        <v>第4章副本配置</v>
+        <v>第3章副本-debug</v>
       </c>
       <c r="N137" s="59">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O137" s="60"/>
       <c r="P137" s="53" t="str">
@@ -16600,10 +16562,16 @@
     </row>
     <row r="138" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="34"/>
-      <c r="B138" s="5"/>
+      <c r="B138" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="C138" s="73"/>
-      <c r="D138" s="73"/>
-      <c r="E138" s="54"/>
+      <c r="D138" s="73">
+        <v>3</v>
+      </c>
+      <c r="E138" s="54">
+        <v>3</v>
+      </c>
       <c r="F138" s="53"/>
       <c r="G138" s="53" t="str">
         <f t="shared" si="57"/>
@@ -16625,11 +16593,11 @@
       <c r="L138" s="60"/>
       <c r="M138" s="53" t="str">
         <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N138" s="59" t="str">
+        <v>第4章副本配置</v>
+      </c>
+      <c r="N138" s="59">
         <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="O138" s="60"/>
       <c r="P138" s="53" t="str">
@@ -16658,18 +16626,13 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="139" spans="1:23" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="52" t="s">
-        <v>399</v>
-      </c>
-      <c r="C139" s="74"/>
-      <c r="D139" s="75">
-        <v>4</v>
-      </c>
-      <c r="E139" s="33">
-        <v>4</v>
-      </c>
+    <row r="139" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="34"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="73"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="54"/>
+      <c r="F139" s="53"/>
       <c r="G139" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -16699,11 +16662,11 @@
       <c r="O139" s="60"/>
       <c r="P139" s="53" t="str">
         <f t="shared" si="63"/>
-        <v>通天塔-试炼之塔 - Boss副本设计（4Boss,16普通）</v>
-      </c>
-      <c r="Q139" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q139" s="59" t="str">
         <f t="shared" si="64"/>
-        <v>4</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R139" s="60"/>
       <c r="S139" s="53" t="str">
@@ -16714,7 +16677,6 @@
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U139" s="9"/>
       <c r="V139" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
@@ -16724,19 +16686,18 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
+    <row r="140" spans="1:23" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A140" s="36"/>
       <c r="B140" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C140" s="73"/>
-      <c r="D140" s="73">
-        <v>2</v>
-      </c>
-      <c r="E140" s="54">
+        <v>399</v>
+      </c>
+      <c r="C140" s="74"/>
+      <c r="D140" s="75">
         <v>4</v>
       </c>
-      <c r="F140" s="53"/>
+      <c r="E140" s="33">
+        <v>4</v>
+      </c>
       <c r="G140" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -16766,11 +16727,11 @@
       <c r="O140" s="60"/>
       <c r="P140" s="53" t="str">
         <f t="shared" si="63"/>
-        <v>第4章副本-debug</v>
+        <v>通天塔-试炼之塔 - Boss副本设计（4Boss,16普通）</v>
       </c>
       <c r="Q140" s="59">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R140" s="60"/>
       <c r="S140" s="53" t="str">
@@ -16781,6 +16742,7 @@
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="U140" s="9"/>
       <c r="V140" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
@@ -16790,7 +16752,19 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="34"/>
+      <c r="B141" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C141" s="73"/>
+      <c r="D141" s="73">
+        <v>2</v>
+      </c>
+      <c r="E141" s="54">
+        <v>4</v>
+      </c>
+      <c r="F141" s="53"/>
       <c r="G141" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -16820,11 +16794,11 @@
       <c r="O141" s="60"/>
       <c r="P141" s="53" t="str">
         <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q141" s="59" t="str">
+        <v>第4章副本-debug</v>
+      </c>
+      <c r="Q141" s="59">
         <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="R141" s="60"/>
       <c r="S141" s="53" t="str">
@@ -16845,15 +16819,6 @@
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B142" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D142" s="73">
-        <v>2</v>
-      </c>
-      <c r="E142" s="54">
-        <v>5</v>
-      </c>
       <c r="G142" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -16892,11 +16857,11 @@
       <c r="R142" s="60"/>
       <c r="S142" s="53" t="str">
         <f t="shared" si="65"/>
-        <v>金钱，经验副本数值设计</v>
-      </c>
-      <c r="T142" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T142" s="59" t="str">
         <f t="shared" si="66"/>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="V142" s="53" t="str">
         <f t="shared" si="67"/>
@@ -16909,10 +16874,10 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
-        <v>219</v>
+        <v>400</v>
       </c>
       <c r="D143" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E143" s="54">
         <v>5</v>
@@ -16955,11 +16920,11 @@
       <c r="R143" s="60"/>
       <c r="S143" s="53" t="str">
         <f t="shared" si="65"/>
-        <v>通天塔-金钱，经验副本配置</v>
+        <v>金钱，经验副本数值设计</v>
       </c>
       <c r="T143" s="59">
         <f t="shared" si="66"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V143" s="53" t="str">
         <f t="shared" si="67"/>
@@ -16971,7 +16936,15 @@
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D144" s="73"/>
+      <c r="B144" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D144" s="73">
+        <v>3</v>
+      </c>
+      <c r="E144" s="54">
+        <v>5</v>
+      </c>
       <c r="G144" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17010,11 +16983,11 @@
       <c r="R144" s="60"/>
       <c r="S144" s="53" t="str">
         <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T144" s="59" t="str">
+        <v>通天塔-金钱，经验副本配置</v>
+      </c>
+      <c r="T144" s="59">
         <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="V144" s="53" t="str">
         <f t="shared" si="67"/>
@@ -17025,21 +16998,8 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A145" s="34"/>
-      <c r="B145" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C145" s="52"/>
-      <c r="D145" s="73">
-        <v>2</v>
-      </c>
-      <c r="E145" s="54">
-        <v>6</v>
-      </c>
-      <c r="F145" s="53" t="s">
-        <v>93</v>
-      </c>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D145" s="73"/>
       <c r="G145" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17086,30 +17046,30 @@
       </c>
       <c r="V145" s="53" t="str">
         <f t="shared" si="67"/>
-        <v>通天塔-金钱，经验副本配置-debug</v>
-      </c>
-      <c r="W145" s="77">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W145" s="77" t="str">
         <f t="shared" si="68"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A146" s="34"/>
-      <c r="B146" s="56" t="s">
-        <v>401</v>
+      <c r="B146" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="C146" s="52"/>
       <c r="D146" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" s="54">
         <v>6</v>
       </c>
       <c r="F146" s="53" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="G146" s="53" t="str">
-        <f t="shared" ref="G146:G148" si="69">IF($E146=1,$B146," ")</f>
+        <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H146" s="59" t="str">
@@ -17154,190 +17114,239 @@
       </c>
       <c r="V146" s="53" t="str">
         <f t="shared" si="67"/>
-        <v>通天塔 - 试炼之塔 - 配置</v>
+        <v>通天塔-金钱，经验副本配置-debug</v>
       </c>
       <c r="W146" s="77">
         <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="34"/>
+      <c r="B147" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="C147" s="52"/>
+      <c r="D147" s="73">
         <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B147" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D147" s="73">
-        <v>4</v>
       </c>
       <c r="E147" s="54">
         <v>6</v>
       </c>
+      <c r="F147" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="G147" s="53" t="str">
-        <f t="shared" si="69"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H147" s="57" t="str">
+        <f t="shared" ref="G147:G149" si="69">IF($E147=1,$B147," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H147" s="59" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I147" s="60"/>
       <c r="J147" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K147" s="90" t="str">
+      <c r="K147" s="59" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L147" s="60"/>
       <c r="M147" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N147" s="90" t="str">
+      <c r="N147" s="59" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O147" s="60"/>
       <c r="P147" s="53" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q147" s="90" t="str">
+      <c r="Q147" s="59" t="str">
         <f t="shared" si="64"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="R147" s="60"/>
       <c r="S147" s="53" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T147" s="90" t="str">
+      <c r="T147" s="59" t="str">
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V147" s="53" t="str">
         <f t="shared" si="67"/>
+        <v>通天塔 - 试炼之塔 - 配置</v>
+      </c>
+      <c r="W147" s="77">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D148" s="73">
+        <v>4</v>
+      </c>
+      <c r="E148" s="54">
+        <v>6</v>
+      </c>
+      <c r="G148" s="53" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H148" s="57" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J148" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K148" s="90" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M148" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N148" s="90" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P148" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q148" s="90" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S148" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T148" s="90" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V148" s="53" t="str">
+        <f t="shared" si="67"/>
         <v>5-6章Boss设计</v>
       </c>
-      <c r="W147" s="57">
+      <c r="W148" s="57">
         <f t="shared" si="68"/>
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G148" s="53" t="str">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G149" s="53" t="str">
         <f t="shared" si="69"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H148" s="59" t="str">
+      <c r="H149" s="59" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I148" s="60"/>
-      <c r="J148" s="53" t="str">
+      <c r="I149" s="60"/>
+      <c r="J149" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K148" s="59" t="str">
+      <c r="K149" s="59" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L148" s="60"/>
-      <c r="M148" s="53" t="str">
+      <c r="L149" s="60"/>
+      <c r="M149" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N148" s="59" t="str">
+      <c r="N149" s="59" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O148" s="60"/>
-      <c r="P148" s="53" t="str">
+      <c r="O149" s="60"/>
+      <c r="P149" s="53" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q148" s="59" t="str">
+      <c r="Q149" s="59" t="str">
         <f t="shared" si="64"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R148" s="60"/>
-      <c r="S148" s="53" t="str">
+      <c r="R149" s="60"/>
+      <c r="S149" s="53" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T148" s="59" t="str">
+      <c r="T149" s="59" t="str">
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V148" s="53" t="str">
+      <c r="V149" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W148" s="77" t="str">
+      <c r="W149" s="77" t="str">
         <f t="shared" si="68"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="37" t="s">
+    <row r="150" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="C149" s="37"/>
-      <c r="D149" s="35">
-        <f>SUM(D127:D148)</f>
+      <c r="C150" s="37"/>
+      <c r="D150" s="35">
+        <f>SUM(D128:D149)</f>
         <v>34</v>
       </c>
-      <c r="E149" s="35"/>
-      <c r="F149" s="36"/>
-      <c r="H149" s="35">
-        <f>SUM(H126:H148)</f>
+      <c r="E150" s="35"/>
+      <c r="F150" s="36"/>
+      <c r="H150" s="35">
+        <f>SUM(H127:H149)</f>
         <v>3</v>
       </c>
-      <c r="I149" s="38"/>
-      <c r="K149" s="35">
-        <f>SUM(K127:K148)</f>
+      <c r="I150" s="38"/>
+      <c r="K150" s="35">
+        <f>SUM(K128:K149)</f>
         <v>6</v>
       </c>
-      <c r="L149" s="38"/>
-      <c r="N149" s="35">
-        <f>SUM(N127:N148)</f>
+      <c r="L150" s="38"/>
+      <c r="N150" s="35">
+        <f>SUM(N128:N149)</f>
         <v>5</v>
       </c>
-      <c r="O149" s="38"/>
-      <c r="Q149" s="35">
-        <f>SUM(Q127:Q148)</f>
+      <c r="O150" s="38"/>
+      <c r="Q150" s="35">
+        <f>SUM(Q128:Q149)</f>
         <v>6</v>
       </c>
-      <c r="R149" s="38"/>
-      <c r="T149" s="35">
-        <f>SUM(T127:T148)</f>
+      <c r="R150" s="38"/>
+      <c r="T150" s="35">
+        <f>SUM(T128:T149)</f>
         <v>5</v>
       </c>
-      <c r="U149" s="38"/>
-      <c r="W149" s="35">
-        <f>SUM(W127:W148)</f>
+      <c r="U150" s="38"/>
+      <c r="W150" s="35">
+        <f>SUM(W128:W149)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B151" s="73" t="s">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B152" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="C151" s="73"/>
-      <c r="D151" s="73"/>
-      <c r="G151" s="53"/>
-      <c r="H151" s="59"/>
-      <c r="I151" s="60"/>
-      <c r="J151" s="53"/>
-      <c r="K151" s="59"/>
-      <c r="L151" s="60"/>
-      <c r="M151" s="53"/>
-      <c r="N151" s="59"/>
-      <c r="O151" s="60"/>
-      <c r="P151" s="53"/>
-      <c r="Q151" s="59"/>
-      <c r="R151" s="60"/>
-      <c r="S151" s="53"/>
-      <c r="T151" s="59"/>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B152" s="73"/>
       <c r="C152" s="73"/>
       <c r="D152" s="73"/>
       <c r="G152" s="53"/>
@@ -17356,16 +17365,9 @@
       <c r="T152" s="59"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B153" s="73" t="s">
-        <v>707</v>
-      </c>
+      <c r="B153" s="73"/>
       <c r="C153" s="73"/>
-      <c r="D153" s="73">
-        <v>3</v>
-      </c>
-      <c r="E153" s="54">
-        <v>7</v>
-      </c>
+      <c r="D153" s="73"/>
       <c r="G153" s="53"/>
       <c r="H153" s="59"/>
       <c r="I153" s="60"/>
@@ -17382,79 +17384,41 @@
       <c r="T153" s="59"/>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="73" t="s">
+        <v>707</v>
+      </c>
+      <c r="C154" s="73"/>
+      <c r="D154" s="73">
+        <v>3</v>
+      </c>
+      <c r="E154" s="54">
+        <v>7</v>
+      </c>
+      <c r="G154" s="53"/>
+      <c r="H154" s="59"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="53"/>
+      <c r="K154" s="59"/>
+      <c r="L154" s="60"/>
+      <c r="M154" s="53"/>
+      <c r="N154" s="59"/>
+      <c r="O154" s="60"/>
+      <c r="P154" s="53"/>
+      <c r="Q154" s="59"/>
+      <c r="R154" s="60"/>
+      <c r="S154" s="53"/>
+      <c r="T154" s="59"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D154" s="54">
+      <c r="D155" s="54">
         <v>4</v>
       </c>
-      <c r="E154" s="54">
+      <c r="E155" s="54">
         <v>6</v>
       </c>
-      <c r="G154" s="53" t="str">
-        <f>IF($E154=1,$B154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H154" s="59" t="str">
-        <f>IF($E154=1,$D154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I154" s="60"/>
-      <c r="J154" s="53" t="str">
-        <f>IF($E154=2,$B154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K154" s="59" t="str">
-        <f>IF($E154=2,$D154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L154" s="60"/>
-      <c r="M154" s="53" t="str">
-        <f>IF($E154=3,$B154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N154" s="59" t="str">
-        <f>IF($E154=3,$D154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O154" s="60"/>
-      <c r="P154" s="53" t="str">
-        <f>IF($E154=4,$B154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q154" s="59" t="str">
-        <f>IF($E154=4,$D154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R154" s="60"/>
-      <c r="S154" s="53" t="str">
-        <f>IF($E154=5,$B154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T154" s="59" t="str">
-        <f>IF($E154=5,$D154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V154" s="53" t="str">
-        <f>IF($E154=6,$B154," ")</f>
-        <v>1-2章困难副本数值设计</v>
-      </c>
-      <c r="W154" s="77">
-        <f>IF($E154=6,$D154," ")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
-      <c r="B155" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C155" s="73"/>
-      <c r="D155" s="73">
-        <v>3</v>
-      </c>
-      <c r="E155" s="54"/>
-      <c r="F155" s="53"/>
       <c r="G155" s="53" t="str">
         <f>IF($E155=1,$B155," ")</f>
         <v xml:space="preserve"> </v>
@@ -17499,16 +17463,26 @@
         <f>IF($E155=5,$D155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V155" s="5"/>
-      <c r="W155" s="57"/>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V155" s="53" t="str">
+        <f>IF($E155=6,$B155," ")</f>
+        <v>1-2章困难副本数值设计</v>
+      </c>
+      <c r="W155" s="77">
+        <f>IF($E155=6,$D155," ")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="34"/>
       <c r="B156" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D156" s="54">
+        <v>221</v>
+      </c>
+      <c r="C156" s="73"/>
+      <c r="D156" s="73">
         <v>3</v>
       </c>
+      <c r="E156" s="54"/>
+      <c r="F156" s="53"/>
       <c r="G156" s="53" t="str">
         <f>IF($E156=1,$B156," ")</f>
         <v xml:space="preserve"> </v>
@@ -17553,13 +17527,15 @@
         <f>IF($E156=5,$D156," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="V156" s="5"/>
+      <c r="W156" s="57"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B157" s="52" t="s">
-        <v>404</v>
-      </c>
-      <c r="D157" s="61">
-        <v>6</v>
+      <c r="B157" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D157" s="54">
+        <v>3</v>
       </c>
       <c r="G157" s="53" t="str">
         <f>IF($E157=1,$B157," ")</f>
@@ -17606,422 +17582,411 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="158" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="34"/>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B158" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="D158" s="61">
+        <v>6</v>
+      </c>
+      <c r="G158" s="53" t="str">
+        <f>IF($E158=1,$B158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H158" s="59" t="str">
+        <f>IF($E158=1,$D158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I158" s="60"/>
+      <c r="J158" s="53" t="str">
+        <f>IF($E158=2,$B158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K158" s="59" t="str">
+        <f>IF($E158=2,$D158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L158" s="60"/>
+      <c r="M158" s="53" t="str">
+        <f>IF($E158=3,$B158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N158" s="59" t="str">
+        <f>IF($E158=3,$D158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O158" s="60"/>
+      <c r="P158" s="53" t="str">
+        <f>IF($E158=4,$B158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q158" s="59" t="str">
+        <f>IF($E158=4,$D158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R158" s="60"/>
+      <c r="S158" s="53" t="str">
+        <f>IF($E158=5,$B158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T158" s="59" t="str">
+        <f>IF($E158=5,$D158," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="34"/>
+      <c r="B159" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="61">
+      <c r="C159" s="5"/>
+      <c r="D159" s="61">
         <v>12</v>
       </c>
-      <c r="E158" s="54"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="53"/>
-      <c r="H158" s="59"/>
-      <c r="I158" s="60"/>
-      <c r="J158" s="53"/>
-      <c r="K158" s="59"/>
-      <c r="L158" s="60"/>
-      <c r="M158" s="53"/>
-      <c r="N158" s="59"/>
-      <c r="O158" s="60"/>
-      <c r="P158" s="53"/>
-      <c r="Q158" s="59"/>
-      <c r="R158" s="60"/>
-      <c r="S158" s="53"/>
-      <c r="T158" s="59"/>
-      <c r="V158" s="5"/>
-      <c r="W158" s="57"/>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B160" s="37" t="s">
+      <c r="E159" s="54"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="53"/>
+      <c r="H159" s="59"/>
+      <c r="I159" s="60"/>
+      <c r="J159" s="53"/>
+      <c r="K159" s="59"/>
+      <c r="L159" s="60"/>
+      <c r="M159" s="53"/>
+      <c r="N159" s="59"/>
+      <c r="O159" s="60"/>
+      <c r="P159" s="53"/>
+      <c r="Q159" s="59"/>
+      <c r="R159" s="60"/>
+      <c r="S159" s="53"/>
+      <c r="T159" s="59"/>
+      <c r="V159" s="5"/>
+      <c r="W159" s="57"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B161" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="D160" s="35">
-        <f>SUM(D155:D159)</f>
+      <c r="D161" s="35">
+        <f>SUM(D156:D160)</f>
         <v>24</v>
       </c>
-      <c r="F160" s="53" t="str">
-        <f t="shared" ref="F160:T160" si="70">IF($E160=1,$B160," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G160" s="53" t="str">
+      <c r="F161" s="53" t="str">
+        <f t="shared" ref="F161:T161" si="70">IF($E161=1,$B161," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H160" s="77" t="str">
+      <c r="H161" s="77" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I160" s="53" t="str">
+      <c r="I161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J160" s="53" t="str">
+      <c r="J161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K160" s="53" t="str">
+      <c r="K161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L160" s="53" t="str">
+      <c r="L161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M160" s="53" t="str">
+      <c r="M161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N160" s="53" t="str">
+      <c r="N161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O160" s="53" t="str">
+      <c r="O161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P160" s="53" t="str">
+      <c r="P161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q160" s="53" t="str">
+      <c r="Q161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R160" s="53" t="str">
+      <c r="R161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S160" s="53" t="str">
+      <c r="S161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T160" s="53" t="str">
+      <c r="T161" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="162" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D162" s="65"/>
-      <c r="E162" s="65"/>
-      <c r="F162" s="66"/>
-      <c r="H162" s="68"/>
-      <c r="I162" s="69"/>
-      <c r="L162" s="69"/>
-      <c r="O162" s="69"/>
-      <c r="R162" s="69"/>
-      <c r="U162" s="69"/>
-      <c r="W162" s="68"/>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A163" s="34" t="s">
+    <row r="163" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="65"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="66"/>
+      <c r="H163" s="68"/>
+      <c r="I163" s="69"/>
+      <c r="L163" s="69"/>
+      <c r="O163" s="69"/>
+      <c r="R163" s="69"/>
+      <c r="U163" s="69"/>
+      <c r="W163" s="68"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A164" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="B163" s="75"/>
-      <c r="C163" s="75"/>
-      <c r="D163" s="75"/>
-      <c r="G163" s="75"/>
-      <c r="H163" s="78"/>
-      <c r="I163" s="60"/>
-      <c r="J163" s="52"/>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B164" s="52" t="s">
+      <c r="B164" s="75"/>
+      <c r="C164" s="75"/>
+      <c r="D164" s="75"/>
+      <c r="G164" s="75"/>
+      <c r="H164" s="78"/>
+      <c r="I164" s="60"/>
+      <c r="J164" s="52"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B165" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="C164" s="75"/>
-      <c r="D164" s="75">
+      <c r="C165" s="75"/>
+      <c r="D165" s="75">
         <v>1</v>
-      </c>
-      <c r="E164" s="54">
-        <v>1</v>
-      </c>
-      <c r="G164" s="53" t="str">
-        <f t="shared" ref="G164:G187" si="71">IF($E164=1,$B164," ")</f>
-        <v>前2天内容调整-测试版本配置，debug</v>
-      </c>
-      <c r="H164" s="59">
-        <f t="shared" ref="H164:H187" si="72">IF($E164=1,$D164," ")</f>
-        <v>1</v>
-      </c>
-      <c r="I164" s="60"/>
-      <c r="J164" s="53" t="str">
-        <f t="shared" ref="J164:J187" si="73">IF($E164=2,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K164" s="59" t="str">
-        <f t="shared" ref="K164:K187" si="74">IF($E164=2,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L164" s="60"/>
-      <c r="M164" s="53" t="str">
-        <f t="shared" ref="M164:M187" si="75">IF($E164=3,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N164" s="59" t="str">
-        <f t="shared" ref="N164:N187" si="76">IF($E164=3,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O164" s="60"/>
-      <c r="P164" s="53" t="str">
-        <f t="shared" ref="P164:P187" si="77">IF($E164=4,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q164" s="59" t="str">
-        <f t="shared" ref="Q164:Q187" si="78">IF($E164=4,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R164" s="60"/>
-      <c r="S164" s="53" t="str">
-        <f t="shared" ref="S164:S187" si="79">IF($E164=5,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T164" s="59" t="str">
-        <f t="shared" ref="T164:T187" si="80">IF($E164=5,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V164" s="53" t="str">
-        <f t="shared" ref="V164:V187" si="81">IF($E164=6,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W164" s="77" t="str">
-        <f t="shared" ref="W164:W187" si="82">IF($E164=6,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B165" s="52" t="s">
-        <v>692</v>
-      </c>
-      <c r="D165" s="54">
-        <v>0.5</v>
       </c>
       <c r="E165" s="54">
         <v>1</v>
       </c>
-      <c r="F165" s="53" t="s">
+      <c r="G165" s="53" t="str">
+        <f t="shared" ref="G165:G188" si="71">IF($E165=1,$B165," ")</f>
+        <v>前2天内容调整-测试版本配置，debug</v>
+      </c>
+      <c r="H165" s="59">
+        <f t="shared" ref="H165:H188" si="72">IF($E165=1,$D165," ")</f>
+        <v>1</v>
+      </c>
+      <c r="I165" s="60"/>
+      <c r="J165" s="53" t="str">
+        <f t="shared" ref="J165:J188" si="73">IF($E165=2,$B165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K165" s="59" t="str">
+        <f t="shared" ref="K165:K188" si="74">IF($E165=2,$D165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L165" s="60"/>
+      <c r="M165" s="53" t="str">
+        <f t="shared" ref="M165:M188" si="75">IF($E165=3,$B165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N165" s="59" t="str">
+        <f t="shared" ref="N165:N188" si="76">IF($E165=3,$D165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O165" s="60"/>
+      <c r="P165" s="53" t="str">
+        <f t="shared" ref="P165:P188" si="77">IF($E165=4,$B165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q165" s="59" t="str">
+        <f t="shared" ref="Q165:Q188" si="78">IF($E165=4,$D165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R165" s="60"/>
+      <c r="S165" s="53" t="str">
+        <f t="shared" ref="S165:S188" si="79">IF($E165=5,$B165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T165" s="59" t="str">
+        <f t="shared" ref="T165:T188" si="80">IF($E165=5,$D165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V165" s="53" t="str">
+        <f t="shared" ref="V165:V188" si="81">IF($E165=6,$B165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W165" s="77" t="str">
+        <f t="shared" ref="W165:W188" si="82">IF($E165=6,$D165," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B166" s="52" t="s">
+        <v>692</v>
+      </c>
+      <c r="D166" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E166" s="54">
+        <v>1</v>
+      </c>
+      <c r="F166" s="53" t="s">
         <v>694</v>
       </c>
-      <c r="G165" s="53" t="str">
+      <c r="G166" s="53" t="str">
         <f t="shared" si="71"/>
         <v>道具指引回归</v>
       </c>
-      <c r="H165" s="59">
+      <c r="H166" s="59">
         <f t="shared" si="72"/>
         <v>0.5</v>
       </c>
-      <c r="I165" s="60"/>
-      <c r="J165" s="53" t="str">
+      <c r="I166" s="60"/>
+      <c r="J166" s="53" t="str">
         <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K165" s="59" t="str">
+      <c r="K166" s="59" t="str">
         <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L165" s="60"/>
-      <c r="M165" s="53" t="str">
+      <c r="L166" s="60"/>
+      <c r="M166" s="53" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N165" s="59" t="str">
+      <c r="N166" s="59" t="str">
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O165" s="60"/>
-      <c r="P165" s="53" t="str">
+      <c r="O166" s="60"/>
+      <c r="P166" s="53" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q165" s="59" t="str">
+      <c r="Q166" s="59" t="str">
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R165" s="60"/>
-      <c r="S165" s="53" t="str">
+      <c r="R166" s="60"/>
+      <c r="S166" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T165" s="59" t="str">
+      <c r="T166" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V165" s="53" t="str">
+      <c r="V166" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W165" s="77" t="str">
+      <c r="W166" s="77" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B166" s="52" t="s">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B167" s="52" t="s">
         <v>701</v>
       </c>
-      <c r="D166" s="54">
+      <c r="D167" s="54">
         <v>1</v>
       </c>
-      <c r="E166" s="54">
+      <c r="E167" s="54">
         <v>1</v>
       </c>
-      <c r="G166" s="53" t="str">
+      <c r="G167" s="53" t="str">
         <f t="shared" si="71"/>
         <v>商店内容设计</v>
       </c>
-      <c r="H166" s="59">
+      <c r="H167" s="59">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
-      <c r="I166" s="60"/>
-      <c r="J166" s="53"/>
-      <c r="K166" s="59"/>
-      <c r="L166" s="60"/>
-      <c r="M166" s="53"/>
-      <c r="N166" s="59"/>
-      <c r="O166" s="60"/>
-      <c r="P166" s="53"/>
-      <c r="Q166" s="59"/>
-      <c r="R166" s="60"/>
-      <c r="S166" s="53"/>
-      <c r="T166" s="59"/>
-      <c r="V166" s="53"/>
-      <c r="W166" s="77"/>
-    </row>
-    <row r="167" spans="1:23" ht="85" x14ac:dyDescent="0.25">
-      <c r="B167" s="52" t="s">
+      <c r="I167" s="60"/>
+      <c r="J167" s="53"/>
+      <c r="K167" s="59"/>
+      <c r="L167" s="60"/>
+      <c r="M167" s="53"/>
+      <c r="N167" s="59"/>
+      <c r="O167" s="60"/>
+      <c r="P167" s="53"/>
+      <c r="Q167" s="59"/>
+      <c r="R167" s="60"/>
+      <c r="S167" s="53"/>
+      <c r="T167" s="59"/>
+      <c r="V167" s="53"/>
+      <c r="W167" s="77"/>
+    </row>
+    <row r="168" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+      <c r="B168" s="52" t="s">
         <v>407</v>
       </c>
-      <c r="D167" s="54">
+      <c r="D168" s="54">
         <v>3</v>
       </c>
-      <c r="E167" s="54">
+      <c r="E168" s="54">
         <v>2</v>
       </c>
-      <c r="F167" s="53" t="s">
-        <v>724</v>
-      </c>
-      <c r="G167" s="53" t="str">
+      <c r="F168" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="G168" s="53" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H167" s="59" t="str">
+      <c r="H168" s="59" t="str">
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I167" s="60"/>
-      <c r="J167" s="53" t="str">
+      <c r="I168" s="60"/>
+      <c r="J168" s="53" t="str">
         <f t="shared" si="73"/>
         <v>4个章节相关数值设计补漏</v>
       </c>
-      <c r="K167" s="59">
+      <c r="K168" s="59">
         <f t="shared" si="74"/>
         <v>3</v>
       </c>
-      <c r="L167" s="60"/>
-      <c r="M167" s="53" t="str">
-        <f t="shared" si="75"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N167" s="59" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O167" s="60"/>
-      <c r="P167" s="53" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q167" s="59" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R167" s="60"/>
-      <c r="S167" s="53" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T167" s="59" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V167" s="53" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W167" s="77" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B168" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="D168" s="54">
-        <v>2</v>
-      </c>
-      <c r="E168" s="54">
-        <v>2</v>
-      </c>
-      <c r="G168" s="53" t="str">
-        <f>IF($E168=1,$B168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H168" s="59" t="str">
-        <f>IF($E168=1,$D168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I168" s="60"/>
-      <c r="J168" s="53" t="str">
-        <f>IF($E168=2,$B168," ")</f>
-        <v>第3 -4章副本配置Reward</v>
-      </c>
-      <c r="K168" s="59">
-        <f>IF($E168=2,$D168," ")</f>
-        <v>2</v>
-      </c>
       <c r="L168" s="60"/>
       <c r="M168" s="53" t="str">
-        <f>IF($E168=3,$B168," ")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N168" s="59" t="str">
-        <f>IF($E168=3,$D168," ")</f>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O168" s="60"/>
       <c r="P168" s="53" t="str">
-        <f>IF($E168=4,$B168," ")</f>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q168" s="59" t="str">
-        <f>IF($E168=4,$D168," ")</f>
+        <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R168" s="60"/>
       <c r="S168" s="53" t="str">
-        <f>IF($E168=5,$B168," ")</f>
+        <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T168" s="59" t="str">
-        <f>IF($E168=5,$D168," ")</f>
+        <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V168" s="53" t="str">
-        <f>IF($E168=6,$B168," ")</f>
+        <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W168" s="77" t="str">
-        <f>IF($E168=6,$D168," ")</f>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B169" s="52" t="s">
-        <v>702</v>
+        <v>408</v>
       </c>
       <c r="D169" s="54">
         <v>2</v>
@@ -18040,7 +18005,7 @@
       <c r="I169" s="60"/>
       <c r="J169" s="53" t="str">
         <f>IF($E169=2,$B169," ")</f>
-        <v>商店内容配置</v>
+        <v>第3 -4章副本配置Reward</v>
       </c>
       <c r="K169" s="59">
         <f>IF($E169=2,$D169," ")</f>
@@ -18083,99 +18048,99 @@
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B170" s="52"/>
-      <c r="G170" s="53"/>
-      <c r="H170" s="59"/>
+      <c r="B170" s="52" t="s">
+        <v>702</v>
+      </c>
+      <c r="D170" s="54">
+        <v>2</v>
+      </c>
+      <c r="E170" s="54">
+        <v>2</v>
+      </c>
+      <c r="G170" s="53" t="str">
+        <f>IF($E170=1,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H170" s="59" t="str">
+        <f>IF($E170=1,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I170" s="60"/>
-      <c r="J170" s="53"/>
-      <c r="K170" s="59"/>
+      <c r="J170" s="53" t="str">
+        <f>IF($E170=2,$B170," ")</f>
+        <v>商店内容配置</v>
+      </c>
+      <c r="K170" s="59">
+        <f>IF($E170=2,$D170," ")</f>
+        <v>2</v>
+      </c>
       <c r="L170" s="60"/>
-      <c r="M170" s="53"/>
-      <c r="N170" s="59"/>
+      <c r="M170" s="53" t="str">
+        <f>IF($E170=3,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N170" s="59" t="str">
+        <f>IF($E170=3,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O170" s="60"/>
-      <c r="P170" s="53"/>
-      <c r="Q170" s="59"/>
+      <c r="P170" s="53" t="str">
+        <f>IF($E170=4,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q170" s="59" t="str">
+        <f>IF($E170=4,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R170" s="60"/>
-      <c r="S170" s="53"/>
-      <c r="T170" s="59"/>
-      <c r="V170" s="53"/>
-      <c r="W170" s="77"/>
+      <c r="S170" s="53" t="str">
+        <f>IF($E170=5,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T170" s="59" t="str">
+        <f>IF($E170=5,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V170" s="53" t="str">
+        <f>IF($E170=6,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W170" s="77" t="str">
+        <f>IF($E170=6,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B171" s="52" t="s">
+      <c r="B171" s="52"/>
+      <c r="G171" s="53"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="60"/>
+      <c r="J171" s="53"/>
+      <c r="K171" s="59"/>
+      <c r="L171" s="60"/>
+      <c r="M171" s="53"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="60"/>
+      <c r="P171" s="53"/>
+      <c r="Q171" s="59"/>
+      <c r="R171" s="60"/>
+      <c r="S171" s="53"/>
+      <c r="T171" s="59"/>
+      <c r="V171" s="53"/>
+      <c r="W171" s="77"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B172" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="D171" s="54">
+      <c r="D172" s="54">
         <v>1</v>
-      </c>
-      <c r="E171" s="54">
-        <v>3</v>
-      </c>
-      <c r="F171" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="G171" s="53" t="str">
-        <f>IF($E171=1,$B171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H171" s="59" t="str">
-        <f>IF($E171=1,$D171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I171" s="60"/>
-      <c r="J171" s="53" t="str">
-        <f>IF($E171=2,$B171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K171" s="59" t="str">
-        <f>IF($E171=2,$D171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L171" s="60"/>
-      <c r="M171" s="53" t="str">
-        <f>IF($E171=3,$B171," ")</f>
-        <v>第3 -4章副本配置Reward - debug</v>
-      </c>
-      <c r="N171" s="59">
-        <f>IF($E171=3,$D171," ")</f>
-        <v>1</v>
-      </c>
-      <c r="O171" s="60"/>
-      <c r="P171" s="53" t="str">
-        <f>IF($E171=4,$B171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q171" s="59" t="str">
-        <f>IF($E171=4,$D171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R171" s="60"/>
-      <c r="S171" s="53" t="str">
-        <f>IF($E171=5,$B171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T171" s="59" t="str">
-        <f>IF($E171=5,$D171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V171" s="53" t="str">
-        <f>IF($E171=6,$B171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W171" s="77" t="str">
-        <f>IF($E171=6,$D171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B172" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D172" s="54">
-        <v>2</v>
       </c>
       <c r="E172" s="54">
         <v>3</v>
+      </c>
+      <c r="F172" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="G172" s="53" t="str">
         <f>IF($E172=1,$B172," ")</f>
@@ -18197,11 +18162,11 @@
       <c r="L172" s="60"/>
       <c r="M172" s="53" t="str">
         <f>IF($E172=3,$B172," ")</f>
-        <v>通天塔-金钱，经验副本配置</v>
+        <v>第3 -4章副本配置Reward - debug</v>
       </c>
       <c r="N172" s="59">
         <f>IF($E172=3,$D172," ")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O172" s="60"/>
       <c r="P172" s="53" t="str">
@@ -18231,9 +18196,8 @@
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
-      <c r="B173" s="52" t="s">
-        <v>256</v>
+      <c r="B173" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="D173" s="54">
         <v>2</v>
@@ -18241,159 +18205,156 @@
       <c r="E173" s="54">
         <v>3</v>
       </c>
-      <c r="F173" s="53" t="s">
-        <v>700</v>
-      </c>
       <c r="G173" s="53" t="str">
-        <f t="shared" si="71"/>
+        <f>IF($E173=1,$B173," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H173" s="59" t="str">
-        <f t="shared" si="72"/>
+        <f>IF($E173=1,$D173," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I173" s="60"/>
       <c r="J173" s="53" t="str">
-        <f t="shared" si="73"/>
+        <f>IF($E173=2,$B173," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K173" s="59" t="str">
-        <f t="shared" si="74"/>
+        <f>IF($E173=2,$D173," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L173" s="60"/>
       <c r="M173" s="53" t="str">
+        <f>IF($E173=3,$B173," ")</f>
+        <v>通天塔-金钱，经验副本配置</v>
+      </c>
+      <c r="N173" s="59">
+        <f>IF($E173=3,$D173," ")</f>
+        <v>2</v>
+      </c>
+      <c r="O173" s="60"/>
+      <c r="P173" s="53" t="str">
+        <f>IF($E173=4,$B173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q173" s="59" t="str">
+        <f>IF($E173=4,$D173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R173" s="60"/>
+      <c r="S173" s="53" t="str">
+        <f>IF($E173=5,$B173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T173" s="59" t="str">
+        <f>IF($E173=5,$D173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V173" s="53" t="str">
+        <f>IF($E173=6,$B173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W173" s="77" t="str">
+        <f>IF($E173=6,$D173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D174" s="54">
+        <v>2</v>
+      </c>
+      <c r="E174" s="54">
+        <v>3</v>
+      </c>
+      <c r="F174" s="53" t="s">
+        <v>700</v>
+      </c>
+      <c r="G174" s="53" t="str">
+        <f t="shared" si="71"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H174" s="59" t="str">
+        <f t="shared" si="72"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I174" s="60"/>
+      <c r="J174" s="53" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K174" s="59" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L174" s="60"/>
+      <c r="M174" s="53" t="str">
         <f t="shared" si="75"/>
         <v>抽蛋内容设计</v>
       </c>
-      <c r="N173" s="59">
+      <c r="N174" s="59">
         <f t="shared" si="76"/>
         <v>2</v>
       </c>
-      <c r="O173" s="60"/>
-      <c r="P173" s="53" t="str">
+      <c r="O174" s="60"/>
+      <c r="P174" s="53" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q173" s="59" t="str">
+      <c r="Q174" s="59" t="str">
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R173" s="60"/>
-      <c r="S173" s="53" t="str">
+      <c r="R174" s="60"/>
+      <c r="S174" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T173" s="59" t="str">
+      <c r="T174" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V173" s="53" t="str">
+      <c r="V174" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W173" s="77" t="str">
+      <c r="W174" s="77" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="52"/>
-      <c r="G174" s="53"/>
-      <c r="H174" s="59"/>
-      <c r="I174" s="60"/>
-      <c r="J174" s="53"/>
-      <c r="K174" s="59"/>
-      <c r="L174" s="60"/>
-      <c r="M174" s="53"/>
-      <c r="N174" s="59"/>
-      <c r="O174" s="60"/>
-      <c r="P174" s="53"/>
-      <c r="Q174" s="59"/>
-      <c r="R174" s="60"/>
-      <c r="S174" s="53"/>
-      <c r="T174" s="59"/>
-      <c r="V174" s="53"/>
-      <c r="W174" s="77"/>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
-      <c r="B175" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="D175" s="54">
-        <v>2</v>
-      </c>
-      <c r="E175" s="54">
-        <v>4</v>
-      </c>
-      <c r="G175" s="53" t="str">
-        <f t="shared" si="71"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H175" s="59" t="str">
-        <f t="shared" si="72"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B175" s="52"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="59"/>
       <c r="I175" s="60"/>
-      <c r="J175" s="53" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K175" s="59" t="str">
-        <f t="shared" si="74"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J175" s="53"/>
+      <c r="K175" s="59"/>
       <c r="L175" s="60"/>
-      <c r="M175" s="53" t="str">
-        <f t="shared" si="75"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N175" s="59" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M175" s="53"/>
+      <c r="N175" s="59"/>
       <c r="O175" s="60"/>
-      <c r="P175" s="53" t="str">
-        <f t="shared" si="77"/>
-        <v>抽蛋内容配置</v>
-      </c>
-      <c r="Q175" s="59">
-        <f t="shared" si="78"/>
-        <v>2</v>
-      </c>
+      <c r="P175" s="53"/>
+      <c r="Q175" s="59"/>
       <c r="R175" s="60"/>
-      <c r="S175" s="53" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T175" s="59" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V175" s="53" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W175" s="77" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S175" s="53"/>
+      <c r="T175" s="59"/>
+      <c r="V175" s="53"/>
+      <c r="W175" s="77"/>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="52" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D176" s="54">
         <v>2</v>
       </c>
       <c r="E176" s="54">
         <v>4</v>
-      </c>
-      <c r="F176" s="53" t="s">
-        <v>703</v>
       </c>
       <c r="G176" s="53" t="str">
         <f t="shared" si="71"/>
@@ -18424,7 +18385,7 @@
       <c r="O176" s="60"/>
       <c r="P176" s="53" t="str">
         <f t="shared" si="77"/>
-        <v>PVP奖励配置</v>
+        <v>抽蛋内容配置</v>
       </c>
       <c r="Q176" s="59">
         <f t="shared" si="78"/>
@@ -18448,9 +18409,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B177" s="5" t="s">
-        <v>226</v>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="B177" s="52" t="s">
+        <v>205</v>
       </c>
       <c r="D177" s="54">
         <v>2</v>
@@ -18458,152 +18420,155 @@
       <c r="E177" s="54">
         <v>4</v>
       </c>
+      <c r="F177" s="53" t="s">
+        <v>703</v>
+      </c>
       <c r="G177" s="53" t="str">
-        <f>IF($E177=1,$B177," ")</f>
+        <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H177" s="59" t="str">
-        <f>IF($E177=1,$D177," ")</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I177" s="60"/>
       <c r="J177" s="53" t="str">
-        <f>IF($E177=2,$B177," ")</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K177" s="59" t="str">
-        <f>IF($E177=2,$D177," ")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L177" s="60"/>
       <c r="M177" s="53" t="str">
-        <f>IF($E177=3,$B177," ")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N177" s="59" t="str">
-        <f>IF($E177=3,$D177," ")</f>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O177" s="60"/>
       <c r="P177" s="53" t="str">
-        <f>IF($E177=4,$B177," ")</f>
-        <v>通天塔-金钱，经验副本配置-debug</v>
+        <f t="shared" si="77"/>
+        <v>PVP奖励配置</v>
       </c>
       <c r="Q177" s="59">
-        <f>IF($E177=4,$D177," ")</f>
+        <f t="shared" si="78"/>
         <v>2</v>
       </c>
       <c r="R177" s="60"/>
       <c r="S177" s="53" t="str">
-        <f>IF($E177=5,$B177," ")</f>
+        <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T177" s="59" t="str">
-        <f>IF($E177=5,$D177," ")</f>
+        <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V177" s="53" t="str">
-        <f>IF($E177=6,$B177," ")</f>
+        <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W177" s="77" t="str">
-        <f>IF($E177=6,$D177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G178" s="53"/>
-      <c r="H178" s="59"/>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D178" s="54">
+        <v>2</v>
+      </c>
+      <c r="E178" s="54">
+        <v>4</v>
+      </c>
+      <c r="G178" s="53" t="str">
+        <f>IF($E178=1,$B178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H178" s="59" t="str">
+        <f>IF($E178=1,$D178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I178" s="60"/>
-      <c r="J178" s="53"/>
-      <c r="K178" s="59"/>
+      <c r="J178" s="53" t="str">
+        <f>IF($E178=2,$B178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K178" s="59" t="str">
+        <f>IF($E178=2,$D178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L178" s="60"/>
-      <c r="M178" s="53"/>
-      <c r="N178" s="59"/>
+      <c r="M178" s="53" t="str">
+        <f>IF($E178=3,$B178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N178" s="59" t="str">
+        <f>IF($E178=3,$D178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O178" s="60"/>
-      <c r="P178" s="53"/>
-      <c r="Q178" s="59"/>
+      <c r="P178" s="53" t="str">
+        <f>IF($E178=4,$B178," ")</f>
+        <v>通天塔-金钱，经验副本配置-debug</v>
+      </c>
+      <c r="Q178" s="59">
+        <f>IF($E178=4,$D178," ")</f>
+        <v>2</v>
+      </c>
       <c r="R178" s="60"/>
-      <c r="S178" s="53"/>
-      <c r="T178" s="59"/>
-      <c r="V178" s="53"/>
-      <c r="W178" s="77"/>
-    </row>
-    <row r="179" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B179" s="52" t="s">
+      <c r="S178" s="53" t="str">
+        <f>IF($E178=5,$B178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T178" s="59" t="str">
+        <f>IF($E178=5,$D178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V178" s="53" t="str">
+        <f>IF($E178=6,$B178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W178" s="77" t="str">
+        <f>IF($E178=6,$D178," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G179" s="53"/>
+      <c r="H179" s="59"/>
+      <c r="I179" s="60"/>
+      <c r="J179" s="53"/>
+      <c r="K179" s="59"/>
+      <c r="L179" s="60"/>
+      <c r="M179" s="53"/>
+      <c r="N179" s="59"/>
+      <c r="O179" s="60"/>
+      <c r="P179" s="53"/>
+      <c r="Q179" s="59"/>
+      <c r="R179" s="60"/>
+      <c r="S179" s="53"/>
+      <c r="T179" s="59"/>
+      <c r="V179" s="53"/>
+      <c r="W179" s="77"/>
+    </row>
+    <row r="180" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B180" s="52" t="s">
         <v>79</v>
-      </c>
-      <c r="D179" s="54">
-        <v>2</v>
-      </c>
-      <c r="E179" s="54">
-        <v>5</v>
-      </c>
-      <c r="F179" s="53" t="s">
-        <v>698</v>
-      </c>
-      <c r="G179" s="53" t="str">
-        <f>IF($E179=1,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H179" s="59" t="str">
-        <f>IF($E179=1,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I179" s="60"/>
-      <c r="J179" s="53" t="str">
-        <f>IF($E179=2,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K179" s="59" t="str">
-        <f>IF($E179=2,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L179" s="60"/>
-      <c r="M179" s="53" t="str">
-        <f>IF($E179=3,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N179" s="59" t="str">
-        <f>IF($E179=3,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O179" s="60"/>
-      <c r="P179" s="53" t="str">
-        <f>IF($E179=4,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q179" s="59" t="str">
-        <f>IF($E179=4,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R179" s="60"/>
-      <c r="S179" s="53" t="str">
-        <f>IF($E179=5,$B179," ")</f>
-        <v>公会任务， 祈福， 科技 Reward配置</v>
-      </c>
-      <c r="T179" s="59">
-        <f>IF($E179=5,$D179," ")</f>
-        <v>2</v>
-      </c>
-      <c r="V179" s="53" t="str">
-        <f>IF($E179=6,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W179" s="77" t="str">
-        <f>IF($E179=6,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B180" s="52" t="s">
-        <v>699</v>
       </c>
       <c r="D180" s="54">
         <v>2</v>
       </c>
       <c r="E180" s="54">
         <v>5</v>
+      </c>
+      <c r="F180" s="53" t="s">
+        <v>698</v>
       </c>
       <c r="G180" s="53" t="str">
         <f>IF($E180=1,$B180," ")</f>
@@ -18643,7 +18608,7 @@
       <c r="R180" s="60"/>
       <c r="S180" s="53" t="str">
         <f>IF($E180=5,$B180," ")</f>
-        <v>道具指引配置 - 4-8前相关</v>
+        <v>公会任务， 祈福， 科技 Reward配置</v>
       </c>
       <c r="T180" s="59">
         <f>IF($E180=5,$D180," ")</f>
@@ -18658,9 +18623,9 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B181" s="52" t="s">
-        <v>410</v>
+        <v>699</v>
       </c>
       <c r="D181" s="54">
         <v>2</v>
@@ -18668,32 +18633,62 @@
       <c r="E181" s="54">
         <v>5</v>
       </c>
-      <c r="G181" s="53"/>
-      <c r="H181" s="59"/>
+      <c r="G181" s="53" t="str">
+        <f>IF($E181=1,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H181" s="59" t="str">
+        <f>IF($E181=1,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I181" s="60"/>
-      <c r="J181" s="53"/>
-      <c r="K181" s="59"/>
+      <c r="J181" s="53" t="str">
+        <f>IF($E181=2,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K181" s="59" t="str">
+        <f>IF($E181=2,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L181" s="60"/>
-      <c r="M181" s="53"/>
-      <c r="N181" s="59"/>
+      <c r="M181" s="53" t="str">
+        <f>IF($E181=3,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N181" s="59" t="str">
+        <f>IF($E181=3,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O181" s="60"/>
-      <c r="P181" s="53"/>
-      <c r="Q181" s="59"/>
+      <c r="P181" s="53" t="str">
+        <f>IF($E181=4,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q181" s="59" t="str">
+        <f>IF($E181=4,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R181" s="60"/>
       <c r="S181" s="53" t="str">
-        <f t="shared" ref="S181:S182" si="83">IF($E181=5,$B181," ")</f>
-        <v>抽蛋，PVP，公会内容配置 - debug</v>
+        <f>IF($E181=5,$B181," ")</f>
+        <v>道具指引配置 - 4-8前相关</v>
       </c>
       <c r="T181" s="59">
-        <f t="shared" ref="T181:T182" si="84">IF($E181=5,$D181," ")</f>
+        <f>IF($E181=5,$D181," ")</f>
         <v>2</v>
       </c>
-      <c r="V181" s="53"/>
-      <c r="W181" s="77"/>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V181" s="53" t="str">
+        <f>IF($E181=6,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W181" s="77" t="str">
+        <f>IF($E181=6,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="34" x14ac:dyDescent="0.25">
       <c r="B182" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D182" s="54">
         <v>2</v>
@@ -18714,18 +18709,26 @@
       <c r="Q182" s="59"/>
       <c r="R182" s="60"/>
       <c r="S182" s="53" t="str">
-        <f t="shared" si="83"/>
-        <v>收尾孔老师任务内容设计</v>
+        <f t="shared" ref="S182:S183" si="83">IF($E182=5,$B182," ")</f>
+        <v>抽蛋，PVP，公会内容配置 - debug</v>
       </c>
       <c r="T182" s="59">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="T182:T183" si="84">IF($E182=5,$D182," ")</f>
         <v>2</v>
       </c>
       <c r="V182" s="53"/>
       <c r="W182" s="77"/>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B183" s="52"/>
+      <c r="B183" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="D183" s="54">
+        <v>2</v>
+      </c>
+      <c r="E183" s="54">
+        <v>5</v>
+      </c>
       <c r="G183" s="53"/>
       <c r="H183" s="59"/>
       <c r="I183" s="60"/>
@@ -18738,206 +18741,213 @@
       <c r="P183" s="53"/>
       <c r="Q183" s="59"/>
       <c r="R183" s="60"/>
-      <c r="S183" s="53"/>
-      <c r="T183" s="59"/>
+      <c r="S183" s="53" t="str">
+        <f t="shared" si="83"/>
+        <v>收尾孔老师任务内容设计</v>
+      </c>
+      <c r="T183" s="59">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
       <c r="V183" s="53"/>
       <c r="W183" s="77"/>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B184" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="D184" s="54">
-        <v>4</v>
-      </c>
-      <c r="E184" s="54">
-        <v>6</v>
-      </c>
-      <c r="G184" s="53" t="str">
-        <f>IF($E184=1,$B184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H184" s="59" t="str">
-        <f>IF($E184=1,$D184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B184" s="52"/>
+      <c r="G184" s="53"/>
+      <c r="H184" s="59"/>
       <c r="I184" s="60"/>
-      <c r="J184" s="53" t="str">
-        <f>IF($E184=2,$B184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K184" s="59" t="str">
-        <f>IF($E184=2,$D184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J184" s="53"/>
+      <c r="K184" s="59"/>
       <c r="L184" s="60"/>
-      <c r="M184" s="53" t="str">
-        <f>IF($E184=3,$B184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N184" s="59" t="str">
-        <f>IF($E184=3,$D184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M184" s="53"/>
+      <c r="N184" s="59"/>
       <c r="O184" s="60"/>
-      <c r="P184" s="53" t="str">
-        <f>IF($E184=4,$B184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q184" s="59" t="str">
-        <f>IF($E184=4,$D184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P184" s="53"/>
+      <c r="Q184" s="59"/>
       <c r="R184" s="60"/>
-      <c r="S184" s="53" t="str">
-        <f>IF($E184=5,$B184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T184" s="59" t="str">
-        <f>IF($E184=5,$D184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V184" s="53" t="str">
-        <f>IF($E184=6,$B184," ")</f>
-        <v>任务内容配置</v>
-      </c>
-      <c r="W184" s="77">
-        <f>IF($E184=6,$D184," ")</f>
-        <v>4</v>
-      </c>
+      <c r="S184" s="53"/>
+      <c r="T184" s="59"/>
+      <c r="V184" s="53"/>
+      <c r="W184" s="77"/>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B185" s="52" t="s">
-        <v>412</v>
+        <v>241</v>
       </c>
       <c r="D185" s="54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E185" s="54">
         <v>6</v>
       </c>
+      <c r="G185" s="53" t="str">
+        <f>IF($E185=1,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H185" s="59" t="str">
+        <f>IF($E185=1,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I185" s="60"/>
+      <c r="J185" s="53" t="str">
+        <f>IF($E185=2,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K185" s="59" t="str">
+        <f>IF($E185=2,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L185" s="60"/>
+      <c r="M185" s="53" t="str">
+        <f>IF($E185=3,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N185" s="59" t="str">
+        <f>IF($E185=3,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O185" s="60"/>
+      <c r="P185" s="53" t="str">
+        <f>IF($E185=4,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q185" s="59" t="str">
+        <f>IF($E185=4,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R185" s="60"/>
+      <c r="S185" s="53" t="str">
+        <f>IF($E185=5,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T185" s="59" t="str">
+        <f>IF($E185=5,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="V185" s="53" t="str">
         <f>IF($E185=6,$B185," ")</f>
-        <v>任务内容配置 - debug</v>
+        <v>任务内容配置</v>
       </c>
       <c r="W185" s="77">
         <f>IF($E185=6,$D185," ")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B186" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="D186" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="G187" s="53" t="str">
+      <c r="E186" s="54">
+        <v>6</v>
+      </c>
+      <c r="V186" s="53" t="str">
+        <f>IF($E186=6,$B186," ")</f>
+        <v>任务内容配置 - debug</v>
+      </c>
+      <c r="W186" s="77">
+        <f>IF($E186=6,$D186," ")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+      <c r="G188" s="53" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H187" s="59" t="str">
+      <c r="H188" s="59" t="str">
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I187" s="60"/>
-      <c r="J187" s="53" t="str">
+      <c r="I188" s="60"/>
+      <c r="J188" s="53" t="str">
         <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K187" s="59" t="str">
+      <c r="K188" s="59" t="str">
         <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L187" s="60"/>
-      <c r="M187" s="53" t="str">
+      <c r="L188" s="60"/>
+      <c r="M188" s="53" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N187" s="59" t="str">
+      <c r="N188" s="59" t="str">
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O187" s="60"/>
-      <c r="P187" s="53" t="str">
+      <c r="O188" s="60"/>
+      <c r="P188" s="53" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q187" s="59" t="str">
+      <c r="Q188" s="59" t="str">
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R187" s="60"/>
-      <c r="S187" s="53" t="str">
+      <c r="R188" s="60"/>
+      <c r="S188" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T187" s="59" t="str">
+      <c r="T188" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V187" s="53" t="str">
+      <c r="V188" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W187" s="77" t="str">
+      <c r="W188" s="77" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="188" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="37" t="s">
+    <row r="189" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="C188" s="37"/>
-      <c r="D188" s="35">
-        <f>SUM(D164:D187)</f>
+      <c r="C189" s="37"/>
+      <c r="D189" s="35">
+        <f>SUM(D165:D188)</f>
         <v>34.5</v>
       </c>
-      <c r="E188" s="35"/>
-      <c r="F188" s="36"/>
-      <c r="H188" s="35">
-        <f>SUM(H164:H187)</f>
-        <v>2.5</v>
-      </c>
-      <c r="I188" s="38"/>
-      <c r="K188" s="35">
-        <f>SUM(K164:K187)</f>
-        <v>7</v>
-      </c>
-      <c r="L188" s="38"/>
-      <c r="N188" s="35">
-        <f>SUM(N164:N187)</f>
-        <v>5</v>
-      </c>
-      <c r="O188" s="38"/>
-      <c r="Q188" s="35">
-        <f>SUM(Q164:Q187)</f>
-        <v>6</v>
-      </c>
-      <c r="R188" s="38"/>
-      <c r="T188" s="35">
-        <f>SUM(T164:T187)</f>
-        <v>8</v>
-      </c>
-      <c r="U188" s="38"/>
-      <c r="W188" s="35">
-        <f>SUM(W164:W187)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="37"/>
-      <c r="C189" s="37"/>
-      <c r="D189" s="35"/>
       <c r="E189" s="35"/>
       <c r="F189" s="36"/>
-      <c r="H189" s="35"/>
+      <c r="H189" s="35">
+        <f>SUM(H165:H188)</f>
+        <v>2.5</v>
+      </c>
       <c r="I189" s="38"/>
-      <c r="K189" s="35"/>
+      <c r="K189" s="35">
+        <f>SUM(K165:K188)</f>
+        <v>7</v>
+      </c>
       <c r="L189" s="38"/>
-      <c r="N189" s="35"/>
+      <c r="N189" s="35">
+        <f>SUM(N165:N188)</f>
+        <v>5</v>
+      </c>
       <c r="O189" s="38"/>
-      <c r="Q189" s="35"/>
+      <c r="Q189" s="35">
+        <f>SUM(Q165:Q188)</f>
+        <v>6</v>
+      </c>
       <c r="R189" s="38"/>
-      <c r="T189" s="35"/>
+      <c r="T189" s="35">
+        <f>SUM(T165:T188)</f>
+        <v>8</v>
+      </c>
       <c r="U189" s="38"/>
-      <c r="W189" s="37"/>
+      <c r="W189" s="35">
+        <f>SUM(W165:W188)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="190" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="37"/>
@@ -18958,9 +18968,7 @@
       <c r="W190" s="37"/>
     </row>
     <row r="191" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="73" t="s">
-        <v>260</v>
-      </c>
+      <c r="B191" s="37"/>
       <c r="C191" s="37"/>
       <c r="D191" s="35"/>
       <c r="E191" s="35"/>
@@ -18978,7 +18986,9 @@
       <c r="W191" s="37"/>
     </row>
     <row r="192" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="37"/>
+      <c r="B192" s="73" t="s">
+        <v>260</v>
+      </c>
       <c r="C192" s="37"/>
       <c r="D192" s="35"/>
       <c r="E192" s="35"/>
@@ -18995,135 +19005,106 @@
       <c r="U192" s="38"/>
       <c r="W192" s="37"/>
     </row>
-    <row r="193" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="56" t="s">
-        <v>704</v>
-      </c>
-      <c r="D193" s="57">
-        <v>3</v>
-      </c>
-      <c r="E193" s="57">
+    <row r="193" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="37"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="35"/>
+      <c r="F193" s="36"/>
+      <c r="H193" s="35"/>
+      <c r="I193" s="38"/>
+      <c r="K193" s="35"/>
+      <c r="L193" s="38"/>
+      <c r="N193" s="35"/>
+      <c r="O193" s="38"/>
+      <c r="Q193" s="35"/>
+      <c r="R193" s="38"/>
+      <c r="T193" s="35"/>
+      <c r="U193" s="38"/>
+      <c r="W193" s="37"/>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="B194" s="56" t="s">
+        <v>724</v>
+      </c>
+      <c r="C194" s="57"/>
+      <c r="D194" s="54">
+        <v>2</v>
+      </c>
+      <c r="E194" s="54">
         <v>7</v>
       </c>
-      <c r="F193" s="53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="D194" s="57">
-        <v>4</v>
-      </c>
-      <c r="E194" s="57">
-        <v>7</v>
-      </c>
-      <c r="F194" s="53"/>
+      <c r="H194" s="54"/>
+      <c r="K194" s="54"/>
+      <c r="N194" s="54"/>
+      <c r="Q194" s="54"/>
+      <c r="T194" s="54"/>
     </row>
     <row r="195" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="56" t="s">
-        <v>414</v>
+        <v>704</v>
       </c>
       <c r="D195" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E195" s="57">
         <v>7</v>
       </c>
-      <c r="F195" s="53"/>
+      <c r="F195" s="53" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="196" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="56" t="s">
-        <v>691</v>
+        <v>413</v>
       </c>
       <c r="D196" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E196" s="57">
         <v>7</v>
       </c>
-      <c r="F196" s="53" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B197" s="5" t="s">
-        <v>696</v>
+      <c r="F196" s="53"/>
+    </row>
+    <row r="197" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="56" t="s">
+        <v>414</v>
       </c>
       <c r="D197" s="57">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E197" s="57">
         <v>7</v>
       </c>
-      <c r="G197" s="53"/>
-      <c r="H197" s="59"/>
-      <c r="I197" s="60"/>
-      <c r="J197" s="53" t="str">
-        <f>IF($E197=2,$B197," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K197" s="59" t="str">
-        <f>IF($E197=2,$D197," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L197" s="60"/>
-      <c r="M197" s="53"/>
-      <c r="N197" s="59"/>
-      <c r="O197" s="60"/>
-      <c r="P197" s="53"/>
-      <c r="Q197" s="59"/>
-      <c r="R197" s="60"/>
-      <c r="S197" s="53"/>
-      <c r="T197" s="59"/>
-      <c r="U197" s="5"/>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B198" s="5" t="s">
-        <v>697</v>
+      <c r="F197" s="53"/>
+    </row>
+    <row r="198" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="56" t="s">
+        <v>691</v>
       </c>
       <c r="D198" s="57">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E198" s="57">
         <v>7</v>
       </c>
-      <c r="G198" s="53"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="60"/>
-      <c r="J198" s="53"/>
-      <c r="K198" s="59"/>
-      <c r="L198" s="60"/>
-      <c r="M198" s="53"/>
-      <c r="N198" s="59"/>
-      <c r="O198" s="60"/>
-      <c r="P198" s="53"/>
-      <c r="Q198" s="59"/>
-      <c r="R198" s="60"/>
-      <c r="S198" s="53"/>
-      <c r="T198" s="59"/>
-      <c r="U198" s="5"/>
+      <c r="F198" s="53" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
       <c r="B199" s="5" t="s">
-        <v>123</v>
+        <v>696</v>
       </c>
       <c r="D199" s="57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E199" s="57">
         <v>7</v>
       </c>
-      <c r="G199" s="53" t="str">
-        <f>IF($E199=1,$B199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H199" s="59" t="str">
-        <f>IF($E199=1,$D199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G199" s="53"/>
+      <c r="H199" s="59"/>
       <c r="I199" s="60"/>
       <c r="J199" s="53" t="str">
         <f>IF($E199=2,$B199," ")</f>
@@ -19134,48 +19115,22 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="L199" s="60"/>
-      <c r="M199" s="53" t="str">
-        <f>IF($E199=3,$B199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N199" s="59" t="str">
-        <f>IF($E199=3,$D199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M199" s="53"/>
+      <c r="N199" s="59"/>
       <c r="O199" s="60"/>
-      <c r="P199" s="53" t="str">
-        <f>IF($E199=4,$B199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q199" s="59" t="str">
-        <f>IF($E199=4,$D199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P199" s="53"/>
+      <c r="Q199" s="59"/>
       <c r="R199" s="60"/>
-      <c r="S199" s="53" t="str">
-        <f>IF($E199=5,$B199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T199" s="59" t="str">
-        <f>IF($E199=5,$D199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V199" s="53" t="str">
-        <f>IF($E199=6,$B199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W199" s="77" t="str">
-        <f>IF($E199=6,$D199," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S199" s="53"/>
+      <c r="T199" s="59"/>
+      <c r="U199" s="5"/>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
       <c r="B200" s="5" t="s">
-        <v>426</v>
+        <v>697</v>
       </c>
       <c r="D200" s="57">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E200" s="57">
         <v>7</v>
@@ -19194,286 +19149,344 @@
       <c r="R200" s="60"/>
       <c r="S200" s="53"/>
       <c r="T200" s="59"/>
-      <c r="V200" s="53"/>
-      <c r="W200" s="77"/>
-    </row>
-    <row r="201" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="37"/>
-      <c r="C201" s="37"/>
-      <c r="D201" s="35"/>
-      <c r="E201" s="57"/>
-      <c r="F201" s="36"/>
-      <c r="H201" s="35"/>
-      <c r="I201" s="38"/>
-      <c r="K201" s="35"/>
-      <c r="L201" s="38"/>
-      <c r="N201" s="35"/>
-      <c r="O201" s="38"/>
-      <c r="Q201" s="35"/>
-      <c r="R201" s="38"/>
-      <c r="T201" s="35"/>
-      <c r="U201" s="38"/>
-      <c r="W201" s="37"/>
+      <c r="U200" s="5"/>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D201" s="57">
+        <v>2</v>
+      </c>
+      <c r="E201" s="57">
+        <v>7</v>
+      </c>
+      <c r="G201" s="53" t="str">
+        <f>IF($E201=1,$B201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H201" s="59" t="str">
+        <f>IF($E201=1,$D201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I201" s="60"/>
+      <c r="J201" s="53" t="str">
+        <f>IF($E201=2,$B201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K201" s="59" t="str">
+        <f>IF($E201=2,$D201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L201" s="60"/>
+      <c r="M201" s="53" t="str">
+        <f>IF($E201=3,$B201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N201" s="59" t="str">
+        <f>IF($E201=3,$D201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O201" s="60"/>
+      <c r="P201" s="53" t="str">
+        <f>IF($E201=4,$B201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q201" s="59" t="str">
+        <f>IF($E201=4,$D201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R201" s="60"/>
+      <c r="S201" s="53" t="str">
+        <f>IF($E201=5,$B201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T201" s="59" t="str">
+        <f>IF($E201=5,$D201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V201" s="53" t="str">
+        <f>IF($E201=6,$B201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W201" s="77" t="str">
+        <f>IF($E201=6,$D201," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" s="54">
-        <v>6</v>
+        <v>426</v>
+      </c>
+      <c r="D202" s="57">
+        <v>3</v>
       </c>
       <c r="E202" s="57">
         <v>7</v>
       </c>
-      <c r="G202" s="53" t="str">
-        <f>IF($E202=1,$B202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H202" s="59" t="str">
-        <f>IF($E202=1,$D202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G202" s="53"/>
+      <c r="H202" s="59"/>
       <c r="I202" s="60"/>
-      <c r="J202" s="53" t="str">
-        <f>IF($E202=2,$B202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K202" s="59" t="str">
-        <f>IF($E202=2,$D202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J202" s="53"/>
+      <c r="K202" s="59"/>
       <c r="L202" s="60"/>
-      <c r="M202" s="53" t="str">
-        <f>IF($E202=3,$B202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N202" s="59" t="str">
-        <f>IF($E202=3,$D202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M202" s="53"/>
+      <c r="N202" s="59"/>
       <c r="O202" s="60"/>
-      <c r="P202" s="53" t="str">
-        <f>IF($E202=4,$B202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q202" s="59" t="str">
-        <f>IF($E202=4,$D202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P202" s="53"/>
+      <c r="Q202" s="59"/>
       <c r="R202" s="60"/>
-      <c r="S202" s="53" t="str">
-        <f>IF($E202=5,$B202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T202" s="59" t="str">
-        <f>IF($E202=5,$D202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U202" s="5"/>
-      <c r="W202" s="5"/>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5" t="s">
+      <c r="S202" s="53"/>
+      <c r="T202" s="59"/>
+      <c r="V202" s="53"/>
+      <c r="W202" s="77"/>
+    </row>
+    <row r="203" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="57"/>
+      <c r="F203" s="36"/>
+      <c r="H203" s="35"/>
+      <c r="I203" s="38"/>
+      <c r="K203" s="35"/>
+      <c r="L203" s="38"/>
+      <c r="N203" s="35"/>
+      <c r="O203" s="38"/>
+      <c r="Q203" s="35"/>
+      <c r="R203" s="38"/>
+      <c r="T203" s="35"/>
+      <c r="U203" s="38"/>
+      <c r="W203" s="37"/>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D204" s="54">
+        <v>6</v>
+      </c>
+      <c r="E204" s="57">
+        <v>7</v>
+      </c>
+      <c r="G204" s="53" t="str">
+        <f>IF($E204=1,$B204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H204" s="59" t="str">
+        <f>IF($E204=1,$D204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I204" s="60"/>
+      <c r="J204" s="53" t="str">
+        <f>IF($E204=2,$B204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K204" s="59" t="str">
+        <f>IF($E204=2,$D204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L204" s="60"/>
+      <c r="M204" s="53" t="str">
+        <f>IF($E204=3,$B204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N204" s="59" t="str">
+        <f>IF($E204=3,$D204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O204" s="60"/>
+      <c r="P204" s="53" t="str">
+        <f>IF($E204=4,$B204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q204" s="59" t="str">
+        <f>IF($E204=4,$D204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R204" s="60"/>
+      <c r="S204" s="53" t="str">
+        <f>IF($E204=5,$B204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T204" s="59" t="str">
+        <f>IF($E204=5,$D204," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U204" s="5"/>
+      <c r="W204" s="5"/>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E203" s="57">
+      <c r="E205" s="57">
         <v>7</v>
       </c>
-      <c r="G203" s="53"/>
-      <c r="H203" s="59"/>
-      <c r="I203" s="60"/>
-      <c r="J203" s="53"/>
-      <c r="K203" s="59"/>
-      <c r="L203" s="60"/>
-      <c r="M203" s="53"/>
-      <c r="N203" s="59"/>
-      <c r="O203" s="60"/>
-      <c r="P203" s="53"/>
-      <c r="Q203" s="59"/>
-      <c r="R203" s="60"/>
-      <c r="S203" s="53"/>
-      <c r="T203" s="59"/>
-      <c r="U203" s="5"/>
-      <c r="W203" s="5"/>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B205" s="37" t="s">
+      <c r="G205" s="53"/>
+      <c r="H205" s="59"/>
+      <c r="I205" s="60"/>
+      <c r="J205" s="53"/>
+      <c r="K205" s="59"/>
+      <c r="L205" s="60"/>
+      <c r="M205" s="53"/>
+      <c r="N205" s="59"/>
+      <c r="O205" s="60"/>
+      <c r="P205" s="53"/>
+      <c r="Q205" s="59"/>
+      <c r="R205" s="60"/>
+      <c r="S205" s="53"/>
+      <c r="T205" s="59"/>
+      <c r="U205" s="5"/>
+      <c r="W205" s="5"/>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B207" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="D205" s="35">
-        <f>SUM(D194:D203)</f>
+      <c r="D207" s="35">
+        <f>SUM(D196:D205)</f>
         <v>23</v>
       </c>
-      <c r="W205" s="5"/>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
-      <c r="B207" s="34" t="s">
+      <c r="W207" s="5"/>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C207" s="34"/>
-      <c r="D207" s="35"/>
-      <c r="G207" s="34" t="s">
+      <c r="C209" s="34"/>
+      <c r="D209" s="35"/>
+      <c r="G209" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H207" s="37"/>
-      <c r="I207" s="38"/>
-      <c r="J207" s="34" t="s">
+      <c r="H209" s="37"/>
+      <c r="I209" s="38"/>
+      <c r="J209" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="K207" s="34"/>
-      <c r="L207" s="38"/>
-      <c r="M207" s="34" t="s">
+      <c r="K209" s="34"/>
+      <c r="L209" s="38"/>
+      <c r="M209" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="N207" s="34"/>
-      <c r="O207" s="38"/>
-      <c r="P207" s="34" t="s">
+      <c r="N209" s="34"/>
+      <c r="O209" s="38"/>
+      <c r="P209" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="Q207" s="34"/>
-      <c r="R207" s="38"/>
-      <c r="S207" s="34" t="s">
+      <c r="Q209" s="34"/>
+      <c r="R209" s="38"/>
+      <c r="S209" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="W207" s="5"/>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
-      <c r="G211" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H211" s="37"/>
-      <c r="I211" s="38"/>
-      <c r="J211" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="K211" s="34"/>
-      <c r="L211" s="38"/>
-      <c r="M211" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="N211" s="34"/>
-      <c r="O211" s="38"/>
-      <c r="P211" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q211" s="34"/>
-      <c r="R211" s="38"/>
-      <c r="S211" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="W211" s="5"/>
+      <c r="W209" s="5"/>
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
-      <c r="G213" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="J213" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="M213" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="P213" s="5" t="s">
-        <v>113</v>
+      <c r="G213" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H213" s="37"/>
+      <c r="I213" s="38"/>
+      <c r="J213" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="K213" s="34"/>
+      <c r="L213" s="38"/>
+      <c r="M213" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="N213" s="34"/>
+      <c r="O213" s="38"/>
+      <c r="P213" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q213" s="34"/>
+      <c r="R213" s="38"/>
+      <c r="S213" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="W213" s="5"/>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="G214" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J214" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="M214" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="U214" s="5"/>
-      <c r="W214" s="5"/>
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
-      <c r="U215" s="5"/>
+      <c r="G215" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="M215" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="P215" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="W215" s="5"/>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
+      <c r="G216" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="M216" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="U216" s="5"/>
       <c r="W216" s="5"/>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
-      <c r="G217" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H217" s="37"/>
-      <c r="I217" s="34"/>
-      <c r="J217" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="K217" s="34"/>
-      <c r="L217" s="34"/>
-      <c r="M217" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="N217" s="34"/>
-      <c r="O217" s="34"/>
-      <c r="P217" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q217" s="34"/>
-      <c r="R217" s="34"/>
-      <c r="S217" s="34" t="s">
-        <v>128</v>
-      </c>
       <c r="U217" s="5"/>
       <c r="W217" s="5"/>
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="L218" s="5"/>
-      <c r="O218" s="5"/>
-      <c r="R218" s="5"/>
       <c r="U218" s="5"/>
       <c r="W218" s="5"/>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
-      <c r="I219" s="5"/>
-      <c r="L219" s="5"/>
-      <c r="O219" s="5"/>
-      <c r="R219" s="5"/>
+      <c r="G219" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H219" s="37"/>
+      <c r="I219" s="34"/>
+      <c r="J219" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="K219" s="34"/>
+      <c r="L219" s="34"/>
+      <c r="M219" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="N219" s="34"/>
+      <c r="O219" s="34"/>
+      <c r="P219" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q219" s="34"/>
+      <c r="R219" s="34"/>
+      <c r="S219" s="34" t="s">
+        <v>128</v>
+      </c>
       <c r="U219" s="5"/>
       <c r="W219" s="5"/>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
-      <c r="G220" s="34" t="s">
-        <v>419</v>
-      </c>
       <c r="I220" s="5"/>
-      <c r="J220" s="34" t="s">
-        <v>419</v>
-      </c>
       <c r="L220" s="5"/>
-      <c r="M220" s="34" t="s">
-        <v>419</v>
-      </c>
       <c r="O220" s="5"/>
-      <c r="P220" s="34" t="s">
-        <v>419</v>
-      </c>
       <c r="R220" s="5"/>
-      <c r="S220" s="34" t="s">
-        <v>419</v>
-      </c>
       <c r="U220" s="5"/>
       <c r="W220" s="5"/>
     </row>
@@ -19488,27 +19501,30 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
-      <c r="G222" s="5" t="s">
-        <v>420</v>
+      <c r="G222" s="34" t="s">
+        <v>419</v>
       </c>
       <c r="I222" s="5"/>
-      <c r="J222" s="5" t="s">
-        <v>421</v>
+      <c r="J222" s="34" t="s">
+        <v>419</v>
       </c>
       <c r="L222" s="5"/>
+      <c r="M222" s="34" t="s">
+        <v>419</v>
+      </c>
       <c r="O222" s="5"/>
+      <c r="P222" s="34" t="s">
+        <v>419</v>
+      </c>
       <c r="R222" s="5"/>
-      <c r="S222" s="5" t="s">
-        <v>422</v>
+      <c r="S222" s="34" t="s">
+        <v>419</v>
       </c>
       <c r="U222" s="5"/>
       <c r="W222" s="5"/>
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
-      <c r="G223" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="I223" s="5"/>
       <c r="L223" s="5"/>
       <c r="O223" s="5"/>
@@ -19517,30 +19533,60 @@
       <c r="W223" s="5"/>
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A224" s="5"/>
       <c r="G224" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="L224" s="5"/>
+      <c r="O224" s="5"/>
+      <c r="R224" s="5"/>
+      <c r="S224" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="U224" s="5"/>
+      <c r="W224" s="5"/>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A225" s="5"/>
+      <c r="G225" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="I225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="O225" s="5"/>
+      <c r="R225" s="5"/>
+      <c r="U225" s="5"/>
+      <c r="W225" s="5"/>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G226" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="W224" s="5"/>
-    </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B228" s="91" t="s">
+      <c r="W226" s="5"/>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B230" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="W228" s="5"/>
+      <c r="W230" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J30 M30 B44:D44 B70:D70 F151:G153 F78 B188:D190 K189:K196 N189:N196 H188:H196 T189:T196 Q189:Q196 B53:D53 C66:D68 B108 D108 D90:D91 B107:D107 F155 B192:D196 C191:D191 B201:D201 Q201 T201 H201 N201 K201 B93:D93 D94 G158 F145:F146 F157:G157 B30:D32 B35:D38 B40:D40 F125:G125 F126:F140 P71:P72 G71:G72 S71:S72 V72:W72 D63 D41 C45:D45 D46 D48 V63:W63 W33:W48 D50:D52 P49:P58 G49:G58 M49:M58 J49:J58 S49:S58 V49:W57 P60:P69 G60:G69 M60:M72 J60:J72 S60:S69 V66:W68 B82:D85 D96:D99 B109:D113 V199:W200 S197:S200 J197:J200 M197:M200 G197:G200 P197:P200 J164:J184 M164:M184 P164:P184 V187:W187 S187 J187 M187 G187 P187 P5:P21 G5:G21 M5:M21 J5:J21 V5:W21 V23:W23 B123:D123 B120:D120 G123 M123 J123 S123 P123 S5:S21 P151:P158 G154:G156 M151:M158 J151:J158 S151:S158 V126:W146 V154:W154 V147 S164:S184 V164:W185 V148:W148 G126:G148 J125:J148 M125:M148 P125:P148 S125:S148 V74:W100 V106:W106 G74:G101 M74:M101 J74:J101 S74:S101 P74:P101 P23:P28 G23:G28 M23:M28 J23:J28 S23:S28 G103:G121 M103:M121 J103:J121 S103:S121 P103:P121 G164:G184 M202:M203 P202:P203 S202:S203 J202:J203 G202:G203">
+  <conditionalFormatting sqref="J30 M30 B44:D44 B70:D70 F152:G154 F78 B189:D191 K190:K198 N190:N198 H189:H198 T190:T198 Q190:Q198 B53:D53 C66:D68 B109 D109 D90:D91 B108:D108 F156 B193:D198 C192:D192 B203:D203 Q203 T203 H203 N203 K203 B93:D93 D94 G159 F146:F147 F158:G158 B30:D32 B35:D38 B40:D40 F126:G126 F127:F141 P71:P72 G71:G72 S71:S72 V72:W72 D63 D41 C45:D45 D46 D48 V63:W63 W33:W48 D50:D52 P49:P58 G49:G58 M49:M58 J49:J58 S49:S58 V49:W57 P60:P69 G60:G69 M60:M72 J60:J72 S60:S69 V66:W68 B82:D85 D96:D99 B110:D114 V201:W202 S199:S202 J199:J202 M199:M202 G199:G202 P199:P202 J165:J185 M165:M185 P165:P185 V188:W188 S188 J188 M188 G188 P188 P5:P21 G5:G21 M5:M21 J5:J21 V5:W21 V23:W23 B124:D124 B121:D121 G124 M124 J124 S124 P124 S5:S21 P152:P159 G155:G157 M152:M159 J152:J159 S152:S159 V127:W147 V155:W155 V148 S165:S185 V165:W186 V149:W149 G127:G149 J126:J149 M126:M149 P126:P149 S126:S149 V74:W100 V107:W107 G74:G101 M74:M101 J74:J101 S74:S101 P74:P101 P23:P28 G23:G28 M23:M28 J23:J28 S23:S28 G103:G122 M103:M122 J103:J122 S103:S122 P103:P122 G165:G185 M204:M205 P204:P205 S204:S205 J204:J205 G204:G205">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G163 B163:D163 B151:D153 J124 C164:D164 C155:D155 B129:D131 C133:D140 B134 D142:D147">
+  <conditionalFormatting sqref="G164 B164:D164 B152:D154 J125 C165:D165 C156:D156 B130:D132 C134:D141 B135 D143:D148">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160:T160">
+  <conditionalFormatting sqref="F161:T161">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -19565,12 +19611,12 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B149:D149">
+  <conditionalFormatting sqref="B150:D150">
     <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H149">
+  <conditionalFormatting sqref="H150">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -19610,47 +19656,47 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
+  <conditionalFormatting sqref="K150">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N149">
+  <conditionalFormatting sqref="N150">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q149">
+  <conditionalFormatting sqref="Q150">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T149">
+  <conditionalFormatting sqref="T150">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K188">
+  <conditionalFormatting sqref="K189">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N188">
+  <conditionalFormatting sqref="N189">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q188">
+  <conditionalFormatting sqref="Q189">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T188">
+  <conditionalFormatting sqref="T189">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B191">
+  <conditionalFormatting sqref="B192">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -19700,12 +19746,12 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W149">
+  <conditionalFormatting sqref="W150">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W188">
+  <conditionalFormatting sqref="W189">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>

--- a/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑9/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="820" windowWidth="38300" windowHeight="19500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="39080" yWindow="560" windowWidth="38300" windowHeight="19500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑9" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="728">
   <si>
     <t>里程碑目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4562,10 +4562,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>调UI（内容待排）</t>
   </si>
   <si>
@@ -4881,6 +4877,29 @@
   </si>
   <si>
     <t>回归相关投放包括PVP，公会，通天塔商店等，宠物分解碎片跟等级挂钩， 装备是否需要分职业</t>
+  </si>
+  <si>
+    <t>配置表关联检查</t>
+    <rPh sb="0" eb="1">
+      <t>pei'zhi'biao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'lian'jian'cha</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发，QA测试</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4905,7 +4924,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5001,7 +5020,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5044,7 +5063,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5420,21 +5439,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="84">
     <dxf>
@@ -6458,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -6499,7 +6518,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="6" t="s">
@@ -6510,7 +6529,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
@@ -6566,7 +6585,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6" t="s">
@@ -6583,7 +6602,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="6" t="s">
@@ -6823,9 +6842,11 @@
       <c r="F18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="H18" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I18" s="21"/>
       <c r="K18" s="21"/>
@@ -6887,7 +6908,7 @@
         <v>56</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
@@ -7027,10 +7048,10 @@
         <v>37</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E25" s="19">
         <v>1</v>
@@ -7101,7 +7122,9 @@
       <c r="F27" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="H27" s="22" t="s">
         <v>48</v>
       </c>
@@ -7150,10 +7173,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E29" s="19">
         <v>1</v>
@@ -7187,7 +7210,7 @@
         <v>46</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E30" s="19">
         <v>1</v>
@@ -7350,7 +7373,9 @@
       <c r="H35" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="I35" s="21"/>
+      <c r="I35" s="21" t="s">
+        <v>727</v>
+      </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
@@ -7886,7 +7911,7 @@
         <v>75</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E53" s="19">
         <v>1</v>
@@ -8179,7 +8204,7 @@
       <c r="J62" s="24"/>
       <c r="K62" s="21"/>
       <c r="L62" s="24" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M62" s="21"/>
     </row>
@@ -9016,7 +9041,7 @@
       </c>
       <c r="G91" s="19"/>
       <c r="H91" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
@@ -9207,7 +9232,7 @@
         <v>96</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E98" s="29">
         <v>1</v>
@@ -9357,7 +9382,7 @@
         <v>96</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E103" s="29">
         <v>1</v>
@@ -9455,7 +9480,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K106" s="21"/>
       <c r="L106" s="21"/>
@@ -9979,11 +10004,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F163" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B168" sqref="B168"/>
+      <selection pane="bottomRight" activeCell="B165" sqref="B165:E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12019,7 +12044,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G42" s="53" t="str">
         <f t="shared" si="12"/>
@@ -13945,7 +13970,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B83" s="51" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C83" s="56"/>
       <c r="D83" s="54">
@@ -15132,7 +15157,7 @@
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C106" s="52"/>
       <c r="D106" s="61"/>
@@ -15955,7 +15980,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B128" s="76" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C128" s="72"/>
       <c r="D128" s="79">
@@ -15965,7 +15990,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="53" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G128" s="53" t="str">
         <f t="shared" si="57"/>
@@ -16022,7 +16047,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B129" s="76" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C129" s="72"/>
       <c r="D129" s="79">
@@ -16380,7 +16405,7 @@
         <v>2</v>
       </c>
       <c r="F135" s="53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G135" s="53" t="str">
         <f t="shared" si="57"/>
@@ -17385,7 +17410,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B154" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C154" s="73"/>
       <c r="D154" s="73">
@@ -17821,7 +17846,7 @@
     </row>
     <row r="166" spans="1:23" ht="34" x14ac:dyDescent="0.25">
       <c r="B166" s="52" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D166" s="54">
         <v>0.5</v>
@@ -17830,7 +17855,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G166" s="53" t="str">
         <f t="shared" si="71"/>
@@ -17887,7 +17912,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B167" s="52" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D167" s="54">
         <v>1</v>
@@ -17929,7 +17954,7 @@
         <v>2</v>
       </c>
       <c r="F168" s="53" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G168" s="53" t="str">
         <f t="shared" si="71"/>
@@ -18049,7 +18074,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B170" s="52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D170" s="54">
         <v>2</v>
@@ -18270,7 +18295,7 @@
         <v>3</v>
       </c>
       <c r="F174" s="53" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G174" s="53" t="str">
         <f t="shared" si="71"/>
@@ -18421,7 +18446,7 @@
         <v>4</v>
       </c>
       <c r="F177" s="53" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G177" s="53" t="str">
         <f t="shared" si="71"/>
@@ -18568,7 +18593,7 @@
         <v>5</v>
       </c>
       <c r="F180" s="53" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G180" s="53" t="str">
         <f>IF($E180=1,$B180," ")</f>
@@ -18625,7 +18650,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B181" s="52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D181" s="54">
         <v>2</v>
@@ -19026,7 +19051,7 @@
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="56" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C194" s="57"/>
       <c r="D194" s="54">
@@ -19043,7 +19068,7 @@
     </row>
     <row r="195" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="56" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D195" s="57">
         <v>3</v>
@@ -19052,7 +19077,7 @@
         <v>7</v>
       </c>
       <c r="F195" s="53" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -19081,7 +19106,7 @@
     </row>
     <row r="198" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="56" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D198" s="57">
         <v>3</v>
@@ -19090,12 +19115,12 @@
         <v>7</v>
       </c>
       <c r="F198" s="53" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B199" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D199" s="57">
         <v>1.5</v>
@@ -19127,7 +19152,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B200" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D200" s="57">
         <v>1.5</v>
@@ -19764,11 +19789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L52"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -19860,138 +19885,138 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" t="s">
-        <v>320</v>
+        <v>186</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" t="s">
-        <v>343</v>
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
+        <v>428</v>
+      </c>
+      <c r="I8" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>428</v>
-      </c>
-      <c r="I9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+    <row r="13" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>137</v>
-      </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
+        <v>323</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="I16" t="s">
+        <v>335</v>
+      </c>
+      <c r="K16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>323</v>
-      </c>
-      <c r="G17" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I17" t="s">
-        <v>335</v>
-      </c>
-      <c r="K17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>339</v>
-      </c>
-      <c r="I18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="E18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>446</v>
-      </c>
-      <c r="E19" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+    <row r="21" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>138</v>
       </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
+        <v>442</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>321</v>
       </c>
@@ -20002,7 +20027,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>344</v>
       </c>
@@ -20013,7 +20038,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>232</v>
       </c>
@@ -20024,10 +20049,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>139</v>
       </c>
@@ -20051,10 +20076,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>442</v>
+        <v>320</v>
       </c>
       <c r="E34" t="s">
-        <v>442</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -20119,10 +20144,15 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>720</v>
+      </c>
+      <c r="G43" t="s">
         <v>721</v>
       </c>
-      <c r="G43" t="s">
-        <v>722</v>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -20165,18 +20195,18 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>344</v>
-      </c>
-      <c r="G51" t="s">
-        <v>344</v>
+        <v>335</v>
+      </c>
+      <c r="I51" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>335</v>
-      </c>
-      <c r="I52" t="s">
-        <v>335</v>
+        <v>720</v>
+      </c>
+      <c r="G52" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -20193,7 +20223,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -20417,10 +20447,10 @@
   <dimension ref="A2:O102"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L90" sqref="L90"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -20918,8 +20948,8 @@
       <c r="F29" t="s">
         <v>349</v>
       </c>
-      <c r="G29" t="s">
-        <v>681</v>
+      <c r="G29">
+        <v>0.1</v>
       </c>
       <c r="I29" t="s">
         <v>351</v>
@@ -21050,7 +21080,7 @@
       </c>
       <c r="G38" s="34">
         <f>SUM(G28:G37)</f>
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="J38" s="34">
         <f>SUM(J28:J37)</f>
@@ -21091,10 +21121,10 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -21167,7 +21197,7 @@
         <v>0.5</v>
       </c>
       <c r="I45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -21521,7 +21551,7 @@
         <v>187</v>
       </c>
       <c r="C77" s="84" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D77" s="84"/>
       <c r="E77" s="84"/>
@@ -21655,7 +21685,7 @@
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="81" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C85" s="84"/>
       <c r="D85" s="84"/>
@@ -21731,7 +21761,7 @@
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="81" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C89" s="84"/>
       <c r="D89" s="84"/>

--- a/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1480" windowWidth="28800" windowHeight="16700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4680" yWindow="460" windowWidth="31060" windowHeight="19120" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑9" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="问题记录" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="767">
   <si>
     <t>里程碑目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -3962,7 +3963,8 @@
         <sz val="12"/>
         <color rgb="FF0432FF"/>
         <rFont val="微软雅黑"/>
-        <charset val="136"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>已确认流程，关于提交部分的审核标准需要在里程碑4确定</t>
     </r>
@@ -4102,7 +4104,8 @@
         <sz val="12"/>
         <color rgb="FF0432FF"/>
         <rFont val="微软雅黑"/>
-        <charset val="136"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>（小飞项目是禁止提交无关资源的）</t>
     </r>
@@ -4119,7 +4122,8 @@
         <sz val="12"/>
         <color rgb="FF0432FF"/>
         <rFont val="微软雅黑"/>
-        <charset val="136"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>zz负责审核和提交</t>
     </r>
@@ -5045,10 +5049,6 @@
     <t>副本配置时间预估不准确，出现的bug也比较多</t>
   </si>
   <si>
-    <t>组间依赖任务有</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>没时间做导致延期（资源部分），计划太随意？</t>
     <rPh sb="0" eb="1">
       <t>mei'shi'jian</t>
@@ -5513,6 +5513,116 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>tao'lun</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组间依赖任务有拖沓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定流程：美观性问题主美，MT确认；与功能相关的负责策划和美术确认；相关人员都要及时跟进</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交前自测，看客户端报错，对报错无法定位的找zz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备svn讲座</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效可以宽松一些</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI量要注意，zz查一下，定UI图片unity格式规则</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D动作</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D动作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuote'xiao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源拼接</t>
+    <rPh sb="0" eb="1">
+      <t>pin'jie</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼接</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作，特效</t>
+    <rPh sb="0" eb="1">
+      <t>dong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <rPh sb="0" eb="1">
+      <t>zi'yaun</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画，资源</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'yuanpin'j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会祈福*1</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'fu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等需求，特效</t>
+    <rPh sb="0" eb="1">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>te'x</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础动作</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'zuo</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5688,31 +5798,36 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFBFBFBF"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0432FF"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFA6A6A6"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5816,7 +5931,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6079,6 +6194,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -10627,11 +10745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B121" sqref="B121"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -20510,7 +20628,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="48" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
@@ -21018,7 +21136,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -21096,7 +21214,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>472</v>
       </c>
@@ -21111,11 +21229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O102"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -21123,7 +21241,7 @@
     <col min="1" max="1" width="5.33203125" style="34" customWidth="1"/>
     <col min="2" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="32.1640625" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.83203125" customWidth="1"/>
@@ -21353,7 +21471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" s="34">
         <f>SUM(D4:D10)</f>
         <v>10</v>
@@ -21442,7 +21560,7 @@
       </c>
       <c r="L15" s="86"/>
     </row>
-    <row r="18" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="34">
         <f>SUM(D13:D17)</f>
         <v>9.1</v>
@@ -21543,7 +21661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="34">
         <f>SUM(D20:D25)</f>
         <v>9</v>
@@ -21738,7 +21856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D38" s="34">
         <f>SUM(D28:D37)</f>
         <v>10</v>
@@ -21992,13 +22110,8 @@
       <c r="B65" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="83" t="s">
-        <v>459</v>
-      </c>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
       <c r="F65" s="83" t="s">
-        <v>460</v>
+        <v>761</v>
       </c>
       <c r="G65" s="83"/>
       <c r="H65" s="83"/>
@@ -22034,15 +22147,12 @@
       <c r="B67" t="s">
         <v>271</v>
       </c>
-      <c r="C67" s="83" t="s">
+      <c r="F67" s="83" t="s">
         <v>459</v>
       </c>
-      <c r="F67" s="83" t="s">
+      <c r="I67" s="83" t="s">
         <v>460</v>
       </c>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
       <c r="J67" s="83"/>
       <c r="K67" s="83"/>
       <c r="L67" s="83"/>
@@ -22053,11 +22163,9 @@
       <c r="B68" t="s">
         <v>175</v>
       </c>
-      <c r="C68" s="83" t="s">
-        <v>285</v>
-      </c>
+      <c r="C68" s="83"/>
       <c r="F68" s="83" t="s">
-        <v>459</v>
+        <v>756</v>
       </c>
       <c r="I68" s="83" t="s">
         <v>460</v>
@@ -22072,18 +22180,15 @@
       <c r="B69" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="F69" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="F69" s="83" t="s">
+      <c r="I69" s="83" t="s">
         <v>459</v>
       </c>
-      <c r="I69" s="83" t="s">
+      <c r="L69" s="83" t="s">
         <v>460</v>
       </c>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
       <c r="M69" s="83"/>
       <c r="N69" s="83"/>
     </row>
@@ -22092,12 +22197,12 @@
         <v>173</v>
       </c>
       <c r="F70" s="83" t="s">
-        <v>284</v>
+        <v>757</v>
       </c>
       <c r="G70" s="83"/>
       <c r="H70" s="83"/>
       <c r="I70" s="83" t="s">
-        <v>283</v>
+        <v>758</v>
       </c>
       <c r="J70" s="83"/>
       <c r="K70" s="83"/>
@@ -22110,17 +22215,16 @@
         <v>269</v>
       </c>
       <c r="C71" s="83" t="s">
-        <v>459</v>
-      </c>
-      <c r="F71" s="83" t="s">
-        <v>460</v>
+        <v>766</v>
       </c>
       <c r="G71" s="83"/>
       <c r="H71" s="83"/>
       <c r="I71" s="83"/>
       <c r="J71" s="83"/>
       <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
+      <c r="L71" s="113" t="s">
+        <v>765</v>
+      </c>
       <c r="M71" s="83"/>
       <c r="N71" s="83"/>
     </row>
@@ -22149,17 +22253,17 @@
       <c r="B73" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="F73" s="83" t="s">
         <v>287</v>
-      </c>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83" t="s">
-        <v>288</v>
       </c>
       <c r="G73" s="83"/>
       <c r="H73" s="83"/>
       <c r="I73" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="J73" s="83"/>
+      <c r="K73" s="83"/>
+      <c r="L73" s="83" t="s">
         <v>283</v>
       </c>
       <c r="M73" s="83"/>
@@ -22168,6 +22272,9 @@
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="80" t="s">
         <v>448</v>
+      </c>
+      <c r="F74" s="83" t="s">
+        <v>762</v>
       </c>
       <c r="J74" s="83"/>
       <c r="K74" s="83"/>
@@ -22194,13 +22301,11 @@
       <c r="B76" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="C76" s="83" t="s">
-        <v>295</v>
-      </c>
+      <c r="C76" s="83"/>
       <c r="D76" s="83"/>
       <c r="E76" s="83"/>
       <c r="F76" s="83" t="s">
-        <v>294</v>
+        <v>759</v>
       </c>
       <c r="G76" s="83"/>
       <c r="H76" s="83"/>
@@ -22215,15 +22320,16 @@
       <c r="B77" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="C77" s="83" t="s">
-        <v>709</v>
-      </c>
       <c r="D77" s="83"/>
       <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
+      <c r="F77" s="83" t="s">
+        <v>763</v>
+      </c>
       <c r="G77" s="83"/>
       <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
+      <c r="I77" s="83" t="s">
+        <v>760</v>
+      </c>
       <c r="J77" s="83"/>
       <c r="K77" s="83"/>
       <c r="L77" s="83"/>
@@ -22337,14 +22443,18 @@
       <c r="D84" s="83"/>
       <c r="E84" s="83"/>
       <c r="F84" s="83" t="s">
-        <v>295</v>
+        <v>764</v>
       </c>
       <c r="G84" s="83"/>
       <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
+      <c r="I84" s="83" t="s">
+        <v>764</v>
+      </c>
       <c r="J84" s="83"/>
       <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
+      <c r="L84" s="83" t="s">
+        <v>764</v>
+      </c>
       <c r="M84" s="83"/>
       <c r="N84" s="83"/>
     </row>
@@ -22642,10 +22752,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -22877,10 +22987,9 @@
         <v>3</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
       <c r="F18" s="92"/>
       <c r="G18" s="92"/>
       <c r="H18" s="92"/>
@@ -22888,13 +22997,11 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="92"/>
-      <c r="B19" s="92">
-        <v>4</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>736</v>
-      </c>
-      <c r="D19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92" t="s">
+        <v>751</v>
+      </c>
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>
@@ -22903,8 +23010,12 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="92">
+        <v>4</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>735</v>
+      </c>
       <c r="D20" s="92"/>
       <c r="E20" s="92"/>
       <c r="F20" s="92"/>
@@ -22914,9 +23025,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="92"/>
-      <c r="B21" s="92" t="s">
-        <v>737</v>
-      </c>
+      <c r="B21" s="92"/>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
       <c r="E21" s="92"/>
@@ -22927,12 +23036,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="92"/>
-      <c r="B22" s="92">
-        <v>1</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>738</v>
-      </c>
+      <c r="B22" s="92" t="s">
+        <v>736</v>
+      </c>
+      <c r="C22" s="92"/>
       <c r="D22" s="92"/>
       <c r="E22" s="92"/>
       <c r="F22" s="92"/>
@@ -22942,9 +23049,11 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
+      <c r="B23" s="92">
+        <v>1</v>
+      </c>
       <c r="C23" s="92" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D23" s="92"/>
       <c r="E23" s="92"/>
@@ -22957,7 +23066,7 @@
       <c r="A24" s="92"/>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D24" s="92"/>
       <c r="E24" s="92"/>
@@ -22969,7 +23078,9 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="92"/>
       <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
+      <c r="C25" s="92" t="s">
+        <v>739</v>
+      </c>
       <c r="D25" s="92"/>
       <c r="E25" s="92"/>
       <c r="F25" s="92"/>
@@ -22979,12 +23090,8 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="92"/>
-      <c r="B26" s="92">
-        <v>2</v>
-      </c>
-      <c r="C26" s="92" t="s">
-        <v>741</v>
-      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="92"/>
       <c r="E26" s="92"/>
       <c r="F26" s="92"/>
@@ -22994,7 +23101,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="92"/>
-      <c r="B27" s="92"/>
+      <c r="B27" s="92">
+        <v>2</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>740</v>
+      </c>
+      <c r="D27" s="92"/>
       <c r="E27" s="92"/>
       <c r="F27" s="92"/>
       <c r="G27" s="92"/>
@@ -23003,12 +23116,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="92"/>
-      <c r="B28" s="92">
-        <v>3</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>742</v>
-      </c>
+      <c r="B28" s="92"/>
       <c r="E28" s="92"/>
       <c r="F28" s="92"/>
       <c r="G28" s="92"/>
@@ -23017,9 +23125,11 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
+      <c r="B29" s="92">
+        <v>3</v>
+      </c>
       <c r="C29" s="92" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E29" s="92"/>
       <c r="F29" s="92"/>
@@ -23029,8 +23139,9 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="92" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E30" s="92"/>
       <c r="F30" s="92"/>
@@ -23041,7 +23152,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="92"/>
       <c r="C31" s="92" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E31" s="92"/>
       <c r="F31" s="92"/>
@@ -23052,9 +23163,8 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="92"/>
       <c r="C32" s="92" t="s">
-        <v>746</v>
-      </c>
-      <c r="D32" s="92"/>
+        <v>744</v>
+      </c>
       <c r="E32" s="92"/>
       <c r="F32" s="92"/>
       <c r="G32" s="92"/>
@@ -23063,8 +23173,9 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
+      <c r="C33" s="92" t="s">
+        <v>745</v>
+      </c>
       <c r="D33" s="92"/>
       <c r="E33" s="92"/>
       <c r="F33" s="92"/>
@@ -23074,12 +23185,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="92"/>
-      <c r="B34" s="92">
-        <v>4</v>
-      </c>
-      <c r="C34" s="92" t="s">
-        <v>747</v>
-      </c>
+      <c r="C34" s="92"/>
       <c r="D34" s="92"/>
       <c r="E34" s="92"/>
       <c r="F34" s="92"/>
@@ -23089,11 +23195,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" t="s">
-        <v>748</v>
-      </c>
-      <c r="D35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92" t="s">
+        <v>752</v>
+      </c>
       <c r="E35" s="92"/>
       <c r="F35" s="92"/>
       <c r="G35" s="92"/>
@@ -23102,9 +23207,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
       <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
+      <c r="D36" s="92" t="s">
+        <v>753</v>
+      </c>
       <c r="E36" s="92"/>
       <c r="F36" s="92"/>
       <c r="G36" s="92"/>
@@ -23113,9 +23219,8 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
-      <c r="B37" s="92" t="s">
-        <v>749</v>
-      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="92"/>
       <c r="E37" s="92"/>
       <c r="F37" s="92"/>
@@ -23125,9 +23230,11 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
+      <c r="B38" s="92">
+        <v>4</v>
+      </c>
       <c r="C38" s="92" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D38" s="92"/>
       <c r="E38" s="92"/>
@@ -23139,7 +23246,9 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
       <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
+      <c r="C39" t="s">
+        <v>747</v>
+      </c>
       <c r="D39" s="92"/>
       <c r="E39" s="92"/>
       <c r="F39" s="92"/>
@@ -23150,21 +23259,21 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="92"/>
       <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
+      <c r="D40" s="92" t="s">
+        <v>754</v>
+      </c>
       <c r="E40" s="92"/>
       <c r="F40" s="92"/>
       <c r="G40" s="92"/>
       <c r="H40" s="92"/>
       <c r="I40" s="92"/>
     </row>
-    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="92"/>
-      <c r="B41" s="93" t="s">
-        <v>506</v>
-      </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
+      <c r="B41" s="92"/>
+      <c r="D41" s="92" t="s">
+        <v>755</v>
+      </c>
       <c r="E41" s="92"/>
       <c r="F41" s="92"/>
       <c r="G41" s="92"/>
@@ -23173,9 +23282,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="92"/>
-      <c r="B42" s="92" t="s">
-        <v>507</v>
-      </c>
+      <c r="B42" s="92"/>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
       <c r="E42" s="92"/>
@@ -23186,9 +23293,8 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92" t="s">
-        <v>480</v>
+      <c r="B43" s="92" t="s">
+        <v>748</v>
       </c>
       <c r="D43" s="92"/>
       <c r="E43" s="92"/>
@@ -23201,7 +23307,7 @@
       <c r="A44" s="92"/>
       <c r="B44" s="92"/>
       <c r="C44" s="92" t="s">
-        <v>508</v>
+        <v>749</v>
       </c>
       <c r="D44" s="92"/>
       <c r="E44" s="92"/>
@@ -23213,9 +23319,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="92"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="92" t="s">
-        <v>509</v>
-      </c>
+      <c r="C45" s="92"/>
       <c r="D45" s="92"/>
       <c r="E45" s="92"/>
       <c r="F45" s="92"/>
@@ -23226,9 +23330,7 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="92"/>
       <c r="B46" s="92"/>
-      <c r="C46" s="92" t="s">
-        <v>510</v>
-      </c>
+      <c r="C46" s="92"/>
       <c r="D46" s="92"/>
       <c r="E46" s="92"/>
       <c r="F46" s="92"/>
@@ -23236,13 +23338,13 @@
       <c r="H46" s="92"/>
       <c r="I46" s="92"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92" t="s">
-        <v>511</v>
-      </c>
-      <c r="D47" s="92"/>
+      <c r="B47" s="93" t="s">
+        <v>506</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
       <c r="E47" s="92"/>
       <c r="F47" s="92"/>
       <c r="G47" s="92"/>
@@ -23251,10 +23353,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92" t="s">
-        <v>512</v>
-      </c>
+      <c r="B48" s="92" t="s">
+        <v>507</v>
+      </c>
+      <c r="C48" s="92"/>
       <c r="D48" s="92"/>
       <c r="E48" s="92"/>
       <c r="F48" s="92"/>
@@ -23266,7 +23368,7 @@
       <c r="A49" s="92"/>
       <c r="B49" s="92"/>
       <c r="C49" s="92" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D49" s="92"/>
       <c r="E49" s="92"/>
@@ -23279,7 +23381,7 @@
       <c r="A50" s="92"/>
       <c r="B50" s="92"/>
       <c r="C50" s="92" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="D50" s="92"/>
       <c r="E50" s="92"/>
@@ -23292,7 +23394,7 @@
       <c r="A51" s="92"/>
       <c r="B51" s="92"/>
       <c r="C51" s="92" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="D51" s="92"/>
       <c r="E51" s="92"/>
@@ -23304,7 +23406,9 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="92"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
+      <c r="C52" s="92" t="s">
+        <v>510</v>
+      </c>
       <c r="D52" s="92"/>
       <c r="E52" s="92"/>
       <c r="F52" s="92"/>
@@ -23314,10 +23418,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="92"/>
-      <c r="B53" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="C53" s="92"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92" t="s">
+        <v>511</v>
+      </c>
       <c r="D53" s="92"/>
       <c r="E53" s="92"/>
       <c r="F53" s="92"/>
@@ -23329,7 +23433,7 @@
       <c r="A54" s="92"/>
       <c r="B54" s="92"/>
       <c r="C54" s="92" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D54" s="92"/>
       <c r="E54" s="92"/>
@@ -23342,7 +23446,7 @@
       <c r="A55" s="92"/>
       <c r="B55" s="92"/>
       <c r="C55" s="92" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D55" s="92"/>
       <c r="E55" s="92"/>
@@ -23355,7 +23459,7 @@
       <c r="A56" s="92"/>
       <c r="B56" s="92"/>
       <c r="C56" s="92" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D56" s="92"/>
       <c r="E56" s="92"/>
@@ -23367,7 +23471,9 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="92"/>
       <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
+      <c r="C57" s="92" t="s">
+        <v>486</v>
+      </c>
       <c r="D57" s="92"/>
       <c r="E57" s="92"/>
       <c r="F57" s="92"/>
@@ -23378,9 +23484,7 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="92"/>
       <c r="B58" s="92"/>
-      <c r="C58" s="92" t="s">
-        <v>491</v>
-      </c>
+      <c r="C58" s="92"/>
       <c r="D58" s="92"/>
       <c r="E58" s="92"/>
       <c r="F58" s="92"/>
@@ -23390,13 +23494,11 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="92"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92">
-        <v>1</v>
-      </c>
-      <c r="D59" s="92" t="s">
-        <v>492</v>
-      </c>
+      <c r="B59" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
       <c r="E59" s="92"/>
       <c r="F59" s="92"/>
       <c r="G59" s="92"/>
@@ -23406,10 +23508,10 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="92"/>
       <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92" t="s">
-        <v>493</v>
-      </c>
+      <c r="C60" s="92" t="s">
+        <v>488</v>
+      </c>
+      <c r="D60" s="92"/>
       <c r="E60" s="92"/>
       <c r="F60" s="92"/>
       <c r="G60" s="92"/>
@@ -23419,12 +23521,10 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="92"/>
       <c r="B61" s="92"/>
-      <c r="C61" s="92">
-        <v>2</v>
-      </c>
-      <c r="D61" s="92" t="s">
-        <v>494</v>
-      </c>
+      <c r="C61" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="D61" s="92"/>
       <c r="E61" s="92"/>
       <c r="F61" s="92"/>
       <c r="G61" s="92"/>
@@ -23434,10 +23534,10 @@
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="92"/>
       <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92" t="s">
-        <v>495</v>
-      </c>
+      <c r="C62" s="92" t="s">
+        <v>490</v>
+      </c>
+      <c r="D62" s="92"/>
       <c r="E62" s="92"/>
       <c r="F62" s="92"/>
       <c r="G62" s="92"/>
@@ -23447,12 +23547,8 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="92"/>
       <c r="B63" s="92"/>
-      <c r="C63" s="92">
-        <v>3</v>
-      </c>
-      <c r="D63" s="92" t="s">
-        <v>496</v>
-      </c>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="92"/>
       <c r="F63" s="92"/>
       <c r="G63" s="92"/>
@@ -23462,10 +23558,10 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="92"/>
       <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92" t="s">
-        <v>497</v>
-      </c>
+      <c r="C64" s="92" t="s">
+        <v>491</v>
+      </c>
+      <c r="D64" s="92"/>
       <c r="E64" s="92"/>
       <c r="F64" s="92"/>
       <c r="G64" s="92"/>
@@ -23475,9 +23571,11 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="92"/>
       <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
+      <c r="C65" s="92">
+        <v>1</v>
+      </c>
       <c r="D65" s="92" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E65" s="92"/>
       <c r="F65" s="92"/>
@@ -23489,7 +23587,9 @@
       <c r="A66" s="92"/>
       <c r="B66" s="92"/>
       <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
+      <c r="D66" s="92" t="s">
+        <v>493</v>
+      </c>
       <c r="E66" s="92"/>
       <c r="F66" s="92"/>
       <c r="G66" s="92"/>
@@ -23499,10 +23599,12 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="92"/>
       <c r="B67" s="92"/>
-      <c r="C67" s="92" t="s">
-        <v>499</v>
-      </c>
-      <c r="D67" s="92"/>
+      <c r="C67" s="92">
+        <v>2</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>494</v>
+      </c>
       <c r="E67" s="92"/>
       <c r="F67" s="92"/>
       <c r="G67" s="92"/>
@@ -23514,7 +23616,7 @@
       <c r="B68" s="92"/>
       <c r="C68" s="92"/>
       <c r="D68" s="92" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E68" s="92"/>
       <c r="F68" s="92"/>
@@ -23525,9 +23627,11 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="92"/>
       <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
+      <c r="C69" s="92">
+        <v>3</v>
+      </c>
       <c r="D69" s="92" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E69" s="92"/>
       <c r="F69" s="92"/>
@@ -23539,7 +23643,9 @@
       <c r="A70" s="92"/>
       <c r="B70" s="92"/>
       <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
+      <c r="D70" s="92" t="s">
+        <v>497</v>
+      </c>
       <c r="E70" s="92"/>
       <c r="F70" s="92"/>
       <c r="G70" s="92"/>
@@ -23549,10 +23655,10 @@
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="92"/>
       <c r="B71" s="92"/>
-      <c r="C71" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="D71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92" t="s">
+        <v>498</v>
+      </c>
       <c r="E71" s="92"/>
       <c r="F71" s="92"/>
       <c r="G71" s="92"/>
@@ -23562,9 +23668,7 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="92"/>
       <c r="B72" s="92"/>
-      <c r="C72" s="92" t="s">
-        <v>503</v>
-      </c>
+      <c r="C72" s="92"/>
       <c r="D72" s="92"/>
       <c r="E72" s="92"/>
       <c r="F72" s="92"/>
@@ -23576,7 +23680,7 @@
       <c r="A73" s="92"/>
       <c r="B73" s="92"/>
       <c r="C73" s="92" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D73" s="92"/>
       <c r="E73" s="92"/>
@@ -23588,10 +23692,10 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="92"/>
       <c r="B74" s="92"/>
-      <c r="C74" s="92" t="s">
-        <v>505</v>
-      </c>
-      <c r="D74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92" t="s">
+        <v>500</v>
+      </c>
       <c r="E74" s="92"/>
       <c r="F74" s="92"/>
       <c r="G74" s="92"/>
@@ -23602,20 +23706,20 @@
       <c r="A75" s="92"/>
       <c r="B75" s="92"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
+      <c r="D75" s="92" t="s">
+        <v>501</v>
+      </c>
       <c r="E75" s="92"/>
       <c r="F75" s="92"/>
       <c r="G75" s="92"/>
       <c r="H75" s="92"/>
       <c r="I75" s="92"/>
     </row>
-    <row r="76" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="92"/>
-      <c r="B76" s="93" t="s">
-        <v>513</v>
-      </c>
-      <c r="C76" s="93"/>
-      <c r="D76" s="93"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
       <c r="E76" s="92"/>
       <c r="F76" s="92"/>
       <c r="G76" s="92"/>
@@ -23624,10 +23728,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="92"/>
-      <c r="B77" s="92" t="s">
-        <v>514</v>
-      </c>
-      <c r="C77" s="92"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92" t="s">
+        <v>502</v>
+      </c>
       <c r="D77" s="92"/>
       <c r="E77" s="92"/>
       <c r="F77" s="92"/>
@@ -23639,7 +23743,7 @@
       <c r="A78" s="92"/>
       <c r="B78" s="92"/>
       <c r="C78" s="92" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D78" s="92"/>
       <c r="E78" s="92"/>
@@ -23652,7 +23756,7 @@
       <c r="A79" s="92"/>
       <c r="B79" s="92"/>
       <c r="C79" s="92" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D79" s="92"/>
       <c r="E79" s="92"/>
@@ -23665,7 +23769,7 @@
       <c r="A80" s="92"/>
       <c r="B80" s="92"/>
       <c r="C80" s="92" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D80" s="92"/>
       <c r="E80" s="92"/>
@@ -23677,9 +23781,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="92"/>
       <c r="B81" s="92"/>
-      <c r="C81" s="92" t="s">
-        <v>518</v>
-      </c>
+      <c r="C81" s="92"/>
       <c r="D81" s="92"/>
       <c r="E81" s="92"/>
       <c r="F81" s="92"/>
@@ -23687,13 +23789,13 @@
       <c r="H81" s="92"/>
       <c r="I81" s="92"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="92"/>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92" t="s">
-        <v>519</v>
-      </c>
-      <c r="D82" s="92"/>
+      <c r="B82" s="93" t="s">
+        <v>513</v>
+      </c>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93"/>
       <c r="E82" s="92"/>
       <c r="F82" s="92"/>
       <c r="G82" s="92"/>
@@ -23702,10 +23804,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="92"/>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92" t="s">
-        <v>520</v>
-      </c>
+      <c r="B83" s="92" t="s">
+        <v>514</v>
+      </c>
+      <c r="C83" s="92"/>
       <c r="D83" s="92"/>
       <c r="E83" s="92"/>
       <c r="F83" s="92"/>
@@ -23717,7 +23819,7 @@
       <c r="A84" s="92"/>
       <c r="B84" s="92"/>
       <c r="C84" s="92" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D84" s="92"/>
       <c r="E84" s="92"/>
@@ -23729,7 +23831,9 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="92"/>
       <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
+      <c r="C85" s="92" t="s">
+        <v>516</v>
+      </c>
       <c r="D85" s="92"/>
       <c r="E85" s="92"/>
       <c r="F85" s="92"/>
@@ -23739,10 +23843,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="92"/>
-      <c r="B86" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="C86" s="92"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92" t="s">
+        <v>517</v>
+      </c>
       <c r="D86" s="92"/>
       <c r="E86" s="92"/>
       <c r="F86" s="92"/>
@@ -23753,10 +23857,10 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="92"/>
       <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92" t="s">
-        <v>522</v>
-      </c>
+      <c r="C87" s="92" t="s">
+        <v>518</v>
+      </c>
+      <c r="D87" s="92"/>
       <c r="E87" s="92"/>
       <c r="F87" s="92"/>
       <c r="G87" s="92"/>
@@ -23766,7 +23870,9 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="92"/>
       <c r="B88" s="92"/>
-      <c r="C88" s="92"/>
+      <c r="C88" s="92" t="s">
+        <v>519</v>
+      </c>
       <c r="D88" s="92"/>
       <c r="E88" s="92"/>
       <c r="F88" s="92"/>
@@ -23777,12 +23883,10 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="92"/>
       <c r="B89" s="92"/>
-      <c r="C89" s="92">
-        <v>1</v>
-      </c>
-      <c r="D89" s="92" t="s">
-        <v>523</v>
-      </c>
+      <c r="C89" s="92" t="s">
+        <v>520</v>
+      </c>
+      <c r="D89" s="92"/>
       <c r="E89" s="92"/>
       <c r="F89" s="92"/>
       <c r="G89" s="92"/>
@@ -23792,11 +23896,11 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="92"/>
       <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
+      <c r="C90" s="92" t="s">
+        <v>521</v>
+      </c>
       <c r="D90" s="92"/>
-      <c r="E90" s="92" t="s">
-        <v>524</v>
-      </c>
+      <c r="E90" s="92"/>
       <c r="F90" s="92"/>
       <c r="G90" s="92"/>
       <c r="H90" s="92"/>
@@ -23807,9 +23911,7 @@
       <c r="B91" s="92"/>
       <c r="C91" s="92"/>
       <c r="D91" s="92"/>
-      <c r="E91" s="92" t="s">
-        <v>525</v>
-      </c>
+      <c r="E91" s="92"/>
       <c r="F91" s="92"/>
       <c r="G91" s="92"/>
       <c r="H91" s="92"/>
@@ -23817,12 +23919,12 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="92"/>
-      <c r="B92" s="92"/>
+      <c r="B92" s="92" t="s">
+        <v>487</v>
+      </c>
       <c r="C92" s="92"/>
       <c r="D92" s="92"/>
-      <c r="E92" s="92" t="s">
-        <v>526</v>
-      </c>
+      <c r="E92" s="92"/>
       <c r="F92" s="92"/>
       <c r="G92" s="92"/>
       <c r="H92" s="92"/>
@@ -23832,10 +23934,10 @@
       <c r="A93" s="92"/>
       <c r="B93" s="92"/>
       <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92" t="s">
-        <v>527</v>
-      </c>
+      <c r="D93" s="92" t="s">
+        <v>522</v>
+      </c>
+      <c r="E93" s="92"/>
       <c r="F93" s="92"/>
       <c r="G93" s="92"/>
       <c r="H93" s="92"/>
@@ -23844,12 +23946,8 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="92"/>
       <c r="B94" s="92"/>
-      <c r="C94" s="92">
-        <v>2</v>
-      </c>
-      <c r="D94" s="92" t="s">
-        <v>528</v>
-      </c>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
       <c r="E94" s="92"/>
       <c r="F94" s="92"/>
       <c r="G94" s="92"/>
@@ -23859,11 +23957,13 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="92"/>
       <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92" t="s">
-        <v>529</v>
-      </c>
+      <c r="C95" s="92">
+        <v>1</v>
+      </c>
+      <c r="D95" s="92" t="s">
+        <v>523</v>
+      </c>
+      <c r="E95" s="92"/>
       <c r="F95" s="92"/>
       <c r="G95" s="92"/>
       <c r="H95" s="92"/>
@@ -23875,7 +23975,7 @@
       <c r="C96" s="92"/>
       <c r="D96" s="92"/>
       <c r="E96" s="92" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F96" s="92"/>
       <c r="G96" s="92"/>
@@ -23888,7 +23988,7 @@
       <c r="C97" s="92"/>
       <c r="D97" s="92"/>
       <c r="E97" s="92" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F97" s="92"/>
       <c r="G97" s="92"/>
@@ -23901,7 +24001,7 @@
       <c r="C98" s="92"/>
       <c r="D98" s="92"/>
       <c r="E98" s="92" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F98" s="92"/>
       <c r="G98" s="92"/>
@@ -23914,7 +24014,7 @@
       <c r="C99" s="92"/>
       <c r="D99" s="92"/>
       <c r="E99" s="92" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F99" s="92"/>
       <c r="G99" s="92"/>
@@ -23924,28 +24024,30 @@
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="92"/>
       <c r="B100" s="92"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92" t="s">
-        <v>534</v>
-      </c>
+      <c r="C100" s="92">
+        <v>2</v>
+      </c>
+      <c r="D100" s="92" t="s">
+        <v>528</v>
+      </c>
+      <c r="E100" s="92"/>
       <c r="F100" s="92"/>
       <c r="G100" s="92"/>
       <c r="H100" s="92"/>
       <c r="I100" s="92"/>
     </row>
-    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="92"/>
       <c r="B101" s="92"/>
       <c r="C101" s="92"/>
       <c r="D101" s="92"/>
-      <c r="E101" s="94" t="s">
-        <v>535</v>
-      </c>
-      <c r="F101" s="94"/>
-      <c r="G101" s="94"/>
-      <c r="H101" s="94"/>
-      <c r="I101" s="94"/>
+      <c r="E101" s="92" t="s">
+        <v>529</v>
+      </c>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="92"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="92"/>
@@ -23953,7 +24055,7 @@
       <c r="C102" s="92"/>
       <c r="D102" s="92"/>
       <c r="E102" s="92" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F102" s="92"/>
       <c r="G102" s="92"/>
@@ -23963,13 +24065,11 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="92"/>
       <c r="B103" s="92"/>
-      <c r="C103" s="92">
-        <v>3</v>
-      </c>
-      <c r="D103" s="92" t="s">
-        <v>537</v>
-      </c>
-      <c r="E103" s="92"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92" t="s">
+        <v>531</v>
+      </c>
       <c r="F103" s="92"/>
       <c r="G103" s="92"/>
       <c r="H103" s="92"/>
@@ -23978,13 +24078,11 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="92"/>
       <c r="B104" s="92"/>
-      <c r="C104" s="92">
-        <v>4</v>
-      </c>
-      <c r="D104" s="92" t="s">
-        <v>538</v>
-      </c>
-      <c r="E104" s="92"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="92" t="s">
+        <v>532</v>
+      </c>
       <c r="F104" s="92"/>
       <c r="G104" s="92"/>
       <c r="H104" s="92"/>
@@ -23993,13 +24091,11 @@
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="92"/>
       <c r="B105" s="92"/>
-      <c r="C105" s="92">
-        <v>5</v>
-      </c>
-      <c r="D105" s="92" t="s">
-        <v>539</v>
-      </c>
-      <c r="E105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92" t="s">
+        <v>533</v>
+      </c>
       <c r="F105" s="92"/>
       <c r="G105" s="92"/>
       <c r="H105" s="92"/>
@@ -24010,7 +24106,9 @@
       <c r="B106" s="92"/>
       <c r="C106" s="92"/>
       <c r="D106" s="92"/>
-      <c r="E106" s="92"/>
+      <c r="E106" s="92" t="s">
+        <v>534</v>
+      </c>
       <c r="F106" s="92"/>
       <c r="G106" s="92"/>
       <c r="H106" s="92"/>
@@ -24021,30 +24119,36 @@
       <c r="B107" s="92"/>
       <c r="C107" s="92"/>
       <c r="D107" s="92"/>
-      <c r="E107" s="94"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="92"/>
-      <c r="I107" s="92"/>
+      <c r="E107" s="94" t="s">
+        <v>535</v>
+      </c>
+      <c r="F107" s="94"/>
+      <c r="G107" s="94"/>
+      <c r="H107" s="94"/>
+      <c r="I107" s="94"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="92"/>
       <c r="B108" s="92"/>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
-      <c r="E108" s="92"/>
+      <c r="E108" s="92" t="s">
+        <v>536</v>
+      </c>
       <c r="F108" s="92"/>
       <c r="G108" s="92"/>
       <c r="H108" s="92"/>
       <c r="I108" s="92"/>
     </row>
-    <row r="109" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="92"/>
-      <c r="B109" s="93" t="s">
-        <v>540</v>
-      </c>
-      <c r="C109" s="93"/>
-      <c r="D109" s="93"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="92">
+        <v>3</v>
+      </c>
+      <c r="D109" s="92" t="s">
+        <v>537</v>
+      </c>
       <c r="E109" s="92"/>
       <c r="F109" s="92"/>
       <c r="G109" s="92"/>
@@ -24053,11 +24157,13 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="92"/>
-      <c r="B110" s="92" t="s">
-        <v>541</v>
-      </c>
-      <c r="C110" s="92"/>
-      <c r="D110" s="92"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="92">
+        <v>4</v>
+      </c>
+      <c r="D110" s="92" t="s">
+        <v>538</v>
+      </c>
       <c r="E110" s="92"/>
       <c r="F110" s="92"/>
       <c r="G110" s="92"/>
@@ -24067,10 +24173,12 @@
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="92"/>
       <c r="B111" s="92"/>
-      <c r="C111" s="92" t="s">
-        <v>542</v>
-      </c>
-      <c r="D111" s="92"/>
+      <c r="C111" s="92">
+        <v>5</v>
+      </c>
+      <c r="D111" s="92" t="s">
+        <v>539</v>
+      </c>
       <c r="E111" s="92"/>
       <c r="F111" s="92"/>
       <c r="G111" s="92"/>
@@ -24080,9 +24188,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="92"/>
       <c r="B112" s="92"/>
-      <c r="C112" s="92" t="s">
-        <v>543</v>
-      </c>
+      <c r="C112" s="92"/>
       <c r="D112" s="92"/>
       <c r="E112" s="92"/>
       <c r="F112" s="92"/>
@@ -24090,14 +24196,12 @@
       <c r="H112" s="92"/>
       <c r="I112" s="92"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="92"/>
       <c r="B113" s="92"/>
-      <c r="C113" s="92" t="s">
-        <v>544</v>
-      </c>
+      <c r="C113" s="92"/>
       <c r="D113" s="92"/>
-      <c r="E113" s="92"/>
+      <c r="E113" s="94"/>
       <c r="F113" s="92"/>
       <c r="G113" s="92"/>
       <c r="H113" s="92"/>
@@ -24106,9 +24210,7 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="92"/>
       <c r="B114" s="92"/>
-      <c r="C114" s="92" t="s">
-        <v>545</v>
-      </c>
+      <c r="C114" s="92"/>
       <c r="D114" s="92"/>
       <c r="E114" s="92"/>
       <c r="F114" s="92"/>
@@ -24116,13 +24218,13 @@
       <c r="H114" s="92"/>
       <c r="I114" s="92"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="92"/>
-      <c r="B115" s="92"/>
-      <c r="C115" s="92" t="s">
-        <v>546</v>
-      </c>
-      <c r="D115" s="92"/>
+      <c r="B115" s="93" t="s">
+        <v>540</v>
+      </c>
+      <c r="C115" s="93"/>
+      <c r="D115" s="93"/>
       <c r="E115" s="92"/>
       <c r="F115" s="92"/>
       <c r="G115" s="92"/>
@@ -24131,10 +24233,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="92"/>
-      <c r="B116" s="92"/>
-      <c r="C116" s="92" t="s">
-        <v>547</v>
-      </c>
+      <c r="B116" s="92" t="s">
+        <v>541</v>
+      </c>
+      <c r="C116" s="92"/>
       <c r="D116" s="92"/>
       <c r="E116" s="92"/>
       <c r="F116" s="92"/>
@@ -24146,7 +24248,7 @@
       <c r="A117" s="92"/>
       <c r="B117" s="92"/>
       <c r="C117" s="92" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D117" s="92"/>
       <c r="E117" s="92"/>
@@ -24158,7 +24260,9 @@
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="92"/>
       <c r="B118" s="92"/>
-      <c r="C118" s="92"/>
+      <c r="C118" s="92" t="s">
+        <v>543</v>
+      </c>
       <c r="D118" s="92"/>
       <c r="E118" s="92"/>
       <c r="F118" s="92"/>
@@ -24168,10 +24272,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="92"/>
-      <c r="B119" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="C119" s="92"/>
+      <c r="B119" s="92"/>
+      <c r="C119" s="92" t="s">
+        <v>544</v>
+      </c>
       <c r="D119" s="92"/>
       <c r="E119" s="92"/>
       <c r="F119" s="92"/>
@@ -24182,12 +24286,10 @@
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="92"/>
       <c r="B120" s="92"/>
-      <c r="C120" s="92">
-        <v>1</v>
-      </c>
-      <c r="D120" s="92" t="s">
-        <v>549</v>
-      </c>
+      <c r="C120" s="92" t="s">
+        <v>545</v>
+      </c>
+      <c r="D120" s="92"/>
       <c r="E120" s="92"/>
       <c r="F120" s="92"/>
       <c r="G120" s="92"/>
@@ -24197,10 +24299,10 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="92"/>
       <c r="B121" s="92"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="92" t="s">
-        <v>550</v>
-      </c>
+      <c r="C121" s="92" t="s">
+        <v>546</v>
+      </c>
+      <c r="D121" s="92"/>
       <c r="E121" s="92"/>
       <c r="F121" s="92"/>
       <c r="G121" s="92"/>
@@ -24210,12 +24312,10 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="92"/>
       <c r="B122" s="92"/>
-      <c r="C122" s="92">
-        <v>2</v>
-      </c>
-      <c r="D122" s="92" t="s">
-        <v>551</v>
-      </c>
+      <c r="C122" s="92" t="s">
+        <v>547</v>
+      </c>
+      <c r="D122" s="92"/>
       <c r="E122" s="92"/>
       <c r="F122" s="92"/>
       <c r="G122" s="92"/>
@@ -24225,10 +24325,10 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="92"/>
       <c r="B123" s="92"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="92" t="s">
-        <v>552</v>
-      </c>
+      <c r="C123" s="92" t="s">
+        <v>548</v>
+      </c>
+      <c r="D123" s="92"/>
       <c r="E123" s="92"/>
       <c r="F123" s="92"/>
       <c r="G123" s="92"/>
@@ -24238,12 +24338,8 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="92"/>
       <c r="B124" s="92"/>
-      <c r="C124" s="92">
-        <v>3</v>
-      </c>
-      <c r="D124" s="92" t="s">
-        <v>553</v>
-      </c>
+      <c r="C124" s="92"/>
+      <c r="D124" s="92"/>
       <c r="E124" s="92"/>
       <c r="F124" s="92"/>
       <c r="G124" s="92"/>
@@ -24252,11 +24348,11 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="92"/>
-      <c r="B125" s="92"/>
+      <c r="B125" s="92" t="s">
+        <v>487</v>
+      </c>
       <c r="C125" s="92"/>
-      <c r="D125" s="92" t="s">
-        <v>554</v>
-      </c>
+      <c r="D125" s="92"/>
       <c r="E125" s="92"/>
       <c r="F125" s="92"/>
       <c r="G125" s="92"/>
@@ -24267,10 +24363,10 @@
       <c r="A126" s="92"/>
       <c r="B126" s="92"/>
       <c r="C126" s="92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D126" s="92" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E126" s="92"/>
       <c r="F126" s="92"/>
@@ -24283,7 +24379,7 @@
       <c r="B127" s="92"/>
       <c r="C127" s="92"/>
       <c r="D127" s="92" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E127" s="92"/>
       <c r="F127" s="92"/>
@@ -24295,10 +24391,10 @@
       <c r="A128" s="92"/>
       <c r="B128" s="92"/>
       <c r="C128" s="92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D128" s="92" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E128" s="92"/>
       <c r="F128" s="92"/>
@@ -24311,7 +24407,7 @@
       <c r="B129" s="92"/>
       <c r="C129" s="92"/>
       <c r="D129" s="92" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E129" s="92"/>
       <c r="F129" s="92"/>
@@ -24323,10 +24419,10 @@
       <c r="A130" s="92"/>
       <c r="B130" s="92"/>
       <c r="C130" s="92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D130" s="92" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E130" s="92"/>
       <c r="F130" s="92"/>
@@ -24337,11 +24433,9 @@
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="92"/>
       <c r="B131" s="92"/>
-      <c r="C131" s="92">
-        <v>7</v>
-      </c>
+      <c r="C131" s="92"/>
       <c r="D131" s="92" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E131" s="92"/>
       <c r="F131" s="92"/>
@@ -24352,9 +24446,11 @@
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="92"/>
       <c r="B132" s="92"/>
-      <c r="C132" s="92"/>
+      <c r="C132" s="92">
+        <v>4</v>
+      </c>
       <c r="D132" s="92" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E132" s="92"/>
       <c r="F132" s="92"/>
@@ -24365,11 +24461,9 @@
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="92"/>
       <c r="B133" s="92"/>
-      <c r="C133" s="92">
-        <v>8</v>
-      </c>
+      <c r="C133" s="92"/>
       <c r="D133" s="92" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E133" s="92"/>
       <c r="F133" s="92"/>
@@ -24381,10 +24475,10 @@
       <c r="A134" s="92"/>
       <c r="B134" s="92"/>
       <c r="C134" s="92">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D134" s="92" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E134" s="92"/>
       <c r="F134" s="92"/>
@@ -24395,11 +24489,9 @@
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="92"/>
       <c r="B135" s="92"/>
-      <c r="C135" s="92">
-        <v>10</v>
-      </c>
+      <c r="C135" s="92"/>
       <c r="D135" s="92" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E135" s="92"/>
       <c r="F135" s="92"/>
@@ -24411,10 +24503,10 @@
       <c r="A136" s="92"/>
       <c r="B136" s="92"/>
       <c r="C136" s="92">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D136" s="92" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E136" s="92"/>
       <c r="F136" s="92"/>
@@ -24426,10 +24518,10 @@
       <c r="A137" s="92"/>
       <c r="B137" s="92"/>
       <c r="C137" s="92">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D137" s="92" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E137" s="92"/>
       <c r="F137" s="92"/>
@@ -24441,7 +24533,9 @@
       <c r="A138" s="92"/>
       <c r="B138" s="92"/>
       <c r="C138" s="92"/>
-      <c r="D138" s="92"/>
+      <c r="D138" s="92" t="s">
+        <v>561</v>
+      </c>
       <c r="E138" s="92"/>
       <c r="F138" s="92"/>
       <c r="G138" s="92"/>
@@ -24451,21 +24545,27 @@
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="92"/>
       <c r="B139" s="92"/>
-      <c r="C139" s="92"/>
-      <c r="D139" s="92"/>
+      <c r="C139" s="92">
+        <v>8</v>
+      </c>
+      <c r="D139" s="92" t="s">
+        <v>562</v>
+      </c>
       <c r="E139" s="92"/>
       <c r="F139" s="92"/>
       <c r="G139" s="92"/>
       <c r="H139" s="92"/>
       <c r="I139" s="92"/>
     </row>
-    <row r="140" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="92"/>
-      <c r="B140" s="93" t="s">
-        <v>567</v>
-      </c>
-      <c r="C140" s="93"/>
-      <c r="D140" s="93"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="92">
+        <v>9</v>
+      </c>
+      <c r="D140" s="92" t="s">
+        <v>563</v>
+      </c>
       <c r="E140" s="92"/>
       <c r="F140" s="92"/>
       <c r="G140" s="92"/>
@@ -24474,11 +24574,13 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="92"/>
-      <c r="B141" s="92" t="s">
-        <v>568</v>
-      </c>
-      <c r="C141" s="92"/>
-      <c r="D141" s="92"/>
+      <c r="B141" s="92"/>
+      <c r="C141" s="92">
+        <v>10</v>
+      </c>
+      <c r="D141" s="92" t="s">
+        <v>564</v>
+      </c>
       <c r="E141" s="92"/>
       <c r="F141" s="92"/>
       <c r="G141" s="92"/>
@@ -24488,10 +24590,12 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="92"/>
       <c r="B142" s="92"/>
-      <c r="C142" s="92" t="s">
-        <v>569</v>
-      </c>
-      <c r="D142" s="92"/>
+      <c r="C142" s="92">
+        <v>11</v>
+      </c>
+      <c r="D142" s="92" t="s">
+        <v>565</v>
+      </c>
       <c r="E142" s="92"/>
       <c r="F142" s="92"/>
       <c r="G142" s="92"/>
@@ -24501,10 +24605,12 @@
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="92"/>
       <c r="B143" s="92"/>
-      <c r="C143" s="92" t="s">
-        <v>570</v>
-      </c>
-      <c r="D143" s="92"/>
+      <c r="C143" s="92">
+        <v>12</v>
+      </c>
+      <c r="D143" s="92" t="s">
+        <v>566</v>
+      </c>
       <c r="E143" s="92"/>
       <c r="F143" s="92"/>
       <c r="G143" s="92"/>
@@ -24514,9 +24620,7 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="92"/>
       <c r="B144" s="92"/>
-      <c r="C144" s="92" t="s">
-        <v>571</v>
-      </c>
+      <c r="C144" s="92"/>
       <c r="D144" s="92"/>
       <c r="E144" s="92"/>
       <c r="F144" s="92"/>
@@ -24527,9 +24631,7 @@
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="92"/>
       <c r="B145" s="92"/>
-      <c r="C145" s="92" t="s">
-        <v>572</v>
-      </c>
+      <c r="C145" s="92"/>
       <c r="D145" s="92"/>
       <c r="E145" s="92"/>
       <c r="F145" s="92"/>
@@ -24537,13 +24639,13 @@
       <c r="H145" s="92"/>
       <c r="I145" s="92"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="92"/>
-      <c r="B146" s="92"/>
-      <c r="C146" s="92" t="s">
-        <v>573</v>
-      </c>
-      <c r="D146" s="92"/>
+      <c r="B146" s="93" t="s">
+        <v>567</v>
+      </c>
+      <c r="C146" s="93"/>
+      <c r="D146" s="93"/>
       <c r="E146" s="92"/>
       <c r="F146" s="92"/>
       <c r="G146" s="92"/>
@@ -24552,10 +24654,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="92"/>
-      <c r="B147" s="92"/>
-      <c r="C147" s="92" t="s">
-        <v>574</v>
-      </c>
+      <c r="B147" s="92" t="s">
+        <v>568</v>
+      </c>
+      <c r="C147" s="92"/>
       <c r="D147" s="92"/>
       <c r="E147" s="92"/>
       <c r="F147" s="92"/>
@@ -24567,7 +24669,7 @@
       <c r="A148" s="92"/>
       <c r="B148" s="92"/>
       <c r="C148" s="92" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D148" s="92"/>
       <c r="E148" s="92"/>
@@ -24580,7 +24682,7 @@
       <c r="A149" s="92"/>
       <c r="B149" s="92"/>
       <c r="C149" s="92" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D149" s="92"/>
       <c r="E149" s="92"/>
@@ -24593,7 +24695,7 @@
       <c r="A150" s="92"/>
       <c r="B150" s="92"/>
       <c r="C150" s="92" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D150" s="92"/>
       <c r="E150" s="92"/>
@@ -24605,7 +24707,9 @@
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="92"/>
       <c r="B151" s="92"/>
-      <c r="C151" s="92"/>
+      <c r="C151" s="92" t="s">
+        <v>572</v>
+      </c>
       <c r="D151" s="92"/>
       <c r="E151" s="92"/>
       <c r="F151" s="92"/>
@@ -24617,7 +24721,7 @@
       <c r="A152" s="92"/>
       <c r="B152" s="92"/>
       <c r="C152" s="92" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D152" s="92"/>
       <c r="E152" s="92"/>
@@ -24630,7 +24734,7 @@
       <c r="A153" s="92"/>
       <c r="B153" s="92"/>
       <c r="C153" s="92" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D153" s="92"/>
       <c r="E153" s="92"/>
@@ -24642,7 +24746,9 @@
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="92"/>
       <c r="B154" s="92"/>
-      <c r="C154" s="92"/>
+      <c r="C154" s="92" t="s">
+        <v>575</v>
+      </c>
       <c r="D154" s="92"/>
       <c r="E154" s="92"/>
       <c r="F154" s="92"/>
@@ -24652,10 +24758,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="92"/>
-      <c r="B155" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="C155" s="92"/>
+      <c r="B155" s="92"/>
+      <c r="C155" s="92" t="s">
+        <v>576</v>
+      </c>
       <c r="D155" s="92"/>
       <c r="E155" s="92"/>
       <c r="F155" s="92"/>
@@ -24665,11 +24771,9 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="92"/>
-      <c r="B156" s="92">
-        <v>1</v>
-      </c>
+      <c r="B156" s="92"/>
       <c r="C156" s="92" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D156" s="92"/>
       <c r="E156" s="92"/>
@@ -24680,12 +24784,8 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="92"/>
-      <c r="B157" s="92">
-        <v>2</v>
-      </c>
-      <c r="C157" s="92" t="s">
-        <v>581</v>
-      </c>
+      <c r="B157" s="92"/>
+      <c r="C157" s="92"/>
       <c r="D157" s="92"/>
       <c r="E157" s="92"/>
       <c r="F157" s="92"/>
@@ -24695,11 +24795,9 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="92"/>
-      <c r="B158" s="92">
-        <v>3</v>
-      </c>
+      <c r="B158" s="92"/>
       <c r="C158" s="92" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D158" s="92"/>
       <c r="E158" s="92"/>
@@ -24712,7 +24810,7 @@
       <c r="A159" s="92"/>
       <c r="B159" s="92"/>
       <c r="C159" s="92" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D159" s="92"/>
       <c r="E159" s="92"/>
@@ -24724,9 +24822,7 @@
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="92"/>
       <c r="B160" s="92"/>
-      <c r="C160" s="92" t="s">
-        <v>584</v>
-      </c>
+      <c r="C160" s="92"/>
       <c r="D160" s="92"/>
       <c r="E160" s="92"/>
       <c r="F160" s="92"/>
@@ -24736,7 +24832,9 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="92"/>
-      <c r="B161" s="92"/>
+      <c r="B161" s="92" t="s">
+        <v>487</v>
+      </c>
       <c r="C161" s="92"/>
       <c r="D161" s="92"/>
       <c r="E161" s="92"/>
@@ -24747,8 +24845,12 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="92"/>
-      <c r="B162" s="92"/>
-      <c r="C162" s="92"/>
+      <c r="B162" s="92">
+        <v>1</v>
+      </c>
+      <c r="C162" s="92" t="s">
+        <v>580</v>
+      </c>
       <c r="D162" s="92"/>
       <c r="E162" s="92"/>
       <c r="F162" s="92"/>
@@ -24758,8 +24860,12 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="92"/>
-      <c r="B163" s="92"/>
-      <c r="C163" s="92"/>
+      <c r="B163" s="92">
+        <v>2</v>
+      </c>
+      <c r="C163" s="92" t="s">
+        <v>581</v>
+      </c>
       <c r="D163" s="92"/>
       <c r="E163" s="92"/>
       <c r="F163" s="92"/>
@@ -24769,10 +24875,12 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="92"/>
-      <c r="B164" s="92" t="s">
-        <v>585</v>
-      </c>
-      <c r="C164" s="92"/>
+      <c r="B164" s="92">
+        <v>3</v>
+      </c>
+      <c r="C164" s="92" t="s">
+        <v>582</v>
+      </c>
       <c r="D164" s="92"/>
       <c r="E164" s="92"/>
       <c r="F164" s="92"/>
@@ -24780,68 +24888,58 @@
       <c r="H164" s="92"/>
       <c r="I164" s="92"/>
     </row>
-    <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="92"/>
-      <c r="B165" s="92">
-        <v>1</v>
-      </c>
-      <c r="C165" s="95" t="s">
-        <v>586</v>
-      </c>
-      <c r="D165" s="95"/>
+      <c r="B165" s="92"/>
+      <c r="C165" s="92" t="s">
+        <v>583</v>
+      </c>
+      <c r="D165" s="92"/>
       <c r="E165" s="92"/>
       <c r="F165" s="92"/>
       <c r="G165" s="92"/>
       <c r="H165" s="92"/>
       <c r="I165" s="92"/>
     </row>
-    <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="92"/>
       <c r="B166" s="92"/>
-      <c r="C166" s="95"/>
-      <c r="D166" s="95" t="s">
-        <v>587</v>
-      </c>
-      <c r="E166" s="95"/>
-      <c r="F166" s="95"/>
+      <c r="C166" s="92" t="s">
+        <v>584</v>
+      </c>
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+      <c r="F166" s="92"/>
       <c r="G166" s="92"/>
       <c r="H166" s="92"/>
       <c r="I166" s="92"/>
     </row>
-    <row r="167" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="92"/>
       <c r="B167" s="92"/>
-      <c r="C167" s="95"/>
-      <c r="D167" s="95" t="s">
-        <v>588</v>
-      </c>
-      <c r="E167" s="95"/>
-      <c r="F167" s="95"/>
-      <c r="G167" s="95"/>
-      <c r="H167" s="95"/>
-      <c r="I167" s="95"/>
-    </row>
-    <row r="168" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C167" s="92"/>
+      <c r="D167" s="92"/>
+      <c r="E167" s="92"/>
+      <c r="F167" s="92"/>
+      <c r="G167" s="92"/>
+      <c r="H167" s="92"/>
+      <c r="I167" s="92"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="92"/>
       <c r="B168" s="92"/>
-      <c r="C168" s="95"/>
-      <c r="D168" s="95" t="s">
-        <v>589</v>
-      </c>
-      <c r="E168" s="95"/>
-      <c r="F168" s="95"/>
-      <c r="G168" s="95"/>
-      <c r="H168" s="95"/>
-      <c r="I168" s="95"/>
-    </row>
-    <row r="169" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C168" s="92"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="92"/>
+      <c r="F168" s="92"/>
+      <c r="G168" s="92"/>
+      <c r="H168" s="92"/>
+      <c r="I168" s="92"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="92"/>
-      <c r="B169" s="92">
-        <v>2</v>
-      </c>
-      <c r="C169" s="92" t="s">
-        <v>590</v>
-      </c>
+      <c r="B169" s="92"/>
+      <c r="C169" s="92"/>
       <c r="D169" s="92"/>
       <c r="E169" s="92"/>
       <c r="F169" s="92"/>
@@ -24851,12 +24949,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="92"/>
-      <c r="B170" s="92">
-        <v>3</v>
-      </c>
-      <c r="C170" s="92" t="s">
-        <v>591</v>
-      </c>
+      <c r="B170" s="92" t="s">
+        <v>585</v>
+      </c>
+      <c r="C170" s="92"/>
       <c r="D170" s="92"/>
       <c r="E170" s="92"/>
       <c r="F170" s="92"/>
@@ -24866,63 +24962,67 @@
     </row>
     <row r="171" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="92"/>
-      <c r="B171" s="96">
-        <v>4</v>
-      </c>
-      <c r="C171" s="96" t="s">
-        <v>592</v>
-      </c>
-      <c r="D171" s="96"/>
-      <c r="E171" s="96"/>
-      <c r="F171" s="96"/>
-      <c r="G171" s="96"/>
-      <c r="H171" s="96"/>
-      <c r="I171" s="96"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="92">
+        <v>1</v>
+      </c>
+      <c r="C171" s="95" t="s">
+        <v>586</v>
+      </c>
+      <c r="D171" s="95"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="92"/>
+      <c r="G171" s="92"/>
+      <c r="H171" s="92"/>
+      <c r="I171" s="92"/>
+    </row>
+    <row r="172" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="92"/>
-      <c r="B172" s="92">
-        <v>5</v>
-      </c>
-      <c r="C172" s="92" t="s">
-        <v>593</v>
-      </c>
-      <c r="D172" s="92"/>
-      <c r="E172" s="92"/>
-      <c r="F172" s="92"/>
+      <c r="B172" s="92"/>
+      <c r="C172" s="95"/>
+      <c r="D172" s="95" t="s">
+        <v>587</v>
+      </c>
+      <c r="E172" s="95"/>
+      <c r="F172" s="95"/>
       <c r="G172" s="92"/>
       <c r="H172" s="92"/>
       <c r="I172" s="92"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="92"/>
       <c r="B173" s="92"/>
-      <c r="C173" s="92"/>
-      <c r="D173" s="92"/>
-      <c r="E173" s="92"/>
-      <c r="F173" s="92"/>
-      <c r="G173" s="92"/>
-      <c r="H173" s="92"/>
-      <c r="I173" s="92"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C173" s="95"/>
+      <c r="D173" s="95" t="s">
+        <v>588</v>
+      </c>
+      <c r="E173" s="95"/>
+      <c r="F173" s="95"/>
+      <c r="G173" s="95"/>
+      <c r="H173" s="95"/>
+      <c r="I173" s="95"/>
+    </row>
+    <row r="174" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="92"/>
       <c r="B174" s="92"/>
-      <c r="C174" s="92"/>
-      <c r="D174" s="92"/>
-      <c r="E174" s="92"/>
-      <c r="F174" s="92"/>
-      <c r="G174" s="92"/>
-      <c r="H174" s="92"/>
-      <c r="I174" s="92"/>
-    </row>
-    <row r="175" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="C174" s="95"/>
+      <c r="D174" s="95" t="s">
+        <v>589</v>
+      </c>
+      <c r="E174" s="95"/>
+      <c r="F174" s="95"/>
+      <c r="G174" s="95"/>
+      <c r="H174" s="95"/>
+      <c r="I174" s="95"/>
+    </row>
+    <row r="175" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="92"/>
-      <c r="B175" s="93" t="s">
-        <v>594</v>
-      </c>
-      <c r="C175" s="93"/>
-      <c r="D175" s="93"/>
+      <c r="B175" s="92">
+        <v>2</v>
+      </c>
+      <c r="C175" s="92" t="s">
+        <v>590</v>
+      </c>
+      <c r="D175" s="92"/>
       <c r="E175" s="92"/>
       <c r="F175" s="92"/>
       <c r="G175" s="92"/>
@@ -24931,10 +25031,12 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="92"/>
-      <c r="B176" s="92" t="s">
-        <v>595</v>
-      </c>
-      <c r="C176" s="92"/>
+      <c r="B176" s="92">
+        <v>3</v>
+      </c>
+      <c r="C176" s="92" t="s">
+        <v>591</v>
+      </c>
       <c r="D176" s="92"/>
       <c r="E176" s="92"/>
       <c r="F176" s="92"/>
@@ -24942,24 +25044,28 @@
       <c r="H176" s="92"/>
       <c r="I176" s="92"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="92"/>
-      <c r="B177" s="92"/>
-      <c r="C177" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="D177" s="92"/>
-      <c r="E177" s="92"/>
-      <c r="F177" s="92"/>
-      <c r="G177" s="92"/>
-      <c r="H177" s="92"/>
-      <c r="I177" s="92"/>
+      <c r="B177" s="96">
+        <v>4</v>
+      </c>
+      <c r="C177" s="96" t="s">
+        <v>592</v>
+      </c>
+      <c r="D177" s="96"/>
+      <c r="E177" s="96"/>
+      <c r="F177" s="96"/>
+      <c r="G177" s="96"/>
+      <c r="H177" s="96"/>
+      <c r="I177" s="96"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="92"/>
-      <c r="B178" s="92"/>
+      <c r="B178" s="92">
+        <v>5</v>
+      </c>
       <c r="C178" s="92" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D178" s="92"/>
       <c r="E178" s="92"/>
@@ -24971,9 +25077,7 @@
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="92"/>
       <c r="B179" s="92"/>
-      <c r="C179" s="92" t="s">
-        <v>598</v>
-      </c>
+      <c r="C179" s="92"/>
       <c r="D179" s="92"/>
       <c r="E179" s="92"/>
       <c r="F179" s="92"/>
@@ -24984,9 +25088,7 @@
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="92"/>
       <c r="B180" s="92"/>
-      <c r="C180" s="92" t="s">
-        <v>599</v>
-      </c>
+      <c r="C180" s="92"/>
       <c r="D180" s="92"/>
       <c r="E180" s="92"/>
       <c r="F180" s="92"/>
@@ -24994,13 +25096,13 @@
       <c r="H180" s="92"/>
       <c r="I180" s="92"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A181" s="92"/>
-      <c r="B181" s="92"/>
-      <c r="C181" s="92" t="s">
-        <v>600</v>
-      </c>
-      <c r="D181" s="92"/>
+      <c r="B181" s="93" t="s">
+        <v>594</v>
+      </c>
+      <c r="C181" s="93"/>
+      <c r="D181" s="93"/>
       <c r="E181" s="92"/>
       <c r="F181" s="92"/>
       <c r="G181" s="92"/>
@@ -25009,10 +25111,10 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="92"/>
-      <c r="B182" s="92"/>
-      <c r="C182" s="92" t="s">
-        <v>601</v>
-      </c>
+      <c r="B182" s="92" t="s">
+        <v>595</v>
+      </c>
+      <c r="C182" s="92"/>
       <c r="D182" s="92"/>
       <c r="E182" s="92"/>
       <c r="F182" s="92"/>
@@ -25023,7 +25125,9 @@
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="92"/>
       <c r="B183" s="92"/>
-      <c r="C183" s="92"/>
+      <c r="C183" s="92" t="s">
+        <v>596</v>
+      </c>
       <c r="D183" s="92"/>
       <c r="E183" s="92"/>
       <c r="F183" s="92"/>
@@ -25035,7 +25139,7 @@
       <c r="A184" s="92"/>
       <c r="B184" s="92"/>
       <c r="C184" s="92" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D184" s="92"/>
       <c r="E184" s="92"/>
@@ -25048,7 +25152,7 @@
       <c r="A185" s="92"/>
       <c r="B185" s="92"/>
       <c r="C185" s="92" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D185" s="92"/>
       <c r="E185" s="92"/>
@@ -25061,7 +25165,7 @@
       <c r="A186" s="92"/>
       <c r="B186" s="92"/>
       <c r="C186" s="92" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D186" s="92"/>
       <c r="E186" s="92"/>
@@ -25074,22 +25178,20 @@
       <c r="A187" s="92"/>
       <c r="B187" s="92"/>
       <c r="C187" s="92" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D187" s="92"/>
       <c r="E187" s="92"/>
       <c r="F187" s="92"/>
       <c r="G187" s="92"/>
       <c r="H187" s="92"/>
-      <c r="I187" s="92" t="s">
-        <v>606</v>
-      </c>
+      <c r="I187" s="92"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="92"/>
       <c r="B188" s="92"/>
       <c r="C188" s="92" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D188" s="92"/>
       <c r="E188" s="92"/>
@@ -25113,7 +25215,7 @@
       <c r="A190" s="92"/>
       <c r="B190" s="92"/>
       <c r="C190" s="92" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D190" s="92"/>
       <c r="E190" s="92"/>
@@ -25126,7 +25228,7 @@
       <c r="A191" s="92"/>
       <c r="B191" s="92"/>
       <c r="C191" s="92" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D191" s="92"/>
       <c r="E191" s="92"/>
@@ -25138,7 +25240,9 @@
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="92"/>
       <c r="B192" s="92"/>
-      <c r="C192" s="92"/>
+      <c r="C192" s="92" t="s">
+        <v>604</v>
+      </c>
       <c r="D192" s="92"/>
       <c r="E192" s="92"/>
       <c r="F192" s="92"/>
@@ -25148,24 +25252,24 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="92"/>
-      <c r="B193" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="C193" s="92"/>
+      <c r="B193" s="92"/>
+      <c r="C193" s="92" t="s">
+        <v>605</v>
+      </c>
       <c r="D193" s="92"/>
       <c r="E193" s="92"/>
       <c r="F193" s="92"/>
       <c r="G193" s="92"/>
       <c r="H193" s="92"/>
-      <c r="I193" s="92"/>
+      <c r="I193" s="92" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="92"/>
-      <c r="B194" s="92">
-        <v>1</v>
-      </c>
+      <c r="B194" s="92"/>
       <c r="C194" s="92" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="D194" s="92"/>
       <c r="E194" s="92"/>
@@ -25178,9 +25282,7 @@
       <c r="A195" s="92"/>
       <c r="B195" s="92"/>
       <c r="C195" s="92"/>
-      <c r="D195" s="92" t="s">
-        <v>587</v>
-      </c>
+      <c r="D195" s="92"/>
       <c r="E195" s="92"/>
       <c r="F195" s="92"/>
       <c r="G195" s="92"/>
@@ -25190,10 +25292,10 @@
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="92"/>
       <c r="B196" s="92"/>
-      <c r="C196" s="92"/>
-      <c r="D196" s="92" t="s">
-        <v>588</v>
-      </c>
+      <c r="C196" s="92" t="s">
+        <v>608</v>
+      </c>
+      <c r="D196" s="92"/>
       <c r="E196" s="92"/>
       <c r="F196" s="92"/>
       <c r="G196" s="92"/>
@@ -25203,10 +25305,10 @@
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="92"/>
       <c r="B197" s="92"/>
-      <c r="C197" s="92"/>
-      <c r="D197" s="92" t="s">
-        <v>589</v>
-      </c>
+      <c r="C197" s="92" t="s">
+        <v>609</v>
+      </c>
+      <c r="D197" s="92"/>
       <c r="E197" s="92"/>
       <c r="F197" s="92"/>
       <c r="G197" s="92"/>
@@ -25215,12 +25317,8 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="92"/>
-      <c r="B198" s="92">
-        <v>2</v>
-      </c>
-      <c r="C198" s="92" t="s">
-        <v>610</v>
-      </c>
+      <c r="B198" s="92"/>
+      <c r="C198" s="92"/>
       <c r="D198" s="92"/>
       <c r="E198" s="92"/>
       <c r="F198" s="92"/>
@@ -25230,12 +25328,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="92"/>
-      <c r="B199" s="92">
-        <v>3</v>
-      </c>
-      <c r="C199" s="92" t="s">
-        <v>591</v>
-      </c>
+      <c r="B199" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="C199" s="92"/>
       <c r="D199" s="92"/>
       <c r="E199" s="92"/>
       <c r="F199" s="92"/>
@@ -25246,10 +25342,10 @@
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="92"/>
       <c r="B200" s="92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C200" s="92" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D200" s="92"/>
       <c r="E200" s="92"/>
@@ -25260,13 +25356,11 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="92"/>
-      <c r="B201" s="92">
-        <v>5</v>
-      </c>
-      <c r="C201" s="92" t="s">
-        <v>593</v>
-      </c>
-      <c r="D201" s="92"/>
+      <c r="B201" s="92"/>
+      <c r="C201" s="92"/>
+      <c r="D201" s="92" t="s">
+        <v>587</v>
+      </c>
       <c r="E201" s="92"/>
       <c r="F201" s="92"/>
       <c r="G201" s="92"/>
@@ -25277,7 +25371,9 @@
       <c r="A202" s="92"/>
       <c r="B202" s="92"/>
       <c r="C202" s="92"/>
-      <c r="D202" s="92"/>
+      <c r="D202" s="92" t="s">
+        <v>588</v>
+      </c>
       <c r="E202" s="92"/>
       <c r="F202" s="92"/>
       <c r="G202" s="92"/>
@@ -25286,11 +25382,11 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="92"/>
-      <c r="B203" s="92" t="s">
-        <v>611</v>
-      </c>
+      <c r="B203" s="92"/>
       <c r="C203" s="92"/>
-      <c r="D203" s="92"/>
+      <c r="D203" s="92" t="s">
+        <v>589</v>
+      </c>
       <c r="E203" s="92"/>
       <c r="F203" s="92"/>
       <c r="G203" s="92"/>
@@ -25300,41 +25396,41 @@
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="92"/>
       <c r="B204" s="92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" s="92" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D204" s="92"/>
       <c r="E204" s="92"/>
       <c r="F204" s="92"/>
-      <c r="G204" s="92" t="s">
-        <v>613</v>
-      </c>
+      <c r="G204" s="92"/>
       <c r="H204" s="92"/>
       <c r="I204" s="92"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="92"/>
       <c r="B205" s="92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C205" s="92" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="D205" s="92"/>
       <c r="E205" s="92"/>
       <c r="F205" s="92"/>
-      <c r="G205" s="92" t="s">
-        <v>615</v>
-      </c>
+      <c r="G205" s="92"/>
       <c r="H205" s="92"/>
       <c r="I205" s="92"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="92"/>
-      <c r="B206" s="92"/>
-      <c r="C206" s="92"/>
+      <c r="B206" s="92">
+        <v>4</v>
+      </c>
+      <c r="C206" s="92" t="s">
+        <v>592</v>
+      </c>
       <c r="D206" s="92"/>
       <c r="E206" s="92"/>
       <c r="F206" s="92"/>
@@ -25344,8 +25440,12 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="92"/>
-      <c r="B207" s="92"/>
-      <c r="C207" s="92"/>
+      <c r="B207" s="92">
+        <v>5</v>
+      </c>
+      <c r="C207" s="92" t="s">
+        <v>593</v>
+      </c>
       <c r="D207" s="92"/>
       <c r="E207" s="92"/>
       <c r="F207" s="92"/>
@@ -25353,13 +25453,11 @@
       <c r="H207" s="92"/>
       <c r="I207" s="92"/>
     </row>
-    <row r="208" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="92"/>
-      <c r="B208" s="93" t="s">
-        <v>616</v>
-      </c>
-      <c r="C208" s="93"/>
-      <c r="D208" s="93"/>
+      <c r="B208" s="92"/>
+      <c r="C208" s="92"/>
+      <c r="D208" s="92"/>
       <c r="E208" s="92"/>
       <c r="F208" s="92"/>
       <c r="G208" s="92"/>
@@ -25368,10 +25466,10 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="92"/>
-      <c r="B209" s="92"/>
-      <c r="C209" s="92" t="s">
-        <v>617</v>
-      </c>
+      <c r="B209" s="92" t="s">
+        <v>611</v>
+      </c>
+      <c r="C209" s="92"/>
       <c r="D209" s="92"/>
       <c r="E209" s="92"/>
       <c r="F209" s="92"/>
@@ -25381,93 +25479,95 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="92"/>
-      <c r="B210" s="92"/>
+      <c r="B210" s="92">
+        <v>1</v>
+      </c>
       <c r="C210" s="92" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D210" s="92"/>
       <c r="E210" s="92"/>
       <c r="F210" s="92"/>
-      <c r="G210" s="92"/>
+      <c r="G210" s="92" t="s">
+        <v>613</v>
+      </c>
       <c r="H210" s="92"/>
       <c r="I210" s="92"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="92"/>
-      <c r="B211" s="92"/>
+      <c r="B211" s="92">
+        <v>2</v>
+      </c>
       <c r="C211" s="92" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D211" s="92"/>
       <c r="E211" s="92"/>
       <c r="F211" s="92"/>
-      <c r="G211" s="92"/>
+      <c r="G211" s="92" t="s">
+        <v>615</v>
+      </c>
       <c r="H211" s="92"/>
       <c r="I211" s="92"/>
     </row>
-    <row r="212" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="92"/>
       <c r="B212" s="92"/>
-      <c r="C212" s="96" t="s">
-        <v>620</v>
-      </c>
-      <c r="D212" s="96"/>
-      <c r="E212" s="96"/>
+      <c r="C212" s="92"/>
+      <c r="D212" s="92"/>
+      <c r="E212" s="92"/>
       <c r="F212" s="92"/>
       <c r="G212" s="92"/>
       <c r="H212" s="92"/>
       <c r="I212" s="92"/>
     </row>
-    <row r="213" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="92"/>
       <c r="B213" s="92"/>
-      <c r="C213" s="96" t="s">
-        <v>621</v>
-      </c>
-      <c r="D213" s="96"/>
-      <c r="E213" s="96"/>
-      <c r="F213" s="96"/>
-      <c r="G213" s="96"/>
-      <c r="H213" s="96"/>
-      <c r="I213" s="96"/>
-    </row>
-    <row r="214" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C213" s="92"/>
+      <c r="D213" s="92"/>
+      <c r="E213" s="92"/>
+      <c r="F213" s="92"/>
+      <c r="G213" s="92"/>
+      <c r="H213" s="92"/>
+      <c r="I213" s="92"/>
+    </row>
+    <row r="214" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A214" s="92"/>
-      <c r="B214" s="92"/>
-      <c r="C214" s="96" t="s">
-        <v>622</v>
-      </c>
-      <c r="D214" s="96"/>
-      <c r="E214" s="96"/>
-      <c r="F214" s="96"/>
-      <c r="G214" s="96"/>
-      <c r="H214" s="96" t="s">
-        <v>623</v>
-      </c>
-      <c r="I214" s="96"/>
-    </row>
-    <row r="215" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B214" s="93" t="s">
+        <v>616</v>
+      </c>
+      <c r="C214" s="93"/>
+      <c r="D214" s="93"/>
+      <c r="E214" s="92"/>
+      <c r="F214" s="92"/>
+      <c r="G214" s="92"/>
+      <c r="H214" s="92"/>
+      <c r="I214" s="92"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="92"/>
       <c r="B215" s="92"/>
-      <c r="C215" s="96" t="s">
-        <v>624</v>
-      </c>
-      <c r="D215" s="96"/>
-      <c r="E215" s="96"/>
-      <c r="F215" s="96"/>
+      <c r="C215" s="92" t="s">
+        <v>617</v>
+      </c>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
+      <c r="F215" s="92"/>
       <c r="G215" s="92"/>
       <c r="H215" s="92"/>
       <c r="I215" s="92"/>
     </row>
-    <row r="216" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="92"/>
       <c r="B216" s="92"/>
-      <c r="C216" s="96" t="s">
-        <v>625</v>
-      </c>
-      <c r="D216" s="96"/>
-      <c r="E216" s="96"/>
-      <c r="F216" s="96"/>
+      <c r="C216" s="92" t="s">
+        <v>618</v>
+      </c>
+      <c r="D216" s="92"/>
+      <c r="E216" s="92"/>
+      <c r="F216" s="92"/>
       <c r="G216" s="92"/>
       <c r="H216" s="92"/>
       <c r="I216" s="92"/>
@@ -25476,7 +25576,7 @@
       <c r="A217" s="92"/>
       <c r="B217" s="92"/>
       <c r="C217" s="92" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D217" s="92"/>
       <c r="E217" s="92"/>
@@ -25488,81 +25588,75 @@
     <row r="218" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="92"/>
       <c r="B218" s="92"/>
-      <c r="C218" s="92" t="s">
-        <v>627</v>
-      </c>
-      <c r="D218" s="92"/>
-      <c r="E218" s="92"/>
+      <c r="C218" s="96" t="s">
+        <v>620</v>
+      </c>
+      <c r="D218" s="96"/>
+      <c r="E218" s="96"/>
       <c r="F218" s="92"/>
-      <c r="G218" s="97" t="s">
-        <v>628</v>
-      </c>
-      <c r="H218" s="97"/>
-      <c r="I218" s="97"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G218" s="92"/>
+      <c r="H218" s="92"/>
+      <c r="I218" s="92"/>
+    </row>
+    <row r="219" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="92"/>
       <c r="B219" s="92"/>
-      <c r="C219" s="92" t="s">
-        <v>629</v>
-      </c>
-      <c r="D219" s="92"/>
-      <c r="E219" s="92"/>
-      <c r="F219" s="92"/>
-      <c r="G219" s="92"/>
-      <c r="H219" s="92"/>
-      <c r="I219" s="92"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C219" s="96" t="s">
+        <v>621</v>
+      </c>
+      <c r="D219" s="96"/>
+      <c r="E219" s="96"/>
+      <c r="F219" s="96"/>
+      <c r="G219" s="96"/>
+      <c r="H219" s="96"/>
+      <c r="I219" s="96"/>
+    </row>
+    <row r="220" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="92"/>
       <c r="B220" s="92"/>
-      <c r="C220" s="92" t="s">
-        <v>630</v>
-      </c>
-      <c r="D220" s="92"/>
-      <c r="E220" s="92"/>
-      <c r="F220" s="92"/>
-      <c r="G220" s="92"/>
-      <c r="H220" s="92" t="s">
-        <v>631</v>
-      </c>
-      <c r="I220" s="92"/>
+      <c r="C220" s="96" t="s">
+        <v>622</v>
+      </c>
+      <c r="D220" s="96"/>
+      <c r="E220" s="96"/>
+      <c r="F220" s="96"/>
+      <c r="G220" s="96"/>
+      <c r="H220" s="96" t="s">
+        <v>623</v>
+      </c>
+      <c r="I220" s="96"/>
     </row>
     <row r="221" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="92"/>
       <c r="B221" s="92"/>
-      <c r="C221" s="92" t="s">
-        <v>632</v>
-      </c>
-      <c r="D221" s="92"/>
-      <c r="E221" s="92"/>
-      <c r="F221" s="92"/>
+      <c r="C221" s="96" t="s">
+        <v>624</v>
+      </c>
+      <c r="D221" s="96"/>
+      <c r="E221" s="96"/>
+      <c r="F221" s="96"/>
       <c r="G221" s="92"/>
-      <c r="H221" s="92" t="s">
-        <v>633</v>
-      </c>
+      <c r="H221" s="92"/>
       <c r="I221" s="92"/>
     </row>
     <row r="222" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="92"/>
       <c r="B222" s="92"/>
-      <c r="C222" s="92" t="s">
-        <v>634</v>
-      </c>
-      <c r="D222" s="92"/>
-      <c r="E222" s="92"/>
-      <c r="F222" s="92"/>
+      <c r="C222" s="96" t="s">
+        <v>625</v>
+      </c>
+      <c r="D222" s="96"/>
+      <c r="E222" s="96"/>
+      <c r="F222" s="96"/>
       <c r="G222" s="92"/>
-      <c r="H222" s="92" t="s">
-        <v>635</v>
-      </c>
+      <c r="H222" s="92"/>
       <c r="I222" s="92"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="92"/>
       <c r="B223" s="92"/>
       <c r="C223" s="92" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="D223" s="92"/>
       <c r="E223" s="92"/>
@@ -25571,6 +25665,92 @@
       <c r="H223" s="92"/>
       <c r="I223" s="92"/>
     </row>
+    <row r="224" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A224" s="92"/>
+      <c r="B224" s="92"/>
+      <c r="C224" s="92" t="s">
+        <v>627</v>
+      </c>
+      <c r="D224" s="92"/>
+      <c r="E224" s="92"/>
+      <c r="F224" s="92"/>
+      <c r="G224" s="97" t="s">
+        <v>628</v>
+      </c>
+      <c r="H224" s="97"/>
+      <c r="I224" s="97"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="92"/>
+      <c r="B225" s="92"/>
+      <c r="C225" s="92" t="s">
+        <v>629</v>
+      </c>
+      <c r="D225" s="92"/>
+      <c r="E225" s="92"/>
+      <c r="F225" s="92"/>
+      <c r="G225" s="92"/>
+      <c r="H225" s="92"/>
+      <c r="I225" s="92"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="92"/>
+      <c r="B226" s="92"/>
+      <c r="C226" s="92" t="s">
+        <v>630</v>
+      </c>
+      <c r="D226" s="92"/>
+      <c r="E226" s="92"/>
+      <c r="F226" s="92"/>
+      <c r="G226" s="92"/>
+      <c r="H226" s="92" t="s">
+        <v>631</v>
+      </c>
+      <c r="I226" s="92"/>
+    </row>
+    <row r="227" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A227" s="92"/>
+      <c r="B227" s="92"/>
+      <c r="C227" s="92" t="s">
+        <v>632</v>
+      </c>
+      <c r="D227" s="92"/>
+      <c r="E227" s="92"/>
+      <c r="F227" s="92"/>
+      <c r="G227" s="92"/>
+      <c r="H227" s="92" t="s">
+        <v>633</v>
+      </c>
+      <c r="I227" s="92"/>
+    </row>
+    <row r="228" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A228" s="92"/>
+      <c r="B228" s="92"/>
+      <c r="C228" s="92" t="s">
+        <v>634</v>
+      </c>
+      <c r="D228" s="92"/>
+      <c r="E228" s="92"/>
+      <c r="F228" s="92"/>
+      <c r="G228" s="92"/>
+      <c r="H228" s="92" t="s">
+        <v>635</v>
+      </c>
+      <c r="I228" s="92"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="92"/>
+      <c r="B229" s="92"/>
+      <c r="C229" s="92" t="s">
+        <v>636</v>
+      </c>
+      <c r="D229" s="92"/>
+      <c r="E229" s="92"/>
+      <c r="F229" s="92"/>
+      <c r="G229" s="92"/>
+      <c r="H229" s="92"/>
+      <c r="I229" s="92"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41080" yWindow="460" windowWidth="31060" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6860" yWindow="960" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑9" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="772">
   <si>
     <t>里程碑目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -5636,6 +5636,9 @@
   </si>
   <si>
     <t>AOE和AI可选功能需求</t>
+  </si>
+  <si>
+    <t>主Uiicon需求</t>
   </si>
 </sst>
 </file>
@@ -10754,13 +10757,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W238"/>
+  <dimension ref="A2:W239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A150" sqref="A150:XFD150"/>
+      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12260,43 +12263,43 @@
         <v>1</v>
       </c>
       <c r="G34" s="53" t="str">
-        <f t="shared" ref="G34:G59" si="12">IF($E34=1,$B34," ")</f>
+        <f t="shared" ref="G34:G60" si="12">IF($E34=1,$B34," ")</f>
         <v>前2天内容调整-测试版本配置，debug</v>
       </c>
       <c r="H34" s="59">
-        <f t="shared" ref="H34:H59" si="13">IF($E34=1,$D34," ")</f>
+        <f t="shared" ref="H34:H60" si="13">IF($E34=1,$D34," ")</f>
         <v>1</v>
       </c>
       <c r="I34" s="60"/>
       <c r="J34" s="53" t="str">
-        <f t="shared" ref="J34:J59" si="14">IF($E34=2,$B34," ")</f>
+        <f t="shared" ref="J34:J60" si="14">IF($E34=2,$B34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K34" s="59" t="str">
-        <f t="shared" ref="K34:K59" si="15">IF($E34=2,$D34," ")</f>
+        <f t="shared" ref="K34:K60" si="15">IF($E34=2,$D34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L34" s="60"/>
       <c r="M34" s="53" t="str">
-        <f t="shared" ref="M34:M59" si="16">IF($E34=3,$B34," ")</f>
+        <f t="shared" ref="M34:M60" si="16">IF($E34=3,$B34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N34" s="59" t="str">
-        <f t="shared" ref="N34:N59" si="17">IF($E34=3,$D34," ")</f>
+        <f t="shared" ref="N34:N60" si="17">IF($E34=3,$D34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O34" s="60"/>
       <c r="P34" s="53" t="str">
-        <f t="shared" ref="P34:P59" si="18">IF($E34=4,$B34," ")</f>
+        <f t="shared" ref="P34:P60" si="18">IF($E34=4,$B34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q34" s="59" t="str">
-        <f t="shared" ref="Q34:Q59" si="19">IF($E34=4,$D34," ")</f>
+        <f t="shared" ref="Q34:Q60" si="19">IF($E34=4,$D34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R34" s="60"/>
       <c r="S34" s="53" t="str">
-        <f t="shared" ref="S34:S59" si="20">IF($E34=5,$B34," ")</f>
+        <f t="shared" ref="S34:S60" si="20">IF($E34=5,$B34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T34" s="59" t="str">
@@ -12363,15 +12366,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="T35" s="59" t="str">
-        <f t="shared" ref="T35:T59" si="21">IF($E35=5,$D35," ")</f>
+        <f t="shared" ref="T35:T60" si="21">IF($E35=5,$D35," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V35" s="53" t="str">
-        <f t="shared" ref="V35:V59" si="22">IF($E35=6,$B35," ")</f>
+        <f t="shared" ref="V35:V60" si="22">IF($E35=6,$B35," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W35" s="76" t="str">
-        <f t="shared" ref="W35:W59" si="23">IF($E35=6,$D35," ")</f>
+        <f t="shared" ref="W35:W60" si="23">IF($E35=6,$D35," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -13233,202 +13236,166 @@
       </c>
       <c r="W53" s="76"/>
     </row>
-    <row r="54" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B54" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="56"/>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B54" s="52" t="s">
+        <v>771</v>
+      </c>
       <c r="D54" s="54">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E54" s="54">
         <v>5</v>
       </c>
-      <c r="F54" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="G54" s="53" t="str">
-        <f>IF($E54=1,$B54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H54" s="59" t="str">
-        <f>IF($E54=1,$D54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G54" s="53"/>
+      <c r="H54" s="59"/>
       <c r="I54" s="60"/>
-      <c r="J54" s="53" t="str">
-        <f>IF($E54=2,$B54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K54" s="59" t="str">
-        <f>IF($E54=2,$D54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J54" s="53"/>
+      <c r="K54" s="59"/>
       <c r="L54" s="60"/>
-      <c r="M54" s="53" t="str">
-        <f>IF($E54=3,$B54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N54" s="59" t="str">
-        <f>IF($E54=3,$D54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M54" s="53"/>
+      <c r="N54" s="59"/>
       <c r="O54" s="60"/>
-      <c r="P54" s="53" t="str">
-        <f>IF($E54=4,$B54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q54" s="59" t="str">
-        <f>IF($E54=4,$D54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="59"/>
       <c r="R54" s="60"/>
-      <c r="S54" s="53" t="str">
-        <f>IF($E54=5,$B54," ")</f>
-        <v>自动战斗逻辑</v>
-      </c>
-      <c r="T54" s="59">
-        <f>IF($E54=5,$D54," ")</f>
+      <c r="S54" s="53"/>
+      <c r="T54" s="59"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="76"/>
+    </row>
+    <row r="55" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B55" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="54">
         <v>3</v>
-      </c>
-      <c r="V54" s="53" t="str">
-        <f>IF($E54=6,$B54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W54" s="76" t="str">
-        <f>IF($E54=6,$D54," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="D55" s="54">
-        <v>2</v>
       </c>
       <c r="E55" s="54">
         <v>5</v>
       </c>
+      <c r="F55" s="53" t="s">
+        <v>107</v>
+      </c>
       <c r="G55" s="53" t="str">
-        <f t="shared" si="12"/>
+        <f>IF($E55=1,$B55," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H55" s="59" t="str">
-        <f t="shared" si="13"/>
+        <f>IF($E55=1,$D55," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I55" s="60"/>
       <c r="J55" s="53" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($E55=2,$B55," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K55" s="59" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($E55=2,$D55," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L55" s="60"/>
       <c r="M55" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($E55=3,$B55," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N55" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f>IF($E55=3,$D55," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O55" s="60"/>
       <c r="P55" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($E55=4,$B55," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q55" s="59" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($E55=4,$D55," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R55" s="60"/>
       <c r="S55" s="53" t="str">
+        <f>IF($E55=5,$B55," ")</f>
+        <v>自动战斗逻辑</v>
+      </c>
+      <c r="T55" s="59">
+        <f>IF($E55=5,$D55," ")</f>
+        <v>3</v>
+      </c>
+      <c r="V55" s="53" t="str">
+        <f>IF($E55=6,$B55," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W55" s="76" t="str">
+        <f>IF($E55=6,$D55," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B56" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D56" s="54">
+        <v>2</v>
+      </c>
+      <c r="E56" s="54">
+        <v>5</v>
+      </c>
+      <c r="G56" s="53" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H56" s="59" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I56" s="60"/>
+      <c r="J56" s="53" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K56" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L56" s="60"/>
+      <c r="M56" s="53" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N56" s="59" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O56" s="60"/>
+      <c r="P56" s="53" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q56" s="59" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R56" s="60"/>
+      <c r="S56" s="53" t="str">
         <f t="shared" si="20"/>
         <v>第4章副本 - debug</v>
       </c>
-      <c r="T55" s="59">
+      <c r="T56" s="59">
         <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V55" s="53" t="str">
+      <c r="V56" s="53" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W55" s="76"/>
-    </row>
-    <row r="56" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="56" t="s">
+      <c r="W56" s="76"/>
+    </row>
+    <row r="57" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="56" t="s">
         <v>377</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="54">
-        <v>1</v>
-      </c>
-      <c r="E56" s="54">
-        <v>5</v>
-      </c>
-      <c r="G56" s="53" t="str">
-        <f>IF($E56=1,$B56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H56" s="59" t="str">
-        <f>IF($E56=1,$D56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I56" s="60"/>
-      <c r="J56" s="53" t="str">
-        <f>IF($E56=2,$B56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K56" s="59" t="str">
-        <f>IF($E56=2,$D56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L56" s="60"/>
-      <c r="M56" s="53" t="str">
-        <f>IF($E56=3,$B56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N56" s="59" t="str">
-        <f>IF($E56=3,$D56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O56" s="60"/>
-      <c r="P56" s="53" t="str">
-        <f>IF($E56=4,$B56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q56" s="59" t="str">
-        <f>IF($E56=4,$D56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R56" s="60"/>
-      <c r="S56" s="53" t="str">
-        <f>IF($E56=5,$B56," ")</f>
-        <v>村落场景，主UI （配置，验收，Debug)</v>
-      </c>
-      <c r="T56" s="59">
-        <f>IF($E56=5,$D56," ")</f>
-        <v>1</v>
-      </c>
-      <c r="V56" s="53" t="str">
-        <f>IF($E56=6,$B56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W56" s="76" t="str">
-        <f>IF($E56=6,$D56," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="C57" s="56"/>
       <c r="D57" s="54">
         <v>1</v>
       </c>
@@ -13473,7 +13440,7 @@
       <c r="R57" s="60"/>
       <c r="S57" s="53" t="str">
         <f>IF($E57=5,$B57," ")</f>
-        <v>自动战斗逻辑验收，debug</v>
+        <v>村落场景，主UI （配置，验收，Debug)</v>
       </c>
       <c r="T57" s="59">
         <f>IF($E57=5,$D57," ")</f>
@@ -13490,73 +13457,73 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="D58" s="54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58" s="54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G58" s="53" t="str">
-        <f t="shared" si="12"/>
+        <f>IF($E58=1,$B58," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H58" s="59" t="str">
-        <f t="shared" si="13"/>
+        <f>IF($E58=1,$D58," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I58" s="60"/>
       <c r="J58" s="53" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($E58=2,$B58," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K58" s="59" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($E58=2,$D58," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L58" s="60"/>
       <c r="M58" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($E58=3,$B58," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N58" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f>IF($E58=3,$D58," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O58" s="60"/>
       <c r="P58" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($E58=4,$B58," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q58" s="59" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($E58=4,$D58," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R58" s="60"/>
       <c r="S58" s="53" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T58" s="59" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve"> </v>
+        <f>IF($E58=5,$B58," ")</f>
+        <v>自动战斗逻辑验收，debug</v>
+      </c>
+      <c r="T58" s="59">
+        <f>IF($E58=5,$D58," ")</f>
+        <v>1</v>
       </c>
       <c r="V58" s="53" t="str">
-        <f t="shared" si="22"/>
-        <v>通天塔-金钱，经验副本配置</v>
-      </c>
-      <c r="W58" s="76">
-        <f t="shared" si="23"/>
+        <f>IF($E58=6,$B58," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W58" s="76" t="str">
+        <f>IF($E58=6,$D58," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="54">
         <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D59" s="54">
-        <v>2</v>
       </c>
       <c r="E59" s="54">
         <v>6</v>
@@ -13607,138 +13574,184 @@
       </c>
       <c r="V59" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>通天塔-金钱，经验副本配置-debug</v>
+        <v>通天塔-金钱，经验副本配置</v>
       </c>
       <c r="W59" s="76">
         <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G60" s="53"/>
-      <c r="H60" s="59"/>
+      <c r="E60" s="54">
+        <v>6</v>
+      </c>
+      <c r="G60" s="53" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H60" s="59" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I60" s="60"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="59"/>
+      <c r="J60" s="53" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K60" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L60" s="60"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="59"/>
+      <c r="M60" s="53" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N60" s="59" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O60" s="60"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="59"/>
+      <c r="P60" s="53" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q60" s="59" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R60" s="60"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="59"/>
-      <c r="V60" s="53"/>
-      <c r="W60" s="76"/>
+      <c r="S60" s="53" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T60" s="59" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V60" s="53" t="str">
+        <f t="shared" si="22"/>
+        <v>通天塔-金钱，经验副本配置-debug</v>
+      </c>
+      <c r="W60" s="76">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G61" s="53" t="str">
-        <f t="shared" ref="G61" si="24">IF($E61=1,$B61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H61" s="59" t="str">
-        <f t="shared" ref="H61" si="25">IF($E61=1,$D61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G61" s="53"/>
+      <c r="H61" s="59"/>
       <c r="I61" s="60"/>
-      <c r="J61" s="53" t="str">
-        <f t="shared" ref="J61" si="26">IF($E61=2,$B61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K61" s="59" t="str">
-        <f t="shared" ref="K61" si="27">IF($E61=2,$D61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J61" s="53"/>
+      <c r="K61" s="59"/>
       <c r="L61" s="60"/>
-      <c r="M61" s="53" t="str">
-        <f t="shared" ref="M61" si="28">IF($E61=3,$B61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N61" s="59" t="str">
-        <f t="shared" ref="N61" si="29">IF($E61=3,$D61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M61" s="53"/>
+      <c r="N61" s="59"/>
       <c r="O61" s="60"/>
-      <c r="P61" s="53" t="str">
-        <f t="shared" ref="P61" si="30">IF($E61=4,$B61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q61" s="59" t="str">
-        <f t="shared" ref="Q61" si="31">IF($E61=4,$D61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="59"/>
       <c r="R61" s="60"/>
-      <c r="S61" s="53" t="str">
-        <f t="shared" ref="S61" si="32">IF($E61=5,$B61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T61" s="59" t="str">
-        <f t="shared" ref="T61" si="33">IF($E61=5,$D61," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="37" t="s">
+      <c r="S61" s="53"/>
+      <c r="T61" s="59"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="76"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G62" s="53" t="str">
+        <f t="shared" ref="G62" si="24">IF($E62=1,$B62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H62" s="59" t="str">
+        <f t="shared" ref="H62" si="25">IF($E62=1,$D62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I62" s="60"/>
+      <c r="J62" s="53" t="str">
+        <f t="shared" ref="J62" si="26">IF($E62=2,$B62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K62" s="59" t="str">
+        <f t="shared" ref="K62" si="27">IF($E62=2,$D62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L62" s="60"/>
+      <c r="M62" s="53" t="str">
+        <f t="shared" ref="M62" si="28">IF($E62=3,$B62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N62" s="59" t="str">
+        <f t="shared" ref="N62" si="29">IF($E62=3,$D62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O62" s="60"/>
+      <c r="P62" s="53" t="str">
+        <f t="shared" ref="P62" si="30">IF($E62=4,$B62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q62" s="59" t="str">
+        <f t="shared" ref="Q62" si="31">IF($E62=4,$D62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R62" s="60"/>
+      <c r="S62" s="53" t="str">
+        <f t="shared" ref="S62" si="32">IF($E62=5,$B62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T62" s="59" t="str">
+        <f t="shared" ref="T62" si="33">IF($E62=5,$D62," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="35">
-        <f>SUM(D34:D61)</f>
-        <v>35.5</v>
-      </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
-      <c r="H62" s="87">
-        <f>SUM(H34:H61)</f>
+      <c r="C63" s="37"/>
+      <c r="D63" s="35">
+        <f>SUM(D34:D62)</f>
+        <v>36</v>
+      </c>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
+      <c r="H63" s="87">
+        <f>SUM(H34:H62)</f>
         <v>3</v>
       </c>
-      <c r="I62" s="38"/>
-      <c r="K62" s="87">
-        <f>SUM(K34:K61)</f>
+      <c r="I63" s="38"/>
+      <c r="K63" s="87">
+        <f>SUM(K34:K62)</f>
         <v>6.5</v>
       </c>
-      <c r="L62" s="38"/>
-      <c r="N62" s="87">
-        <f>SUM(N34:N61)</f>
+      <c r="L63" s="38"/>
+      <c r="N63" s="87">
+        <f>SUM(N34:N62)</f>
         <v>3</v>
       </c>
-      <c r="O62" s="38"/>
-      <c r="Q62" s="87">
-        <f>SUM(Q34:Q61)</f>
+      <c r="O63" s="38"/>
+      <c r="Q63" s="87">
+        <f>SUM(Q34:Q62)</f>
         <v>5</v>
       </c>
-      <c r="R62" s="38"/>
-      <c r="T62" s="87">
-        <f>SUM(T34:T61)</f>
+      <c r="R63" s="38"/>
+      <c r="T63" s="87">
+        <f>SUM(T34:T62)</f>
         <v>10</v>
       </c>
-      <c r="W62" s="87">
-        <f>SUM(W34:W61)</f>
+      <c r="W63" s="87">
+        <f>SUM(W34:W62)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="G63" s="53"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="5"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G64" s="53"/>
       <c r="H64" s="59"/>
       <c r="I64" s="60"/>
@@ -13753,17 +13766,9 @@
       <c r="R64" s="60"/>
       <c r="S64" s="53"/>
       <c r="T64" s="59"/>
+      <c r="U64" s="5"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D65" s="54">
-        <v>8</v>
-      </c>
-      <c r="E65" s="54">
-        <v>7</v>
-      </c>
       <c r="G65" s="53"/>
       <c r="H65" s="59"/>
       <c r="I65" s="60"/>
@@ -13779,84 +13784,43 @@
       <c r="S65" s="53"/>
       <c r="T65" s="59"/>
     </row>
-    <row r="66" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B66" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D66" s="57">
-        <v>4</v>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D66" s="54">
+        <v>8</v>
       </c>
       <c r="E66" s="54">
         <v>7</v>
       </c>
-      <c r="F66" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="G66" s="53" t="str">
-        <f>IF($E66=1,$B66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H66" s="59" t="str">
-        <f>IF($E66=1,$D66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G66" s="53"/>
+      <c r="H66" s="59"/>
       <c r="I66" s="60"/>
-      <c r="J66" s="53" t="str">
-        <f>IF($E66=2,$B66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K66" s="59" t="str">
-        <f>IF($E66=2,$D66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J66" s="53"/>
+      <c r="K66" s="59"/>
       <c r="L66" s="60"/>
-      <c r="M66" s="53" t="str">
-        <f>IF($E66=3,$B66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N66" s="59" t="str">
-        <f>IF($E66=3,$D66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M66" s="53"/>
+      <c r="N66" s="59"/>
       <c r="O66" s="60"/>
-      <c r="P66" s="53" t="str">
-        <f>IF($E66=4,$B66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q66" s="59" t="str">
-        <f>IF($E66=4,$D66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="59"/>
       <c r="R66" s="60"/>
-      <c r="S66" s="53" t="str">
-        <f>IF($E66=5,$B66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T66" s="59" t="str">
-        <f>IF($E66=5,$D66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V66" s="53" t="str">
-        <f>IF($E66=6,$B66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W66" s="76" t="str">
-        <f>IF($E66=6,$D66," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D67" s="54">
-        <v>6</v>
+      <c r="S66" s="53"/>
+      <c r="T66" s="59"/>
+    </row>
+    <row r="67" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B67" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="57">
+        <v>4</v>
       </c>
       <c r="E67" s="54">
         <v>7</v>
       </c>
       <c r="F67" s="53" t="s">
-        <v>381</v>
+        <v>217</v>
       </c>
       <c r="G67" s="53" t="str">
         <f>IF($E67=1,$B67," ")</f>
@@ -13902,10 +13866,18 @@
         <f>IF($E67=5,$D67," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="V67" s="53" t="str">
+        <f>IF($E67=6,$B67," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W67" s="76" t="str">
+        <f>IF($E67=6,$D67," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D68" s="54">
         <v>6</v>
@@ -13962,16 +13934,17 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="56"/>
+        <v>220</v>
+      </c>
       <c r="D69" s="54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E69" s="54">
         <v>7</v>
+      </c>
+      <c r="F69" s="53" t="s">
+        <v>381</v>
       </c>
       <c r="G69" s="53" t="str">
         <f>IF($E69=1,$B69," ")</f>
@@ -14017,45 +13990,75 @@
         <f>IF($E69=5,$D69," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V69" s="53" t="str">
-        <f>IF($E69=6,$B69," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W69" s="76" t="str">
-        <f>IF($E69=6,$D69," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="C70" s="56"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="59"/>
+      <c r="D70" s="54">
+        <v>1</v>
+      </c>
+      <c r="E70" s="54">
+        <v>7</v>
+      </c>
+      <c r="G70" s="53" t="str">
+        <f>IF($E70=1,$B70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H70" s="59" t="str">
+        <f>IF($E70=1,$D70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I70" s="60"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="59"/>
+      <c r="J70" s="53" t="str">
+        <f>IF($E70=2,$B70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K70" s="59" t="str">
+        <f>IF($E70=2,$D70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L70" s="60"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="59"/>
+      <c r="M70" s="53" t="str">
+        <f>IF($E70=3,$B70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N70" s="59" t="str">
+        <f>IF($E70=3,$D70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O70" s="60"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="59"/>
+      <c r="P70" s="53" t="str">
+        <f>IF($E70=4,$B70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q70" s="59" t="str">
+        <f>IF($E70=4,$D70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R70" s="60"/>
-      <c r="S70" s="53"/>
-      <c r="T70" s="59"/>
-      <c r="V70" s="53"/>
-      <c r="W70" s="76"/>
+      <c r="S70" s="53" t="str">
+        <f>IF($E70=5,$B70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T70" s="59" t="str">
+        <f>IF($E70=5,$D70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V70" s="53" t="str">
+        <f>IF($E70=6,$B70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W70" s="76" t="str">
+        <f>IF($E70=6,$D70," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="37" t="s">
-        <v>382</v>
-      </c>
       <c r="C71" s="56"/>
-      <c r="D71" s="35">
-        <f>SUM(D65:D70)</f>
-        <v>25</v>
-      </c>
       <c r="G71" s="53"/>
       <c r="H71" s="59"/>
       <c r="I71" s="60"/>
@@ -14074,6 +14077,15 @@
       <c r="W71" s="76"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="D72" s="35">
+        <f>SUM(D66:D71)</f>
+        <v>25</v>
+      </c>
       <c r="G72" s="53"/>
       <c r="H72" s="59"/>
       <c r="I72" s="60"/>
@@ -14088,213 +14100,168 @@
       <c r="R72" s="60"/>
       <c r="S72" s="53"/>
       <c r="T72" s="59"/>
-    </row>
-    <row r="73" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="66"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="64"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="64"/>
-      <c r="O73" s="69"/>
-      <c r="R73" s="69"/>
-      <c r="U73" s="69"/>
-      <c r="W73" s="68"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
+      <c r="V72" s="53"/>
+      <c r="W72" s="76"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G73" s="53"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="59"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="59"/>
+    </row>
+    <row r="74" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="66"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="64"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="64"/>
+      <c r="O74" s="69"/>
+      <c r="R74" s="69"/>
+      <c r="U74" s="69"/>
+      <c r="W74" s="68"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="B74" s="52"/>
-      <c r="G74" s="53" t="str">
-        <f t="shared" ref="G74:G103" si="34">IF($E74=1,$B74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H74" s="59" t="str">
-        <f t="shared" ref="H74:H103" si="35">IF($E74=1,$D74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I74" s="60"/>
-      <c r="J74" s="53" t="str">
-        <f t="shared" ref="J74:J103" si="36">IF($E74=2,$B74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K74" s="59" t="str">
-        <f t="shared" ref="K74:K103" si="37">IF($E74=2,$D74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L74" s="60"/>
-      <c r="M74" s="53" t="str">
-        <f t="shared" ref="M74:M103" si="38">IF($E74=3,$B74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N74" s="59" t="str">
-        <f t="shared" ref="N74:N103" si="39">IF($E74=3,$D74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O74" s="60"/>
-      <c r="P74" s="53" t="str">
-        <f t="shared" ref="P74:P103" si="40">IF($E74=4,$B74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q74" s="59" t="str">
-        <f t="shared" ref="Q74:Q103" si="41">IF($E74=4,$D74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R74" s="60"/>
-      <c r="S74" s="53" t="str">
-        <f t="shared" ref="S74:S103" si="42">IF($E74=5,$B74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T74" s="59" t="str">
-        <f t="shared" ref="T74" si="43">IF($E74=5,$D74," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="52"/>
+      <c r="G75" s="53" t="str">
+        <f t="shared" ref="G75:G104" si="34">IF($E75=1,$B75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H75" s="59" t="str">
+        <f t="shared" ref="H75:H104" si="35">IF($E75=1,$D75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I75" s="60"/>
+      <c r="J75" s="53" t="str">
+        <f t="shared" ref="J75:J104" si="36">IF($E75=2,$B75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K75" s="59" t="str">
+        <f t="shared" ref="K75:K104" si="37">IF($E75=2,$D75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L75" s="60"/>
+      <c r="M75" s="53" t="str">
+        <f t="shared" ref="M75:M104" si="38">IF($E75=3,$B75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N75" s="59" t="str">
+        <f t="shared" ref="N75:N104" si="39">IF($E75=3,$D75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O75" s="60"/>
+      <c r="P75" s="53" t="str">
+        <f t="shared" ref="P75:P104" si="40">IF($E75=4,$B75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q75" s="59" t="str">
+        <f t="shared" ref="Q75:Q104" si="41">IF($E75=4,$D75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R75" s="60"/>
+      <c r="S75" s="53" t="str">
+        <f t="shared" ref="S75:S104" si="42">IF($E75=5,$B75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T75" s="59" t="str">
+        <f t="shared" ref="T75" si="43">IF($E75=5,$D75," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B76" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="D75" s="54">
+      <c r="D76" s="54">
         <v>0.5</v>
       </c>
-      <c r="E75" s="54">
+      <c r="E76" s="54">
         <v>1</v>
       </c>
-      <c r="G75" s="53" t="str">
+      <c r="G76" s="53" t="str">
         <f t="shared" si="34"/>
         <v>抽蛋-Debug</v>
       </c>
-      <c r="H75" s="59">
+      <c r="H76" s="59">
         <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
-      <c r="I75" s="60"/>
-      <c r="J75" s="53" t="str">
+      <c r="I76" s="60"/>
+      <c r="J76" s="53" t="str">
         <f t="shared" si="36"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K75" s="59" t="str">
+      <c r="K76" s="59" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L75" s="60"/>
-      <c r="M75" s="53" t="str">
+      <c r="L76" s="60"/>
+      <c r="M76" s="53" t="str">
         <f t="shared" si="38"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N75" s="59" t="str">
+      <c r="N76" s="59" t="str">
         <f t="shared" si="39"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O75" s="60"/>
-      <c r="P75" s="53" t="str">
+      <c r="O76" s="60"/>
+      <c r="P76" s="53" t="str">
         <f t="shared" si="40"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q75" s="59" t="str">
+      <c r="Q76" s="59" t="str">
         <f t="shared" si="41"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R75" s="60"/>
-      <c r="S75" s="53" t="str">
+      <c r="R76" s="60"/>
+      <c r="S76" s="53" t="str">
         <f t="shared" si="42"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T75" s="59" t="str">
-        <f>IF($E75=5,$D75," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V75" s="53" t="str">
-        <f>IF($E75=6,$B75," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W75" s="76" t="str">
-        <f>IF($E75=6,$D75," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B77" s="106" t="s">
+      <c r="T76" s="59" t="str">
+        <f>IF($E76=5,$D76," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V76" s="53" t="str">
+        <f>IF($E76=6,$B76," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W76" s="76" t="str">
+        <f>IF($E76=6,$D76," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B78" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="D77" s="54">
+      <c r="D78" s="54">
         <v>1</v>
       </c>
-      <c r="E77" s="54">
+      <c r="E78" s="54">
         <v>1</v>
       </c>
-      <c r="G77" s="53" t="str">
+      <c r="G78" s="53" t="str">
         <f t="shared" si="34"/>
         <v>等级开启功能</v>
-      </c>
-      <c r="H77" s="59">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="I77" s="60"/>
-      <c r="J77" s="53" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K77" s="59" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L77" s="60"/>
-      <c r="M77" s="53" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N77" s="59" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O77" s="60"/>
-      <c r="P77" s="53" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q77" s="59" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R77" s="60"/>
-      <c r="S77" s="53" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T77" s="59" t="str">
-        <f t="shared" ref="T77:T103" si="44">IF($E77=5,$D77," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V77" s="53" t="str">
-        <f t="shared" ref="V77:V103" si="45">IF($E77=6,$B77," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W77" s="76" t="str">
-        <f t="shared" ref="W77:W103" si="46">IF($E77=6,$D77," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B78" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="54">
-        <v>1</v>
-      </c>
-      <c r="E78" s="54">
-        <v>1</v>
-      </c>
-      <c r="G78" s="53" t="str">
-        <f t="shared" si="34"/>
-        <v>0.6版本对局外调整需求</v>
       </c>
       <c r="H78" s="59">
         <f t="shared" si="35"/>
@@ -14333,21 +14300,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="T78" s="59" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="T78:T104" si="44">IF($E78=5,$D78," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V78" s="53" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="V78:V104" si="45">IF($E78=6,$B78," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W78" s="76" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="W78:W104" si="46">IF($E78=6,$D78," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B79" s="106" t="s">
-        <v>162</v>
+      <c r="B79" s="108" t="s">
+        <v>110</v>
       </c>
       <c r="D79" s="54">
         <v>1</v>
@@ -14355,156 +14322,156 @@
       <c r="E79" s="54">
         <v>1</v>
       </c>
-      <c r="F79" s="53" t="s">
-        <v>108</v>
-      </c>
       <c r="G79" s="53" t="str">
-        <f>IF($E79=1,$B79," ")</f>
-        <v>大冒险 - 验收，Debug</v>
+        <f t="shared" si="34"/>
+        <v>0.6版本对局外调整需求</v>
       </c>
       <c r="H79" s="59">
-        <f>IF($E79=1,$D79," ")</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I79" s="60"/>
       <c r="J79" s="53" t="str">
-        <f>IF($E79=2,$B79," ")</f>
+        <f t="shared" si="36"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K79" s="59" t="str">
-        <f>IF($E79=2,$D79," ")</f>
+        <f t="shared" si="37"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L79" s="60"/>
       <c r="M79" s="53" t="str">
-        <f>IF($E79=3,$B79," ")</f>
+        <f t="shared" si="38"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N79" s="59" t="str">
-        <f>IF($E79=3,$D79," ")</f>
+        <f t="shared" si="39"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O79" s="60"/>
       <c r="P79" s="53" t="str">
-        <f>IF($E79=4,$B79," ")</f>
+        <f t="shared" si="40"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q79" s="59" t="str">
-        <f>IF($E79=4,$D79," ")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R79" s="60"/>
       <c r="S79" s="53" t="str">
-        <f>IF($E79=5,$B79," ")</f>
+        <f t="shared" si="42"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T79" s="59" t="str">
-        <f>IF($E79=5,$D79," ")</f>
+        <f t="shared" si="44"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V79" s="53" t="str">
-        <f>IF($E79=6,$B79," ")</f>
+        <f t="shared" si="45"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W79" s="76" t="str">
-        <f>IF($E79=6,$D79," ")</f>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="59"/>
+      <c r="B80" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="54">
+        <v>1</v>
+      </c>
+      <c r="E80" s="54">
+        <v>1</v>
+      </c>
+      <c r="F80" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G80" s="53" t="str">
+        <f>IF($E80=1,$B80," ")</f>
+        <v>大冒险 - 验收，Debug</v>
+      </c>
+      <c r="H80" s="59">
+        <f>IF($E80=1,$D80," ")</f>
+        <v>1</v>
+      </c>
       <c r="I80" s="60"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="59"/>
+      <c r="J80" s="53" t="str">
+        <f>IF($E80=2,$B80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K80" s="59" t="str">
+        <f>IF($E80=2,$D80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L80" s="60"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="59"/>
+      <c r="M80" s="53" t="str">
+        <f>IF($E80=3,$B80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N80" s="59" t="str">
+        <f>IF($E80=3,$D80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O80" s="60"/>
-      <c r="P80" s="53"/>
-      <c r="Q80" s="59"/>
+      <c r="P80" s="53" t="str">
+        <f>IF($E80=4,$B80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q80" s="59" t="str">
+        <f>IF($E80=4,$D80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R80" s="60"/>
-      <c r="S80" s="53"/>
-      <c r="T80" s="59"/>
-      <c r="V80" s="53"/>
-      <c r="W80" s="76"/>
+      <c r="S80" s="53" t="str">
+        <f>IF($E80=5,$B80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T80" s="59" t="str">
+        <f>IF($E80=5,$D80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V80" s="53" t="str">
+        <f>IF($E80=6,$B80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W80" s="76" t="str">
+        <f>IF($E80=6,$D80," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B81" s="106" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" s="54">
-        <v>2</v>
-      </c>
-      <c r="E81" s="54">
-        <v>2</v>
-      </c>
-      <c r="F81" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="G81" s="53" t="str">
-        <f>IF($E81=1,$B81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H81" s="59" t="str">
-        <f>IF($E81=1,$D81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B81" s="52"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="59"/>
       <c r="I81" s="60"/>
-      <c r="J81" s="53" t="str">
-        <f>IF($E81=2,$B81," ")</f>
-        <v>宠物界面 - 详细信息</v>
-      </c>
-      <c r="K81" s="59">
-        <f>IF($E81=2,$D81," ")</f>
-        <v>2</v>
-      </c>
+      <c r="J81" s="53"/>
+      <c r="K81" s="59"/>
       <c r="L81" s="60"/>
-      <c r="M81" s="53" t="str">
-        <f>IF($E81=3,$B81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N81" s="59" t="str">
-        <f>IF($E81=3,$D81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M81" s="53"/>
+      <c r="N81" s="59"/>
       <c r="O81" s="60"/>
-      <c r="P81" s="53" t="str">
-        <f>IF($E81=4,$B81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q81" s="59" t="str">
-        <f>IF($E81=4,$D81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P81" s="53"/>
+      <c r="Q81" s="59"/>
       <c r="R81" s="60"/>
-      <c r="S81" s="53" t="str">
-        <f>IF($E81=5,$B81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T81" s="59" t="str">
-        <f>IF($E81=5,$D81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V81" s="53" t="str">
-        <f>IF($E81=6,$B81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W81" s="76" t="str">
-        <f>IF($E81=6,$D81," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S81" s="53"/>
+      <c r="T81" s="59"/>
+      <c r="V81" s="53"/>
+      <c r="W81" s="76"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B82" s="106" t="s">
-        <v>720</v>
-      </c>
-      <c r="D82" s="61">
+        <v>118</v>
+      </c>
+      <c r="D82" s="54">
         <v>2</v>
       </c>
       <c r="E82" s="54">
         <v>2</v>
+      </c>
+      <c r="F82" s="53" t="s">
+        <v>384</v>
       </c>
       <c r="G82" s="53" t="str">
         <f>IF($E82=1,$B82," ")</f>
@@ -14517,7 +14484,7 @@
       <c r="I82" s="60"/>
       <c r="J82" s="53" t="str">
         <f>IF($E82=2,$B82," ")</f>
-        <v>升级界面方案（取消）</v>
+        <v>宠物界面 - 详细信息</v>
       </c>
       <c r="K82" s="59">
         <f>IF($E82=2,$D82," ")</f>
@@ -14560,10 +14527,9 @@
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B83" s="108" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" s="52"/>
+      <c r="B83" s="106" t="s">
+        <v>720</v>
+      </c>
       <c r="D83" s="61">
         <v>2</v>
       </c>
@@ -14581,7 +14547,7 @@
       <c r="I83" s="60"/>
       <c r="J83" s="53" t="str">
         <f>IF($E83=2,$B83," ")</f>
-        <v>PVP - 验收，Debug</v>
+        <v>升级界面方案（取消）</v>
       </c>
       <c r="K83" s="59">
         <f>IF($E83=2,$D83," ")</f>
@@ -14624,103 +14590,103 @@
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B84" s="52"/>
+      <c r="B84" s="108" t="s">
+        <v>164</v>
+      </c>
       <c r="C84" s="52"/>
-      <c r="D84" s="61"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="59"/>
+      <c r="D84" s="61">
+        <v>2</v>
+      </c>
+      <c r="E84" s="54">
+        <v>2</v>
+      </c>
+      <c r="G84" s="53" t="str">
+        <f>IF($E84=1,$B84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H84" s="59" t="str">
+        <f>IF($E84=1,$D84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I84" s="60"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="59"/>
+      <c r="J84" s="53" t="str">
+        <f>IF($E84=2,$B84," ")</f>
+        <v>PVP - 验收，Debug</v>
+      </c>
+      <c r="K84" s="59">
+        <f>IF($E84=2,$D84," ")</f>
+        <v>2</v>
+      </c>
       <c r="L84" s="60"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="59"/>
+      <c r="M84" s="53" t="str">
+        <f>IF($E84=3,$B84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N84" s="59" t="str">
+        <f>IF($E84=3,$D84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O84" s="60"/>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="59"/>
+      <c r="P84" s="53" t="str">
+        <f>IF($E84=4,$B84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q84" s="59" t="str">
+        <f>IF($E84=4,$D84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R84" s="60"/>
-      <c r="S84" s="53"/>
-      <c r="T84" s="59"/>
-      <c r="V84" s="53"/>
-      <c r="W84" s="76"/>
-    </row>
-    <row r="85" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B85" s="110" t="s">
+      <c r="S84" s="53" t="str">
+        <f>IF($E84=5,$B84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T84" s="59" t="str">
+        <f>IF($E84=5,$D84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V84" s="53" t="str">
+        <f>IF($E84=6,$B84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W84" s="76" t="str">
+        <f>IF($E84=6,$D84," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="61"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="53"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="60"/>
+      <c r="P85" s="53"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="53"/>
+      <c r="T85" s="59"/>
+      <c r="V85" s="53"/>
+      <c r="W85" s="76"/>
+    </row>
+    <row r="86" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B86" s="105" t="s">
         <v>165</v>
-      </c>
-      <c r="C85" s="56"/>
-      <c r="D85" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="E85" s="54">
-        <v>3</v>
-      </c>
-      <c r="F85" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="G85" s="53" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H85" s="59" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I85" s="60"/>
-      <c r="J85" s="53" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K85" s="59" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L85" s="60"/>
-      <c r="M85" s="53" t="str">
-        <f t="shared" si="38"/>
-        <v>副本失败指引 - 验收，Debug</v>
-      </c>
-      <c r="N85" s="59">
-        <f t="shared" si="39"/>
-        <v>0.5</v>
-      </c>
-      <c r="O85" s="60"/>
-      <c r="P85" s="53" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q85" s="59" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R85" s="60"/>
-      <c r="S85" s="53" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T85" s="59" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V85" s="53" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W85" s="76" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B86" s="110" t="s">
-        <v>721</v>
       </c>
       <c r="C86" s="56"/>
       <c r="D86" s="54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E86" s="54">
         <v>3</v>
+      </c>
+      <c r="F86" s="53" t="s">
+        <v>109</v>
       </c>
       <c r="G86" s="53" t="str">
         <f t="shared" si="34"/>
@@ -14742,11 +14708,11 @@
       <c r="L86" s="60"/>
       <c r="M86" s="53" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">道具指引各个系统回归 </v>
+        <v>副本失败指引 - 验收，Debug</v>
       </c>
       <c r="N86" s="59">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O86" s="60"/>
       <c r="P86" s="53" t="str">
@@ -14777,75 +14743,75 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B87" s="105" t="s">
-        <v>249</v>
+        <v>721</v>
       </c>
       <c r="C87" s="56"/>
       <c r="D87" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="54">
         <v>3</v>
       </c>
       <c r="G87" s="53" t="str">
-        <f>IF($E87=1,$B87," ")</f>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H87" s="59" t="str">
-        <f>IF($E87=1,$D87," ")</f>
+        <f t="shared" si="35"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I87" s="60"/>
       <c r="J87" s="53" t="str">
-        <f>IF($E87=2,$B87," ")</f>
+        <f t="shared" si="36"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K87" s="59" t="str">
-        <f>IF($E87=2,$D87," ")</f>
+        <f t="shared" si="37"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L87" s="60"/>
       <c r="M87" s="53" t="str">
-        <f>IF($E87=3,$B87," ")</f>
-        <v>Loading界面美术需求</v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">道具指引各个系统回归 </v>
       </c>
       <c r="N87" s="59">
-        <f>IF($E87=3,$D87," ")</f>
-        <v>2</v>
+        <f t="shared" si="39"/>
+        <v>1</v>
       </c>
       <c r="O87" s="60"/>
       <c r="P87" s="53" t="str">
-        <f>IF($E87=4,$B87," ")</f>
+        <f t="shared" si="40"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q87" s="59" t="str">
-        <f>IF($E87=4,$D87," ")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R87" s="60"/>
       <c r="S87" s="53" t="str">
-        <f>IF($E87=5,$B87," ")</f>
+        <f t="shared" si="42"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T87" s="59" t="str">
-        <f>IF($E87=5,$D87," ")</f>
+        <f t="shared" si="44"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V87" s="53" t="str">
-        <f>IF($E87=6,$B87," ")</f>
+        <f t="shared" si="45"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W87" s="76" t="str">
-        <f>IF($E87=6,$D87," ")</f>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B88" s="105" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C88" s="56"/>
       <c r="D88" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" s="54">
         <v>3</v>
@@ -14870,11 +14836,11 @@
       <c r="L88" s="60"/>
       <c r="M88" s="53" t="str">
         <f>IF($E88=3,$B88," ")</f>
-        <v>loading界面功能设计</v>
+        <v>Loading界面美术需求</v>
       </c>
       <c r="N88" s="59">
         <f>IF($E88=3,$D88," ")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O88" s="60"/>
       <c r="P88" s="53" t="str">
@@ -14903,19 +14869,16 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="52" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="108" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="61">
-        <v>2</v>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B89" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="56"/>
+      <c r="D89" s="54">
+        <v>1</v>
       </c>
       <c r="E89" s="54">
         <v>3</v>
-      </c>
-      <c r="F89" s="53" t="s">
-        <v>114</v>
       </c>
       <c r="G89" s="53" t="str">
         <f>IF($E89=1,$B89," ")</f>
@@ -14937,11 +14900,11 @@
       <c r="L89" s="60"/>
       <c r="M89" s="53" t="str">
         <f>IF($E89=3,$B89," ")</f>
-        <v>新手引导</v>
+        <v>loading界面功能设计</v>
       </c>
       <c r="N89" s="59">
         <f>IF($E89=3,$D89," ")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O89" s="60"/>
       <c r="P89" s="53" t="str">
@@ -14961,7 +14924,6 @@
         <f>IF($E89=5,$D89," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U89" s="9"/>
       <c r="V89" s="53" t="str">
         <f>IF($E89=6,$B89," ")</f>
         <v xml:space="preserve"> </v>
@@ -14971,16 +14933,19 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B90" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="C90" s="52"/>
+    <row r="90" spans="1:23" s="52" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A90" s="34"/>
+      <c r="B90" s="108" t="s">
+        <v>113</v>
+      </c>
       <c r="D90" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="54">
         <v>3</v>
+      </c>
+      <c r="F90" s="53" t="s">
+        <v>114</v>
       </c>
       <c r="G90" s="53" t="str">
         <f>IF($E90=1,$B90," ")</f>
@@ -15002,11 +14967,11 @@
       <c r="L90" s="60"/>
       <c r="M90" s="53" t="str">
         <f>IF($E90=3,$B90," ")</f>
-        <v>UI特效，动画补充 （回归之前界面）</v>
+        <v>新手引导</v>
       </c>
       <c r="N90" s="59">
         <f>IF($E90=3,$D90," ")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90" s="60"/>
       <c r="P90" s="53" t="str">
@@ -15026,6 +14991,7 @@
         <f>IF($E90=5,$D90," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="U90" s="9"/>
       <c r="V90" s="53" t="str">
         <f>IF($E90=6,$B90," ")</f>
         <v xml:space="preserve"> </v>
@@ -15036,161 +15002,162 @@
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B91" s="52"/>
+      <c r="B91" s="52" t="s">
+        <v>385</v>
+      </c>
       <c r="C91" s="52"/>
-      <c r="D91" s="61"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="59"/>
+      <c r="D91" s="61">
+        <v>1</v>
+      </c>
+      <c r="E91" s="54">
+        <v>3</v>
+      </c>
+      <c r="G91" s="53" t="str">
+        <f>IF($E91=1,$B91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H91" s="59" t="str">
+        <f>IF($E91=1,$D91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I91" s="60"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="59"/>
+      <c r="J91" s="53" t="str">
+        <f>IF($E91=2,$B91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K91" s="59" t="str">
+        <f>IF($E91=2,$D91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L91" s="60"/>
-      <c r="M91" s="53"/>
-      <c r="N91" s="59"/>
+      <c r="M91" s="53" t="str">
+        <f>IF($E91=3,$B91," ")</f>
+        <v>UI特效，动画补充 （回归之前界面）</v>
+      </c>
+      <c r="N91" s="59">
+        <f>IF($E91=3,$D91," ")</f>
+        <v>1</v>
+      </c>
       <c r="O91" s="60"/>
-      <c r="P91" s="53"/>
-      <c r="Q91" s="59"/>
+      <c r="P91" s="53" t="str">
+        <f>IF($E91=4,$B91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q91" s="59" t="str">
+        <f>IF($E91=4,$D91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R91" s="60"/>
-      <c r="S91" s="53"/>
-      <c r="T91" s="59"/>
-      <c r="V91" s="53"/>
-      <c r="W91" s="76"/>
-    </row>
-    <row r="92" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
-      <c r="B92" s="52" t="s">
+      <c r="S91" s="53" t="str">
+        <f>IF($E91=5,$B91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T91" s="59" t="str">
+        <f>IF($E91=5,$D91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V91" s="53" t="str">
+        <f>IF($E91=6,$B91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W91" s="76" t="str">
+        <f>IF($E91=6,$D91," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="61"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="53"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="53"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="53"/>
+      <c r="T92" s="59"/>
+      <c r="V92" s="53"/>
+      <c r="W92" s="76"/>
+    </row>
+    <row r="93" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="34"/>
+      <c r="B93" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="D92" s="61">
+      <c r="D93" s="61">
         <v>4</v>
-      </c>
-      <c r="E92" s="54">
-        <v>4</v>
-      </c>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53" t="str">
-        <f>IF($E92=1,$B92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H92" s="59" t="str">
-        <f>IF($E92=1,$D92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I92" s="60"/>
-      <c r="J92" s="53" t="str">
-        <f>IF($E92=2,$B92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K92" s="59" t="str">
-        <f>IF($E92=2,$D92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L92" s="60"/>
-      <c r="M92" s="53" t="str">
-        <f>IF($E92=3,$B92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N92" s="59" t="str">
-        <f>IF($E92=3,$D92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O92" s="60"/>
-      <c r="P92" s="53" t="str">
-        <f>IF($E92=4,$B92," ")</f>
-        <v>新手引导（封文档）</v>
-      </c>
-      <c r="Q92" s="59">
-        <f>IF($E92=4,$D92," ")</f>
-        <v>4</v>
-      </c>
-      <c r="R92" s="60"/>
-      <c r="S92" s="53" t="str">
-        <f>IF($E92=5,$B92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T92" s="59" t="str">
-        <f>IF($E92=5,$D92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U92" s="9"/>
-      <c r="V92" s="53" t="str">
-        <f>IF($E92=6,$B92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W92" s="76" t="str">
-        <f>IF($E92=6,$D92," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B93" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="D93" s="54">
-        <v>2</v>
       </c>
       <c r="E93" s="54">
         <v>4</v>
       </c>
+      <c r="F93" s="53"/>
       <c r="G93" s="53" t="str">
-        <f t="shared" si="34"/>
+        <f>IF($E93=1,$B93," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H93" s="59" t="str">
-        <f t="shared" si="35"/>
+        <f>IF($E93=1,$D93," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I93" s="60"/>
       <c r="J93" s="53" t="str">
-        <f t="shared" si="36"/>
+        <f>IF($E93=2,$B93," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K93" s="59" t="str">
-        <f t="shared" si="37"/>
+        <f>IF($E93=2,$D93," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L93" s="60"/>
       <c r="M93" s="53" t="str">
-        <f t="shared" si="38"/>
+        <f>IF($E93=3,$B93," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N93" s="59" t="str">
-        <f t="shared" si="39"/>
+        <f>IF($E93=3,$D93," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O93" s="60"/>
       <c r="P93" s="53" t="str">
-        <f t="shared" si="40"/>
-        <v>公会祈福、科技内容设计</v>
+        <f>IF($E93=4,$B93," ")</f>
+        <v>新手引导（封文档）</v>
       </c>
       <c r="Q93" s="59">
-        <f t="shared" si="41"/>
-        <v>2</v>
+        <f>IF($E93=4,$D93," ")</f>
+        <v>4</v>
       </c>
       <c r="R93" s="60"/>
       <c r="S93" s="53" t="str">
-        <f t="shared" si="42"/>
+        <f>IF($E93=5,$B93," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T93" s="59" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve"> </v>
-      </c>
+        <f>IF($E93=5,$D93," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U93" s="9"/>
       <c r="V93" s="53" t="str">
-        <f t="shared" si="45"/>
+        <f>IF($E93=6,$B93," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W93" s="76" t="str">
-        <f t="shared" si="46"/>
+        <f>IF($E93=6,$D93," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B94" s="52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D94" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" s="54">
         <v>4</v>
@@ -15224,11 +15191,11 @@
       <c r="O94" s="60"/>
       <c r="P94" s="53" t="str">
         <f t="shared" si="40"/>
-        <v>公会祈福、科技配置</v>
+        <v>公会祈福、科技内容设计</v>
       </c>
       <c r="Q94" s="59">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R94" s="60"/>
       <c r="S94" s="53" t="str">
@@ -15249,6 +15216,15 @@
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B95" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" s="54">
+        <v>1</v>
+      </c>
+      <c r="E95" s="54">
+        <v>4</v>
+      </c>
       <c r="G95" s="53" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
@@ -15278,11 +15254,11 @@
       <c r="O95" s="60"/>
       <c r="P95" s="53" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q95" s="59" t="str">
+        <v>公会祈福、科技配置</v>
+      </c>
+      <c r="Q95" s="59">
         <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="R95" s="60"/>
       <c r="S95" s="53" t="str">
@@ -15303,16 +15279,6 @@
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B96" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="E96" s="54">
-        <v>5</v>
-      </c>
       <c r="G96" s="53" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
@@ -15351,11 +15317,11 @@
       <c r="R96" s="60"/>
       <c r="S96" s="53" t="str">
         <f t="shared" si="42"/>
-        <v>loading界面- 验收，Debug</v>
-      </c>
-      <c r="T96" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T96" s="59" t="str">
         <f t="shared" si="44"/>
-        <v>0.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="V96" s="53" t="str">
         <f t="shared" si="45"/>
@@ -15366,10 +15332,11 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B97" s="52" t="s">
-        <v>234</v>
-      </c>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B97" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="56"/>
       <c r="D97" s="54">
         <v>0.5</v>
       </c>
@@ -15414,7 +15381,7 @@
       <c r="R97" s="60"/>
       <c r="S97" s="53" t="str">
         <f t="shared" si="42"/>
-        <v>0.7版本对局外调整-验收，Debug</v>
+        <v>loading界面- 验收，Debug</v>
       </c>
       <c r="T97" s="59">
         <f t="shared" si="44"/>
@@ -15429,19 +15396,15 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="34" x14ac:dyDescent="0.25">
       <c r="B98" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="61">
-        <v>2</v>
+        <v>234</v>
+      </c>
+      <c r="D98" s="54">
+        <v>0.5</v>
       </c>
       <c r="E98" s="54">
         <v>5</v>
-      </c>
-      <c r="F98" s="53" t="s">
-        <v>112</v>
       </c>
       <c r="G98" s="53" t="str">
         <f t="shared" si="34"/>
@@ -15481,11 +15444,11 @@
       <c r="R98" s="60"/>
       <c r="S98" s="53" t="str">
         <f t="shared" si="42"/>
-        <v>公会任务设计，包括公会副本</v>
+        <v>0.7版本对局外调整-验收，Debug</v>
       </c>
       <c r="T98" s="59">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="V98" s="53" t="str">
         <f t="shared" si="45"/>
@@ -15498,7 +15461,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B99" s="52" t="s">
-        <v>386</v>
+        <v>203</v>
       </c>
       <c r="C99" s="52"/>
       <c r="D99" s="61">
@@ -15507,6 +15470,9 @@
       <c r="E99" s="54">
         <v>5</v>
       </c>
+      <c r="F99" s="53" t="s">
+        <v>112</v>
+      </c>
       <c r="G99" s="53" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
@@ -15545,7 +15511,7 @@
       <c r="R99" s="60"/>
       <c r="S99" s="53" t="str">
         <f t="shared" si="42"/>
-        <v>公会任务配置</v>
+        <v>公会任务设计，包括公会副本</v>
       </c>
       <c r="T99" s="59">
         <f t="shared" si="44"/>
@@ -15561,9 +15527,16 @@
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="52"/>
+      <c r="B100" s="52" t="s">
+        <v>386</v>
+      </c>
       <c r="C100" s="52"/>
-      <c r="D100" s="61"/>
+      <c r="D100" s="61">
+        <v>2</v>
+      </c>
+      <c r="E100" s="54">
+        <v>5</v>
+      </c>
       <c r="G100" s="53" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
@@ -15602,11 +15575,11 @@
       <c r="R100" s="60"/>
       <c r="S100" s="53" t="str">
         <f t="shared" si="42"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T100" s="59" t="str">
+        <v>公会任务配置</v>
+      </c>
+      <c r="T100" s="59">
         <f t="shared" si="44"/>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="V100" s="53" t="str">
         <f t="shared" si="45"/>
@@ -15618,106 +15591,99 @@
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="52" t="s">
-        <v>387</v>
-      </c>
+      <c r="B101" s="52"/>
       <c r="C101" s="52"/>
-      <c r="D101" s="61">
-        <v>2</v>
-      </c>
-      <c r="E101" s="54">
-        <v>6</v>
-      </c>
-      <c r="G101" s="53"/>
-      <c r="H101" s="59"/>
+      <c r="D101" s="61"/>
+      <c r="G101" s="53" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H101" s="59" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I101" s="60"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="59"/>
+      <c r="J101" s="53" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K101" s="59" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L101" s="60"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="59"/>
+      <c r="M101" s="53" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N101" s="59" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O101" s="60"/>
-      <c r="P101" s="53"/>
-      <c r="Q101" s="59"/>
+      <c r="P101" s="53" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q101" s="59" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R101" s="60"/>
-      <c r="S101" s="53"/>
-      <c r="T101" s="59"/>
-      <c r="V101" s="53"/>
-      <c r="W101" s="76"/>
+      <c r="S101" s="53" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T101" s="59" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V101" s="53" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W101" s="76" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="52" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="C102" s="52"/>
       <c r="D102" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="54">
         <v>6</v>
       </c>
-      <c r="G102" s="53" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H102" s="59" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G102" s="53"/>
+      <c r="H102" s="59"/>
       <c r="I102" s="60"/>
-      <c r="J102" s="53" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K102" s="59" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J102" s="53"/>
+      <c r="K102" s="59"/>
       <c r="L102" s="60"/>
-      <c r="M102" s="53" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N102" s="59" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M102" s="53"/>
+      <c r="N102" s="59"/>
       <c r="O102" s="60"/>
-      <c r="P102" s="53" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q102" s="59" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P102" s="53"/>
+      <c r="Q102" s="59"/>
       <c r="R102" s="60"/>
-      <c r="S102" s="53" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T102" s="59" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V102" s="53" t="str">
-        <f t="shared" si="45"/>
-        <v>公会任务配置 -Debug</v>
-      </c>
-      <c r="W102" s="76">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
+      <c r="S102" s="53"/>
+      <c r="T102" s="59"/>
+      <c r="V102" s="53"/>
+      <c r="W102" s="76"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="52" t="s">
-        <v>248</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C103" s="52"/>
       <c r="D103" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" s="54">
         <v>6</v>
@@ -15768,98 +15734,140 @@
       </c>
       <c r="V103" s="53" t="str">
         <f t="shared" si="45"/>
-        <v>充值商店界面</v>
+        <v>公会任务配置 -Debug</v>
       </c>
       <c r="W103" s="76">
         <f t="shared" si="46"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-      <c r="B104" s="52"/>
-      <c r="D104" s="61"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="59"/>
+      <c r="B104" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="D104" s="61">
+        <v>2</v>
+      </c>
+      <c r="E104" s="54">
+        <v>6</v>
+      </c>
+      <c r="G104" s="53" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H104" s="59" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I104" s="60"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="59"/>
+      <c r="J104" s="53" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K104" s="59" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L104" s="60"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="59"/>
+      <c r="M104" s="53" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N104" s="59" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O104" s="60"/>
-      <c r="P104" s="53"/>
-      <c r="Q104" s="59"/>
+      <c r="P104" s="53" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q104" s="59" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R104" s="60"/>
-      <c r="S104" s="53"/>
-      <c r="T104" s="59"/>
-    </row>
-    <row r="105" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="37" t="s">
+      <c r="S104" s="53" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T104" s="59" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V104" s="53" t="str">
+        <f t="shared" si="45"/>
+        <v>充值商店界面</v>
+      </c>
+      <c r="W104" s="76">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="52"/>
+      <c r="D105" s="61"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="59"/>
+      <c r="O105" s="60"/>
+      <c r="P105" s="53"/>
+      <c r="Q105" s="59"/>
+      <c r="R105" s="60"/>
+      <c r="S105" s="53"/>
+      <c r="T105" s="59"/>
+    </row>
+    <row r="106" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C105" s="37"/>
-      <c r="D105" s="35">
-        <f>SUM(D74:D103)</f>
+      <c r="C106" s="37"/>
+      <c r="D106" s="35">
+        <f>SUM(D75:D104)</f>
         <v>34</v>
       </c>
-      <c r="E105" s="35"/>
-      <c r="F105" s="36"/>
-      <c r="H105" s="35">
-        <f>SUM(H75:H103)</f>
+      <c r="E106" s="35"/>
+      <c r="F106" s="36"/>
+      <c r="H106" s="35">
+        <f>SUM(H76:H104)</f>
         <v>3.5</v>
       </c>
-      <c r="I105" s="38"/>
-      <c r="K105" s="35">
-        <f>SUM(K75:K103)</f>
+      <c r="I106" s="38"/>
+      <c r="K106" s="35">
+        <f>SUM(K76:K104)</f>
         <v>6</v>
       </c>
-      <c r="L105" s="38"/>
-      <c r="N105" s="35">
-        <f>SUM(N75:N103)</f>
+      <c r="L106" s="38"/>
+      <c r="N106" s="35">
+        <f>SUM(N76:N104)</f>
         <v>7.5</v>
       </c>
-      <c r="O105" s="38"/>
-      <c r="Q105" s="35">
-        <f>SUM(Q75:Q103)</f>
+      <c r="O106" s="38"/>
+      <c r="Q106" s="35">
+        <f>SUM(Q76:Q104)</f>
         <v>7</v>
       </c>
-      <c r="R105" s="38"/>
-      <c r="T105" s="35">
-        <f>SUM(T75:T103)</f>
+      <c r="R106" s="38"/>
+      <c r="T106" s="35">
+        <f>SUM(T76:T104)</f>
         <v>5</v>
       </c>
-      <c r="U105" s="38"/>
-      <c r="W105" s="35">
-        <f>SUM(W75:W103)</f>
+      <c r="U106" s="38"/>
+      <c r="W106" s="35">
+        <f>SUM(W76:W104)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="61"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="60"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="60"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="59"/>
-      <c r="O106" s="60"/>
-      <c r="P106" s="53"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="60"/>
-      <c r="S106" s="53"/>
-      <c r="T106" s="59"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="61" t="s">
-        <v>256</v>
-      </c>
+      <c r="B107" s="52"/>
       <c r="C107" s="52"/>
       <c r="D107" s="61"/>
       <c r="G107" s="53"/>
@@ -15879,7 +15887,9 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="61"/>
+      <c r="B108" s="61" t="s">
+        <v>256</v>
+      </c>
       <c r="C108" s="52"/>
       <c r="D108" s="61"/>
       <c r="G108" s="53"/>
@@ -15899,9 +15909,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
-      <c r="B109" s="61" t="s">
-        <v>716</v>
-      </c>
+      <c r="B109" s="61"/>
       <c r="C109" s="52"/>
       <c r="D109" s="61"/>
       <c r="G109" s="53"/>
@@ -15921,77 +15929,34 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="52" t="s">
-        <v>115</v>
+      <c r="B110" s="61" t="s">
+        <v>716</v>
       </c>
       <c r="C110" s="52"/>
-      <c r="D110" s="61">
-        <v>3</v>
-      </c>
-      <c r="E110" s="54">
-        <v>7</v>
-      </c>
-      <c r="G110" s="53" t="str">
-        <f>IF($E110=1,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H110" s="59" t="str">
-        <f>IF($E110=1,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="D110" s="61"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="59"/>
       <c r="I110" s="60"/>
-      <c r="J110" s="53" t="str">
-        <f>IF($E110=2,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K110" s="59" t="str">
-        <f>IF($E110=2,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J110" s="53"/>
+      <c r="K110" s="59"/>
       <c r="L110" s="60"/>
-      <c r="M110" s="53" t="str">
-        <f>IF($E110=3,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N110" s="59" t="str">
-        <f>IF($E110=3,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M110" s="53"/>
+      <c r="N110" s="59"/>
       <c r="O110" s="60"/>
-      <c r="P110" s="53" t="str">
-        <f>IF($E110=4,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q110" s="59" t="str">
-        <f>IF($E110=4,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P110" s="53"/>
+      <c r="Q110" s="59"/>
       <c r="R110" s="60"/>
-      <c r="S110" s="53" t="str">
-        <f>IF($E110=5,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T110" s="59" t="str">
-        <f>IF($E110=5,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V110" s="53" t="str">
-        <f>IF($E110=6,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W110" s="76" t="str">
-        <f>IF($E110=6,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S110" s="53"/>
+      <c r="T110" s="59"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="C111" s="56"/>
-      <c r="D111" s="54">
-        <v>2</v>
+      <c r="B111" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="52"/>
+      <c r="D111" s="61">
+        <v>3</v>
       </c>
       <c r="E111" s="54">
         <v>7</v>
@@ -16040,14 +16005,23 @@
         <f>IF($E111=5,$D111," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="V111" s="53" t="str">
+        <f>IF($E111=6,$B111," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W111" s="76" t="str">
+        <f>IF($E111=6,$D111," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="56" t="s">
-        <v>236</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C112" s="56"/>
       <c r="D112" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" s="54">
         <v>7</v>
@@ -16100,37 +16074,74 @@
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="C113" s="56"/>
+        <v>236</v>
+      </c>
       <c r="D113" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113" s="54">
         <v>7</v>
       </c>
-      <c r="F113" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="G113" s="53"/>
-      <c r="H113" s="59"/>
+      <c r="G113" s="53" t="str">
+        <f>IF($E113=1,$B113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H113" s="59" t="str">
+        <f>IF($E113=1,$D113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I113" s="60"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="59"/>
+      <c r="J113" s="53" t="str">
+        <f>IF($E113=2,$B113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K113" s="59" t="str">
+        <f>IF($E113=2,$D113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L113" s="60"/>
-      <c r="M113" s="53"/>
-      <c r="N113" s="59"/>
+      <c r="M113" s="53" t="str">
+        <f>IF($E113=3,$B113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N113" s="59" t="str">
+        <f>IF($E113=3,$D113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O113" s="60"/>
-      <c r="P113" s="53"/>
-      <c r="Q113" s="59"/>
+      <c r="P113" s="53" t="str">
+        <f>IF($E113=4,$B113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q113" s="59" t="str">
+        <f>IF($E113=4,$D113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R113" s="60"/>
-      <c r="S113" s="53"/>
-      <c r="T113" s="59"/>
+      <c r="S113" s="53" t="str">
+        <f>IF($E113=5,$B113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T113" s="59" t="str">
+        <f>IF($E113=5,$D113," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
-      <c r="B114" s="56"/>
+      <c r="B114" s="56" t="s">
+        <v>240</v>
+      </c>
       <c r="C114" s="56"/>
+      <c r="D114" s="54">
+        <v>2</v>
+      </c>
+      <c r="E114" s="54">
+        <v>7</v>
+      </c>
+      <c r="F114" s="53" t="s">
+        <v>388</v>
+      </c>
       <c r="G114" s="53"/>
       <c r="H114" s="59"/>
       <c r="I114" s="60"/>
@@ -16148,19 +16159,8 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
-      <c r="B115" s="56" t="s">
-        <v>389</v>
-      </c>
+      <c r="B115" s="56"/>
       <c r="C115" s="56"/>
-      <c r="D115" s="54">
-        <v>2</v>
-      </c>
-      <c r="E115" s="54">
-        <v>7</v>
-      </c>
-      <c r="F115" s="53" t="s">
-        <v>390</v>
-      </c>
       <c r="G115" s="53"/>
       <c r="H115" s="59"/>
       <c r="I115" s="60"/>
@@ -16178,8 +16178,19 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="56"/>
+      <c r="B116" s="56" t="s">
+        <v>389</v>
+      </c>
       <c r="C116" s="56"/>
+      <c r="D116" s="54">
+        <v>2</v>
+      </c>
+      <c r="E116" s="54">
+        <v>7</v>
+      </c>
+      <c r="F116" s="53" t="s">
+        <v>390</v>
+      </c>
       <c r="G116" s="53"/>
       <c r="H116" s="59"/>
       <c r="I116" s="60"/>
@@ -16197,16 +16208,8 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
-      <c r="B117" s="56" t="s">
-        <v>423</v>
-      </c>
+      <c r="B117" s="56"/>
       <c r="C117" s="56"/>
-      <c r="D117" s="54">
-        <v>1</v>
-      </c>
-      <c r="E117" s="54">
-        <v>7</v>
-      </c>
       <c r="G117" s="53"/>
       <c r="H117" s="59"/>
       <c r="I117" s="60"/>
@@ -16222,74 +16225,46 @@
       <c r="S117" s="53"/>
       <c r="T117" s="59"/>
     </row>
-    <row r="118" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
-      <c r="B118" s="52" t="s">
-        <v>391</v>
-      </c>
+      <c r="B118" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C118" s="56"/>
       <c r="D118" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" s="54">
         <v>7</v>
       </c>
-      <c r="F118" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="G118" s="53" t="str">
-        <f>IF($E118=1,$B118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H118" s="59" t="str">
-        <f>IF($E118=1,$D118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G118" s="53"/>
+      <c r="H118" s="59"/>
       <c r="I118" s="60"/>
-      <c r="J118" s="53" t="str">
-        <f>IF($E118=2,$B118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K118" s="59" t="str">
-        <f>IF($E118=2,$D118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J118" s="53"/>
+      <c r="K118" s="59"/>
       <c r="L118" s="60"/>
-      <c r="M118" s="53" t="str">
-        <f>IF($E118=3,$B118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N118" s="59" t="str">
-        <f>IF($E118=3,$D118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M118" s="53"/>
+      <c r="N118" s="59"/>
       <c r="O118" s="60"/>
-      <c r="P118" s="53" t="str">
-        <f>IF($E118=4,$B118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q118" s="59" t="str">
-        <f>IF($E118=4,$D118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P118" s="53"/>
+      <c r="Q118" s="59"/>
       <c r="R118" s="60"/>
-      <c r="S118" s="53" t="str">
-        <f>IF($E118=5,$B118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T118" s="59" t="str">
-        <f>IF($E118=5,$D118," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S118" s="53"/>
+      <c r="T118" s="59"/>
+    </row>
+    <row r="119" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
       <c r="B119" s="52" t="s">
-        <v>202</v>
+        <v>391</v>
       </c>
       <c r="D119" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119" s="54">
         <v>7</v>
+      </c>
+      <c r="F119" s="53" t="s">
+        <v>392</v>
       </c>
       <c r="G119" s="53" t="str">
         <f>IF($E119=1,$B119," ")</f>
@@ -16338,7 +16313,7 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B120" s="52" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="D120" s="54">
         <v>1</v>
@@ -16393,31 +16368,69 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
-        <v>725</v>
+        <v>237</v>
       </c>
       <c r="D121" s="54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E121" s="54">
         <v>7</v>
       </c>
-      <c r="G121" s="53"/>
-      <c r="H121" s="59"/>
+      <c r="G121" s="53" t="str">
+        <f>IF($E121=1,$B121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H121" s="59" t="str">
+        <f>IF($E121=1,$D121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I121" s="60"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="59"/>
+      <c r="J121" s="53" t="str">
+        <f>IF($E121=2,$B121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K121" s="59" t="str">
+        <f>IF($E121=2,$D121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L121" s="60"/>
-      <c r="M121" s="53"/>
-      <c r="N121" s="59"/>
+      <c r="M121" s="53" t="str">
+        <f>IF($E121=3,$B121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N121" s="59" t="str">
+        <f>IF($E121=3,$D121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O121" s="60"/>
-      <c r="P121" s="53"/>
-      <c r="Q121" s="59"/>
+      <c r="P121" s="53" t="str">
+        <f>IF($E121=4,$B121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q121" s="59" t="str">
+        <f>IF($E121=4,$D121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R121" s="60"/>
-      <c r="S121" s="53"/>
-      <c r="T121" s="59"/>
+      <c r="S121" s="53" t="str">
+        <f>IF($E121=5,$B121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T121" s="59" t="str">
+        <f>IF($E121=5,$D121," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B122" s="52"/>
+      <c r="B122" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="D122" s="54">
+        <v>5</v>
+      </c>
+      <c r="E122" s="54">
+        <v>7</v>
+      </c>
       <c r="G122" s="53"/>
       <c r="H122" s="59"/>
       <c r="I122" s="60"/>
@@ -16434,13 +16447,7 @@
       <c r="T122" s="59"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B123" s="88" t="s">
-        <v>382</v>
-      </c>
-      <c r="D123" s="35">
-        <f>SUM(D110:D121)</f>
-        <v>20</v>
-      </c>
+      <c r="B123" s="52"/>
       <c r="G123" s="53"/>
       <c r="H123" s="59"/>
       <c r="I123" s="60"/>
@@ -16457,7 +16464,13 @@
       <c r="T123" s="59"/>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B124" s="52"/>
+      <c r="B124" s="88" t="s">
+        <v>382</v>
+      </c>
+      <c r="D124" s="35">
+        <f>SUM(D111:D122)</f>
+        <v>20</v>
+      </c>
       <c r="G124" s="53"/>
       <c r="H124" s="59"/>
       <c r="I124" s="60"/>
@@ -16473,282 +16486,231 @@
       <c r="S124" s="53"/>
       <c r="T124" s="59"/>
     </row>
-    <row r="125" spans="1:21" ht="34" x14ac:dyDescent="0.25">
-      <c r="B125" s="56" t="s">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B125" s="52"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="59"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="53"/>
+      <c r="K125" s="59"/>
+      <c r="L125" s="60"/>
+      <c r="M125" s="53"/>
+      <c r="N125" s="59"/>
+      <c r="O125" s="60"/>
+      <c r="P125" s="53"/>
+      <c r="Q125" s="59"/>
+      <c r="R125" s="60"/>
+      <c r="S125" s="53"/>
+      <c r="T125" s="59"/>
+    </row>
+    <row r="126" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="B126" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C125" s="56"/>
-      <c r="D125" s="54">
+      <c r="C126" s="56"/>
+      <c r="D126" s="54">
         <v>3</v>
-      </c>
-      <c r="E125" s="54">
-        <v>7</v>
-      </c>
-      <c r="F125" s="53" t="s">
-        <v>393</v>
-      </c>
-      <c r="G125" s="53" t="str">
-        <f>IF($E125=1,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H125" s="59" t="str">
-        <f>IF($E125=1,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I125" s="60"/>
-      <c r="J125" s="53" t="str">
-        <f>IF($E125=2,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K125" s="59" t="str">
-        <f>IF($E125=2,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L125" s="60"/>
-      <c r="M125" s="53" t="str">
-        <f>IF($E125=3,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N125" s="59" t="str">
-        <f>IF($E125=3,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O125" s="60"/>
-      <c r="P125" s="53" t="str">
-        <f>IF($E125=4,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q125" s="59" t="str">
-        <f>IF($E125=4,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R125" s="60"/>
-      <c r="S125" s="53" t="str">
-        <f>IF($E125=5,$B125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T125" s="59" t="str">
-        <f>IF($E125=5,$D125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U125" s="5"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B126" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D126" s="54">
-        <v>1</v>
       </c>
       <c r="E126" s="54">
         <v>7</v>
       </c>
+      <c r="F126" s="53" t="s">
+        <v>393</v>
+      </c>
       <c r="G126" s="53" t="str">
-        <f t="shared" ref="G126" si="47">IF($E126=1,$B126," ")</f>
+        <f>IF($E126=1,$B126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H126" s="59" t="str">
-        <f t="shared" ref="H126" si="48">IF($E126=1,$D126," ")</f>
+        <f>IF($E126=1,$D126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I126" s="60"/>
       <c r="J126" s="53" t="str">
-        <f t="shared" ref="J126" si="49">IF($E126=2,$B126," ")</f>
+        <f>IF($E126=2,$B126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K126" s="59" t="str">
-        <f t="shared" ref="K126" si="50">IF($E126=2,$D126," ")</f>
+        <f>IF($E126=2,$D126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L126" s="60"/>
       <c r="M126" s="53" t="str">
-        <f t="shared" ref="M126" si="51">IF($E126=3,$B126," ")</f>
+        <f>IF($E126=3,$B126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N126" s="59" t="str">
-        <f t="shared" ref="N126" si="52">IF($E126=3,$D126," ")</f>
+        <f>IF($E126=3,$D126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O126" s="60"/>
       <c r="P126" s="53" t="str">
-        <f t="shared" ref="P126" si="53">IF($E126=4,$B126," ")</f>
+        <f>IF($E126=4,$B126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q126" s="59" t="str">
-        <f t="shared" ref="Q126" si="54">IF($E126=4,$D126," ")</f>
+        <f>IF($E126=4,$D126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R126" s="60"/>
       <c r="S126" s="53" t="str">
-        <f t="shared" ref="S126" si="55">IF($E126=5,$B126," ")</f>
+        <f>IF($E126=5,$B126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T126" s="59" t="str">
-        <f t="shared" ref="T126" si="56">IF($E126=5,$D126," ")</f>
+        <f>IF($E126=5,$D126," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U126" s="5"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B128" s="56"/>
-      <c r="C128" s="56"/>
-      <c r="G128" s="53"/>
-      <c r="H128" s="59"/>
-      <c r="I128" s="60"/>
-      <c r="J128" s="53"/>
-      <c r="K128" s="59"/>
-      <c r="L128" s="60"/>
-      <c r="M128" s="53"/>
-      <c r="N128" s="59"/>
-      <c r="O128" s="60"/>
-      <c r="P128" s="53"/>
-      <c r="Q128" s="59"/>
-      <c r="R128" s="60"/>
-      <c r="S128" s="53"/>
-      <c r="T128" s="59"/>
-      <c r="U128" s="5"/>
-    </row>
-    <row r="129" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="66"/>
-      <c r="H129" s="68"/>
-      <c r="I129" s="69"/>
-      <c r="J129" s="71"/>
-      <c r="L129" s="69"/>
-      <c r="O129" s="69"/>
-      <c r="R129" s="69"/>
-      <c r="U129" s="69"/>
-      <c r="W129" s="68"/>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A130" s="34" t="s">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="54">
+        <v>1</v>
+      </c>
+      <c r="E127" s="54">
+        <v>7</v>
+      </c>
+      <c r="G127" s="53" t="str">
+        <f t="shared" ref="G127" si="47">IF($E127=1,$B127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H127" s="59" t="str">
+        <f t="shared" ref="H127" si="48">IF($E127=1,$D127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I127" s="60"/>
+      <c r="J127" s="53" t="str">
+        <f t="shared" ref="J127" si="49">IF($E127=2,$B127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K127" s="59" t="str">
+        <f t="shared" ref="K127" si="50">IF($E127=2,$D127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L127" s="60"/>
+      <c r="M127" s="53" t="str">
+        <f t="shared" ref="M127" si="51">IF($E127=3,$B127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N127" s="59" t="str">
+        <f t="shared" ref="N127" si="52">IF($E127=3,$D127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O127" s="60"/>
+      <c r="P127" s="53" t="str">
+        <f t="shared" ref="P127" si="53">IF($E127=4,$B127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q127" s="59" t="str">
+        <f t="shared" ref="Q127" si="54">IF($E127=4,$D127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R127" s="60"/>
+      <c r="S127" s="53" t="str">
+        <f t="shared" ref="S127" si="55">IF($E127=5,$B127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T127" s="59" t="str">
+        <f t="shared" ref="T127" si="56">IF($E127=5,$D127," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B129" s="56"/>
+      <c r="C129" s="56"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="53"/>
+      <c r="K129" s="59"/>
+      <c r="L129" s="60"/>
+      <c r="M129" s="53"/>
+      <c r="N129" s="59"/>
+      <c r="O129" s="60"/>
+      <c r="P129" s="53"/>
+      <c r="Q129" s="59"/>
+      <c r="R129" s="60"/>
+      <c r="S129" s="53"/>
+      <c r="T129" s="59"/>
+      <c r="U129" s="5"/>
+    </row>
+    <row r="130" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="39"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="66"/>
+      <c r="H130" s="68"/>
+      <c r="I130" s="69"/>
+      <c r="J130" s="71"/>
+      <c r="L130" s="69"/>
+      <c r="O130" s="69"/>
+      <c r="R130" s="69"/>
+      <c r="U130" s="69"/>
+      <c r="W130" s="68"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A131" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B130" s="72"/>
-      <c r="C130" s="72"/>
-      <c r="D130" s="58"/>
-      <c r="F130" s="53" t="str">
-        <f t="shared" ref="F130:G154" si="57">IF($E130=1,$B130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G130" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H130" s="59" t="str">
-        <f t="shared" ref="H130:H157" si="58">IF($E130=1,$D130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I130" s="60"/>
-      <c r="J130" s="53" t="str">
-        <f t="shared" ref="J130:J157" si="59">IF($E130=2,$B130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K130" s="59" t="str">
-        <f t="shared" ref="K130:K157" si="60">IF($E130=2,$D130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L130" s="60"/>
-      <c r="M130" s="53" t="str">
-        <f t="shared" ref="M130:M157" si="61">IF($E130=3,$B130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N130" s="59" t="str">
-        <f t="shared" ref="N130:N157" si="62">IF($E130=3,$D130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O130" s="60"/>
-      <c r="P130" s="53" t="str">
-        <f t="shared" ref="P130:P157" si="63">IF($E130=4,$B130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q130" s="59" t="str">
-        <f t="shared" ref="Q130:Q157" si="64">IF($E130=4,$D130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R130" s="60"/>
-      <c r="S130" s="53" t="str">
-        <f t="shared" ref="S130:S157" si="65">IF($E130=5,$B130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T130" s="59" t="str">
-        <f t="shared" ref="T130:T157" si="66">IF($E130=5,$D130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B131" s="106" t="s">
-        <v>229</v>
-      </c>
+      <c r="B131" s="72"/>
       <c r="C131" s="72"/>
-      <c r="D131" s="78">
-        <v>1</v>
-      </c>
-      <c r="E131" s="54">
-        <v>1</v>
-      </c>
+      <c r="D131" s="58"/>
       <c r="F131" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v>前2天内容调整-测试版本配置，debug</v>
+        <f t="shared" ref="F131:G155" si="57">IF($E131=1,$B131," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G131" s="53" t="str">
         <f t="shared" si="57"/>
-        <v>前2天内容调整-测试版本配置，debug</v>
-      </c>
-      <c r="H131" s="59">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H131" s="59" t="str">
+        <f t="shared" ref="H131:H158" si="58">IF($E131=1,$D131," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I131" s="60"/>
       <c r="J131" s="53" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="J131:J158" si="59">IF($E131=2,$B131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K131" s="59" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="K131:K158" si="60">IF($E131=2,$D131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L131" s="60"/>
       <c r="M131" s="53" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="M131:M158" si="61">IF($E131=3,$B131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N131" s="59" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="N131:N158" si="62">IF($E131=3,$D131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O131" s="60"/>
       <c r="P131" s="53" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="P131:P158" si="63">IF($E131=4,$B131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q131" s="59" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="Q131:Q158" si="64">IF($E131=4,$D131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R131" s="60"/>
       <c r="S131" s="53" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="S131:S158" si="65">IF($E131=5,$B131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T131" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V131" s="53" t="str">
-        <f t="shared" ref="V131:V157" si="67">IF($E131=6,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W131" s="76" t="str">
-        <f t="shared" ref="W131:W157" si="68">IF($E131=6,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B132" s="107" t="s">
-        <v>702</v>
+        <f t="shared" ref="T131:T158" si="66">IF($E131=5,$D131," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B132" s="106" t="s">
+        <v>229</v>
       </c>
       <c r="C132" s="72"/>
       <c r="D132" s="78">
@@ -16757,12 +16719,13 @@
       <c r="E132" s="54">
         <v>1</v>
       </c>
-      <c r="F132" s="53" t="s">
-        <v>703</v>
+      <c r="F132" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v>前2天内容调整-测试版本配置，debug</v>
       </c>
       <c r="G132" s="53" t="str">
         <f t="shared" si="57"/>
-        <v>AOE特效具体需求</v>
+        <v>前2天内容调整-测试版本配置，debug</v>
       </c>
       <c r="H132" s="59">
         <f t="shared" si="58"/>
@@ -16805,17 +16768,17 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="V132" s="53" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="V132:V158" si="67">IF($E132=6,$B132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W132" s="76" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="W132:W158" si="68">IF($E132=6,$D132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B133" s="109" t="s">
-        <v>704</v>
+      <c r="B133" s="107" t="s">
+        <v>702</v>
       </c>
       <c r="C133" s="72"/>
       <c r="D133" s="78">
@@ -16824,98 +16787,108 @@
       <c r="E133" s="54">
         <v>1</v>
       </c>
-      <c r="G133" s="53"/>
-      <c r="H133" s="59"/>
+      <c r="F133" s="53" t="s">
+        <v>703</v>
+      </c>
+      <c r="G133" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v>AOE特效具体需求</v>
+      </c>
+      <c r="H133" s="59">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
       <c r="I133" s="60"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="59"/>
+      <c r="J133" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K133" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L133" s="60"/>
-      <c r="M133" s="53"/>
-      <c r="N133" s="59"/>
+      <c r="M133" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N133" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O133" s="60"/>
-      <c r="P133" s="53"/>
-      <c r="Q133" s="59"/>
+      <c r="P133" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q133" s="59" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R133" s="60"/>
-      <c r="S133" s="53"/>
-      <c r="T133" s="59"/>
-      <c r="V133" s="53"/>
-      <c r="W133" s="76"/>
+      <c r="S133" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T133" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V133" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W133" s="76" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B134" s="106" t="s">
-        <v>250</v>
-      </c>
-      <c r="C134" s="73"/>
-      <c r="D134" s="73">
+      <c r="B134" s="109" t="s">
+        <v>704</v>
+      </c>
+      <c r="C134" s="72"/>
+      <c r="D134" s="78">
         <v>1</v>
       </c>
       <c r="E134" s="54">
         <v>1</v>
       </c>
-      <c r="G134" s="53" t="str">
+      <c r="G134" s="53"/>
+      <c r="H134" s="59"/>
+      <c r="I134" s="60"/>
+      <c r="J134" s="53"/>
+      <c r="K134" s="59"/>
+      <c r="L134" s="60"/>
+      <c r="M134" s="53"/>
+      <c r="N134" s="59"/>
+      <c r="O134" s="60"/>
+      <c r="P134" s="53"/>
+      <c r="Q134" s="59"/>
+      <c r="R134" s="60"/>
+      <c r="S134" s="53"/>
+      <c r="T134" s="59"/>
+      <c r="V134" s="53"/>
+      <c r="W134" s="76"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B135" s="106" t="s">
+        <v>250</v>
+      </c>
+      <c r="C135" s="73"/>
+      <c r="D135" s="73">
+        <v>1</v>
+      </c>
+      <c r="E135" s="54">
+        <v>1</v>
+      </c>
+      <c r="G135" s="53" t="str">
         <f t="shared" si="57"/>
         <v>通天塔场景， 金钱经验试炼场景需求</v>
       </c>
-      <c r="H134" s="59">
+      <c r="H135" s="59">
         <f t="shared" si="58"/>
         <v>1</v>
-      </c>
-      <c r="I134" s="60"/>
-      <c r="J134" s="53" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K134" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L134" s="60"/>
-      <c r="M134" s="53" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N134" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O134" s="60"/>
-      <c r="P134" s="53" t="str">
-        <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q134" s="59" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R134" s="60"/>
-      <c r="S134" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T134" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V134" s="53" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W134" s="76" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B135" s="52"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="G135" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H135" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
       </c>
       <c r="I135" s="60"/>
       <c r="J135" s="53" t="str">
@@ -16962,21 +16935,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
-      <c r="B136" s="106" t="s">
-        <v>73</v>
-      </c>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B136" s="52"/>
       <c r="C136" s="73"/>
-      <c r="D136" s="73">
-        <v>1</v>
-      </c>
-      <c r="E136" s="54">
-        <v>2</v>
-      </c>
-      <c r="F136" s="53" t="s">
-        <v>394</v>
-      </c>
+      <c r="D136" s="73"/>
       <c r="G136" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -16988,11 +16950,11 @@
       <c r="I136" s="60"/>
       <c r="J136" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>第三四章副本设计</v>
-      </c>
-      <c r="K136" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K136" s="59" t="str">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L136" s="60"/>
       <c r="M136" s="53" t="str">
@@ -17030,19 +16992,20 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B137" s="107" t="s">
-        <v>242</v>
-      </c>
-      <c r="C137" s="72"/>
-      <c r="D137" s="58">
+    <row r="137" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="34"/>
+      <c r="B137" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="73"/>
+      <c r="D137" s="73">
         <v>1</v>
       </c>
       <c r="E137" s="54">
         <v>2</v>
       </c>
       <c r="F137" s="53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G137" s="53" t="str">
         <f t="shared" si="57"/>
@@ -17055,7 +17018,7 @@
       <c r="I137" s="60"/>
       <c r="J137" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>技能升级逻辑和界面需求</v>
+        <v>第三四章副本设计</v>
       </c>
       <c r="K137" s="59">
         <f t="shared" si="60"/>
@@ -17098,15 +17061,18 @@
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B138" s="106" t="s">
-        <v>223</v>
-      </c>
-      <c r="C138" s="73"/>
-      <c r="D138" s="73">
-        <v>3</v>
+      <c r="B138" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C138" s="72"/>
+      <c r="D138" s="58">
+        <v>1</v>
       </c>
       <c r="E138" s="54">
         <v>2</v>
+      </c>
+      <c r="F138" s="53" t="s">
+        <v>395</v>
       </c>
       <c r="G138" s="53" t="str">
         <f t="shared" si="57"/>
@@ -17119,11 +17085,11 @@
       <c r="I138" s="60"/>
       <c r="J138" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>第3章副本配置</v>
+        <v>技能升级逻辑和界面需求</v>
       </c>
       <c r="K138" s="59">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L138" s="60"/>
       <c r="M138" s="53" t="str">
@@ -17161,19 +17127,16 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B139" s="106" t="s">
-        <v>396</v>
+        <v>223</v>
       </c>
       <c r="C139" s="73"/>
       <c r="D139" s="73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E139" s="54">
         <v>2</v>
-      </c>
-      <c r="F139" s="53" t="s">
-        <v>685</v>
       </c>
       <c r="G139" s="53" t="str">
         <f t="shared" si="57"/>
@@ -17186,11 +17149,11 @@
       <c r="I139" s="60"/>
       <c r="J139" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>总体怪投放修改</v>
+        <v>第3章副本配置</v>
       </c>
       <c r="K139" s="59">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L139" s="60"/>
       <c r="M139" s="53" t="str">
@@ -17228,10 +17191,20 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B140" s="52"/>
+    <row r="140" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B140" s="106" t="s">
+        <v>396</v>
+      </c>
       <c r="C140" s="73"/>
-      <c r="D140" s="73"/>
+      <c r="D140" s="73">
+        <v>1</v>
+      </c>
+      <c r="E140" s="54">
+        <v>2</v>
+      </c>
+      <c r="F140" s="53" t="s">
+        <v>685</v>
+      </c>
       <c r="G140" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17243,11 +17216,11 @@
       <c r="I140" s="60"/>
       <c r="J140" s="53" t="str">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K140" s="59" t="str">
+        <v>总体怪投放修改</v>
+      </c>
+      <c r="K140" s="59">
         <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="L140" s="60"/>
       <c r="M140" s="53" t="str">
@@ -17285,21 +17258,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="34"/>
-      <c r="B141" s="106" t="s">
-        <v>222</v>
-      </c>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B141" s="52"/>
       <c r="C141" s="73"/>
-      <c r="D141" s="73">
-        <v>2</v>
-      </c>
-      <c r="E141" s="54">
-        <v>3</v>
-      </c>
-      <c r="F141" s="53" t="s">
-        <v>120</v>
-      </c>
+      <c r="D141" s="73"/>
       <c r="G141" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17320,11 +17282,11 @@
       <c r="L141" s="60"/>
       <c r="M141" s="53" t="str">
         <f t="shared" si="61"/>
-        <v>第3章副本-debug</v>
-      </c>
-      <c r="N141" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N141" s="59" t="str">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O141" s="60"/>
       <c r="P141" s="53" t="str">
@@ -17355,17 +17317,19 @@
     </row>
     <row r="142" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="34"/>
-      <c r="B142" s="108" t="s">
-        <v>224</v>
+      <c r="B142" s="106" t="s">
+        <v>222</v>
       </c>
       <c r="C142" s="73"/>
       <c r="D142" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142" s="54">
         <v>3</v>
       </c>
-      <c r="F142" s="53"/>
+      <c r="F142" s="53" t="s">
+        <v>120</v>
+      </c>
       <c r="G142" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17386,11 +17350,11 @@
       <c r="L142" s="60"/>
       <c r="M142" s="53" t="str">
         <f t="shared" si="61"/>
-        <v>第4章副本配置</v>
+        <v>第3章副本-debug</v>
       </c>
       <c r="N142" s="59">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O142" s="60"/>
       <c r="P142" s="53" t="str">
@@ -17421,10 +17385,16 @@
     </row>
     <row r="143" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="34"/>
-      <c r="B143" s="5"/>
+      <c r="B143" s="108" t="s">
+        <v>224</v>
+      </c>
       <c r="C143" s="73"/>
-      <c r="D143" s="73"/>
-      <c r="E143" s="54"/>
+      <c r="D143" s="73">
+        <v>3</v>
+      </c>
+      <c r="E143" s="54">
+        <v>3</v>
+      </c>
       <c r="F143" s="53"/>
       <c r="G143" s="53" t="str">
         <f t="shared" si="57"/>
@@ -17446,11 +17416,11 @@
       <c r="L143" s="60"/>
       <c r="M143" s="53" t="str">
         <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N143" s="59" t="str">
+        <v>第4章副本配置</v>
+      </c>
+      <c r="N143" s="59">
         <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="O143" s="60"/>
       <c r="P143" s="53" t="str">
@@ -17481,113 +17451,106 @@
     </row>
     <row r="144" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="34"/>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="5"/>
+      <c r="C144" s="73"/>
+      <c r="D144" s="73"/>
+      <c r="E144" s="54"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H144" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I144" s="60"/>
+      <c r="J144" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K144" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L144" s="60"/>
+      <c r="M144" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N144" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O144" s="60"/>
+      <c r="P144" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q144" s="59" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R144" s="60"/>
+      <c r="S144" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T144" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V144" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W144" s="76" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="34"/>
+      <c r="B145" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C144" s="73"/>
-      <c r="D144" s="73">
+      <c r="C145" s="73"/>
+      <c r="D145" s="73">
         <v>1</v>
       </c>
-      <c r="E144" s="54">
+      <c r="E145" s="54">
         <v>4</v>
       </c>
-      <c r="F144" s="53"/>
-      <c r="G144" s="53"/>
-      <c r="H144" s="59"/>
-      <c r="I144" s="60"/>
-      <c r="J144" s="53"/>
-      <c r="K144" s="59"/>
-      <c r="L144" s="60"/>
-      <c r="M144" s="53"/>
-      <c r="N144" s="59"/>
-      <c r="O144" s="60"/>
-      <c r="P144" s="53"/>
-      <c r="Q144" s="59"/>
-      <c r="R144" s="60"/>
-      <c r="S144" s="53"/>
-      <c r="T144" s="59"/>
-      <c r="V144" s="53"/>
-      <c r="W144" s="76"/>
-    </row>
-    <row r="145" spans="1:23" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
-      <c r="B145" s="108" t="s">
+      <c r="F145" s="53"/>
+      <c r="G145" s="53"/>
+      <c r="H145" s="59"/>
+      <c r="I145" s="60"/>
+      <c r="J145" s="53"/>
+      <c r="K145" s="59"/>
+      <c r="L145" s="60"/>
+      <c r="M145" s="53"/>
+      <c r="N145" s="59"/>
+      <c r="O145" s="60"/>
+      <c r="P145" s="53"/>
+      <c r="Q145" s="59"/>
+      <c r="R145" s="60"/>
+      <c r="S145" s="53"/>
+      <c r="T145" s="59"/>
+      <c r="V145" s="53"/>
+      <c r="W145" s="76"/>
+    </row>
+    <row r="146" spans="1:23" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A146" s="36"/>
+      <c r="B146" s="108" t="s">
         <v>397</v>
       </c>
-      <c r="C145" s="74"/>
-      <c r="D145" s="75">
+      <c r="C146" s="74"/>
+      <c r="D146" s="75">
         <v>4</v>
       </c>
-      <c r="E145" s="33">
+      <c r="E146" s="33">
         <v>4</v>
       </c>
-      <c r="G145" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H145" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I145" s="60"/>
-      <c r="J145" s="53" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K145" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L145" s="60"/>
-      <c r="M145" s="53" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N145" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O145" s="60"/>
-      <c r="P145" s="53" t="str">
-        <f t="shared" si="63"/>
-        <v>通天塔-试炼之塔 - Boss副本设计（4Boss,16普通）</v>
-      </c>
-      <c r="Q145" s="59">
-        <f t="shared" si="64"/>
-        <v>4</v>
-      </c>
-      <c r="R145" s="60"/>
-      <c r="S145" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T145" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U145" s="9"/>
-      <c r="V145" s="53" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W145" s="76" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="34"/>
-      <c r="B146" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C146" s="73"/>
-      <c r="D146" s="73">
-        <v>2</v>
-      </c>
-      <c r="E146" s="54">
-        <v>4</v>
-      </c>
-      <c r="F146" s="53"/>
       <c r="G146" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17617,11 +17580,11 @@
       <c r="O146" s="60"/>
       <c r="P146" s="53" t="str">
         <f t="shared" si="63"/>
-        <v>第4章副本-debug</v>
+        <v>通天塔-试炼之塔 - Boss副本设计（4Boss,16普通）</v>
       </c>
       <c r="Q146" s="59">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R146" s="60"/>
       <c r="S146" s="53" t="str">
@@ -17632,6 +17595,7 @@
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="U146" s="9"/>
       <c r="V146" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
@@ -17644,109 +17608,156 @@
     <row r="147" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="34"/>
       <c r="B147" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C147" s="73"/>
+      <c r="D147" s="73">
+        <v>2</v>
+      </c>
+      <c r="E147" s="54">
+        <v>4</v>
+      </c>
+      <c r="F147" s="53"/>
+      <c r="G147" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H147" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I147" s="60"/>
+      <c r="J147" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K147" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L147" s="60"/>
+      <c r="M147" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N147" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O147" s="60"/>
+      <c r="P147" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v>第4章副本-debug</v>
+      </c>
+      <c r="Q147" s="59">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="R147" s="60"/>
+      <c r="S147" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T147" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V147" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W147" s="76" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="34"/>
+      <c r="B148" s="106" t="s">
         <v>768</v>
       </c>
-      <c r="C147" s="73"/>
-      <c r="D147" s="73"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="53"/>
-      <c r="G147" s="53"/>
-      <c r="H147" s="59"/>
-      <c r="I147" s="60"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="59"/>
-      <c r="L147" s="60"/>
-      <c r="M147" s="53"/>
-      <c r="N147" s="59"/>
-      <c r="O147" s="60"/>
-      <c r="P147" s="53"/>
-      <c r="Q147" s="59"/>
-      <c r="R147" s="60"/>
-      <c r="S147" s="53"/>
-      <c r="T147" s="59"/>
-      <c r="V147" s="53"/>
-      <c r="W147" s="76"/>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B148" s="52" t="s">
+      <c r="C148" s="73"/>
+      <c r="D148" s="73"/>
+      <c r="E148" s="54"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="53"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="60"/>
+      <c r="J148" s="53"/>
+      <c r="K148" s="59"/>
+      <c r="L148" s="60"/>
+      <c r="M148" s="53"/>
+      <c r="N148" s="59"/>
+      <c r="O148" s="60"/>
+      <c r="P148" s="53"/>
+      <c r="Q148" s="59"/>
+      <c r="R148" s="60"/>
+      <c r="S148" s="53"/>
+      <c r="T148" s="59"/>
+      <c r="V148" s="53"/>
+      <c r="W148" s="76"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B149" s="106" t="s">
         <v>769</v>
       </c>
-      <c r="G148" s="53" t="str">
+      <c r="G149" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H148" s="59" t="str">
+      <c r="H149" s="59" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I148" s="60"/>
-      <c r="J148" s="53" t="str">
+      <c r="I149" s="60"/>
+      <c r="J149" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K148" s="59" t="str">
+      <c r="K149" s="59" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L148" s="60"/>
-      <c r="M148" s="53" t="str">
+      <c r="L149" s="60"/>
+      <c r="M149" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N148" s="59" t="str">
+      <c r="N149" s="59" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O148" s="60"/>
-      <c r="P148" s="53" t="str">
+      <c r="O149" s="60"/>
+      <c r="P149" s="53" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q148" s="59" t="str">
+      <c r="Q149" s="59" t="str">
         <f t="shared" si="64"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R148" s="60"/>
-      <c r="S148" s="53" t="str">
+      <c r="R149" s="60"/>
+      <c r="S149" s="53" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T148" s="59" t="str">
+      <c r="T149" s="59" t="str">
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V148" s="53" t="str">
+      <c r="V149" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W148" s="76" t="str">
+      <c r="W149" s="76" t="str">
         <f t="shared" si="68"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B149" s="52" t="s">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B150" s="52" t="s">
         <v>770</v>
       </c>
-      <c r="G149" s="53"/>
-      <c r="H149" s="59"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="53"/>
-      <c r="K149" s="59"/>
-      <c r="L149" s="60"/>
-      <c r="M149" s="53"/>
-      <c r="N149" s="59"/>
-      <c r="O149" s="60"/>
-      <c r="P149" s="53"/>
-      <c r="Q149" s="59"/>
-      <c r="R149" s="60"/>
-      <c r="S149" s="53"/>
-      <c r="T149" s="59"/>
-      <c r="V149" s="53"/>
-      <c r="W149" s="76"/>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B150" s="52"/>
       <c r="G150" s="53"/>
       <c r="H150" s="59"/>
       <c r="I150" s="60"/>
@@ -17765,74 +17776,30 @@
       <c r="W150" s="76"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B151" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D151" s="73">
-        <v>2</v>
-      </c>
-      <c r="E151" s="54">
-        <v>5</v>
-      </c>
-      <c r="G151" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H151" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B151" s="52"/>
+      <c r="G151" s="53"/>
+      <c r="H151" s="59"/>
       <c r="I151" s="60"/>
-      <c r="J151" s="53" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K151" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J151" s="53"/>
+      <c r="K151" s="59"/>
       <c r="L151" s="60"/>
-      <c r="M151" s="53" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N151" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M151" s="53"/>
+      <c r="N151" s="59"/>
       <c r="O151" s="60"/>
-      <c r="P151" s="53" t="str">
-        <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q151" s="59" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P151" s="53"/>
+      <c r="Q151" s="59"/>
       <c r="R151" s="60"/>
-      <c r="S151" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v>金钱，经验副本数值设计</v>
-      </c>
-      <c r="T151" s="59">
-        <f t="shared" si="66"/>
-        <v>2</v>
-      </c>
-      <c r="V151" s="53" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W151" s="76" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S151" s="53"/>
+      <c r="T151" s="59"/>
+      <c r="V151" s="53"/>
+      <c r="W151" s="76"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
-        <v>219</v>
+        <v>398</v>
       </c>
       <c r="D152" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E152" s="54">
         <v>5</v>
@@ -17875,11 +17842,11 @@
       <c r="R152" s="60"/>
       <c r="S152" s="53" t="str">
         <f t="shared" si="65"/>
-        <v>通天塔-金钱，经验副本配置</v>
+        <v>金钱，经验副本数值设计</v>
       </c>
       <c r="T152" s="59">
         <f t="shared" si="66"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V152" s="53" t="str">
         <f t="shared" si="67"/>
@@ -17891,7 +17858,15 @@
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D153" s="73"/>
+      <c r="B153" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D153" s="73">
+        <v>3</v>
+      </c>
+      <c r="E153" s="54">
+        <v>5</v>
+      </c>
       <c r="G153" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17930,11 +17905,11 @@
       <c r="R153" s="60"/>
       <c r="S153" s="53" t="str">
         <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T153" s="59" t="str">
+        <v>通天塔-金钱，经验副本配置</v>
+      </c>
+      <c r="T153" s="59">
         <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="V153" s="53" t="str">
         <f t="shared" si="67"/>
@@ -17945,21 +17920,8 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="154" spans="1:23" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
-      <c r="B154" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C154" s="52"/>
-      <c r="D154" s="73">
-        <v>2</v>
-      </c>
-      <c r="E154" s="54">
-        <v>6</v>
-      </c>
-      <c r="F154" s="53" t="s">
-        <v>93</v>
-      </c>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D154" s="73"/>
       <c r="G154" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -18006,30 +17968,30 @@
       </c>
       <c r="V154" s="53" t="str">
         <f t="shared" si="67"/>
-        <v>通天塔-金钱，经验副本配置-debug</v>
-      </c>
-      <c r="W154" s="76">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W154" s="76" t="str">
         <f t="shared" si="68"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A155" s="34"/>
-      <c r="B155" s="56" t="s">
-        <v>399</v>
+      <c r="B155" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="C155" s="52"/>
       <c r="D155" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155" s="54">
         <v>6</v>
       </c>
       <c r="F155" s="53" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="G155" s="53" t="str">
-        <f t="shared" ref="G155:G157" si="69">IF($E155=1,$B155," ")</f>
+        <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H155" s="59" t="str">
@@ -18074,190 +18036,239 @@
       </c>
       <c r="V155" s="53" t="str">
         <f t="shared" si="67"/>
-        <v>通天塔 - 试炼之塔 - 配置</v>
+        <v>通天塔-金钱，经验副本配置-debug</v>
       </c>
       <c r="W155" s="76">
         <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="34"/>
+      <c r="B156" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="C156" s="52"/>
+      <c r="D156" s="73">
         <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B156" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D156" s="73">
-        <v>4</v>
       </c>
       <c r="E156" s="54">
         <v>6</v>
       </c>
+      <c r="F156" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="G156" s="53" t="str">
-        <f t="shared" si="69"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H156" s="57" t="str">
+        <f t="shared" ref="G156:G158" si="69">IF($E156=1,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H156" s="59" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I156" s="60"/>
       <c r="J156" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K156" s="89" t="str">
+      <c r="K156" s="59" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L156" s="60"/>
       <c r="M156" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N156" s="89" t="str">
+      <c r="N156" s="59" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O156" s="60"/>
       <c r="P156" s="53" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q156" s="89" t="str">
+      <c r="Q156" s="59" t="str">
         <f t="shared" si="64"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="R156" s="60"/>
       <c r="S156" s="53" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T156" s="89" t="str">
+      <c r="T156" s="59" t="str">
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V156" s="53" t="str">
         <f t="shared" si="67"/>
+        <v>通天塔 - 试炼之塔 - 配置</v>
+      </c>
+      <c r="W156" s="76">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D157" s="73">
+        <v>4</v>
+      </c>
+      <c r="E157" s="54">
+        <v>6</v>
+      </c>
+      <c r="G157" s="53" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H157" s="57" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J157" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K157" s="89" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M157" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N157" s="89" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P157" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q157" s="89" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S157" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T157" s="89" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V157" s="53" t="str">
+        <f t="shared" si="67"/>
         <v>5-6章Boss设计</v>
       </c>
-      <c r="W156" s="57">
+      <c r="W157" s="57">
         <f t="shared" si="68"/>
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G157" s="53" t="str">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G158" s="53" t="str">
         <f t="shared" si="69"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H157" s="59" t="str">
+      <c r="H158" s="59" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I157" s="60"/>
-      <c r="J157" s="53" t="str">
+      <c r="I158" s="60"/>
+      <c r="J158" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K157" s="59" t="str">
+      <c r="K158" s="59" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L157" s="60"/>
-      <c r="M157" s="53" t="str">
+      <c r="L158" s="60"/>
+      <c r="M158" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N157" s="59" t="str">
+      <c r="N158" s="59" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O157" s="60"/>
-      <c r="P157" s="53" t="str">
+      <c r="O158" s="60"/>
+      <c r="P158" s="53" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q157" s="59" t="str">
+      <c r="Q158" s="59" t="str">
         <f t="shared" si="64"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R157" s="60"/>
-      <c r="S157" s="53" t="str">
+      <c r="R158" s="60"/>
+      <c r="S158" s="53" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T157" s="59" t="str">
+      <c r="T158" s="59" t="str">
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V157" s="53" t="str">
+      <c r="V158" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W157" s="76" t="str">
+      <c r="W158" s="76" t="str">
         <f t="shared" si="68"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="158" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="37" t="s">
+    <row r="159" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C158" s="37"/>
-      <c r="D158" s="35">
-        <f>SUM(D132:D157)</f>
+      <c r="C159" s="37"/>
+      <c r="D159" s="35">
+        <f>SUM(D133:D158)</f>
         <v>35</v>
       </c>
-      <c r="E158" s="35"/>
-      <c r="F158" s="36"/>
-      <c r="H158" s="35">
-        <f>SUM(H131:H157)</f>
+      <c r="E159" s="35"/>
+      <c r="F159" s="36"/>
+      <c r="H159" s="35">
+        <f>SUM(H132:H158)</f>
         <v>3</v>
       </c>
-      <c r="I158" s="38"/>
-      <c r="K158" s="35">
-        <f>SUM(K132:K157)</f>
+      <c r="I159" s="38"/>
+      <c r="K159" s="35">
+        <f>SUM(K133:K158)</f>
         <v>6</v>
       </c>
-      <c r="L158" s="38"/>
-      <c r="N158" s="35">
-        <f>SUM(N132:N157)</f>
+      <c r="L159" s="38"/>
+      <c r="N159" s="35">
+        <f>SUM(N133:N158)</f>
         <v>5</v>
       </c>
-      <c r="O158" s="38"/>
-      <c r="Q158" s="35">
-        <f>SUM(Q132:Q157)</f>
+      <c r="O159" s="38"/>
+      <c r="Q159" s="35">
+        <f>SUM(Q133:Q158)</f>
         <v>6</v>
       </c>
-      <c r="R158" s="38"/>
-      <c r="T158" s="35">
-        <f>SUM(T132:T157)</f>
+      <c r="R159" s="38"/>
+      <c r="T159" s="35">
+        <f>SUM(T133:T158)</f>
         <v>5</v>
       </c>
-      <c r="U158" s="38"/>
-      <c r="W158" s="35">
-        <f>SUM(W132:W157)</f>
+      <c r="U159" s="38"/>
+      <c r="W159" s="35">
+        <f>SUM(W133:W158)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B160" s="73" t="s">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B161" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="C160" s="73"/>
-      <c r="D160" s="73"/>
-      <c r="G160" s="53"/>
-      <c r="H160" s="59"/>
-      <c r="I160" s="60"/>
-      <c r="J160" s="53"/>
-      <c r="K160" s="59"/>
-      <c r="L160" s="60"/>
-      <c r="M160" s="53"/>
-      <c r="N160" s="59"/>
-      <c r="O160" s="60"/>
-      <c r="P160" s="53"/>
-      <c r="Q160" s="59"/>
-      <c r="R160" s="60"/>
-      <c r="S160" s="53"/>
-      <c r="T160" s="59"/>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B161" s="73"/>
       <c r="C161" s="73"/>
       <c r="D161" s="73"/>
       <c r="G161" s="53"/>
@@ -18276,16 +18287,9 @@
       <c r="T161" s="59"/>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B162" s="73" t="s">
-        <v>699</v>
-      </c>
+      <c r="B162" s="73"/>
       <c r="C162" s="73"/>
-      <c r="D162" s="73">
-        <v>3</v>
-      </c>
-      <c r="E162" s="54">
-        <v>7</v>
-      </c>
+      <c r="D162" s="73"/>
       <c r="G162" s="53"/>
       <c r="H162" s="59"/>
       <c r="I162" s="60"/>
@@ -18302,79 +18306,41 @@
       <c r="T162" s="59"/>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="73" t="s">
+        <v>699</v>
+      </c>
+      <c r="C163" s="73"/>
+      <c r="D163" s="73">
+        <v>3</v>
+      </c>
+      <c r="E163" s="54">
+        <v>7</v>
+      </c>
+      <c r="G163" s="53"/>
+      <c r="H163" s="59"/>
+      <c r="I163" s="60"/>
+      <c r="J163" s="53"/>
+      <c r="K163" s="59"/>
+      <c r="L163" s="60"/>
+      <c r="M163" s="53"/>
+      <c r="N163" s="59"/>
+      <c r="O163" s="60"/>
+      <c r="P163" s="53"/>
+      <c r="Q163" s="59"/>
+      <c r="R163" s="60"/>
+      <c r="S163" s="53"/>
+      <c r="T163" s="59"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D163" s="54">
+      <c r="D164" s="54">
         <v>4</v>
       </c>
-      <c r="E163" s="54">
+      <c r="E164" s="54">
         <v>6</v>
       </c>
-      <c r="G163" s="53" t="str">
-        <f>IF($E163=1,$B163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H163" s="59" t="str">
-        <f>IF($E163=1,$D163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I163" s="60"/>
-      <c r="J163" s="53" t="str">
-        <f>IF($E163=2,$B163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K163" s="59" t="str">
-        <f>IF($E163=2,$D163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L163" s="60"/>
-      <c r="M163" s="53" t="str">
-        <f>IF($E163=3,$B163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N163" s="59" t="str">
-        <f>IF($E163=3,$D163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O163" s="60"/>
-      <c r="P163" s="53" t="str">
-        <f>IF($E163=4,$B163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q163" s="59" t="str">
-        <f>IF($E163=4,$D163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R163" s="60"/>
-      <c r="S163" s="53" t="str">
-        <f>IF($E163=5,$B163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T163" s="59" t="str">
-        <f>IF($E163=5,$D163," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V163" s="53" t="str">
-        <f>IF($E163=6,$B163," ")</f>
-        <v>1-2章困难副本数值设计</v>
-      </c>
-      <c r="W163" s="76">
-        <f>IF($E163=6,$D163," ")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="34"/>
-      <c r="B164" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C164" s="73"/>
-      <c r="D164" s="73">
-        <v>3</v>
-      </c>
-      <c r="E164" s="54"/>
-      <c r="F164" s="53"/>
       <c r="G164" s="53" t="str">
         <f>IF($E164=1,$B164," ")</f>
         <v xml:space="preserve"> </v>
@@ -18419,16 +18385,26 @@
         <f>IF($E164=5,$D164," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V164" s="5"/>
-      <c r="W164" s="57"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V164" s="53" t="str">
+        <f>IF($E164=6,$B164," ")</f>
+        <v>1-2章困难副本数值设计</v>
+      </c>
+      <c r="W164" s="76">
+        <f>IF($E164=6,$D164," ")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="34"/>
       <c r="B165" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D165" s="54">
+        <v>221</v>
+      </c>
+      <c r="C165" s="73"/>
+      <c r="D165" s="73">
         <v>3</v>
       </c>
+      <c r="E165" s="54"/>
+      <c r="F165" s="53"/>
       <c r="G165" s="53" t="str">
         <f>IF($E165=1,$B165," ")</f>
         <v xml:space="preserve"> </v>
@@ -18473,13 +18449,15 @@
         <f>IF($E165=5,$D165," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="V165" s="5"/>
+      <c r="W165" s="57"/>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B166" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="D166" s="61">
-        <v>6</v>
+      <c r="B166" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D166" s="54">
+        <v>3</v>
       </c>
       <c r="G166" s="53" t="str">
         <f>IF($E166=1,$B166," ")</f>
@@ -18526,425 +18504,414 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="167" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B167" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D167" s="61">
+        <v>6</v>
+      </c>
+      <c r="G167" s="53" t="str">
+        <f>IF($E167=1,$B167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H167" s="59" t="str">
+        <f>IF($E167=1,$D167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I167" s="60"/>
+      <c r="J167" s="53" t="str">
+        <f>IF($E167=2,$B167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K167" s="59" t="str">
+        <f>IF($E167=2,$D167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L167" s="60"/>
+      <c r="M167" s="53" t="str">
+        <f>IF($E167=3,$B167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N167" s="59" t="str">
+        <f>IF($E167=3,$D167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O167" s="60"/>
+      <c r="P167" s="53" t="str">
+        <f>IF($E167=4,$B167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q167" s="59" t="str">
+        <f>IF($E167=4,$D167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R167" s="60"/>
+      <c r="S167" s="53" t="str">
+        <f>IF($E167=5,$B167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T167" s="59" t="str">
+        <f>IF($E167=5,$D167," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="34"/>
+      <c r="B168" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="61">
+      <c r="C168" s="5"/>
+      <c r="D168" s="61">
         <v>12</v>
       </c>
-      <c r="E167" s="54"/>
-      <c r="F167" s="53"/>
-      <c r="G167" s="53"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="60"/>
-      <c r="J167" s="53"/>
-      <c r="K167" s="59"/>
-      <c r="L167" s="60"/>
-      <c r="M167" s="53"/>
-      <c r="N167" s="59"/>
-      <c r="O167" s="60"/>
-      <c r="P167" s="53"/>
-      <c r="Q167" s="59"/>
-      <c r="R167" s="60"/>
-      <c r="S167" s="53"/>
-      <c r="T167" s="59"/>
-      <c r="V167" s="5"/>
-      <c r="W167" s="57"/>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B169" s="37" t="s">
+      <c r="E168" s="54"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="53"/>
+      <c r="H168" s="59"/>
+      <c r="I168" s="60"/>
+      <c r="J168" s="53"/>
+      <c r="K168" s="59"/>
+      <c r="L168" s="60"/>
+      <c r="M168" s="53"/>
+      <c r="N168" s="59"/>
+      <c r="O168" s="60"/>
+      <c r="P168" s="53"/>
+      <c r="Q168" s="59"/>
+      <c r="R168" s="60"/>
+      <c r="S168" s="53"/>
+      <c r="T168" s="59"/>
+      <c r="V168" s="5"/>
+      <c r="W168" s="57"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B170" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="D169" s="35">
-        <f>SUM(D164:D168)</f>
+      <c r="D170" s="35">
+        <f>SUM(D165:D169)</f>
         <v>24</v>
       </c>
-      <c r="F169" s="53" t="str">
-        <f t="shared" ref="F169:T169" si="70">IF($E169=1,$B169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G169" s="53" t="str">
+      <c r="F170" s="53" t="str">
+        <f t="shared" ref="F170:T170" si="70">IF($E170=1,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H169" s="76" t="str">
+      <c r="H170" s="76" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I169" s="53" t="str">
+      <c r="I170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J169" s="53" t="str">
+      <c r="J170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K169" s="53" t="str">
+      <c r="K170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L169" s="53" t="str">
+      <c r="L170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M169" s="53" t="str">
+      <c r="M170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N169" s="53" t="str">
+      <c r="N170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O169" s="53" t="str">
+      <c r="O170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P169" s="53" t="str">
+      <c r="P170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q169" s="53" t="str">
+      <c r="Q170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R169" s="53" t="str">
+      <c r="R170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S169" s="53" t="str">
+      <c r="S170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T169" s="53" t="str">
+      <c r="T170" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="171" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D171" s="65"/>
-      <c r="E171" s="65"/>
-      <c r="F171" s="66"/>
-      <c r="H171" s="68"/>
-      <c r="I171" s="69"/>
-      <c r="L171" s="69"/>
-      <c r="O171" s="69"/>
-      <c r="R171" s="69"/>
-      <c r="U171" s="69"/>
-      <c r="W171" s="68"/>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A172" s="34" t="s">
+    <row r="172" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D172" s="65"/>
+      <c r="E172" s="65"/>
+      <c r="F172" s="66"/>
+      <c r="H172" s="68"/>
+      <c r="I172" s="69"/>
+      <c r="L172" s="69"/>
+      <c r="O172" s="69"/>
+      <c r="R172" s="69"/>
+      <c r="U172" s="69"/>
+      <c r="W172" s="68"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A173" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="B172" s="75"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="75"/>
-      <c r="G172" s="75"/>
-      <c r="H172" s="77"/>
-      <c r="I172" s="60"/>
-      <c r="J172" s="52"/>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B173" s="106" t="s">
+      <c r="B173" s="75"/>
+      <c r="C173" s="75"/>
+      <c r="D173" s="75"/>
+      <c r="G173" s="75"/>
+      <c r="H173" s="77"/>
+      <c r="I173" s="60"/>
+      <c r="J173" s="52"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B174" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="C173" s="75"/>
-      <c r="D173" s="75">
+      <c r="C174" s="75"/>
+      <c r="D174" s="75">
         <v>1</v>
-      </c>
-      <c r="E173" s="54">
-        <v>1</v>
-      </c>
-      <c r="G173" s="53" t="str">
-        <f t="shared" ref="G173:G196" si="71">IF($E173=1,$B173," ")</f>
-        <v>前2天内容调整-测试版本配置，debug</v>
-      </c>
-      <c r="H173" s="59">
-        <f t="shared" ref="H173:H196" si="72">IF($E173=1,$D173," ")</f>
-        <v>1</v>
-      </c>
-      <c r="I173" s="60"/>
-      <c r="J173" s="53" t="str">
-        <f t="shared" ref="J173:J196" si="73">IF($E173=2,$B173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K173" s="59" t="str">
-        <f t="shared" ref="K173:K196" si="74">IF($E173=2,$D173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L173" s="60"/>
-      <c r="M173" s="53" t="str">
-        <f t="shared" ref="M173:M196" si="75">IF($E173=3,$B173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N173" s="59" t="str">
-        <f t="shared" ref="N173:N196" si="76">IF($E173=3,$D173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O173" s="60"/>
-      <c r="P173" s="53" t="str">
-        <f t="shared" ref="P173:P196" si="77">IF($E173=4,$B173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q173" s="59" t="str">
-        <f t="shared" ref="Q173:Q196" si="78">IF($E173=4,$D173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R173" s="60"/>
-      <c r="S173" s="53" t="str">
-        <f t="shared" ref="S173:S196" si="79">IF($E173=5,$B173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T173" s="59" t="str">
-        <f t="shared" ref="T173:T196" si="80">IF($E173=5,$D173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V173" s="53" t="str">
-        <f t="shared" ref="V173:V196" si="81">IF($E173=6,$B173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W173" s="76" t="str">
-        <f t="shared" ref="W173:W196" si="82">IF($E173=6,$D173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="174" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B174" s="106" t="s">
-        <v>684</v>
-      </c>
-      <c r="D174" s="54">
-        <v>0.5</v>
       </c>
       <c r="E174" s="54">
         <v>1</v>
       </c>
-      <c r="F174" s="53" t="s">
+      <c r="G174" s="53" t="str">
+        <f t="shared" ref="G174:G197" si="71">IF($E174=1,$B174," ")</f>
+        <v>前2天内容调整-测试版本配置，debug</v>
+      </c>
+      <c r="H174" s="59">
+        <f t="shared" ref="H174:H197" si="72">IF($E174=1,$D174," ")</f>
+        <v>1</v>
+      </c>
+      <c r="I174" s="60"/>
+      <c r="J174" s="53" t="str">
+        <f t="shared" ref="J174:J197" si="73">IF($E174=2,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K174" s="59" t="str">
+        <f t="shared" ref="K174:K197" si="74">IF($E174=2,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L174" s="60"/>
+      <c r="M174" s="53" t="str">
+        <f t="shared" ref="M174:M197" si="75">IF($E174=3,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N174" s="59" t="str">
+        <f t="shared" ref="N174:N197" si="76">IF($E174=3,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O174" s="60"/>
+      <c r="P174" s="53" t="str">
+        <f t="shared" ref="P174:P197" si="77">IF($E174=4,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q174" s="59" t="str">
+        <f t="shared" ref="Q174:Q197" si="78">IF($E174=4,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R174" s="60"/>
+      <c r="S174" s="53" t="str">
+        <f t="shared" ref="S174:S197" si="79">IF($E174=5,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T174" s="59" t="str">
+        <f t="shared" ref="T174:T197" si="80">IF($E174=5,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V174" s="53" t="str">
+        <f t="shared" ref="V174:V197" si="81">IF($E174=6,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W174" s="76" t="str">
+        <f t="shared" ref="W174:W197" si="82">IF($E174=6,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B175" s="106" t="s">
+        <v>684</v>
+      </c>
+      <c r="D175" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E175" s="54">
+        <v>1</v>
+      </c>
+      <c r="F175" s="53" t="s">
         <v>686</v>
       </c>
-      <c r="G174" s="53" t="str">
+      <c r="G175" s="53" t="str">
         <f t="shared" si="71"/>
         <v>道具指引回归</v>
       </c>
-      <c r="H174" s="59">
+      <c r="H175" s="59">
         <f t="shared" si="72"/>
         <v>0.5</v>
       </c>
-      <c r="I174" s="60"/>
-      <c r="J174" s="53" t="str">
+      <c r="I175" s="60"/>
+      <c r="J175" s="53" t="str">
         <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K174" s="59" t="str">
+      <c r="K175" s="59" t="str">
         <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L174" s="60"/>
-      <c r="M174" s="53" t="str">
+      <c r="L175" s="60"/>
+      <c r="M175" s="53" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N174" s="59" t="str">
+      <c r="N175" s="59" t="str">
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O174" s="60"/>
-      <c r="P174" s="53" t="str">
+      <c r="O175" s="60"/>
+      <c r="P175" s="53" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q174" s="59" t="str">
+      <c r="Q175" s="59" t="str">
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R174" s="60"/>
-      <c r="S174" s="53" t="str">
+      <c r="R175" s="60"/>
+      <c r="S175" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T174" s="59" t="str">
+      <c r="T175" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V174" s="53" t="str">
+      <c r="V175" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W174" s="76" t="str">
+      <c r="W175" s="76" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B175" s="108" t="s">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B176" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="D175" s="54">
+      <c r="D176" s="54">
         <v>1</v>
       </c>
-      <c r="E175" s="54">
+      <c r="E176" s="54">
         <v>1</v>
       </c>
-      <c r="G175" s="53" t="str">
+      <c r="G176" s="53" t="str">
         <f t="shared" si="71"/>
         <v>商店内容设计</v>
       </c>
-      <c r="H175" s="59">
+      <c r="H176" s="59">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
-      <c r="I175" s="60"/>
-      <c r="J175" s="53"/>
-      <c r="K175" s="59"/>
-      <c r="L175" s="60"/>
-      <c r="M175" s="53"/>
-      <c r="N175" s="59"/>
-      <c r="O175" s="60"/>
-      <c r="P175" s="53"/>
-      <c r="Q175" s="59"/>
-      <c r="R175" s="60"/>
-      <c r="S175" s="53"/>
-      <c r="T175" s="59"/>
-      <c r="V175" s="53"/>
-      <c r="W175" s="76"/>
-    </row>
-    <row r="176" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="B176" s="106" t="s">
+      <c r="I176" s="60"/>
+      <c r="J176" s="53"/>
+      <c r="K176" s="59"/>
+      <c r="L176" s="60"/>
+      <c r="M176" s="53"/>
+      <c r="N176" s="59"/>
+      <c r="O176" s="60"/>
+      <c r="P176" s="53"/>
+      <c r="Q176" s="59"/>
+      <c r="R176" s="60"/>
+      <c r="S176" s="53"/>
+      <c r="T176" s="59"/>
+      <c r="V176" s="53"/>
+      <c r="W176" s="76"/>
+    </row>
+    <row r="177" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+      <c r="B177" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="D176" s="54">
+      <c r="D177" s="54">
         <v>3</v>
       </c>
-      <c r="E176" s="54">
+      <c r="E177" s="54">
         <v>2</v>
       </c>
-      <c r="F176" s="53" t="s">
+      <c r="F177" s="53" t="s">
         <v>717</v>
       </c>
-      <c r="G176" s="53" t="str">
+      <c r="G177" s="53" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H176" s="59" t="str">
+      <c r="H177" s="59" t="str">
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I176" s="60"/>
-      <c r="J176" s="53" t="str">
+      <c r="I177" s="60"/>
+      <c r="J177" s="53" t="str">
         <f t="shared" si="73"/>
         <v>4个章节相关数值设计补漏</v>
       </c>
-      <c r="K176" s="59">
+      <c r="K177" s="59">
         <f t="shared" si="74"/>
         <v>3</v>
       </c>
-      <c r="L176" s="60"/>
-      <c r="M176" s="53" t="str">
-        <f t="shared" si="75"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N176" s="59" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O176" s="60"/>
-      <c r="P176" s="53" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q176" s="59" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R176" s="60"/>
-      <c r="S176" s="53" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T176" s="59" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V176" s="53" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W176" s="76" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B177" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="D177" s="54">
-        <v>2</v>
-      </c>
-      <c r="E177" s="54">
-        <v>2</v>
-      </c>
-      <c r="G177" s="53" t="str">
-        <f>IF($E177=1,$B177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H177" s="59" t="str">
-        <f>IF($E177=1,$D177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I177" s="60"/>
-      <c r="J177" s="53" t="str">
-        <f>IF($E177=2,$B177," ")</f>
-        <v>第3 -4章副本配置Reward</v>
-      </c>
-      <c r="K177" s="59">
-        <f>IF($E177=2,$D177," ")</f>
-        <v>2</v>
-      </c>
       <c r="L177" s="60"/>
       <c r="M177" s="53" t="str">
-        <f>IF($E177=3,$B177," ")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N177" s="59" t="str">
-        <f>IF($E177=3,$D177," ")</f>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O177" s="60"/>
       <c r="P177" s="53" t="str">
-        <f>IF($E177=4,$B177," ")</f>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q177" s="59" t="str">
-        <f>IF($E177=4,$D177," ")</f>
+        <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R177" s="60"/>
       <c r="S177" s="53" t="str">
-        <f>IF($E177=5,$B177," ")</f>
+        <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T177" s="59" t="str">
-        <f>IF($E177=5,$D177," ")</f>
+        <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V177" s="53" t="str">
-        <f>IF($E177=6,$B177," ")</f>
+        <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W177" s="76" t="str">
-        <f>IF($E177=6,$D177," ")</f>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B178" s="108" t="s">
-        <v>694</v>
+      <c r="B178" s="106" t="s">
+        <v>406</v>
       </c>
       <c r="D178" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178" s="54">
         <v>2</v>
@@ -18960,11 +18927,11 @@
       <c r="I178" s="60"/>
       <c r="J178" s="53" t="str">
         <f>IF($E178=2,$B178," ")</f>
-        <v>商店内容配置</v>
+        <v>第3 -4章副本配置Reward</v>
       </c>
       <c r="K178" s="59">
         <f>IF($E178=2,$D178," ")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L178" s="60"/>
       <c r="M178" s="53" t="str">
@@ -19003,100 +18970,99 @@
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B179" s="108"/>
-      <c r="G179" s="53"/>
-      <c r="H179" s="59"/>
+      <c r="B179" s="106" t="s">
+        <v>694</v>
+      </c>
+      <c r="D179" s="54">
+        <v>1</v>
+      </c>
+      <c r="E179" s="54">
+        <v>2</v>
+      </c>
+      <c r="G179" s="53" t="str">
+        <f>IF($E179=1,$B179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H179" s="59" t="str">
+        <f>IF($E179=1,$D179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I179" s="60"/>
-      <c r="J179" s="53"/>
-      <c r="K179" s="59"/>
+      <c r="J179" s="53" t="str">
+        <f>IF($E179=2,$B179," ")</f>
+        <v>商店内容配置</v>
+      </c>
+      <c r="K179" s="59">
+        <f>IF($E179=2,$D179," ")</f>
+        <v>1</v>
+      </c>
       <c r="L179" s="60"/>
-      <c r="M179" s="53"/>
-      <c r="N179" s="59"/>
+      <c r="M179" s="53" t="str">
+        <f>IF($E179=3,$B179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N179" s="59" t="str">
+        <f>IF($E179=3,$D179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O179" s="60"/>
-      <c r="P179" s="53"/>
-      <c r="Q179" s="59"/>
+      <c r="P179" s="53" t="str">
+        <f>IF($E179=4,$B179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q179" s="59" t="str">
+        <f>IF($E179=4,$D179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R179" s="60"/>
-      <c r="S179" s="53"/>
-      <c r="T179" s="59"/>
-      <c r="V179" s="53"/>
-      <c r="W179" s="76"/>
+      <c r="S179" s="53" t="str">
+        <f>IF($E179=5,$B179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T179" s="59" t="str">
+        <f>IF($E179=5,$D179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V179" s="53" t="str">
+        <f>IF($E179=6,$B179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W179" s="76" t="str">
+        <f>IF($E179=6,$D179," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B180" s="108" t="s">
+      <c r="B180" s="108"/>
+      <c r="G180" s="53"/>
+      <c r="H180" s="59"/>
+      <c r="I180" s="60"/>
+      <c r="J180" s="53"/>
+      <c r="K180" s="59"/>
+      <c r="L180" s="60"/>
+      <c r="M180" s="53"/>
+      <c r="N180" s="59"/>
+      <c r="O180" s="60"/>
+      <c r="P180" s="53"/>
+      <c r="Q180" s="59"/>
+      <c r="R180" s="60"/>
+      <c r="S180" s="53"/>
+      <c r="T180" s="59"/>
+      <c r="V180" s="53"/>
+      <c r="W180" s="76"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B181" s="108" t="s">
         <v>407</v>
       </c>
-      <c r="D180" s="54">
+      <c r="D181" s="54">
         <v>1</v>
-      </c>
-      <c r="E180" s="54">
-        <v>3</v>
-      </c>
-      <c r="F180" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="G180" s="53" t="str">
-        <f>IF($E180=1,$B180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H180" s="59" t="str">
-        <f>IF($E180=1,$D180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I180" s="60"/>
-      <c r="J180" s="53" t="str">
-        <f>IF($E180=2,$B180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K180" s="59" t="str">
-        <f>IF($E180=2,$D180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L180" s="60"/>
-      <c r="M180" s="53" t="str">
-        <f>IF($E180=3,$B180," ")</f>
-        <v>第3 -4章副本配置Reward - debug</v>
-      </c>
-      <c r="N180" s="59">
-        <f>IF($E180=3,$D180," ")</f>
-        <v>1</v>
-      </c>
-      <c r="O180" s="60"/>
-      <c r="P180" s="53" t="str">
-        <f>IF($E180=4,$B180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q180" s="59" t="str">
-        <f>IF($E180=4,$D180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R180" s="60"/>
-      <c r="S180" s="53" t="str">
-        <f>IF($E180=5,$B180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T180" s="59" t="str">
-        <f>IF($E180=5,$D180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V180" s="53" t="str">
-        <f>IF($E180=6,$B180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W180" s="76" t="str">
-        <f>IF($E180=6,$D180," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="108" t="s">
-        <v>722</v>
-      </c>
-      <c r="D181" s="54">
-        <v>2</v>
       </c>
       <c r="E181" s="54">
         <v>3</v>
+      </c>
+      <c r="F181" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="G181" s="53" t="str">
         <f>IF($E181=1,$B181," ")</f>
@@ -19118,11 +19084,11 @@
       <c r="L181" s="60"/>
       <c r="M181" s="53" t="str">
         <f>IF($E181=3,$B181," ")</f>
-        <v>战力模型 - （进阶公式补充， 3-4章）</v>
+        <v>第3 -4章副本配置Reward - debug</v>
       </c>
       <c r="N181" s="59">
         <f>IF($E181=3,$D181," ")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O181" s="60"/>
       <c r="P181" s="53" t="str">
@@ -19153,8 +19119,8 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
-      <c r="B182" s="108" t="s">
-        <v>254</v>
+      <c r="B182" s="106" t="s">
+        <v>722</v>
       </c>
       <c r="D182" s="54">
         <v>2</v>
@@ -19162,368 +19128,369 @@
       <c r="E182" s="54">
         <v>3</v>
       </c>
-      <c r="F182" s="53" t="s">
-        <v>692</v>
-      </c>
       <c r="G182" s="53" t="str">
-        <f t="shared" si="71"/>
+        <f>IF($E182=1,$B182," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H182" s="59" t="str">
-        <f t="shared" si="72"/>
+        <f>IF($E182=1,$D182," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I182" s="60"/>
       <c r="J182" s="53" t="str">
-        <f t="shared" si="73"/>
+        <f>IF($E182=2,$B182," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K182" s="59" t="str">
-        <f t="shared" si="74"/>
+        <f>IF($E182=2,$D182," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L182" s="60"/>
       <c r="M182" s="53" t="str">
+        <f>IF($E182=3,$B182," ")</f>
+        <v>战力模型 - （进阶公式补充， 3-4章）</v>
+      </c>
+      <c r="N182" s="59">
+        <f>IF($E182=3,$D182," ")</f>
+        <v>2</v>
+      </c>
+      <c r="O182" s="60"/>
+      <c r="P182" s="53" t="str">
+        <f>IF($E182=4,$B182," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q182" s="59" t="str">
+        <f>IF($E182=4,$D182," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R182" s="60"/>
+      <c r="S182" s="53" t="str">
+        <f>IF($E182=5,$B182," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T182" s="59" t="str">
+        <f>IF($E182=5,$D182," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V182" s="53" t="str">
+        <f>IF($E182=6,$B182," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W182" s="76" t="str">
+        <f>IF($E182=6,$D182," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="B183" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="D183" s="54">
+        <v>2</v>
+      </c>
+      <c r="E183" s="54">
+        <v>3</v>
+      </c>
+      <c r="F183" s="53" t="s">
+        <v>692</v>
+      </c>
+      <c r="G183" s="53" t="str">
+        <f t="shared" si="71"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H183" s="59" t="str">
+        <f t="shared" si="72"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I183" s="60"/>
+      <c r="J183" s="53" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K183" s="59" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L183" s="60"/>
+      <c r="M183" s="53" t="str">
         <f t="shared" si="75"/>
         <v>抽蛋内容设计</v>
       </c>
-      <c r="N182" s="59">
+      <c r="N183" s="59">
         <f t="shared" si="76"/>
         <v>2</v>
       </c>
-      <c r="O182" s="60"/>
-      <c r="P182" s="53" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q182" s="59" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R182" s="60"/>
-      <c r="S182" s="53" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T182" s="59" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V182" s="53" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W182" s="76" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B183" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D183" s="54">
-        <v>1</v>
-      </c>
-      <c r="E183" s="54">
-        <v>3</v>
-      </c>
-      <c r="G183" s="53" t="str">
-        <f>IF($E183=1,$B183," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H183" s="59" t="str">
-        <f>IF($E183=1,$D183," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I183" s="60"/>
-      <c r="J183" s="53" t="str">
-        <f>IF($E183=2,$B183," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K183" s="59" t="str">
-        <f>IF($E183=2,$D183," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L183" s="60"/>
-      <c r="M183" s="53" t="str">
-        <f>IF($E183=3,$B183," ")</f>
-        <v>通天塔-金钱，经验副本配置</v>
-      </c>
-      <c r="N183" s="59">
-        <f>IF($E183=3,$D183," ")</f>
-        <v>1</v>
-      </c>
       <c r="O183" s="60"/>
       <c r="P183" s="53" t="str">
-        <f>IF($E183=4,$B183," ")</f>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q183" s="59" t="str">
-        <f>IF($E183=4,$D183," ")</f>
+        <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R183" s="60"/>
       <c r="S183" s="53" t="str">
-        <f>IF($E183=5,$B183," ")</f>
+        <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T183" s="59" t="str">
-        <f>IF($E183=5,$D183," ")</f>
+        <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V183" s="53" t="str">
-        <f>IF($E183=6,$B183," ")</f>
+        <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W183" s="76" t="str">
-        <f>IF($E183=6,$D183," ")</f>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
-      <c r="B184" s="52"/>
-      <c r="G184" s="53"/>
-      <c r="H184" s="59"/>
+      <c r="B184" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D184" s="54">
+        <v>1</v>
+      </c>
+      <c r="E184" s="54">
+        <v>3</v>
+      </c>
+      <c r="G184" s="53" t="str">
+        <f>IF($E184=1,$B184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H184" s="59" t="str">
+        <f>IF($E184=1,$D184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I184" s="60"/>
-      <c r="J184" s="53"/>
-      <c r="K184" s="59"/>
+      <c r="J184" s="53" t="str">
+        <f>IF($E184=2,$B184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K184" s="59" t="str">
+        <f>IF($E184=2,$D184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L184" s="60"/>
-      <c r="M184" s="53"/>
-      <c r="N184" s="59"/>
+      <c r="M184" s="53" t="str">
+        <f>IF($E184=3,$B184," ")</f>
+        <v>通天塔-金钱，经验副本配置</v>
+      </c>
+      <c r="N184" s="59">
+        <f>IF($E184=3,$D184," ")</f>
+        <v>1</v>
+      </c>
       <c r="O184" s="60"/>
-      <c r="P184" s="53"/>
-      <c r="Q184" s="59"/>
+      <c r="P184" s="53" t="str">
+        <f>IF($E184=4,$B184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q184" s="59" t="str">
+        <f>IF($E184=4,$D184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R184" s="60"/>
-      <c r="S184" s="53"/>
-      <c r="T184" s="59"/>
-      <c r="V184" s="53"/>
-      <c r="W184" s="76"/>
+      <c r="S184" s="53" t="str">
+        <f>IF($E184=5,$B184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T184" s="59" t="str">
+        <f>IF($E184=5,$D184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V184" s="53" t="str">
+        <f>IF($E184=6,$B184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W184" s="76" t="str">
+        <f>IF($E184=6,$D184," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
-      <c r="B185" s="52" t="s">
+      <c r="B185" s="52"/>
+      <c r="G185" s="53"/>
+      <c r="H185" s="59"/>
+      <c r="I185" s="60"/>
+      <c r="J185" s="53"/>
+      <c r="K185" s="59"/>
+      <c r="L185" s="60"/>
+      <c r="M185" s="53"/>
+      <c r="N185" s="59"/>
+      <c r="O185" s="60"/>
+      <c r="P185" s="53"/>
+      <c r="Q185" s="59"/>
+      <c r="R185" s="60"/>
+      <c r="S185" s="53"/>
+      <c r="T185" s="59"/>
+      <c r="V185" s="53"/>
+      <c r="W185" s="76"/>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A186" s="5"/>
+      <c r="B186" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="D185" s="54">
+      <c r="D186" s="54">
         <v>2</v>
       </c>
-      <c r="E185" s="54">
+      <c r="E186" s="54">
         <v>4</v>
       </c>
-      <c r="F185" s="53" t="s">
+      <c r="F186" s="53" t="s">
         <v>695</v>
       </c>
-      <c r="G185" s="53" t="str">
+      <c r="G186" s="53" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H185" s="59" t="str">
+      <c r="H186" s="59" t="str">
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I185" s="60"/>
-      <c r="J185" s="53" t="str">
+      <c r="I186" s="60"/>
+      <c r="J186" s="53" t="str">
         <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K185" s="59" t="str">
+      <c r="K186" s="59" t="str">
         <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L185" s="60"/>
-      <c r="M185" s="53" t="str">
+      <c r="L186" s="60"/>
+      <c r="M186" s="53" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N185" s="59" t="str">
+      <c r="N186" s="59" t="str">
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O185" s="60"/>
-      <c r="P185" s="53" t="str">
+      <c r="O186" s="60"/>
+      <c r="P186" s="53" t="str">
         <f t="shared" si="77"/>
         <v>PVP奖励配置</v>
       </c>
-      <c r="Q185" s="59">
+      <c r="Q186" s="59">
         <f t="shared" si="78"/>
         <v>2</v>
       </c>
-      <c r="R185" s="60"/>
-      <c r="S185" s="53" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T185" s="59" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V185" s="53" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W185" s="76" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="186" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B186" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D186" s="54">
-        <v>2</v>
-      </c>
-      <c r="E186" s="54">
-        <v>4</v>
-      </c>
-      <c r="G186" s="53" t="str">
-        <f>IF($E186=1,$B186," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H186" s="59" t="str">
-        <f>IF($E186=1,$D186," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I186" s="60"/>
-      <c r="J186" s="53" t="str">
-        <f>IF($E186=2,$B186," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K186" s="59" t="str">
-        <f>IF($E186=2,$D186," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L186" s="60"/>
-      <c r="M186" s="53" t="str">
-        <f>IF($E186=3,$B186," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N186" s="59" t="str">
-        <f>IF($E186=3,$D186," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O186" s="60"/>
-      <c r="P186" s="53" t="str">
-        <f>IF($E186=4,$B186," ")</f>
-        <v>通天塔-金钱，经验副本配置-debug</v>
-      </c>
-      <c r="Q186" s="59">
-        <f>IF($E186=4,$D186," ")</f>
-        <v>2</v>
-      </c>
       <c r="R186" s="60"/>
       <c r="S186" s="53" t="str">
-        <f>IF($E186=5,$B186," ")</f>
+        <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T186" s="59" t="str">
-        <f>IF($E186=5,$D186," ")</f>
+        <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V186" s="53" t="str">
-        <f>IF($E186=6,$B186," ")</f>
+        <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W186" s="76" t="str">
-        <f>IF($E186=6,$D186," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G187" s="53"/>
-      <c r="H187" s="59"/>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D187" s="54">
+        <v>2</v>
+      </c>
+      <c r="E187" s="54">
+        <v>4</v>
+      </c>
+      <c r="G187" s="53" t="str">
+        <f>IF($E187=1,$B187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H187" s="59" t="str">
+        <f>IF($E187=1,$D187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I187" s="60"/>
-      <c r="J187" s="53"/>
-      <c r="K187" s="59"/>
+      <c r="J187" s="53" t="str">
+        <f>IF($E187=2,$B187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K187" s="59" t="str">
+        <f>IF($E187=2,$D187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L187" s="60"/>
-      <c r="M187" s="53"/>
-      <c r="N187" s="59"/>
+      <c r="M187" s="53" t="str">
+        <f>IF($E187=3,$B187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N187" s="59" t="str">
+        <f>IF($E187=3,$D187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O187" s="60"/>
-      <c r="P187" s="53"/>
-      <c r="Q187" s="59"/>
+      <c r="P187" s="53" t="str">
+        <f>IF($E187=4,$B187," ")</f>
+        <v>通天塔-金钱，经验副本配置-debug</v>
+      </c>
+      <c r="Q187" s="59">
+        <f>IF($E187=4,$D187," ")</f>
+        <v>2</v>
+      </c>
       <c r="R187" s="60"/>
-      <c r="S187" s="53"/>
-      <c r="T187" s="59"/>
-      <c r="V187" s="53"/>
-      <c r="W187" s="76"/>
-    </row>
-    <row r="188" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B188" s="52" t="s">
+      <c r="S187" s="53" t="str">
+        <f>IF($E187=5,$B187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T187" s="59" t="str">
+        <f>IF($E187=5,$D187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V187" s="53" t="str">
+        <f>IF($E187=6,$B187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W187" s="76" t="str">
+        <f>IF($E187=6,$D187," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G188" s="53"/>
+      <c r="H188" s="59"/>
+      <c r="I188" s="60"/>
+      <c r="J188" s="53"/>
+      <c r="K188" s="59"/>
+      <c r="L188" s="60"/>
+      <c r="M188" s="53"/>
+      <c r="N188" s="59"/>
+      <c r="O188" s="60"/>
+      <c r="P188" s="53"/>
+      <c r="Q188" s="59"/>
+      <c r="R188" s="60"/>
+      <c r="S188" s="53"/>
+      <c r="T188" s="59"/>
+      <c r="V188" s="53"/>
+      <c r="W188" s="76"/>
+    </row>
+    <row r="189" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B189" s="52" t="s">
         <v>79</v>
-      </c>
-      <c r="D188" s="54">
-        <v>2</v>
-      </c>
-      <c r="E188" s="54">
-        <v>5</v>
-      </c>
-      <c r="F188" s="53" t="s">
-        <v>690</v>
-      </c>
-      <c r="G188" s="53" t="str">
-        <f>IF($E188=1,$B188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H188" s="59" t="str">
-        <f>IF($E188=1,$D188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I188" s="60"/>
-      <c r="J188" s="53" t="str">
-        <f>IF($E188=2,$B188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K188" s="59" t="str">
-        <f>IF($E188=2,$D188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L188" s="60"/>
-      <c r="M188" s="53" t="str">
-        <f>IF($E188=3,$B188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N188" s="59" t="str">
-        <f>IF($E188=3,$D188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O188" s="60"/>
-      <c r="P188" s="53" t="str">
-        <f>IF($E188=4,$B188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q188" s="59" t="str">
-        <f>IF($E188=4,$D188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R188" s="60"/>
-      <c r="S188" s="53" t="str">
-        <f>IF($E188=5,$B188," ")</f>
-        <v>公会任务， 祈福， 科技 Reward配置</v>
-      </c>
-      <c r="T188" s="59">
-        <f>IF($E188=5,$D188," ")</f>
-        <v>2</v>
-      </c>
-      <c r="V188" s="53" t="str">
-        <f>IF($E188=6,$B188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W188" s="76" t="str">
-        <f>IF($E188=6,$D188," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B189" s="52" t="s">
-        <v>691</v>
       </c>
       <c r="D189" s="54">
         <v>2</v>
       </c>
       <c r="E189" s="54">
         <v>5</v>
+      </c>
+      <c r="F189" s="53" t="s">
+        <v>690</v>
       </c>
       <c r="G189" s="53" t="str">
         <f>IF($E189=1,$B189," ")</f>
@@ -19563,7 +19530,7 @@
       <c r="R189" s="60"/>
       <c r="S189" s="53" t="str">
         <f>IF($E189=5,$B189," ")</f>
-        <v>道具指引配置 - 4-8前相关</v>
+        <v>公会任务， 祈福， 科技 Reward配置</v>
       </c>
       <c r="T189" s="59">
         <f>IF($E189=5,$D189," ")</f>
@@ -19578,9 +19545,9 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B190" s="52" t="s">
-        <v>408</v>
+        <v>691</v>
       </c>
       <c r="D190" s="54">
         <v>2</v>
@@ -19588,32 +19555,62 @@
       <c r="E190" s="54">
         <v>5</v>
       </c>
-      <c r="G190" s="53"/>
-      <c r="H190" s="59"/>
+      <c r="G190" s="53" t="str">
+        <f>IF($E190=1,$B190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H190" s="59" t="str">
+        <f>IF($E190=1,$D190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I190" s="60"/>
-      <c r="J190" s="53"/>
-      <c r="K190" s="59"/>
+      <c r="J190" s="53" t="str">
+        <f>IF($E190=2,$B190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K190" s="59" t="str">
+        <f>IF($E190=2,$D190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L190" s="60"/>
-      <c r="M190" s="53"/>
-      <c r="N190" s="59"/>
+      <c r="M190" s="53" t="str">
+        <f>IF($E190=3,$B190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N190" s="59" t="str">
+        <f>IF($E190=3,$D190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O190" s="60"/>
-      <c r="P190" s="53"/>
-      <c r="Q190" s="59"/>
+      <c r="P190" s="53" t="str">
+        <f>IF($E190=4,$B190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q190" s="59" t="str">
+        <f>IF($E190=4,$D190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R190" s="60"/>
       <c r="S190" s="53" t="str">
-        <f t="shared" ref="S190:S191" si="83">IF($E190=5,$B190," ")</f>
-        <v>抽蛋，PVP，公会内容配置 - debug</v>
+        <f>IF($E190=5,$B190," ")</f>
+        <v>道具指引配置 - 4-8前相关</v>
       </c>
       <c r="T190" s="59">
-        <f t="shared" ref="T190:T191" si="84">IF($E190=5,$D190," ")</f>
+        <f>IF($E190=5,$D190," ")</f>
         <v>2</v>
       </c>
-      <c r="V190" s="53"/>
-      <c r="W190" s="76"/>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V190" s="53" t="str">
+        <f>IF($E190=6,$B190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W190" s="76" t="str">
+        <f>IF($E190=6,$D190," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="34" x14ac:dyDescent="0.25">
       <c r="B191" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D191" s="54">
         <v>2</v>
@@ -19634,18 +19631,26 @@
       <c r="Q191" s="59"/>
       <c r="R191" s="60"/>
       <c r="S191" s="53" t="str">
-        <f t="shared" si="83"/>
-        <v>收尾孔老师任务内容设计</v>
+        <f t="shared" ref="S191:S192" si="83">IF($E191=5,$B191," ")</f>
+        <v>抽蛋，PVP，公会内容配置 - debug</v>
       </c>
       <c r="T191" s="59">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="T191:T192" si="84">IF($E191=5,$D191," ")</f>
         <v>2</v>
       </c>
       <c r="V191" s="53"/>
       <c r="W191" s="76"/>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B192" s="52"/>
+      <c r="B192" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="D192" s="54">
+        <v>2</v>
+      </c>
+      <c r="E192" s="54">
+        <v>5</v>
+      </c>
       <c r="G192" s="53"/>
       <c r="H192" s="59"/>
       <c r="I192" s="60"/>
@@ -19658,206 +19663,213 @@
       <c r="P192" s="53"/>
       <c r="Q192" s="59"/>
       <c r="R192" s="60"/>
-      <c r="S192" s="53"/>
-      <c r="T192" s="59"/>
+      <c r="S192" s="53" t="str">
+        <f t="shared" si="83"/>
+        <v>收尾孔老师任务内容设计</v>
+      </c>
+      <c r="T192" s="59">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
       <c r="V192" s="53"/>
       <c r="W192" s="76"/>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B193" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="D193" s="54">
-        <v>4</v>
-      </c>
-      <c r="E193" s="54">
-        <v>6</v>
-      </c>
-      <c r="G193" s="53" t="str">
-        <f>IF($E193=1,$B193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H193" s="59" t="str">
-        <f>IF($E193=1,$D193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B193" s="52"/>
+      <c r="G193" s="53"/>
+      <c r="H193" s="59"/>
       <c r="I193" s="60"/>
-      <c r="J193" s="53" t="str">
-        <f>IF($E193=2,$B193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K193" s="59" t="str">
-        <f>IF($E193=2,$D193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J193" s="53"/>
+      <c r="K193" s="59"/>
       <c r="L193" s="60"/>
-      <c r="M193" s="53" t="str">
-        <f>IF($E193=3,$B193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N193" s="59" t="str">
-        <f>IF($E193=3,$D193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M193" s="53"/>
+      <c r="N193" s="59"/>
       <c r="O193" s="60"/>
-      <c r="P193" s="53" t="str">
-        <f>IF($E193=4,$B193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q193" s="59" t="str">
-        <f>IF($E193=4,$D193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P193" s="53"/>
+      <c r="Q193" s="59"/>
       <c r="R193" s="60"/>
-      <c r="S193" s="53" t="str">
-        <f>IF($E193=5,$B193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T193" s="59" t="str">
-        <f>IF($E193=5,$D193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V193" s="53" t="str">
-        <f>IF($E193=6,$B193," ")</f>
-        <v>任务内容配置</v>
-      </c>
-      <c r="W193" s="76">
-        <f>IF($E193=6,$D193," ")</f>
-        <v>4</v>
-      </c>
+      <c r="S193" s="53"/>
+      <c r="T193" s="59"/>
+      <c r="V193" s="53"/>
+      <c r="W193" s="76"/>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B194" s="52" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="D194" s="54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E194" s="54">
         <v>6</v>
       </c>
+      <c r="G194" s="53" t="str">
+        <f>IF($E194=1,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H194" s="59" t="str">
+        <f>IF($E194=1,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I194" s="60"/>
+      <c r="J194" s="53" t="str">
+        <f>IF($E194=2,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K194" s="59" t="str">
+        <f>IF($E194=2,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L194" s="60"/>
+      <c r="M194" s="53" t="str">
+        <f>IF($E194=3,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N194" s="59" t="str">
+        <f>IF($E194=3,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O194" s="60"/>
+      <c r="P194" s="53" t="str">
+        <f>IF($E194=4,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q194" s="59" t="str">
+        <f>IF($E194=4,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R194" s="60"/>
+      <c r="S194" s="53" t="str">
+        <f>IF($E194=5,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T194" s="59" t="str">
+        <f>IF($E194=5,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="V194" s="53" t="str">
         <f>IF($E194=6,$B194," ")</f>
-        <v>任务内容配置 - debug</v>
+        <v>任务内容配置</v>
       </c>
       <c r="W194" s="76">
         <f>IF($E194=6,$D194," ")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B195" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="D195" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="G196" s="53" t="str">
+      <c r="E195" s="54">
+        <v>6</v>
+      </c>
+      <c r="V195" s="53" t="str">
+        <f>IF($E195=6,$B195," ")</f>
+        <v>任务内容配置 - debug</v>
+      </c>
+      <c r="W195" s="76">
+        <f>IF($E195=6,$D195," ")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="G197" s="53" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H196" s="59" t="str">
+      <c r="H197" s="59" t="str">
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I196" s="60"/>
-      <c r="J196" s="53" t="str">
+      <c r="I197" s="60"/>
+      <c r="J197" s="53" t="str">
         <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K196" s="59" t="str">
+      <c r="K197" s="59" t="str">
         <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L196" s="60"/>
-      <c r="M196" s="53" t="str">
+      <c r="L197" s="60"/>
+      <c r="M197" s="53" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N196" s="59" t="str">
+      <c r="N197" s="59" t="str">
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O196" s="60"/>
-      <c r="P196" s="53" t="str">
+      <c r="O197" s="60"/>
+      <c r="P197" s="53" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q196" s="59" t="str">
+      <c r="Q197" s="59" t="str">
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R196" s="60"/>
-      <c r="S196" s="53" t="str">
+      <c r="R197" s="60"/>
+      <c r="S197" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T196" s="59" t="str">
+      <c r="T197" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V196" s="53" t="str">
+      <c r="V197" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W196" s="76" t="str">
+      <c r="W197" s="76" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="197" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="37" t="s">
+    <row r="198" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C197" s="37"/>
-      <c r="D197" s="35">
-        <f>SUM(D173:D196)</f>
+      <c r="C198" s="37"/>
+      <c r="D198" s="35">
+        <f>SUM(D174:D197)</f>
         <v>32.5</v>
       </c>
-      <c r="E197" s="35"/>
-      <c r="F197" s="36"/>
-      <c r="H197" s="35">
-        <f>SUM(H173:H196)</f>
-        <v>2.5</v>
-      </c>
-      <c r="I197" s="38"/>
-      <c r="K197" s="35">
-        <f>SUM(K173:K196)</f>
-        <v>6</v>
-      </c>
-      <c r="L197" s="38"/>
-      <c r="N197" s="35">
-        <f>SUM(N173:N196)</f>
-        <v>6</v>
-      </c>
-      <c r="O197" s="38"/>
-      <c r="Q197" s="35">
-        <f>SUM(Q173:Q196)</f>
-        <v>4</v>
-      </c>
-      <c r="R197" s="38"/>
-      <c r="T197" s="35">
-        <f>SUM(T173:T196)</f>
-        <v>8</v>
-      </c>
-      <c r="U197" s="38"/>
-      <c r="W197" s="35">
-        <f>SUM(W173:W196)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="37"/>
-      <c r="C198" s="37"/>
-      <c r="D198" s="35"/>
       <c r="E198" s="35"/>
       <c r="F198" s="36"/>
-      <c r="H198" s="35"/>
+      <c r="H198" s="35">
+        <f>SUM(H174:H197)</f>
+        <v>2.5</v>
+      </c>
       <c r="I198" s="38"/>
-      <c r="K198" s="35"/>
+      <c r="K198" s="35">
+        <f>SUM(K174:K197)</f>
+        <v>6</v>
+      </c>
       <c r="L198" s="38"/>
-      <c r="N198" s="35"/>
+      <c r="N198" s="35">
+        <f>SUM(N174:N197)</f>
+        <v>6</v>
+      </c>
       <c r="O198" s="38"/>
-      <c r="Q198" s="35"/>
+      <c r="Q198" s="35">
+        <f>SUM(Q174:Q197)</f>
+        <v>4</v>
+      </c>
       <c r="R198" s="38"/>
-      <c r="T198" s="35"/>
+      <c r="T198" s="35">
+        <f>SUM(T174:T197)</f>
+        <v>8</v>
+      </c>
       <c r="U198" s="38"/>
-      <c r="W198" s="37"/>
+      <c r="W198" s="35">
+        <f>SUM(W174:W197)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="199" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="37"/>
@@ -19878,9 +19890,7 @@
       <c r="W199" s="37"/>
     </row>
     <row r="200" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="73" t="s">
-        <v>258</v>
-      </c>
+      <c r="B200" s="37"/>
       <c r="C200" s="37"/>
       <c r="D200" s="35"/>
       <c r="E200" s="35"/>
@@ -19898,7 +19908,9 @@
       <c r="W200" s="37"/>
     </row>
     <row r="201" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="37"/>
+      <c r="B201" s="73" t="s">
+        <v>258</v>
+      </c>
       <c r="C201" s="37"/>
       <c r="D201" s="35"/>
       <c r="E201" s="35"/>
@@ -19915,56 +19927,62 @@
       <c r="U201" s="38"/>
       <c r="W201" s="37"/>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A202" s="5"/>
-      <c r="B202" s="56" t="s">
+    <row r="202" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="37"/>
+      <c r="C202" s="37"/>
+      <c r="D202" s="35"/>
+      <c r="E202" s="35"/>
+      <c r="F202" s="36"/>
+      <c r="H202" s="35"/>
+      <c r="I202" s="38"/>
+      <c r="K202" s="35"/>
+      <c r="L202" s="38"/>
+      <c r="N202" s="35"/>
+      <c r="O202" s="38"/>
+      <c r="Q202" s="35"/>
+      <c r="R202" s="38"/>
+      <c r="T202" s="35"/>
+      <c r="U202" s="38"/>
+      <c r="W202" s="37"/>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="B203" s="56" t="s">
         <v>715</v>
       </c>
-      <c r="C202" s="57"/>
-      <c r="D202" s="54">
+      <c r="C203" s="57"/>
+      <c r="D203" s="54">
         <v>2</v>
       </c>
-      <c r="E202" s="54">
+      <c r="E203" s="54">
         <v>7</v>
       </c>
-      <c r="H202" s="54"/>
-      <c r="K202" s="54"/>
-      <c r="N202" s="54"/>
-      <c r="Q202" s="54"/>
-      <c r="T202" s="54"/>
-    </row>
-    <row r="203" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="56" t="s">
-        <v>696</v>
-      </c>
-      <c r="D203" s="57">
-        <v>3</v>
-      </c>
-      <c r="E203" s="57">
-        <v>7</v>
-      </c>
-      <c r="F203" s="53" t="s">
-        <v>697</v>
-      </c>
+      <c r="H203" s="54"/>
+      <c r="K203" s="54"/>
+      <c r="N203" s="54"/>
+      <c r="Q203" s="54"/>
+      <c r="T203" s="54"/>
     </row>
     <row r="204" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="56" t="s">
-        <v>411</v>
+        <v>696</v>
       </c>
       <c r="D204" s="57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E204" s="57">
         <v>7</v>
       </c>
-      <c r="F204" s="53"/>
+      <c r="F204" s="53" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="205" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D205" s="57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E205" s="57">
         <v>7</v>
@@ -19973,53 +19991,33 @@
     </row>
     <row r="206" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="56" t="s">
-        <v>683</v>
+        <v>412</v>
       </c>
       <c r="D206" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E206" s="57">
         <v>7</v>
       </c>
-      <c r="F206" s="53" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B207" s="5" t="s">
-        <v>688</v>
+      <c r="F206" s="53"/>
+    </row>
+    <row r="207" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="56" t="s">
+        <v>683</v>
       </c>
       <c r="D207" s="57">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E207" s="57">
         <v>7</v>
       </c>
-      <c r="G207" s="53"/>
-      <c r="H207" s="59"/>
-      <c r="I207" s="60"/>
-      <c r="J207" s="53" t="str">
-        <f>IF($E207=2,$B207," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K207" s="59" t="str">
-        <f>IF($E207=2,$D207," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L207" s="60"/>
-      <c r="M207" s="53"/>
-      <c r="N207" s="59"/>
-      <c r="O207" s="60"/>
-      <c r="P207" s="53"/>
-      <c r="Q207" s="59"/>
-      <c r="R207" s="60"/>
-      <c r="S207" s="53"/>
-      <c r="T207" s="59"/>
-      <c r="U207" s="5"/>
+      <c r="F207" s="53" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B208" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D208" s="57">
         <v>1.5</v>
@@ -20030,8 +20028,14 @@
       <c r="G208" s="53"/>
       <c r="H208" s="59"/>
       <c r="I208" s="60"/>
-      <c r="J208" s="53"/>
-      <c r="K208" s="59"/>
+      <c r="J208" s="53" t="str">
+        <f>IF($E208=2,$B208," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K208" s="59" t="str">
+        <f>IF($E208=2,$D208," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L208" s="60"/>
       <c r="M208" s="53"/>
       <c r="N208" s="59"/>
@@ -20044,299 +20048,320 @@
       <c r="U208" s="5"/>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A209" s="5"/>
       <c r="B209" s="5" t="s">
-        <v>123</v>
+        <v>689</v>
       </c>
       <c r="D209" s="57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E209" s="57">
         <v>7</v>
       </c>
-      <c r="G209" s="53" t="str">
-        <f>IF($E209=1,$B209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H209" s="59" t="str">
-        <f>IF($E209=1,$D209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G209" s="53"/>
+      <c r="H209" s="59"/>
       <c r="I209" s="60"/>
-      <c r="J209" s="53" t="str">
-        <f>IF($E209=2,$B209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K209" s="59" t="str">
-        <f>IF($E209=2,$D209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J209" s="53"/>
+      <c r="K209" s="59"/>
       <c r="L209" s="60"/>
-      <c r="M209" s="53" t="str">
-        <f>IF($E209=3,$B209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N209" s="59" t="str">
-        <f>IF($E209=3,$D209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M209" s="53"/>
+      <c r="N209" s="59"/>
       <c r="O209" s="60"/>
-      <c r="P209" s="53" t="str">
-        <f>IF($E209=4,$B209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q209" s="59" t="str">
-        <f>IF($E209=4,$D209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P209" s="53"/>
+      <c r="Q209" s="59"/>
       <c r="R209" s="60"/>
-      <c r="S209" s="53" t="str">
-        <f>IF($E209=5,$B209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T209" s="59" t="str">
-        <f>IF($E209=5,$D209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V209" s="53" t="str">
-        <f>IF($E209=6,$B209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W209" s="76" t="str">
-        <f>IF($E209=6,$D209," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S209" s="53"/>
+      <c r="T209" s="59"/>
+      <c r="U209" s="5"/>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="5" t="s">
-        <v>424</v>
+        <v>123</v>
       </c>
       <c r="D210" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E210" s="57">
         <v>7</v>
       </c>
-      <c r="G210" s="53"/>
-      <c r="H210" s="59"/>
+      <c r="G210" s="53" t="str">
+        <f>IF($E210=1,$B210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H210" s="59" t="str">
+        <f>IF($E210=1,$D210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I210" s="60"/>
-      <c r="J210" s="53"/>
-      <c r="K210" s="59"/>
+      <c r="J210" s="53" t="str">
+        <f>IF($E210=2,$B210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K210" s="59" t="str">
+        <f>IF($E210=2,$D210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L210" s="60"/>
-      <c r="M210" s="53"/>
-      <c r="N210" s="59"/>
+      <c r="M210" s="53" t="str">
+        <f>IF($E210=3,$B210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N210" s="59" t="str">
+        <f>IF($E210=3,$D210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O210" s="60"/>
-      <c r="P210" s="53"/>
-      <c r="Q210" s="59"/>
+      <c r="P210" s="53" t="str">
+        <f>IF($E210=4,$B210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q210" s="59" t="str">
+        <f>IF($E210=4,$D210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R210" s="60"/>
-      <c r="S210" s="53"/>
-      <c r="T210" s="59"/>
-      <c r="V210" s="53"/>
-      <c r="W210" s="76"/>
-    </row>
-    <row r="211" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="37"/>
-      <c r="C211" s="37"/>
-      <c r="D211" s="35"/>
-      <c r="E211" s="57"/>
-      <c r="F211" s="36"/>
-      <c r="H211" s="35"/>
-      <c r="I211" s="38"/>
-      <c r="K211" s="35"/>
-      <c r="L211" s="38"/>
-      <c r="N211" s="35"/>
-      <c r="O211" s="38"/>
-      <c r="Q211" s="35"/>
-      <c r="R211" s="38"/>
-      <c r="T211" s="35"/>
-      <c r="U211" s="38"/>
-      <c r="W211" s="37"/>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D212" s="54">
-        <v>6</v>
-      </c>
-      <c r="E212" s="57">
+      <c r="S210" s="53" t="str">
+        <f>IF($E210=5,$B210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T210" s="59" t="str">
+        <f>IF($E210=5,$D210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V210" s="53" t="str">
+        <f>IF($E210=6,$B210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W210" s="76" t="str">
+        <f>IF($E210=6,$D210," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D211" s="57">
+        <v>3</v>
+      </c>
+      <c r="E211" s="57">
         <v>7</v>
       </c>
-      <c r="G212" s="53" t="str">
-        <f>IF($E212=1,$B212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H212" s="59" t="str">
-        <f>IF($E212=1,$D212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I212" s="60"/>
-      <c r="J212" s="53" t="str">
-        <f>IF($E212=2,$B212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K212" s="59" t="str">
-        <f>IF($E212=2,$D212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L212" s="60"/>
-      <c r="M212" s="53" t="str">
-        <f>IF($E212=3,$B212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N212" s="59" t="str">
-        <f>IF($E212=3,$D212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O212" s="60"/>
-      <c r="P212" s="53" t="str">
-        <f>IF($E212=4,$B212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q212" s="59" t="str">
-        <f>IF($E212=4,$D212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R212" s="60"/>
-      <c r="S212" s="53" t="str">
-        <f>IF($E212=5,$B212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T212" s="59" t="str">
-        <f>IF($E212=5,$D212," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U212" s="5"/>
-      <c r="W212" s="5"/>
+      <c r="G211" s="53"/>
+      <c r="H211" s="59"/>
+      <c r="I211" s="60"/>
+      <c r="J211" s="53"/>
+      <c r="K211" s="59"/>
+      <c r="L211" s="60"/>
+      <c r="M211" s="53"/>
+      <c r="N211" s="59"/>
+      <c r="O211" s="60"/>
+      <c r="P211" s="53"/>
+      <c r="Q211" s="59"/>
+      <c r="R211" s="60"/>
+      <c r="S211" s="53"/>
+      <c r="T211" s="59"/>
+      <c r="V211" s="53"/>
+      <c r="W211" s="76"/>
+    </row>
+    <row r="212" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="37"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="35"/>
+      <c r="E212" s="57"/>
+      <c r="F212" s="36"/>
+      <c r="H212" s="35"/>
+      <c r="I212" s="38"/>
+      <c r="K212" s="35"/>
+      <c r="L212" s="38"/>
+      <c r="N212" s="35"/>
+      <c r="O212" s="38"/>
+      <c r="Q212" s="35"/>
+      <c r="R212" s="38"/>
+      <c r="T212" s="35"/>
+      <c r="U212" s="38"/>
+      <c r="W212" s="37"/>
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="5" t="s">
-        <v>124</v>
+        <v>413</v>
+      </c>
+      <c r="D213" s="54">
+        <v>6</v>
       </c>
       <c r="E213" s="57">
         <v>7</v>
       </c>
-      <c r="G213" s="53"/>
-      <c r="H213" s="59"/>
+      <c r="G213" s="53" t="str">
+        <f>IF($E213=1,$B213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H213" s="59" t="str">
+        <f>IF($E213=1,$D213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I213" s="60"/>
-      <c r="J213" s="53"/>
-      <c r="K213" s="59"/>
+      <c r="J213" s="53" t="str">
+        <f>IF($E213=2,$B213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K213" s="59" t="str">
+        <f>IF($E213=2,$D213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L213" s="60"/>
-      <c r="M213" s="53"/>
-      <c r="N213" s="59"/>
+      <c r="M213" s="53" t="str">
+        <f>IF($E213=3,$B213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N213" s="59" t="str">
+        <f>IF($E213=3,$D213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O213" s="60"/>
-      <c r="P213" s="53"/>
-      <c r="Q213" s="59"/>
+      <c r="P213" s="53" t="str">
+        <f>IF($E213=4,$B213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q213" s="59" t="str">
+        <f>IF($E213=4,$D213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R213" s="60"/>
-      <c r="S213" s="53"/>
-      <c r="T213" s="59"/>
+      <c r="S213" s="53" t="str">
+        <f>IF($E213=5,$B213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T213" s="59" t="str">
+        <f>IF($E213=5,$D213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U213" s="5"/>
       <c r="W213" s="5"/>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B215" s="37" t="s">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E214" s="57">
+        <v>7</v>
+      </c>
+      <c r="G214" s="53"/>
+      <c r="H214" s="59"/>
+      <c r="I214" s="60"/>
+      <c r="J214" s="53"/>
+      <c r="K214" s="59"/>
+      <c r="L214" s="60"/>
+      <c r="M214" s="53"/>
+      <c r="N214" s="59"/>
+      <c r="O214" s="60"/>
+      <c r="P214" s="53"/>
+      <c r="Q214" s="59"/>
+      <c r="R214" s="60"/>
+      <c r="S214" s="53"/>
+      <c r="T214" s="59"/>
+      <c r="U214" s="5"/>
+      <c r="W214" s="5"/>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B216" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="D215" s="35">
-        <f>SUM(D204:D213)</f>
+      <c r="D216" s="35">
+        <f>SUM(D205:D214)</f>
         <v>23</v>
       </c>
-      <c r="W215" s="5"/>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="34" t="s">
+      <c r="W216" s="5"/>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C217" s="34"/>
-      <c r="D217" s="35"/>
-      <c r="G217" s="34" t="s">
+      <c r="C218" s="34"/>
+      <c r="D218" s="35"/>
+      <c r="G218" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H217" s="37"/>
-      <c r="I217" s="38"/>
-      <c r="J217" s="34" t="s">
+      <c r="H218" s="37"/>
+      <c r="I218" s="38"/>
+      <c r="J218" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="K217" s="34"/>
-      <c r="L217" s="38"/>
-      <c r="M217" s="34" t="s">
+      <c r="K218" s="34"/>
+      <c r="L218" s="38"/>
+      <c r="M218" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="N217" s="34"/>
-      <c r="O217" s="38"/>
-      <c r="P217" s="34" t="s">
+      <c r="N218" s="34"/>
+      <c r="O218" s="38"/>
+      <c r="P218" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="Q217" s="34"/>
-      <c r="R217" s="38"/>
-      <c r="S217" s="34" t="s">
+      <c r="Q218" s="34"/>
+      <c r="R218" s="38"/>
+      <c r="S218" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="W217" s="5"/>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A221" s="5"/>
-      <c r="G221" s="34" t="s">
+      <c r="W218" s="5"/>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A222" s="5"/>
+      <c r="G222" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H221" s="37"/>
-      <c r="I221" s="38"/>
-      <c r="J221" s="34" t="s">
+      <c r="H222" s="37"/>
+      <c r="I222" s="38"/>
+      <c r="J222" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="K221" s="34"/>
-      <c r="L221" s="38"/>
-      <c r="M221" s="34" t="s">
+      <c r="K222" s="34"/>
+      <c r="L222" s="38"/>
+      <c r="M222" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="N221" s="34"/>
-      <c r="O221" s="38"/>
-      <c r="P221" s="34" t="s">
+      <c r="N222" s="34"/>
+      <c r="O222" s="38"/>
+      <c r="P222" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="Q221" s="34"/>
-      <c r="R221" s="38"/>
-      <c r="S221" s="34" t="s">
+      <c r="Q222" s="34"/>
+      <c r="R222" s="38"/>
+      <c r="S222" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="W221" s="5"/>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A223" s="5"/>
-      <c r="G223" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J223" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="M223" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="P223" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W223" s="5"/>
+      <c r="W222" s="5"/>
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
       <c r="G224" s="5" t="s">
-        <v>150</v>
+        <v>414</v>
       </c>
       <c r="J224" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M224" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="U224" s="5"/>
+        <v>340</v>
+      </c>
+      <c r="P224" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="W224" s="5"/>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
+      <c r="G225" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J225" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="M225" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="U225" s="5"/>
       <c r="W225" s="5"/>
     </row>
@@ -20347,38 +20372,34 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
-      <c r="G227" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H227" s="37"/>
-      <c r="I227" s="34"/>
-      <c r="J227" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="K227" s="34"/>
-      <c r="L227" s="34"/>
-      <c r="M227" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="N227" s="34"/>
-      <c r="O227" s="34"/>
-      <c r="P227" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q227" s="34"/>
-      <c r="R227" s="34"/>
-      <c r="S227" s="34" t="s">
-        <v>128</v>
-      </c>
       <c r="U227" s="5"/>
       <c r="W227" s="5"/>
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
-      <c r="I228" s="5"/>
-      <c r="L228" s="5"/>
-      <c r="O228" s="5"/>
-      <c r="R228" s="5"/>
+      <c r="G228" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H228" s="37"/>
+      <c r="I228" s="34"/>
+      <c r="J228" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="K228" s="34"/>
+      <c r="L228" s="34"/>
+      <c r="M228" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="N228" s="34"/>
+      <c r="O228" s="34"/>
+      <c r="P228" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q228" s="34"/>
+      <c r="R228" s="34"/>
+      <c r="S228" s="34" t="s">
+        <v>128</v>
+      </c>
       <c r="U228" s="5"/>
       <c r="W228" s="5"/>
     </row>
@@ -20393,92 +20414,101 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
-      <c r="G230" s="34" t="s">
-        <v>417</v>
-      </c>
       <c r="I230" s="5"/>
-      <c r="J230" s="34" t="s">
-        <v>417</v>
-      </c>
       <c r="L230" s="5"/>
-      <c r="M230" s="34" t="s">
-        <v>417</v>
-      </c>
       <c r="O230" s="5"/>
-      <c r="P230" s="34" t="s">
-        <v>417</v>
-      </c>
       <c r="R230" s="5"/>
-      <c r="S230" s="34" t="s">
-        <v>417</v>
-      </c>
       <c r="U230" s="5"/>
       <c r="W230" s="5"/>
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
+      <c r="G231" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="I231" s="5"/>
+      <c r="J231" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="L231" s="5"/>
+      <c r="M231" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="O231" s="5"/>
+      <c r="P231" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="R231" s="5"/>
+      <c r="S231" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="U231" s="5"/>
       <c r="W231" s="5"/>
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
-      <c r="G232" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="I232" s="5"/>
-      <c r="J232" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="L232" s="5"/>
       <c r="O232" s="5"/>
       <c r="R232" s="5"/>
-      <c r="S232" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="U232" s="5"/>
       <c r="W232" s="5"/>
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
       <c r="G233" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I233" s="5"/>
+      <c r="J233" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="L233" s="5"/>
       <c r="O233" s="5"/>
       <c r="R233" s="5"/>
+      <c r="S233" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="U233" s="5"/>
       <c r="W233" s="5"/>
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
       <c r="G234" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I234" s="5"/>
+      <c r="L234" s="5"/>
+      <c r="O234" s="5"/>
+      <c r="R234" s="5"/>
+      <c r="U234" s="5"/>
+      <c r="W234" s="5"/>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G235" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="W234" s="5"/>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B238" s="90" t="s">
+      <c r="W235" s="5"/>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B239" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="W238" s="5"/>
+      <c r="W239" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J31 M31 B73:D73 F160:G162 F81 B197:D199 K198:K206 N198:N206 H197:H206 T198:T206 Q198:Q206 B56:D56 C69:D71 B112 D112 D93:D94 B111:D111 F164 B201:D206 C200:D200 B211:D211 Q211 T211 H211 N211 K211 B96:D96 D97 G167 F154:F155 F166:G166 B31:D33 B36:D39 B41:D41 F130:G130 F131:F147 P74:P75 G74:G75 S74:S75 V75:W75 D66 D42 D50 V66:W66 D53 P63:P72 G63:G72 M63:M75 J63:J75 S63:S72 V69:W71 B85:D88 D99:D102 B113:D117 V209:W210 S207:S210 J207:J210 M207:M210 G207:G210 P207:P210 V196:W196 S196 J196 M196 G196 P196 P5:P22 G5:G22 M5:M22 J5:J22 V5:W22 V24:W24 B128:D128 B125:D125 G128 M128 J128 S128 P128 S5:S22 P160:P167 G163:G165 M160:M167 J160:J167 S160:S167 V131:W155 V163:W163 V156 V157:W157 G131:G157 J130:J157 M130:M157 P130:P157 S130:S157 V77:W103 V110:W110 G77:G104 M77:M104 J77:J104 S77:S104 P77:P104 P24:P29 G24:G29 M24:M29 J24:J29 S24:S29 G106:G126 M106:M126 J106:J126 S106:S126 P106:P126 M212:M213 P212:P213 S212:S213 J212:J213 G212:G213 D55 B52:D52 B54:D54 P52:P61 G52:G61 M52:M61 J52:J61 S52:S61 V52:W60 G173:G193 V173:W194 S173:S193 P173:P193 M173:M193 J173:J193 C46:D48 P34:P50 G34:G50 M34:M50 J34:J50 S34:S50 V34:W50">
+  <conditionalFormatting sqref="J31 M31 B74:D74 F161:G163 F82 B198:D200 K199:K207 N199:N207 H198:H207 T199:T207 Q199:Q207 B57:D57 C70:D72 B113 D113 D94:D95 B112:D112 F165 B202:D207 C201:D201 B212:D212 Q212 T212 H212 N212 K212 B97:D97 D98 G168 F155:F156 F167:G167 B31:D33 B36:D39 B41:D41 F131:G131 F132:F148 P75:P76 G75:G76 S75:S76 V76:W76 D67 D42 D50 V67:W67 D53:D54 P64:P73 G64:G73 M64:M76 J64:J76 S64:S73 V70:W72 B86:D89 D100:D103 B114:D118 V210:W211 S208:S211 J208:J211 M208:M211 G208:G211 P208:P211 V197:W197 S197 J197 M197 G197 P197 P5:P22 G5:G22 M5:M22 J5:J22 V5:W22 V24:W24 B129:D129 B126:D126 G129 M129 J129 S129 P129 S5:S22 P161:P168 G164:G166 M161:M168 J161:J168 S161:S168 V132:W156 V164:W164 V157 V158:W158 G132:G158 J131:J158 M131:M158 P131:P158 S131:S158 V78:W104 V111:W111 G78:G105 M78:M105 J78:J105 S78:S105 P78:P105 P24:P29 G24:G29 M24:M29 J24:J29 S24:S29 G107:G127 M107:M127 J107:J127 S107:S127 P107:P127 M213:M214 P213:P214 S213:S214 J213:J214 G213:G214 D56 B52:D52 B55:D55 P52:P62 G52:G62 M52:M62 J52:J62 S52:S62 V52:W61 G174:G194 V174:W195 S174:S194 P174:P194 M174:M194 J174:J194 C46:D48 P34:P50 G34:G50 M34:M50 J34:J50 S34:S50 V34:W50">
     <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G172 B172:D172 B160:D162 J129 C173:D173 C164:D164 B134:D136 C138:D147 B139 D151:D156">
+  <conditionalFormatting sqref="G173 B173:D173 B161:D163 J130 C174:D174 C165:D165 B135:D137 C139:D148 B140 D152:D157">
     <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F169:T169">
+  <conditionalFormatting sqref="F170:T170">
     <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -20488,27 +20518,27 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:D62">
+  <conditionalFormatting sqref="B63:D63">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
+  <conditionalFormatting sqref="H106">
     <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:D105">
+  <conditionalFormatting sqref="B106:D106">
     <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
+  <conditionalFormatting sqref="B159:D159">
     <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H158">
+  <conditionalFormatting sqref="H159">
     <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -20518,7 +20548,7 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q105">
+  <conditionalFormatting sqref="Q106">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -20533,62 +20563,62 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K105">
+  <conditionalFormatting sqref="K106">
     <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N105">
+  <conditionalFormatting sqref="N106">
     <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T105">
+  <conditionalFormatting sqref="T106">
     <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K158">
+  <conditionalFormatting sqref="K159">
     <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158">
+  <conditionalFormatting sqref="N159">
     <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q158">
+  <conditionalFormatting sqref="Q159">
     <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T158">
+  <conditionalFormatting sqref="T159">
     <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
+  <conditionalFormatting sqref="K198">
     <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N197">
+  <conditionalFormatting sqref="N198">
     <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q197">
+  <conditionalFormatting sqref="Q198">
     <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T197">
+  <conditionalFormatting sqref="T198">
     <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B200">
+  <conditionalFormatting sqref="B201">
     <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -20623,17 +20653,17 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W105">
+  <conditionalFormatting sqref="W106">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W158">
+  <conditionalFormatting sqref="W159">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W197">
+  <conditionalFormatting sqref="W198">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>

--- a/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="960" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40380" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑9" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="775">
   <si>
     <t>里程碑目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -5639,6 +5639,15 @@
   </si>
   <si>
     <t>主Uiicon需求</t>
+  </si>
+  <si>
+    <t>蘑菇怪， 黑龙， 冰龙设计</t>
+  </si>
+  <si>
+    <t>第一二章副本数值修改（2，3，28，新手）</t>
+  </si>
+  <si>
+    <t>第三四章数值设计，配置</t>
   </si>
 </sst>
 </file>
@@ -10757,13 +10766,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W239"/>
+  <dimension ref="A2:W242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16660,7 +16669,7 @@
       <c r="C131" s="72"/>
       <c r="D131" s="58"/>
       <c r="F131" s="53" t="str">
-        <f t="shared" ref="F131:G155" si="57">IF($E131=1,$B131," ")</f>
+        <f t="shared" ref="F131:G156" si="57">IF($E131=1,$B131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G131" s="53" t="str">
@@ -16668,43 +16677,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H131" s="59" t="str">
-        <f t="shared" ref="H131:H158" si="58">IF($E131=1,$D131," ")</f>
+        <f t="shared" ref="H131:H161" si="58">IF($E131=1,$D131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I131" s="60"/>
       <c r="J131" s="53" t="str">
-        <f t="shared" ref="J131:J158" si="59">IF($E131=2,$B131," ")</f>
+        <f t="shared" ref="J131:J161" si="59">IF($E131=2,$B131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K131" s="59" t="str">
-        <f t="shared" ref="K131:K158" si="60">IF($E131=2,$D131," ")</f>
+        <f t="shared" ref="K131:K161" si="60">IF($E131=2,$D131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L131" s="60"/>
       <c r="M131" s="53" t="str">
-        <f t="shared" ref="M131:M158" si="61">IF($E131=3,$B131," ")</f>
+        <f t="shared" ref="M131:M161" si="61">IF($E131=3,$B131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N131" s="59" t="str">
-        <f t="shared" ref="N131:N158" si="62">IF($E131=3,$D131," ")</f>
+        <f t="shared" ref="N131:N161" si="62">IF($E131=3,$D131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O131" s="60"/>
       <c r="P131" s="53" t="str">
-        <f t="shared" ref="P131:P158" si="63">IF($E131=4,$B131," ")</f>
+        <f t="shared" ref="P131:P161" si="63">IF($E131=4,$B131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q131" s="59" t="str">
-        <f t="shared" ref="Q131:Q158" si="64">IF($E131=4,$D131," ")</f>
+        <f t="shared" ref="Q131:Q161" si="64">IF($E131=4,$D131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R131" s="60"/>
       <c r="S131" s="53" t="str">
-        <f t="shared" ref="S131:S158" si="65">IF($E131=5,$B131," ")</f>
+        <f t="shared" ref="S131:S161" si="65">IF($E131=5,$B131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T131" s="59" t="str">
-        <f t="shared" ref="T131:T158" si="66">IF($E131=5,$D131," ")</f>
+        <f t="shared" ref="T131:T161" si="66">IF($E131=5,$D131," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16768,11 +16777,11 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="V132" s="53" t="str">
-        <f t="shared" ref="V132:V158" si="67">IF($E132=6,$B132," ")</f>
+        <f t="shared" ref="V132:V161" si="67">IF($E132=6,$B132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W132" s="76" t="str">
-        <f t="shared" ref="W132:W158" si="68">IF($E132=6,$D132," ")</f>
+        <f t="shared" ref="W132:W161" si="68">IF($E132=6,$D132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -16844,7 +16853,7 @@
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B134" s="109" t="s">
+      <c r="B134" s="107" t="s">
         <v>704</v>
       </c>
       <c r="C134" s="72"/>
@@ -17385,7 +17394,7 @@
     </row>
     <row r="143" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="34"/>
-      <c r="B143" s="108" t="s">
+      <c r="B143" s="106" t="s">
         <v>224</v>
       </c>
       <c r="C143" s="73"/>
@@ -17541,7 +17550,7 @@
     </row>
     <row r="146" spans="1:23" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A146" s="36"/>
-      <c r="B146" s="108" t="s">
+      <c r="B146" s="106" t="s">
         <v>397</v>
       </c>
       <c r="C146" s="74"/>
@@ -17755,7 +17764,7 @@
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B150" s="52" t="s">
+      <c r="B150" s="106" t="s">
         <v>770</v>
       </c>
       <c r="G150" s="53"/>
@@ -17776,7 +17785,9 @@
       <c r="W150" s="76"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B151" s="52"/>
+      <c r="B151" s="108" t="s">
+        <v>772</v>
+      </c>
       <c r="G151" s="53"/>
       <c r="H151" s="59"/>
       <c r="I151" s="60"/>
@@ -17795,74 +17806,32 @@
       <c r="W151" s="76"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B152" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D152" s="73">
-        <v>2</v>
-      </c>
-      <c r="E152" s="54">
-        <v>5</v>
-      </c>
-      <c r="G152" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H152" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B152" s="109" t="s">
+        <v>773</v>
+      </c>
+      <c r="G152" s="53"/>
+      <c r="H152" s="59"/>
       <c r="I152" s="60"/>
-      <c r="J152" s="53" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K152" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J152" s="53"/>
+      <c r="K152" s="59"/>
       <c r="L152" s="60"/>
-      <c r="M152" s="53" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N152" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M152" s="53"/>
+      <c r="N152" s="59"/>
       <c r="O152" s="60"/>
-      <c r="P152" s="53" t="str">
-        <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q152" s="59" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P152" s="53"/>
+      <c r="Q152" s="59"/>
       <c r="R152" s="60"/>
-      <c r="S152" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v>金钱，经验副本数值设计</v>
-      </c>
-      <c r="T152" s="59">
-        <f t="shared" si="66"/>
-        <v>2</v>
-      </c>
-      <c r="V152" s="53" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W152" s="76" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S152" s="53"/>
+      <c r="T152" s="59"/>
+      <c r="V152" s="53"/>
+      <c r="W152" s="76"/>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
-        <v>219</v>
+        <v>398</v>
       </c>
       <c r="D153" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E153" s="54">
         <v>5</v>
@@ -17905,11 +17874,11 @@
       <c r="R153" s="60"/>
       <c r="S153" s="53" t="str">
         <f t="shared" si="65"/>
-        <v>通天塔-金钱，经验副本配置</v>
+        <v>金钱，经验副本数值设计</v>
       </c>
       <c r="T153" s="59">
         <f t="shared" si="66"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V153" s="53" t="str">
         <f t="shared" si="67"/>
@@ -17921,7 +17890,15 @@
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D154" s="73"/>
+      <c r="B154" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D154" s="73">
+        <v>3</v>
+      </c>
+      <c r="E154" s="54">
+        <v>5</v>
+      </c>
       <c r="G154" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17960,11 +17937,11 @@
       <c r="R154" s="60"/>
       <c r="S154" s="53" t="str">
         <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T154" s="59" t="str">
+        <v>通天塔-金钱，经验副本配置</v>
+      </c>
+      <c r="T154" s="59">
         <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="V154" s="53" t="str">
         <f t="shared" si="67"/>
@@ -17975,21 +17952,8 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
-      <c r="B155" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C155" s="52"/>
-      <c r="D155" s="73">
-        <v>2</v>
-      </c>
-      <c r="E155" s="54">
-        <v>6</v>
-      </c>
-      <c r="F155" s="53" t="s">
-        <v>93</v>
-      </c>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D155" s="73"/>
       <c r="G155" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -18036,30 +18000,30 @@
       </c>
       <c r="V155" s="53" t="str">
         <f t="shared" si="67"/>
-        <v>通天塔-金钱，经验副本配置-debug</v>
-      </c>
-      <c r="W155" s="76">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W155" s="76" t="str">
         <f t="shared" si="68"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A156" s="34"/>
-      <c r="B156" s="56" t="s">
-        <v>399</v>
+      <c r="B156" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="C156" s="52"/>
       <c r="D156" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156" s="54">
         <v>6</v>
       </c>
       <c r="F156" s="53" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="G156" s="53" t="str">
-        <f t="shared" ref="G156:G158" si="69">IF($E156=1,$B156," ")</f>
+        <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H156" s="59" t="str">
@@ -18104,411 +18068,338 @@
       </c>
       <c r="V156" s="53" t="str">
         <f t="shared" si="67"/>
-        <v>通天塔 - 试炼之塔 - 配置</v>
+        <v>通天塔-金钱，经验副本配置-debug</v>
       </c>
       <c r="W156" s="76">
         <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="34"/>
+      <c r="B157" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="C157" s="52"/>
+      <c r="D157" s="73">
         <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B157" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D157" s="73">
-        <v>4</v>
       </c>
       <c r="E157" s="54">
         <v>6</v>
       </c>
+      <c r="F157" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="G157" s="53" t="str">
-        <f t="shared" si="69"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H157" s="57" t="str">
+        <f t="shared" ref="G157:G161" si="69">IF($E157=1,$B157," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H157" s="59" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="I157" s="60"/>
       <c r="J157" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K157" s="89" t="str">
+      <c r="K157" s="59" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="L157" s="60"/>
       <c r="M157" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N157" s="89" t="str">
+      <c r="N157" s="59" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O157" s="60"/>
       <c r="P157" s="53" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q157" s="89" t="str">
+      <c r="Q157" s="59" t="str">
         <f t="shared" si="64"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="R157" s="60"/>
       <c r="S157" s="53" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T157" s="89" t="str">
+      <c r="T157" s="59" t="str">
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V157" s="53" t="str">
         <f t="shared" si="67"/>
+        <v>通天塔 - 试炼之塔 - 配置</v>
+      </c>
+      <c r="W157" s="76">
+        <f t="shared" si="68"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D158" s="73">
+        <v>4</v>
+      </c>
+      <c r="E158" s="54">
+        <v>6</v>
+      </c>
+      <c r="G158" s="53" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H158" s="57" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J158" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K158" s="89" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M158" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N158" s="89" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P158" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q158" s="89" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S158" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T158" s="89" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V158" s="53" t="str">
+        <f t="shared" si="67"/>
         <v>5-6章Boss设计</v>
       </c>
-      <c r="W157" s="57">
+      <c r="W158" s="57">
         <f t="shared" si="68"/>
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G158" s="53" t="str">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D159" s="73"/>
+      <c r="G159" s="53"/>
+      <c r="J159" s="53"/>
+      <c r="K159" s="89"/>
+      <c r="M159" s="53"/>
+      <c r="N159" s="89"/>
+      <c r="P159" s="53"/>
+      <c r="Q159" s="89"/>
+      <c r="S159" s="53"/>
+      <c r="T159" s="89"/>
+      <c r="V159" s="53"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D160" s="73"/>
+      <c r="G160" s="53"/>
+      <c r="J160" s="53"/>
+      <c r="K160" s="89"/>
+      <c r="M160" s="53"/>
+      <c r="N160" s="89"/>
+      <c r="P160" s="53"/>
+      <c r="Q160" s="89"/>
+      <c r="S160" s="53"/>
+      <c r="T160" s="89"/>
+      <c r="V160" s="53"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G161" s="53" t="str">
         <f t="shared" si="69"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H158" s="59" t="str">
+      <c r="H161" s="59" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I158" s="60"/>
-      <c r="J158" s="53" t="str">
+      <c r="I161" s="60"/>
+      <c r="J161" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K158" s="59" t="str">
+      <c r="K161" s="59" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L158" s="60"/>
-      <c r="M158" s="53" t="str">
+      <c r="L161" s="60"/>
+      <c r="M161" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N158" s="59" t="str">
+      <c r="N161" s="59" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O158" s="60"/>
-      <c r="P158" s="53" t="str">
+      <c r="O161" s="60"/>
+      <c r="P161" s="53" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q158" s="59" t="str">
+      <c r="Q161" s="59" t="str">
         <f t="shared" si="64"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R158" s="60"/>
-      <c r="S158" s="53" t="str">
+      <c r="R161" s="60"/>
+      <c r="S161" s="53" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T158" s="59" t="str">
+      <c r="T161" s="59" t="str">
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V158" s="53" t="str">
+      <c r="V161" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W158" s="76" t="str">
+      <c r="W161" s="76" t="str">
         <f t="shared" si="68"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="159" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="37" t="s">
+    <row r="162" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C159" s="37"/>
-      <c r="D159" s="35">
-        <f>SUM(D133:D158)</f>
+      <c r="C162" s="37"/>
+      <c r="D162" s="35">
+        <f>SUM(D133:D161)</f>
         <v>35</v>
       </c>
-      <c r="E159" s="35"/>
-      <c r="F159" s="36"/>
-      <c r="H159" s="35">
-        <f>SUM(H132:H158)</f>
+      <c r="E162" s="35"/>
+      <c r="F162" s="36"/>
+      <c r="H162" s="35">
+        <f>SUM(H132:H161)</f>
         <v>3</v>
       </c>
-      <c r="I159" s="38"/>
-      <c r="K159" s="35">
-        <f>SUM(K133:K158)</f>
+      <c r="I162" s="38"/>
+      <c r="K162" s="35">
+        <f>SUM(K133:K161)</f>
         <v>6</v>
       </c>
-      <c r="L159" s="38"/>
-      <c r="N159" s="35">
-        <f>SUM(N133:N158)</f>
+      <c r="L162" s="38"/>
+      <c r="N162" s="35">
+        <f>SUM(N133:N161)</f>
         <v>5</v>
       </c>
-      <c r="O159" s="38"/>
-      <c r="Q159" s="35">
-        <f>SUM(Q133:Q158)</f>
+      <c r="O162" s="38"/>
+      <c r="Q162" s="35">
+        <f>SUM(Q133:Q161)</f>
         <v>6</v>
       </c>
-      <c r="R159" s="38"/>
-      <c r="T159" s="35">
-        <f>SUM(T133:T158)</f>
+      <c r="R162" s="38"/>
+      <c r="T162" s="35">
+        <f>SUM(T133:T161)</f>
         <v>5</v>
       </c>
-      <c r="U159" s="38"/>
-      <c r="W159" s="35">
-        <f>SUM(W133:W158)</f>
+      <c r="U162" s="38"/>
+      <c r="W162" s="35">
+        <f>SUM(W133:W161)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B161" s="73" t="s">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B164" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="C161" s="73"/>
-      <c r="D161" s="73"/>
-      <c r="G161" s="53"/>
-      <c r="H161" s="59"/>
-      <c r="I161" s="60"/>
-      <c r="J161" s="53"/>
-      <c r="K161" s="59"/>
-      <c r="L161" s="60"/>
-      <c r="M161" s="53"/>
-      <c r="N161" s="59"/>
-      <c r="O161" s="60"/>
-      <c r="P161" s="53"/>
-      <c r="Q161" s="59"/>
-      <c r="R161" s="60"/>
-      <c r="S161" s="53"/>
-      <c r="T161" s="59"/>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B162" s="73"/>
-      <c r="C162" s="73"/>
-      <c r="D162" s="73"/>
-      <c r="G162" s="53"/>
-      <c r="H162" s="59"/>
-      <c r="I162" s="60"/>
-      <c r="J162" s="53"/>
-      <c r="K162" s="59"/>
-      <c r="L162" s="60"/>
-      <c r="M162" s="53"/>
-      <c r="N162" s="59"/>
-      <c r="O162" s="60"/>
-      <c r="P162" s="53"/>
-      <c r="Q162" s="59"/>
-      <c r="R162" s="60"/>
-      <c r="S162" s="53"/>
-      <c r="T162" s="59"/>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B163" s="73" t="s">
+      <c r="C164" s="73"/>
+      <c r="D164" s="73"/>
+      <c r="G164" s="53"/>
+      <c r="H164" s="59"/>
+      <c r="I164" s="60"/>
+      <c r="J164" s="53"/>
+      <c r="K164" s="59"/>
+      <c r="L164" s="60"/>
+      <c r="M164" s="53"/>
+      <c r="N164" s="59"/>
+      <c r="O164" s="60"/>
+      <c r="P164" s="53"/>
+      <c r="Q164" s="59"/>
+      <c r="R164" s="60"/>
+      <c r="S164" s="53"/>
+      <c r="T164" s="59"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B165" s="73"/>
+      <c r="C165" s="73"/>
+      <c r="D165" s="73"/>
+      <c r="G165" s="53"/>
+      <c r="H165" s="59"/>
+      <c r="I165" s="60"/>
+      <c r="J165" s="53"/>
+      <c r="K165" s="59"/>
+      <c r="L165" s="60"/>
+      <c r="M165" s="53"/>
+      <c r="N165" s="59"/>
+      <c r="O165" s="60"/>
+      <c r="P165" s="53"/>
+      <c r="Q165" s="59"/>
+      <c r="R165" s="60"/>
+      <c r="S165" s="53"/>
+      <c r="T165" s="59"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B166" s="73" t="s">
         <v>699</v>
       </c>
-      <c r="C163" s="73"/>
-      <c r="D163" s="73">
+      <c r="C166" s="73"/>
+      <c r="D166" s="73">
         <v>3</v>
       </c>
-      <c r="E163" s="54">
+      <c r="E166" s="54">
         <v>7</v>
       </c>
-      <c r="G163" s="53"/>
-      <c r="H163" s="59"/>
-      <c r="I163" s="60"/>
-      <c r="J163" s="53"/>
-      <c r="K163" s="59"/>
-      <c r="L163" s="60"/>
-      <c r="M163" s="53"/>
-      <c r="N163" s="59"/>
-      <c r="O163" s="60"/>
-      <c r="P163" s="53"/>
-      <c r="Q163" s="59"/>
-      <c r="R163" s="60"/>
-      <c r="S163" s="53"/>
-      <c r="T163" s="59"/>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B164" s="5" t="s">
+      <c r="G166" s="53"/>
+      <c r="H166" s="59"/>
+      <c r="I166" s="60"/>
+      <c r="J166" s="53"/>
+      <c r="K166" s="59"/>
+      <c r="L166" s="60"/>
+      <c r="M166" s="53"/>
+      <c r="N166" s="59"/>
+      <c r="O166" s="60"/>
+      <c r="P166" s="53"/>
+      <c r="Q166" s="59"/>
+      <c r="R166" s="60"/>
+      <c r="S166" s="53"/>
+      <c r="T166" s="59"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D164" s="54">
+      <c r="D167" s="54">
         <v>4</v>
       </c>
-      <c r="E164" s="54">
-        <v>6</v>
-      </c>
-      <c r="G164" s="53" t="str">
-        <f>IF($E164=1,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H164" s="59" t="str">
-        <f>IF($E164=1,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I164" s="60"/>
-      <c r="J164" s="53" t="str">
-        <f>IF($E164=2,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K164" s="59" t="str">
-        <f>IF($E164=2,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L164" s="60"/>
-      <c r="M164" s="53" t="str">
-        <f>IF($E164=3,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N164" s="59" t="str">
-        <f>IF($E164=3,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O164" s="60"/>
-      <c r="P164" s="53" t="str">
-        <f>IF($E164=4,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q164" s="59" t="str">
-        <f>IF($E164=4,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R164" s="60"/>
-      <c r="S164" s="53" t="str">
-        <f>IF($E164=5,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T164" s="59" t="str">
-        <f>IF($E164=5,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V164" s="53" t="str">
-        <f>IF($E164=6,$B164," ")</f>
-        <v>1-2章困难副本数值设计</v>
-      </c>
-      <c r="W164" s="76">
-        <f>IF($E164=6,$D164," ")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
-      <c r="B165" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C165" s="73"/>
-      <c r="D165" s="73">
-        <v>3</v>
-      </c>
-      <c r="E165" s="54"/>
-      <c r="F165" s="53"/>
-      <c r="G165" s="53" t="str">
-        <f>IF($E165=1,$B165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H165" s="59" t="str">
-        <f>IF($E165=1,$D165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I165" s="60"/>
-      <c r="J165" s="53" t="str">
-        <f>IF($E165=2,$B165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K165" s="59" t="str">
-        <f>IF($E165=2,$D165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L165" s="60"/>
-      <c r="M165" s="53" t="str">
-        <f>IF($E165=3,$B165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N165" s="59" t="str">
-        <f>IF($E165=3,$D165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O165" s="60"/>
-      <c r="P165" s="53" t="str">
-        <f>IF($E165=4,$B165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q165" s="59" t="str">
-        <f>IF($E165=4,$D165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R165" s="60"/>
-      <c r="S165" s="53" t="str">
-        <f>IF($E165=5,$B165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T165" s="59" t="str">
-        <f>IF($E165=5,$D165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V165" s="5"/>
-      <c r="W165" s="57"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B166" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D166" s="54">
-        <v>3</v>
-      </c>
-      <c r="G166" s="53" t="str">
-        <f>IF($E166=1,$B166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H166" s="59" t="str">
-        <f>IF($E166=1,$D166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I166" s="60"/>
-      <c r="J166" s="53" t="str">
-        <f>IF($E166=2,$B166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K166" s="59" t="str">
-        <f>IF($E166=2,$D166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L166" s="60"/>
-      <c r="M166" s="53" t="str">
-        <f>IF($E166=3,$B166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N166" s="59" t="str">
-        <f>IF($E166=3,$D166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O166" s="60"/>
-      <c r="P166" s="53" t="str">
-        <f>IF($E166=4,$B166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q166" s="59" t="str">
-        <f>IF($E166=4,$D166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R166" s="60"/>
-      <c r="S166" s="53" t="str">
-        <f>IF($E166=5,$B166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T166" s="59" t="str">
-        <f>IF($E166=5,$D166," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B167" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="D167" s="61">
+      <c r="E167" s="54">
         <v>6</v>
       </c>
       <c r="G167" s="53" t="str">
@@ -18555,514 +18446,536 @@
         <f>IF($E167=5,$D167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="V167" s="53" t="str">
+        <f>IF($E167=6,$B167," ")</f>
+        <v>1-2章困难副本数值设计</v>
+      </c>
+      <c r="W167" s="76">
+        <f>IF($E167=6,$D167," ")</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="168" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="34"/>
-      <c r="B168" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="61">
-        <v>12</v>
+      <c r="B168" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C168" s="73"/>
+      <c r="D168" s="73">
+        <v>3</v>
       </c>
       <c r="E168" s="54"/>
       <c r="F168" s="53"/>
-      <c r="G168" s="53"/>
-      <c r="H168" s="59"/>
+      <c r="G168" s="53" t="str">
+        <f>IF($E168=1,$B168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H168" s="59" t="str">
+        <f>IF($E168=1,$D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I168" s="60"/>
-      <c r="J168" s="53"/>
-      <c r="K168" s="59"/>
+      <c r="J168" s="53" t="str">
+        <f>IF($E168=2,$B168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K168" s="59" t="str">
+        <f>IF($E168=2,$D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L168" s="60"/>
-      <c r="M168" s="53"/>
-      <c r="N168" s="59"/>
+      <c r="M168" s="53" t="str">
+        <f>IF($E168=3,$B168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N168" s="59" t="str">
+        <f>IF($E168=3,$D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O168" s="60"/>
-      <c r="P168" s="53"/>
-      <c r="Q168" s="59"/>
+      <c r="P168" s="53" t="str">
+        <f>IF($E168=4,$B168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q168" s="59" t="str">
+        <f>IF($E168=4,$D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R168" s="60"/>
-      <c r="S168" s="53"/>
-      <c r="T168" s="59"/>
+      <c r="S168" s="53" t="str">
+        <f>IF($E168=5,$B168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T168" s="59" t="str">
+        <f>IF($E168=5,$D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="V168" s="5"/>
       <c r="W168" s="57"/>
     </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D169" s="54">
+        <v>3</v>
+      </c>
+      <c r="G169" s="53" t="str">
+        <f>IF($E169=1,$B169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H169" s="59" t="str">
+        <f>IF($E169=1,$D169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I169" s="60"/>
+      <c r="J169" s="53" t="str">
+        <f>IF($E169=2,$B169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K169" s="59" t="str">
+        <f>IF($E169=2,$D169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L169" s="60"/>
+      <c r="M169" s="53" t="str">
+        <f>IF($E169=3,$B169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N169" s="59" t="str">
+        <f>IF($E169=3,$D169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O169" s="60"/>
+      <c r="P169" s="53" t="str">
+        <f>IF($E169=4,$B169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q169" s="59" t="str">
+        <f>IF($E169=4,$D169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R169" s="60"/>
+      <c r="S169" s="53" t="str">
+        <f>IF($E169=5,$B169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T169" s="59" t="str">
+        <f>IF($E169=5,$D169," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B170" s="37" t="s">
+      <c r="B170" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D170" s="61">
+        <v>6</v>
+      </c>
+      <c r="G170" s="53" t="str">
+        <f>IF($E170=1,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H170" s="59" t="str">
+        <f>IF($E170=1,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I170" s="60"/>
+      <c r="J170" s="53" t="str">
+        <f>IF($E170=2,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K170" s="59" t="str">
+        <f>IF($E170=2,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L170" s="60"/>
+      <c r="M170" s="53" t="str">
+        <f>IF($E170=3,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N170" s="59" t="str">
+        <f>IF($E170=3,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O170" s="60"/>
+      <c r="P170" s="53" t="str">
+        <f>IF($E170=4,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q170" s="59" t="str">
+        <f>IF($E170=4,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R170" s="60"/>
+      <c r="S170" s="53" t="str">
+        <f>IF($E170=5,$B170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T170" s="59" t="str">
+        <f>IF($E170=5,$D170," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="34"/>
+      <c r="B171" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="61">
+        <v>12</v>
+      </c>
+      <c r="E171" s="54"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="53"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="60"/>
+      <c r="J171" s="53"/>
+      <c r="K171" s="59"/>
+      <c r="L171" s="60"/>
+      <c r="M171" s="53"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="60"/>
+      <c r="P171" s="53"/>
+      <c r="Q171" s="59"/>
+      <c r="R171" s="60"/>
+      <c r="S171" s="53"/>
+      <c r="T171" s="59"/>
+      <c r="V171" s="5"/>
+      <c r="W171" s="57"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B173" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="D170" s="35">
-        <f>SUM(D165:D169)</f>
+      <c r="D173" s="35">
+        <f>SUM(D168:D172)</f>
         <v>24</v>
       </c>
-      <c r="F170" s="53" t="str">
-        <f t="shared" ref="F170:T170" si="70">IF($E170=1,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G170" s="53" t="str">
+      <c r="F173" s="53" t="str">
+        <f t="shared" ref="F173:T173" si="70">IF($E173=1,$B173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H170" s="76" t="str">
+      <c r="H173" s="76" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I170" s="53" t="str">
+      <c r="I173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J170" s="53" t="str">
+      <c r="J173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K170" s="53" t="str">
+      <c r="K173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L170" s="53" t="str">
+      <c r="L173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M170" s="53" t="str">
+      <c r="M173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N170" s="53" t="str">
+      <c r="N173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O170" s="53" t="str">
+      <c r="O173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P170" s="53" t="str">
+      <c r="P173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q170" s="53" t="str">
+      <c r="Q173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R170" s="53" t="str">
+      <c r="R173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S170" s="53" t="str">
+      <c r="S173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T170" s="53" t="str">
+      <c r="T173" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="172" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D172" s="65"/>
-      <c r="E172" s="65"/>
-      <c r="F172" s="66"/>
-      <c r="H172" s="68"/>
-      <c r="I172" s="69"/>
-      <c r="L172" s="69"/>
-      <c r="O172" s="69"/>
-      <c r="R172" s="69"/>
-      <c r="U172" s="69"/>
-      <c r="W172" s="68"/>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A173" s="34" t="s">
+    <row r="175" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D175" s="65"/>
+      <c r="E175" s="65"/>
+      <c r="F175" s="66"/>
+      <c r="H175" s="68"/>
+      <c r="I175" s="69"/>
+      <c r="L175" s="69"/>
+      <c r="O175" s="69"/>
+      <c r="R175" s="69"/>
+      <c r="U175" s="69"/>
+      <c r="W175" s="68"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A176" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="B173" s="75"/>
-      <c r="C173" s="75"/>
-      <c r="D173" s="75"/>
-      <c r="G173" s="75"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="60"/>
-      <c r="J173" s="52"/>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B174" s="106" t="s">
+      <c r="B176" s="75"/>
+      <c r="C176" s="75"/>
+      <c r="D176" s="75"/>
+      <c r="G176" s="75"/>
+      <c r="H176" s="77"/>
+      <c r="I176" s="60"/>
+      <c r="J176" s="52"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B177" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="C174" s="75"/>
-      <c r="D174" s="75">
+      <c r="C177" s="75"/>
+      <c r="D177" s="75">
         <v>1</v>
       </c>
-      <c r="E174" s="54">
+      <c r="E177" s="54">
         <v>1</v>
       </c>
-      <c r="G174" s="53" t="str">
-        <f t="shared" ref="G174:G197" si="71">IF($E174=1,$B174," ")</f>
+      <c r="G177" s="53" t="str">
+        <f t="shared" ref="G177:G200" si="71">IF($E177=1,$B177," ")</f>
         <v>前2天内容调整-测试版本配置，debug</v>
       </c>
-      <c r="H174" s="59">
-        <f t="shared" ref="H174:H197" si="72">IF($E174=1,$D174," ")</f>
+      <c r="H177" s="59">
+        <f t="shared" ref="H177:H200" si="72">IF($E177=1,$D177," ")</f>
         <v>1</v>
       </c>
-      <c r="I174" s="60"/>
-      <c r="J174" s="53" t="str">
-        <f t="shared" ref="J174:J197" si="73">IF($E174=2,$B174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K174" s="59" t="str">
-        <f t="shared" ref="K174:K197" si="74">IF($E174=2,$D174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L174" s="60"/>
-      <c r="M174" s="53" t="str">
-        <f t="shared" ref="M174:M197" si="75">IF($E174=3,$B174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N174" s="59" t="str">
-        <f t="shared" ref="N174:N197" si="76">IF($E174=3,$D174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O174" s="60"/>
-      <c r="P174" s="53" t="str">
-        <f t="shared" ref="P174:P197" si="77">IF($E174=4,$B174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q174" s="59" t="str">
-        <f t="shared" ref="Q174:Q197" si="78">IF($E174=4,$D174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R174" s="60"/>
-      <c r="S174" s="53" t="str">
-        <f t="shared" ref="S174:S197" si="79">IF($E174=5,$B174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T174" s="59" t="str">
-        <f t="shared" ref="T174:T197" si="80">IF($E174=5,$D174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V174" s="53" t="str">
-        <f t="shared" ref="V174:V197" si="81">IF($E174=6,$B174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W174" s="76" t="str">
-        <f t="shared" ref="W174:W197" si="82">IF($E174=6,$D174," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B175" s="106" t="s">
+      <c r="I177" s="60"/>
+      <c r="J177" s="53" t="str">
+        <f t="shared" ref="J177:J200" si="73">IF($E177=2,$B177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K177" s="59" t="str">
+        <f t="shared" ref="K177:K200" si="74">IF($E177=2,$D177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L177" s="60"/>
+      <c r="M177" s="53" t="str">
+        <f t="shared" ref="M177:M200" si="75">IF($E177=3,$B177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N177" s="59" t="str">
+        <f t="shared" ref="N177:N200" si="76">IF($E177=3,$D177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O177" s="60"/>
+      <c r="P177" s="53" t="str">
+        <f t="shared" ref="P177:P200" si="77">IF($E177=4,$B177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q177" s="59" t="str">
+        <f t="shared" ref="Q177:Q200" si="78">IF($E177=4,$D177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R177" s="60"/>
+      <c r="S177" s="53" t="str">
+        <f t="shared" ref="S177:S200" si="79">IF($E177=5,$B177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T177" s="59" t="str">
+        <f t="shared" ref="T177:T200" si="80">IF($E177=5,$D177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V177" s="53" t="str">
+        <f t="shared" ref="V177:V200" si="81">IF($E177=6,$B177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W177" s="76" t="str">
+        <f t="shared" ref="W177:W200" si="82">IF($E177=6,$D177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B178" s="106" t="s">
         <v>684</v>
       </c>
-      <c r="D175" s="54">
+      <c r="D178" s="54">
         <v>0.5</v>
       </c>
-      <c r="E175" s="54">
+      <c r="E178" s="54">
         <v>1</v>
       </c>
-      <c r="F175" s="53" t="s">
+      <c r="F178" s="53" t="s">
         <v>686</v>
       </c>
-      <c r="G175" s="53" t="str">
+      <c r="G178" s="53" t="str">
         <f t="shared" si="71"/>
         <v>道具指引回归</v>
       </c>
-      <c r="H175" s="59">
+      <c r="H178" s="59">
         <f t="shared" si="72"/>
         <v>0.5</v>
       </c>
-      <c r="I175" s="60"/>
-      <c r="J175" s="53" t="str">
+      <c r="I178" s="60"/>
+      <c r="J178" s="53" t="str">
         <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K175" s="59" t="str">
+      <c r="K178" s="59" t="str">
         <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L175" s="60"/>
-      <c r="M175" s="53" t="str">
+      <c r="L178" s="60"/>
+      <c r="M178" s="53" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N175" s="59" t="str">
+      <c r="N178" s="59" t="str">
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O175" s="60"/>
-      <c r="P175" s="53" t="str">
+      <c r="O178" s="60"/>
+      <c r="P178" s="53" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q175" s="59" t="str">
+      <c r="Q178" s="59" t="str">
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R175" s="60"/>
-      <c r="S175" s="53" t="str">
+      <c r="R178" s="60"/>
+      <c r="S178" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T175" s="59" t="str">
+      <c r="T178" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V175" s="53" t="str">
+      <c r="V178" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W175" s="76" t="str">
+      <c r="W178" s="76" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B176" s="106" t="s">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B179" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="D176" s="54">
+      <c r="D179" s="54">
         <v>1</v>
       </c>
-      <c r="E176" s="54">
+      <c r="E179" s="54">
         <v>1</v>
       </c>
-      <c r="G176" s="53" t="str">
+      <c r="G179" s="53" t="str">
         <f t="shared" si="71"/>
         <v>商店内容设计</v>
       </c>
-      <c r="H176" s="59">
+      <c r="H179" s="59">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
-      <c r="I176" s="60"/>
-      <c r="J176" s="53"/>
-      <c r="K176" s="59"/>
-      <c r="L176" s="60"/>
-      <c r="M176" s="53"/>
-      <c r="N176" s="59"/>
-      <c r="O176" s="60"/>
-      <c r="P176" s="53"/>
-      <c r="Q176" s="59"/>
-      <c r="R176" s="60"/>
-      <c r="S176" s="53"/>
-      <c r="T176" s="59"/>
-      <c r="V176" s="53"/>
-      <c r="W176" s="76"/>
-    </row>
-    <row r="177" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="B177" s="106" t="s">
+      <c r="I179" s="60"/>
+      <c r="J179" s="53"/>
+      <c r="K179" s="59"/>
+      <c r="L179" s="60"/>
+      <c r="M179" s="53"/>
+      <c r="N179" s="59"/>
+      <c r="O179" s="60"/>
+      <c r="P179" s="53"/>
+      <c r="Q179" s="59"/>
+      <c r="R179" s="60"/>
+      <c r="S179" s="53"/>
+      <c r="T179" s="59"/>
+      <c r="V179" s="53"/>
+      <c r="W179" s="76"/>
+    </row>
+    <row r="180" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+      <c r="B180" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="D177" s="54">
+      <c r="D180" s="54">
         <v>3</v>
       </c>
-      <c r="E177" s="54">
+      <c r="E180" s="54">
         <v>2</v>
       </c>
-      <c r="F177" s="53" t="s">
+      <c r="F180" s="53" t="s">
         <v>717</v>
       </c>
-      <c r="G177" s="53" t="str">
+      <c r="G180" s="53" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H177" s="59" t="str">
+      <c r="H180" s="59" t="str">
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I177" s="60"/>
-      <c r="J177" s="53" t="str">
+      <c r="I180" s="60"/>
+      <c r="J180" s="53" t="str">
         <f t="shared" si="73"/>
         <v>4个章节相关数值设计补漏</v>
       </c>
-      <c r="K177" s="59">
+      <c r="K180" s="59">
         <f t="shared" si="74"/>
         <v>3</v>
       </c>
-      <c r="L177" s="60"/>
-      <c r="M177" s="53" t="str">
+      <c r="L180" s="60"/>
+      <c r="M180" s="53" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N177" s="59" t="str">
+      <c r="N180" s="59" t="str">
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O177" s="60"/>
-      <c r="P177" s="53" t="str">
+      <c r="O180" s="60"/>
+      <c r="P180" s="53" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q177" s="59" t="str">
+      <c r="Q180" s="59" t="str">
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R177" s="60"/>
-      <c r="S177" s="53" t="str">
+      <c r="R180" s="60"/>
+      <c r="S180" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T177" s="59" t="str">
+      <c r="T180" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V177" s="53" t="str">
+      <c r="V180" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W177" s="76" t="str">
+      <c r="W180" s="76" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B178" s="106" t="s">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B181" s="106" t="s">
         <v>406</v>
       </c>
-      <c r="D178" s="54">
+      <c r="D181" s="54">
         <v>2</v>
       </c>
-      <c r="E178" s="54">
+      <c r="E181" s="54">
         <v>2</v>
-      </c>
-      <c r="G178" s="53" t="str">
-        <f>IF($E178=1,$B178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H178" s="59" t="str">
-        <f>IF($E178=1,$D178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I178" s="60"/>
-      <c r="J178" s="53" t="str">
-        <f>IF($E178=2,$B178," ")</f>
-        <v>第3 -4章副本配置Reward</v>
-      </c>
-      <c r="K178" s="59">
-        <f>IF($E178=2,$D178," ")</f>
-        <v>2</v>
-      </c>
-      <c r="L178" s="60"/>
-      <c r="M178" s="53" t="str">
-        <f>IF($E178=3,$B178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N178" s="59" t="str">
-        <f>IF($E178=3,$D178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O178" s="60"/>
-      <c r="P178" s="53" t="str">
-        <f>IF($E178=4,$B178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q178" s="59" t="str">
-        <f>IF($E178=4,$D178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R178" s="60"/>
-      <c r="S178" s="53" t="str">
-        <f>IF($E178=5,$B178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T178" s="59" t="str">
-        <f>IF($E178=5,$D178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V178" s="53" t="str">
-        <f>IF($E178=6,$B178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W178" s="76" t="str">
-        <f>IF($E178=6,$D178," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B179" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="D179" s="54">
-        <v>1</v>
-      </c>
-      <c r="E179" s="54">
-        <v>2</v>
-      </c>
-      <c r="G179" s="53" t="str">
-        <f>IF($E179=1,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H179" s="59" t="str">
-        <f>IF($E179=1,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I179" s="60"/>
-      <c r="J179" s="53" t="str">
-        <f>IF($E179=2,$B179," ")</f>
-        <v>商店内容配置</v>
-      </c>
-      <c r="K179" s="59">
-        <f>IF($E179=2,$D179," ")</f>
-        <v>1</v>
-      </c>
-      <c r="L179" s="60"/>
-      <c r="M179" s="53" t="str">
-        <f>IF($E179=3,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N179" s="59" t="str">
-        <f>IF($E179=3,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O179" s="60"/>
-      <c r="P179" s="53" t="str">
-        <f>IF($E179=4,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q179" s="59" t="str">
-        <f>IF($E179=4,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R179" s="60"/>
-      <c r="S179" s="53" t="str">
-        <f>IF($E179=5,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T179" s="59" t="str">
-        <f>IF($E179=5,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V179" s="53" t="str">
-        <f>IF($E179=6,$B179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W179" s="76" t="str">
-        <f>IF($E179=6,$D179," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B180" s="108"/>
-      <c r="G180" s="53"/>
-      <c r="H180" s="59"/>
-      <c r="I180" s="60"/>
-      <c r="J180" s="53"/>
-      <c r="K180" s="59"/>
-      <c r="L180" s="60"/>
-      <c r="M180" s="53"/>
-      <c r="N180" s="59"/>
-      <c r="O180" s="60"/>
-      <c r="P180" s="53"/>
-      <c r="Q180" s="59"/>
-      <c r="R180" s="60"/>
-      <c r="S180" s="53"/>
-      <c r="T180" s="59"/>
-      <c r="V180" s="53"/>
-      <c r="W180" s="76"/>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B181" s="108" t="s">
-        <v>407</v>
-      </c>
-      <c r="D181" s="54">
-        <v>1</v>
-      </c>
-      <c r="E181" s="54">
-        <v>3</v>
-      </c>
-      <c r="F181" s="53" t="s">
-        <v>122</v>
       </c>
       <c r="G181" s="53" t="str">
         <f>IF($E181=1,$B181," ")</f>
@@ -19075,20 +18988,20 @@
       <c r="I181" s="60"/>
       <c r="J181" s="53" t="str">
         <f>IF($E181=2,$B181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K181" s="59" t="str">
+        <v>第3 -4章副本配置Reward</v>
+      </c>
+      <c r="K181" s="59">
         <f>IF($E181=2,$D181," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="L181" s="60"/>
       <c r="M181" s="53" t="str">
         <f>IF($E181=3,$B181," ")</f>
-        <v>第3 -4章副本配置Reward - debug</v>
-      </c>
-      <c r="N181" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N181" s="59" t="str">
         <f>IF($E181=3,$D181," ")</f>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O181" s="60"/>
       <c r="P181" s="53" t="str">
@@ -19118,15 +19031,14 @@
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
       <c r="B182" s="106" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="D182" s="54">
+        <v>1</v>
+      </c>
+      <c r="E182" s="54">
         <v>2</v>
-      </c>
-      <c r="E182" s="54">
-        <v>3</v>
       </c>
       <c r="G182" s="53" t="str">
         <f>IF($E182=1,$B182," ")</f>
@@ -19139,20 +19051,20 @@
       <c r="I182" s="60"/>
       <c r="J182" s="53" t="str">
         <f>IF($E182=2,$B182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K182" s="59" t="str">
+        <v>商店内容配置</v>
+      </c>
+      <c r="K182" s="59">
         <f>IF($E182=2,$D182," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="L182" s="60"/>
       <c r="M182" s="53" t="str">
         <f>IF($E182=3,$B182," ")</f>
-        <v>战力模型 - （进阶公式补充， 3-4章）</v>
-      </c>
-      <c r="N182" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N182" s="59" t="str">
         <f>IF($E182=3,$D182," ")</f>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O182" s="60"/>
       <c r="P182" s="53" t="str">
@@ -19182,81 +19094,36 @@
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
-      <c r="B183" s="108" t="s">
-        <v>254</v>
-      </c>
-      <c r="D183" s="54">
-        <v>2</v>
-      </c>
-      <c r="E183" s="54">
-        <v>3</v>
-      </c>
-      <c r="F183" s="53" t="s">
-        <v>692</v>
-      </c>
-      <c r="G183" s="53" t="str">
-        <f t="shared" si="71"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H183" s="59" t="str">
-        <f t="shared" si="72"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B183" s="108"/>
+      <c r="G183" s="53"/>
+      <c r="H183" s="59"/>
       <c r="I183" s="60"/>
-      <c r="J183" s="53" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K183" s="59" t="str">
-        <f t="shared" si="74"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J183" s="53"/>
+      <c r="K183" s="59"/>
       <c r="L183" s="60"/>
-      <c r="M183" s="53" t="str">
-        <f t="shared" si="75"/>
-        <v>抽蛋内容设计</v>
-      </c>
-      <c r="N183" s="59">
-        <f t="shared" si="76"/>
-        <v>2</v>
-      </c>
+      <c r="M183" s="53"/>
+      <c r="N183" s="59"/>
       <c r="O183" s="60"/>
-      <c r="P183" s="53" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q183" s="59" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P183" s="53"/>
+      <c r="Q183" s="59"/>
       <c r="R183" s="60"/>
-      <c r="S183" s="53" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T183" s="59" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V183" s="53" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W183" s="76" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S183" s="53"/>
+      <c r="T183" s="59"/>
+      <c r="V183" s="53"/>
+      <c r="W183" s="76"/>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B184" s="5" t="s">
-        <v>219</v>
+      <c r="B184" s="108" t="s">
+        <v>407</v>
       </c>
       <c r="D184" s="54">
         <v>1</v>
       </c>
       <c r="E184" s="54">
         <v>3</v>
+      </c>
+      <c r="F184" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="G184" s="53" t="str">
         <f>IF($E184=1,$B184," ")</f>
@@ -19278,7 +19145,7 @@
       <c r="L184" s="60"/>
       <c r="M184" s="53" t="str">
         <f>IF($E184=3,$B184," ")</f>
-        <v>通天塔-金钱，经验副本配置</v>
+        <v>第3 -4章副本配置Reward - debug</v>
       </c>
       <c r="N184" s="59">
         <f>IF($E184=3,$D184," ")</f>
@@ -19313,37 +19180,81 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
-      <c r="B185" s="52"/>
-      <c r="G185" s="53"/>
-      <c r="H185" s="59"/>
+      <c r="B185" s="106" t="s">
+        <v>722</v>
+      </c>
+      <c r="D185" s="54">
+        <v>2</v>
+      </c>
+      <c r="E185" s="54">
+        <v>3</v>
+      </c>
+      <c r="G185" s="53" t="str">
+        <f>IF($E185=1,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H185" s="59" t="str">
+        <f>IF($E185=1,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I185" s="60"/>
-      <c r="J185" s="53"/>
-      <c r="K185" s="59"/>
+      <c r="J185" s="53" t="str">
+        <f>IF($E185=2,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K185" s="59" t="str">
+        <f>IF($E185=2,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L185" s="60"/>
-      <c r="M185" s="53"/>
-      <c r="N185" s="59"/>
+      <c r="M185" s="53" t="str">
+        <f>IF($E185=3,$B185," ")</f>
+        <v>战力模型 - （进阶公式补充， 3-4章）</v>
+      </c>
+      <c r="N185" s="59">
+        <f>IF($E185=3,$D185," ")</f>
+        <v>2</v>
+      </c>
       <c r="O185" s="60"/>
-      <c r="P185" s="53"/>
-      <c r="Q185" s="59"/>
+      <c r="P185" s="53" t="str">
+        <f>IF($E185=4,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q185" s="59" t="str">
+        <f>IF($E185=4,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R185" s="60"/>
-      <c r="S185" s="53"/>
-      <c r="T185" s="59"/>
-      <c r="V185" s="53"/>
-      <c r="W185" s="76"/>
+      <c r="S185" s="53" t="str">
+        <f>IF($E185=5,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T185" s="59" t="str">
+        <f>IF($E185=5,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V185" s="53" t="str">
+        <f>IF($E185=6,$B185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W185" s="76" t="str">
+        <f>IF($E185=6,$D185," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
-      <c r="B186" s="52" t="s">
-        <v>205</v>
+      <c r="B186" s="108" t="s">
+        <v>254</v>
       </c>
       <c r="D186" s="54">
         <v>2</v>
       </c>
       <c r="E186" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F186" s="53" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G186" s="53" t="str">
         <f t="shared" si="71"/>
@@ -19365,20 +19276,20 @@
       <c r="L186" s="60"/>
       <c r="M186" s="53" t="str">
         <f t="shared" si="75"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N186" s="59" t="str">
+        <v>抽蛋内容设计</v>
+      </c>
+      <c r="N186" s="59">
         <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="O186" s="60"/>
       <c r="P186" s="53" t="str">
         <f t="shared" si="77"/>
-        <v>PVP奖励配置</v>
-      </c>
-      <c r="Q186" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q186" s="59" t="str">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R186" s="60"/>
       <c r="S186" s="53" t="str">
@@ -19398,15 +19309,15 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B187" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D187" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G187" s="53" t="str">
         <f>IF($E187=1,$B187," ")</f>
@@ -19428,20 +19339,20 @@
       <c r="L187" s="60"/>
       <c r="M187" s="53" t="str">
         <f>IF($E187=3,$B187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N187" s="59" t="str">
+        <v>通天塔-金钱，经验副本配置</v>
+      </c>
+      <c r="N187" s="59">
         <f>IF($E187=3,$D187," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="O187" s="60"/>
       <c r="P187" s="53" t="str">
         <f>IF($E187=4,$B187," ")</f>
-        <v>通天塔-金钱，经验副本配置-debug</v>
-      </c>
-      <c r="Q187" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q187" s="59" t="str">
         <f>IF($E187=4,$D187," ")</f>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R187" s="60"/>
       <c r="S187" s="53" t="str">
@@ -19462,6 +19373,8 @@
       </c>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+      <c r="B188" s="52"/>
       <c r="G188" s="53"/>
       <c r="H188" s="59"/>
       <c r="I188" s="60"/>
@@ -19479,81 +19392,82 @@
       <c r="V188" s="53"/>
       <c r="W188" s="76"/>
     </row>
-    <row r="189" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
       <c r="B189" s="52" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D189" s="54">
         <v>2</v>
       </c>
       <c r="E189" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F189" s="53" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="G189" s="53" t="str">
-        <f>IF($E189=1,$B189," ")</f>
+        <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H189" s="59" t="str">
-        <f>IF($E189=1,$D189," ")</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I189" s="60"/>
       <c r="J189" s="53" t="str">
-        <f>IF($E189=2,$B189," ")</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K189" s="59" t="str">
-        <f>IF($E189=2,$D189," ")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L189" s="60"/>
       <c r="M189" s="53" t="str">
-        <f>IF($E189=3,$B189," ")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N189" s="59" t="str">
-        <f>IF($E189=3,$D189," ")</f>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O189" s="60"/>
       <c r="P189" s="53" t="str">
-        <f>IF($E189=4,$B189," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q189" s="59" t="str">
-        <f>IF($E189=4,$D189," ")</f>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="77"/>
+        <v>PVP奖励配置</v>
+      </c>
+      <c r="Q189" s="59">
+        <f t="shared" si="78"/>
+        <v>2</v>
       </c>
       <c r="R189" s="60"/>
       <c r="S189" s="53" t="str">
-        <f>IF($E189=5,$B189," ")</f>
-        <v>公会任务， 祈福， 科技 Reward配置</v>
-      </c>
-      <c r="T189" s="59">
-        <f>IF($E189=5,$D189," ")</f>
-        <v>2</v>
+        <f t="shared" si="79"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T189" s="59" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="V189" s="53" t="str">
-        <f>IF($E189=6,$B189," ")</f>
+        <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W189" s="76" t="str">
-        <f>IF($E189=6,$D189," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B190" s="52" t="s">
-        <v>691</v>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="D190" s="54">
         <v>2</v>
       </c>
       <c r="E190" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G190" s="53" t="str">
         <f>IF($E190=1,$B190," ")</f>
@@ -19584,20 +19498,20 @@
       <c r="O190" s="60"/>
       <c r="P190" s="53" t="str">
         <f>IF($E190=4,$B190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q190" s="59" t="str">
+        <v>通天塔-金钱，经验副本配置-debug</v>
+      </c>
+      <c r="Q190" s="59">
         <f>IF($E190=4,$D190," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="R190" s="60"/>
       <c r="S190" s="53" t="str">
         <f>IF($E190=5,$B190," ")</f>
-        <v>道具指引配置 - 4-8前相关</v>
-      </c>
-      <c r="T190" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T190" s="59" t="str">
         <f>IF($E190=5,$D190," ")</f>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="V190" s="53" t="str">
         <f>IF($E190=6,$B190," ")</f>
@@ -19608,16 +19522,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B191" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="D191" s="54">
-        <v>2</v>
-      </c>
-      <c r="E191" s="54">
-        <v>5</v>
-      </c>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G191" s="53"/>
       <c r="H191" s="59"/>
       <c r="I191" s="60"/>
@@ -19630,20 +19535,14 @@
       <c r="P191" s="53"/>
       <c r="Q191" s="59"/>
       <c r="R191" s="60"/>
-      <c r="S191" s="53" t="str">
-        <f t="shared" ref="S191:S192" si="83">IF($E191=5,$B191," ")</f>
-        <v>抽蛋，PVP，公会内容配置 - debug</v>
-      </c>
-      <c r="T191" s="59">
-        <f t="shared" ref="T191:T192" si="84">IF($E191=5,$D191," ")</f>
-        <v>2</v>
-      </c>
+      <c r="S191" s="53"/>
+      <c r="T191" s="59"/>
       <c r="V191" s="53"/>
       <c r="W191" s="76"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="34" x14ac:dyDescent="0.25">
       <c r="B192" s="52" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="D192" s="54">
         <v>2</v>
@@ -19651,281 +19550,387 @@
       <c r="E192" s="54">
         <v>5</v>
       </c>
-      <c r="G192" s="53"/>
-      <c r="H192" s="59"/>
+      <c r="F192" s="53" t="s">
+        <v>690</v>
+      </c>
+      <c r="G192" s="53" t="str">
+        <f>IF($E192=1,$B192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H192" s="59" t="str">
+        <f>IF($E192=1,$D192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I192" s="60"/>
-      <c r="J192" s="53"/>
-      <c r="K192" s="59"/>
+      <c r="J192" s="53" t="str">
+        <f>IF($E192=2,$B192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K192" s="59" t="str">
+        <f>IF($E192=2,$D192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L192" s="60"/>
-      <c r="M192" s="53"/>
-      <c r="N192" s="59"/>
+      <c r="M192" s="53" t="str">
+        <f>IF($E192=3,$B192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N192" s="59" t="str">
+        <f>IF($E192=3,$D192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O192" s="60"/>
-      <c r="P192" s="53"/>
-      <c r="Q192" s="59"/>
+      <c r="P192" s="53" t="str">
+        <f>IF($E192=4,$B192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q192" s="59" t="str">
+        <f>IF($E192=4,$D192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R192" s="60"/>
       <c r="S192" s="53" t="str">
+        <f>IF($E192=5,$B192," ")</f>
+        <v>公会任务， 祈福， 科技 Reward配置</v>
+      </c>
+      <c r="T192" s="59">
+        <f>IF($E192=5,$D192," ")</f>
+        <v>2</v>
+      </c>
+      <c r="V192" s="53" t="str">
+        <f>IF($E192=6,$B192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W192" s="76" t="str">
+        <f>IF($E192=6,$D192," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B193" s="52" t="s">
+        <v>691</v>
+      </c>
+      <c r="D193" s="54">
+        <v>2</v>
+      </c>
+      <c r="E193" s="54">
+        <v>5</v>
+      </c>
+      <c r="G193" s="53" t="str">
+        <f>IF($E193=1,$B193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H193" s="59" t="str">
+        <f>IF($E193=1,$D193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I193" s="60"/>
+      <c r="J193" s="53" t="str">
+        <f>IF($E193=2,$B193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K193" s="59" t="str">
+        <f>IF($E193=2,$D193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L193" s="60"/>
+      <c r="M193" s="53" t="str">
+        <f>IF($E193=3,$B193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N193" s="59" t="str">
+        <f>IF($E193=3,$D193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O193" s="60"/>
+      <c r="P193" s="53" t="str">
+        <f>IF($E193=4,$B193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q193" s="59" t="str">
+        <f>IF($E193=4,$D193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R193" s="60"/>
+      <c r="S193" s="53" t="str">
+        <f>IF($E193=5,$B193," ")</f>
+        <v>道具指引配置 - 4-8前相关</v>
+      </c>
+      <c r="T193" s="59">
+        <f>IF($E193=5,$D193," ")</f>
+        <v>2</v>
+      </c>
+      <c r="V193" s="53" t="str">
+        <f>IF($E193=6,$B193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W193" s="76" t="str">
+        <f>IF($E193=6,$D193," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B194" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="D194" s="54">
+        <v>2</v>
+      </c>
+      <c r="E194" s="54">
+        <v>5</v>
+      </c>
+      <c r="G194" s="53"/>
+      <c r="H194" s="59"/>
+      <c r="I194" s="60"/>
+      <c r="J194" s="53"/>
+      <c r="K194" s="59"/>
+      <c r="L194" s="60"/>
+      <c r="M194" s="53"/>
+      <c r="N194" s="59"/>
+      <c r="O194" s="60"/>
+      <c r="P194" s="53"/>
+      <c r="Q194" s="59"/>
+      <c r="R194" s="60"/>
+      <c r="S194" s="53" t="str">
+        <f t="shared" ref="S194:S195" si="83">IF($E194=5,$B194," ")</f>
+        <v>抽蛋，PVP，公会内容配置 - debug</v>
+      </c>
+      <c r="T194" s="59">
+        <f t="shared" ref="T194:T195" si="84">IF($E194=5,$D194," ")</f>
+        <v>2</v>
+      </c>
+      <c r="V194" s="53"/>
+      <c r="W194" s="76"/>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B195" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="D195" s="54">
+        <v>2</v>
+      </c>
+      <c r="E195" s="54">
+        <v>5</v>
+      </c>
+      <c r="G195" s="53"/>
+      <c r="H195" s="59"/>
+      <c r="I195" s="60"/>
+      <c r="J195" s="53"/>
+      <c r="K195" s="59"/>
+      <c r="L195" s="60"/>
+      <c r="M195" s="53"/>
+      <c r="N195" s="59"/>
+      <c r="O195" s="60"/>
+      <c r="P195" s="53"/>
+      <c r="Q195" s="59"/>
+      <c r="R195" s="60"/>
+      <c r="S195" s="53" t="str">
         <f t="shared" si="83"/>
         <v>收尾孔老师任务内容设计</v>
       </c>
-      <c r="T192" s="59">
+      <c r="T195" s="59">
         <f t="shared" si="84"/>
         <v>2</v>
       </c>
-      <c r="V192" s="53"/>
-      <c r="W192" s="76"/>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B193" s="52"/>
-      <c r="G193" s="53"/>
-      <c r="H193" s="59"/>
-      <c r="I193" s="60"/>
-      <c r="J193" s="53"/>
-      <c r="K193" s="59"/>
-      <c r="L193" s="60"/>
-      <c r="M193" s="53"/>
-      <c r="N193" s="59"/>
-      <c r="O193" s="60"/>
-      <c r="P193" s="53"/>
-      <c r="Q193" s="59"/>
-      <c r="R193" s="60"/>
-      <c r="S193" s="53"/>
-      <c r="T193" s="59"/>
-      <c r="V193" s="53"/>
-      <c r="W193" s="76"/>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B194" s="52" t="s">
+      <c r="V195" s="53"/>
+      <c r="W195" s="76"/>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B196" s="52"/>
+      <c r="G196" s="53"/>
+      <c r="H196" s="59"/>
+      <c r="I196" s="60"/>
+      <c r="J196" s="53"/>
+      <c r="K196" s="59"/>
+      <c r="L196" s="60"/>
+      <c r="M196" s="53"/>
+      <c r="N196" s="59"/>
+      <c r="O196" s="60"/>
+      <c r="P196" s="53"/>
+      <c r="Q196" s="59"/>
+      <c r="R196" s="60"/>
+      <c r="S196" s="53"/>
+      <c r="T196" s="59"/>
+      <c r="V196" s="53"/>
+      <c r="W196" s="76"/>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B197" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="D194" s="54">
+      <c r="D197" s="54">
         <v>4</v>
       </c>
-      <c r="E194" s="54">
+      <c r="E197" s="54">
         <v>6</v>
       </c>
-      <c r="G194" s="53" t="str">
-        <f>IF($E194=1,$B194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H194" s="59" t="str">
-        <f>IF($E194=1,$D194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I194" s="60"/>
-      <c r="J194" s="53" t="str">
-        <f>IF($E194=2,$B194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K194" s="59" t="str">
-        <f>IF($E194=2,$D194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L194" s="60"/>
-      <c r="M194" s="53" t="str">
-        <f>IF($E194=3,$B194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N194" s="59" t="str">
-        <f>IF($E194=3,$D194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O194" s="60"/>
-      <c r="P194" s="53" t="str">
-        <f>IF($E194=4,$B194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q194" s="59" t="str">
-        <f>IF($E194=4,$D194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R194" s="60"/>
-      <c r="S194" s="53" t="str">
-        <f>IF($E194=5,$B194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T194" s="59" t="str">
-        <f>IF($E194=5,$D194," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V194" s="53" t="str">
-        <f>IF($E194=6,$B194," ")</f>
-        <v>任务内容配置</v>
-      </c>
-      <c r="W194" s="76">
-        <f>IF($E194=6,$D194," ")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B195" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="D195" s="54">
-        <v>2</v>
-      </c>
-      <c r="E195" s="54">
-        <v>6</v>
-      </c>
-      <c r="V195" s="53" t="str">
-        <f>IF($E195=6,$B195," ")</f>
-        <v>任务内容配置 - debug</v>
-      </c>
-      <c r="W195" s="76">
-        <f>IF($E195=6,$D195," ")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
       <c r="G197" s="53" t="str">
-        <f t="shared" si="71"/>
+        <f>IF($E197=1,$B197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H197" s="59" t="str">
-        <f t="shared" si="72"/>
+        <f>IF($E197=1,$D197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I197" s="60"/>
       <c r="J197" s="53" t="str">
-        <f t="shared" si="73"/>
+        <f>IF($E197=2,$B197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K197" s="59" t="str">
-        <f t="shared" si="74"/>
+        <f>IF($E197=2,$D197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L197" s="60"/>
       <c r="M197" s="53" t="str">
-        <f t="shared" si="75"/>
+        <f>IF($E197=3,$B197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N197" s="59" t="str">
-        <f t="shared" si="76"/>
+        <f>IF($E197=3,$D197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O197" s="60"/>
       <c r="P197" s="53" t="str">
-        <f t="shared" si="77"/>
+        <f>IF($E197=4,$B197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q197" s="59" t="str">
-        <f t="shared" si="78"/>
+        <f>IF($E197=4,$D197," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R197" s="60"/>
       <c r="S197" s="53" t="str">
+        <f>IF($E197=5,$B197," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T197" s="59" t="str">
+        <f>IF($E197=5,$D197," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V197" s="53" t="str">
+        <f>IF($E197=6,$B197," ")</f>
+        <v>任务内容配置</v>
+      </c>
+      <c r="W197" s="76">
+        <f>IF($E197=6,$D197," ")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B198" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="D198" s="54">
+        <v>2</v>
+      </c>
+      <c r="E198" s="54">
+        <v>6</v>
+      </c>
+      <c r="V198" s="53" t="str">
+        <f>IF($E198=6,$B198," ")</f>
+        <v>任务内容配置 - debug</v>
+      </c>
+      <c r="W198" s="76">
+        <f>IF($E198=6,$D198," ")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="G200" s="53" t="str">
+        <f t="shared" si="71"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H200" s="59" t="str">
+        <f t="shared" si="72"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I200" s="60"/>
+      <c r="J200" s="53" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K200" s="59" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L200" s="60"/>
+      <c r="M200" s="53" t="str">
+        <f t="shared" si="75"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N200" s="59" t="str">
+        <f t="shared" si="76"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O200" s="60"/>
+      <c r="P200" s="53" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q200" s="59" t="str">
+        <f t="shared" si="78"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R200" s="60"/>
+      <c r="S200" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T197" s="59" t="str">
+      <c r="T200" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V197" s="53" t="str">
+      <c r="V200" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W197" s="76" t="str">
+      <c r="W200" s="76" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="198" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="37" t="s">
+    <row r="201" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C198" s="37"/>
-      <c r="D198" s="35">
-        <f>SUM(D174:D197)</f>
+      <c r="C201" s="37"/>
+      <c r="D201" s="35">
+        <f>SUM(D177:D200)</f>
         <v>32.5</v>
       </c>
-      <c r="E198" s="35"/>
-      <c r="F198" s="36"/>
-      <c r="H198" s="35">
-        <f>SUM(H174:H197)</f>
-        <v>2.5</v>
-      </c>
-      <c r="I198" s="38"/>
-      <c r="K198" s="35">
-        <f>SUM(K174:K197)</f>
-        <v>6</v>
-      </c>
-      <c r="L198" s="38"/>
-      <c r="N198" s="35">
-        <f>SUM(N174:N197)</f>
-        <v>6</v>
-      </c>
-      <c r="O198" s="38"/>
-      <c r="Q198" s="35">
-        <f>SUM(Q174:Q197)</f>
-        <v>4</v>
-      </c>
-      <c r="R198" s="38"/>
-      <c r="T198" s="35">
-        <f>SUM(T174:T197)</f>
-        <v>8</v>
-      </c>
-      <c r="U198" s="38"/>
-      <c r="W198" s="35">
-        <f>SUM(W174:W197)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="37"/>
-      <c r="C199" s="37"/>
-      <c r="D199" s="35"/>
-      <c r="E199" s="35"/>
-      <c r="F199" s="36"/>
-      <c r="H199" s="35"/>
-      <c r="I199" s="38"/>
-      <c r="K199" s="35"/>
-      <c r="L199" s="38"/>
-      <c r="N199" s="35"/>
-      <c r="O199" s="38"/>
-      <c r="Q199" s="35"/>
-      <c r="R199" s="38"/>
-      <c r="T199" s="35"/>
-      <c r="U199" s="38"/>
-      <c r="W199" s="37"/>
-    </row>
-    <row r="200" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="37"/>
-      <c r="C200" s="37"/>
-      <c r="D200" s="35"/>
-      <c r="E200" s="35"/>
-      <c r="F200" s="36"/>
-      <c r="H200" s="35"/>
-      <c r="I200" s="38"/>
-      <c r="K200" s="35"/>
-      <c r="L200" s="38"/>
-      <c r="N200" s="35"/>
-      <c r="O200" s="38"/>
-      <c r="Q200" s="35"/>
-      <c r="R200" s="38"/>
-      <c r="T200" s="35"/>
-      <c r="U200" s="38"/>
-      <c r="W200" s="37"/>
-    </row>
-    <row r="201" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="C201" s="37"/>
-      <c r="D201" s="35"/>
       <c r="E201" s="35"/>
       <c r="F201" s="36"/>
-      <c r="H201" s="35"/>
+      <c r="H201" s="35">
+        <f>SUM(H177:H200)</f>
+        <v>2.5</v>
+      </c>
       <c r="I201" s="38"/>
-      <c r="K201" s="35"/>
+      <c r="K201" s="35">
+        <f>SUM(K177:K200)</f>
+        <v>6</v>
+      </c>
       <c r="L201" s="38"/>
-      <c r="N201" s="35"/>
+      <c r="N201" s="35">
+        <f>SUM(N177:N200)</f>
+        <v>6</v>
+      </c>
       <c r="O201" s="38"/>
-      <c r="Q201" s="35"/>
+      <c r="Q201" s="35">
+        <f>SUM(Q177:Q200)</f>
+        <v>4</v>
+      </c>
       <c r="R201" s="38"/>
-      <c r="T201" s="35"/>
+      <c r="T201" s="35">
+        <f>SUM(T177:T200)</f>
+        <v>8</v>
+      </c>
       <c r="U201" s="38"/>
-      <c r="W201" s="37"/>
+      <c r="W201" s="35">
+        <f>SUM(W177:W200)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="202" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="37"/>
@@ -19945,65 +19950,83 @@
       <c r="U202" s="38"/>
       <c r="W202" s="37"/>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
-      <c r="B203" s="56" t="s">
+    <row r="203" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="35"/>
+      <c r="E203" s="35"/>
+      <c r="F203" s="36"/>
+      <c r="H203" s="35"/>
+      <c r="I203" s="38"/>
+      <c r="K203" s="35"/>
+      <c r="L203" s="38"/>
+      <c r="N203" s="35"/>
+      <c r="O203" s="38"/>
+      <c r="Q203" s="35"/>
+      <c r="R203" s="38"/>
+      <c r="T203" s="35"/>
+      <c r="U203" s="38"/>
+      <c r="W203" s="37"/>
+    </row>
+    <row r="204" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="C204" s="37"/>
+      <c r="D204" s="35"/>
+      <c r="E204" s="35"/>
+      <c r="F204" s="36"/>
+      <c r="H204" s="35"/>
+      <c r="I204" s="38"/>
+      <c r="K204" s="35"/>
+      <c r="L204" s="38"/>
+      <c r="N204" s="35"/>
+      <c r="O204" s="38"/>
+      <c r="Q204" s="35"/>
+      <c r="R204" s="38"/>
+      <c r="T204" s="35"/>
+      <c r="U204" s="38"/>
+      <c r="W204" s="37"/>
+    </row>
+    <row r="205" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="37"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="35"/>
+      <c r="E205" s="35"/>
+      <c r="F205" s="36"/>
+      <c r="H205" s="35"/>
+      <c r="I205" s="38"/>
+      <c r="K205" s="35"/>
+      <c r="L205" s="38"/>
+      <c r="N205" s="35"/>
+      <c r="O205" s="38"/>
+      <c r="Q205" s="35"/>
+      <c r="R205" s="38"/>
+      <c r="T205" s="35"/>
+      <c r="U205" s="38"/>
+      <c r="W205" s="37"/>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A206" s="5"/>
+      <c r="B206" s="56" t="s">
         <v>715</v>
       </c>
-      <c r="C203" s="57"/>
-      <c r="D203" s="54">
+      <c r="C206" s="57"/>
+      <c r="D206" s="54">
         <v>2</v>
       </c>
-      <c r="E203" s="54">
+      <c r="E206" s="54">
         <v>7</v>
       </c>
-      <c r="H203" s="54"/>
-      <c r="K203" s="54"/>
-      <c r="N203" s="54"/>
-      <c r="Q203" s="54"/>
-      <c r="T203" s="54"/>
-    </row>
-    <row r="204" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="56" t="s">
-        <v>696</v>
-      </c>
-      <c r="D204" s="57">
-        <v>3</v>
-      </c>
-      <c r="E204" s="57">
-        <v>7</v>
-      </c>
-      <c r="F204" s="53" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="205" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="D205" s="57">
-        <v>4</v>
-      </c>
-      <c r="E205" s="57">
-        <v>7</v>
-      </c>
-      <c r="F205" s="53"/>
-    </row>
-    <row r="206" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="D206" s="57">
-        <v>2</v>
-      </c>
-      <c r="E206" s="57">
-        <v>7</v>
-      </c>
-      <c r="F206" s="53"/>
+      <c r="H206" s="54"/>
+      <c r="K206" s="54"/>
+      <c r="N206" s="54"/>
+      <c r="Q206" s="54"/>
+      <c r="T206" s="54"/>
     </row>
     <row r="207" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="56" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="D207" s="57">
         <v>3</v>
@@ -20012,138 +20035,53 @@
         <v>7</v>
       </c>
       <c r="F207" s="53" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B208" s="5" t="s">
-        <v>688</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="56" t="s">
+        <v>411</v>
       </c>
       <c r="D208" s="57">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E208" s="57">
         <v>7</v>
       </c>
-      <c r="G208" s="53"/>
-      <c r="H208" s="59"/>
-      <c r="I208" s="60"/>
-      <c r="J208" s="53" t="str">
-        <f>IF($E208=2,$B208," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K208" s="59" t="str">
-        <f>IF($E208=2,$D208," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L208" s="60"/>
-      <c r="M208" s="53"/>
-      <c r="N208" s="59"/>
-      <c r="O208" s="60"/>
-      <c r="P208" s="53"/>
-      <c r="Q208" s="59"/>
-      <c r="R208" s="60"/>
-      <c r="S208" s="53"/>
-      <c r="T208" s="59"/>
-      <c r="U208" s="5"/>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B209" s="5" t="s">
-        <v>689</v>
+      <c r="F208" s="53"/>
+    </row>
+    <row r="209" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="56" t="s">
+        <v>412</v>
       </c>
       <c r="D209" s="57">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E209" s="57">
         <v>7</v>
       </c>
-      <c r="G209" s="53"/>
-      <c r="H209" s="59"/>
-      <c r="I209" s="60"/>
-      <c r="J209" s="53"/>
-      <c r="K209" s="59"/>
-      <c r="L209" s="60"/>
-      <c r="M209" s="53"/>
-      <c r="N209" s="59"/>
-      <c r="O209" s="60"/>
-      <c r="P209" s="53"/>
-      <c r="Q209" s="59"/>
-      <c r="R209" s="60"/>
-      <c r="S209" s="53"/>
-      <c r="T209" s="59"/>
-      <c r="U209" s="5"/>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5" t="s">
-        <v>123</v>
+      <c r="F209" s="53"/>
+    </row>
+    <row r="210" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="56" t="s">
+        <v>683</v>
       </c>
       <c r="D210" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E210" s="57">
         <v>7</v>
       </c>
-      <c r="G210" s="53" t="str">
-        <f>IF($E210=1,$B210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H210" s="59" t="str">
-        <f>IF($E210=1,$D210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I210" s="60"/>
-      <c r="J210" s="53" t="str">
-        <f>IF($E210=2,$B210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K210" s="59" t="str">
-        <f>IF($E210=2,$D210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L210" s="60"/>
-      <c r="M210" s="53" t="str">
-        <f>IF($E210=3,$B210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N210" s="59" t="str">
-        <f>IF($E210=3,$D210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O210" s="60"/>
-      <c r="P210" s="53" t="str">
-        <f>IF($E210=4,$B210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q210" s="59" t="str">
-        <f>IF($E210=4,$D210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R210" s="60"/>
-      <c r="S210" s="53" t="str">
-        <f>IF($E210=5,$B210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T210" s="59" t="str">
-        <f>IF($E210=5,$D210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V210" s="53" t="str">
-        <f>IF($E210=6,$B210," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W210" s="76" t="str">
-        <f>IF($E210=6,$D210," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="F210" s="53" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
       <c r="B211" s="5" t="s">
-        <v>424</v>
+        <v>688</v>
       </c>
       <c r="D211" s="57">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E211" s="57">
         <v>7</v>
@@ -20151,8 +20089,14 @@
       <c r="G211" s="53"/>
       <c r="H211" s="59"/>
       <c r="I211" s="60"/>
-      <c r="J211" s="53"/>
-      <c r="K211" s="59"/>
+      <c r="J211" s="53" t="str">
+        <f>IF($E211=2,$B211," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K211" s="59" t="str">
+        <f>IF($E211=2,$D211," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L211" s="60"/>
       <c r="M211" s="53"/>
       <c r="N211" s="59"/>
@@ -20162,34 +20106,41 @@
       <c r="R211" s="60"/>
       <c r="S211" s="53"/>
       <c r="T211" s="59"/>
-      <c r="V211" s="53"/>
-      <c r="W211" s="76"/>
-    </row>
-    <row r="212" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="37"/>
-      <c r="C212" s="37"/>
-      <c r="D212" s="35"/>
-      <c r="E212" s="57"/>
-      <c r="F212" s="36"/>
-      <c r="H212" s="35"/>
-      <c r="I212" s="38"/>
-      <c r="K212" s="35"/>
-      <c r="L212" s="38"/>
-      <c r="N212" s="35"/>
-      <c r="O212" s="38"/>
-      <c r="Q212" s="35"/>
-      <c r="R212" s="38"/>
-      <c r="T212" s="35"/>
-      <c r="U212" s="38"/>
-      <c r="W212" s="37"/>
+      <c r="U211" s="5"/>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D212" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="E212" s="57">
+        <v>7</v>
+      </c>
+      <c r="G212" s="53"/>
+      <c r="H212" s="59"/>
+      <c r="I212" s="60"/>
+      <c r="J212" s="53"/>
+      <c r="K212" s="59"/>
+      <c r="L212" s="60"/>
+      <c r="M212" s="53"/>
+      <c r="N212" s="59"/>
+      <c r="O212" s="60"/>
+      <c r="P212" s="53"/>
+      <c r="Q212" s="59"/>
+      <c r="R212" s="60"/>
+      <c r="S212" s="53"/>
+      <c r="T212" s="59"/>
+      <c r="U212" s="5"/>
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D213" s="54">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="D213" s="57">
+        <v>2</v>
       </c>
       <c r="E213" s="57">
         <v>7</v>
@@ -20238,13 +20189,22 @@
         <f>IF($E213=5,$D213," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U213" s="5"/>
-      <c r="W213" s="5"/>
+      <c r="V213" s="53" t="str">
+        <f>IF($E213=6,$B213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W213" s="76" t="str">
+        <f>IF($E213=6,$D213," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="5" t="s">
-        <v>124</v>
+        <v>424</v>
+      </c>
+      <c r="D214" s="57">
+        <v>3</v>
       </c>
       <c r="E214" s="57">
         <v>7</v>
@@ -20263,184 +20223,243 @@
       <c r="R214" s="60"/>
       <c r="S214" s="53"/>
       <c r="T214" s="59"/>
-      <c r="U214" s="5"/>
-      <c r="W214" s="5"/>
+      <c r="V214" s="53"/>
+      <c r="W214" s="76"/>
+    </row>
+    <row r="215" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="35"/>
+      <c r="E215" s="57"/>
+      <c r="F215" s="36"/>
+      <c r="H215" s="35"/>
+      <c r="I215" s="38"/>
+      <c r="K215" s="35"/>
+      <c r="L215" s="38"/>
+      <c r="N215" s="35"/>
+      <c r="O215" s="38"/>
+      <c r="Q215" s="35"/>
+      <c r="R215" s="38"/>
+      <c r="T215" s="35"/>
+      <c r="U215" s="38"/>
+      <c r="W215" s="37"/>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B216" s="37" t="s">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D216" s="54">
+        <v>6</v>
+      </c>
+      <c r="E216" s="57">
+        <v>7</v>
+      </c>
+      <c r="G216" s="53" t="str">
+        <f>IF($E216=1,$B216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H216" s="59" t="str">
+        <f>IF($E216=1,$D216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I216" s="60"/>
+      <c r="J216" s="53" t="str">
+        <f>IF($E216=2,$B216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K216" s="59" t="str">
+        <f>IF($E216=2,$D216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L216" s="60"/>
+      <c r="M216" s="53" t="str">
+        <f>IF($E216=3,$B216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N216" s="59" t="str">
+        <f>IF($E216=3,$D216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O216" s="60"/>
+      <c r="P216" s="53" t="str">
+        <f>IF($E216=4,$B216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q216" s="59" t="str">
+        <f>IF($E216=4,$D216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R216" s="60"/>
+      <c r="S216" s="53" t="str">
+        <f>IF($E216=5,$B216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T216" s="59" t="str">
+        <f>IF($E216=5,$D216," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U216" s="5"/>
+      <c r="W216" s="5"/>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E217" s="57">
+        <v>7</v>
+      </c>
+      <c r="G217" s="53"/>
+      <c r="H217" s="59"/>
+      <c r="I217" s="60"/>
+      <c r="J217" s="53"/>
+      <c r="K217" s="59"/>
+      <c r="L217" s="60"/>
+      <c r="M217" s="53"/>
+      <c r="N217" s="59"/>
+      <c r="O217" s="60"/>
+      <c r="P217" s="53"/>
+      <c r="Q217" s="59"/>
+      <c r="R217" s="60"/>
+      <c r="S217" s="53"/>
+      <c r="T217" s="59"/>
+      <c r="U217" s="5"/>
+      <c r="W217" s="5"/>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B219" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="D216" s="35">
-        <f>SUM(D205:D214)</f>
+      <c r="D219" s="35">
+        <f>SUM(D208:D217)</f>
         <v>23</v>
       </c>
-      <c r="W216" s="5"/>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
-      <c r="B218" s="34" t="s">
+      <c r="W219" s="5"/>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A221" s="5"/>
+      <c r="B221" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
-      <c r="G218" s="34" t="s">
+      <c r="C221" s="34"/>
+      <c r="D221" s="35"/>
+      <c r="G221" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H218" s="37"/>
-      <c r="I218" s="38"/>
-      <c r="J218" s="34" t="s">
+      <c r="H221" s="37"/>
+      <c r="I221" s="38"/>
+      <c r="J221" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="K218" s="34"/>
-      <c r="L218" s="38"/>
-      <c r="M218" s="34" t="s">
+      <c r="K221" s="34"/>
+      <c r="L221" s="38"/>
+      <c r="M221" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="N218" s="34"/>
-      <c r="O218" s="38"/>
-      <c r="P218" s="34" t="s">
+      <c r="N221" s="34"/>
+      <c r="O221" s="38"/>
+      <c r="P221" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="Q218" s="34"/>
-      <c r="R218" s="38"/>
-      <c r="S218" s="34" t="s">
+      <c r="Q221" s="34"/>
+      <c r="R221" s="38"/>
+      <c r="S221" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="W218" s="5"/>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A222" s="5"/>
-      <c r="G222" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H222" s="37"/>
-      <c r="I222" s="38"/>
-      <c r="J222" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="K222" s="34"/>
-      <c r="L222" s="38"/>
-      <c r="M222" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="N222" s="34"/>
-      <c r="O222" s="38"/>
-      <c r="P222" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q222" s="34"/>
-      <c r="R222" s="38"/>
-      <c r="S222" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="W222" s="5"/>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A224" s="5"/>
-      <c r="G224" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J224" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="M224" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="P224" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W224" s="5"/>
+      <c r="W221" s="5"/>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
-      <c r="G225" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J225" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="M225" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="U225" s="5"/>
+      <c r="G225" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H225" s="37"/>
+      <c r="I225" s="38"/>
+      <c r="J225" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="K225" s="34"/>
+      <c r="L225" s="38"/>
+      <c r="M225" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="N225" s="34"/>
+      <c r="O225" s="38"/>
+      <c r="P225" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q225" s="34"/>
+      <c r="R225" s="38"/>
+      <c r="S225" s="34" t="s">
+        <v>127</v>
+      </c>
       <c r="W225" s="5"/>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A226" s="5"/>
-      <c r="U226" s="5"/>
-      <c r="W226" s="5"/>
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
-      <c r="U227" s="5"/>
+      <c r="G227" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J227" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="M227" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="P227" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="W227" s="5"/>
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
-      <c r="G228" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H228" s="37"/>
-      <c r="I228" s="34"/>
-      <c r="J228" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="K228" s="34"/>
-      <c r="L228" s="34"/>
-      <c r="M228" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="N228" s="34"/>
-      <c r="O228" s="34"/>
-      <c r="P228" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q228" s="34"/>
-      <c r="R228" s="34"/>
-      <c r="S228" s="34" t="s">
-        <v>128</v>
+      <c r="G228" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="M228" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="U228" s="5"/>
       <c r="W228" s="5"/>
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
-      <c r="I229" s="5"/>
-      <c r="L229" s="5"/>
-      <c r="O229" s="5"/>
-      <c r="R229" s="5"/>
       <c r="U229" s="5"/>
       <c r="W229" s="5"/>
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
-      <c r="I230" s="5"/>
-      <c r="L230" s="5"/>
-      <c r="O230" s="5"/>
-      <c r="R230" s="5"/>
       <c r="U230" s="5"/>
       <c r="W230" s="5"/>
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="G231" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="I231" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="H231" s="37"/>
+      <c r="I231" s="34"/>
       <c r="J231" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="L231" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="K231" s="34"/>
+      <c r="L231" s="34"/>
       <c r="M231" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="O231" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="N231" s="34"/>
+      <c r="O231" s="34"/>
       <c r="P231" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="R231" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="Q231" s="34"/>
+      <c r="R231" s="34"/>
       <c r="S231" s="34" t="s">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="U231" s="5"/>
       <c r="W231" s="5"/>
@@ -20456,59 +20475,101 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
-      <c r="G233" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="I233" s="5"/>
-      <c r="J233" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="L233" s="5"/>
       <c r="O233" s="5"/>
       <c r="R233" s="5"/>
-      <c r="S233" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="U233" s="5"/>
       <c r="W233" s="5"/>
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
-      <c r="G234" s="5" t="s">
-        <v>421</v>
+      <c r="G234" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="I234" s="5"/>
+      <c r="J234" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="L234" s="5"/>
+      <c r="M234" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="O234" s="5"/>
+      <c r="P234" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="R234" s="5"/>
+      <c r="S234" s="34" t="s">
+        <v>417</v>
+      </c>
       <c r="U234" s="5"/>
       <c r="W234" s="5"/>
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G235" s="5" t="s">
+      <c r="A235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="O235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="U235" s="5"/>
+      <c r="W235" s="5"/>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A236" s="5"/>
+      <c r="G236" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="L236" s="5"/>
+      <c r="O236" s="5"/>
+      <c r="R236" s="5"/>
+      <c r="S236" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="U236" s="5"/>
+      <c r="W236" s="5"/>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A237" s="5"/>
+      <c r="G237" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I237" s="5"/>
+      <c r="L237" s="5"/>
+      <c r="O237" s="5"/>
+      <c r="R237" s="5"/>
+      <c r="U237" s="5"/>
+      <c r="W237" s="5"/>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G238" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="W235" s="5"/>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B239" s="90" t="s">
+      <c r="W238" s="5"/>
+    </row>
+    <row r="242" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B242" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="W239" s="5"/>
+      <c r="W242" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J31 M31 B74:D74 F161:G163 F82 B198:D200 K199:K207 N199:N207 H198:H207 T199:T207 Q199:Q207 B57:D57 C70:D72 B113 D113 D94:D95 B112:D112 F165 B202:D207 C201:D201 B212:D212 Q212 T212 H212 N212 K212 B97:D97 D98 G168 F155:F156 F167:G167 B31:D33 B36:D39 B41:D41 F131:G131 F132:F148 P75:P76 G75:G76 S75:S76 V76:W76 D67 D42 D50 V67:W67 D53:D54 P64:P73 G64:G73 M64:M76 J64:J76 S64:S73 V70:W72 B86:D89 D100:D103 B114:D118 V210:W211 S208:S211 J208:J211 M208:M211 G208:G211 P208:P211 V197:W197 S197 J197 M197 G197 P197 P5:P22 G5:G22 M5:M22 J5:J22 V5:W22 V24:W24 B129:D129 B126:D126 G129 M129 J129 S129 P129 S5:S22 P161:P168 G164:G166 M161:M168 J161:J168 S161:S168 V132:W156 V164:W164 V157 V158:W158 G132:G158 J131:J158 M131:M158 P131:P158 S131:S158 V78:W104 V111:W111 G78:G105 M78:M105 J78:J105 S78:S105 P78:P105 P24:P29 G24:G29 M24:M29 J24:J29 S24:S29 G107:G127 M107:M127 J107:J127 S107:S127 P107:P127 M213:M214 P213:P214 S213:S214 J213:J214 G213:G214 D56 B52:D52 B55:D55 P52:P62 G52:G62 M52:M62 J52:J62 S52:S62 V52:W61 G174:G194 V174:W195 S174:S194 P174:P194 M174:M194 J174:J194 C46:D48 P34:P50 G34:G50 M34:M50 J34:J50 S34:S50 V34:W50">
+  <conditionalFormatting sqref="J31 M31 B74:D74 F164:G166 F82 B201:D203 K202:K210 N202:N210 H201:H210 T202:T210 Q202:Q210 B57:D57 C70:D72 B113 D113 D94:D95 B112:D112 F168 B205:D210 C204:D204 B215:D215 Q215 T215 H215 N215 K215 B97:D97 D98 G171 F156:F157 F170:G170 B31:D33 B36:D39 B41:D41 F131:G131 F132:F148 P75:P76 G75:G76 S75:S76 V76:W76 D67 D42 D50 V67:W67 D53:D54 P64:P73 G64:G73 M64:M76 J64:J76 S64:S73 V70:W72 B86:D89 D100:D103 B114:D118 V213:W214 S211:S214 J211:J214 M211:M214 G211:G214 P211:P214 V200:W200 S200 J200 M200 G200 P200 P5:P22 G5:G22 M5:M22 J5:J22 V5:W22 V24:W24 B129:D129 B126:D126 G129 M129 J129 S129 P129 S5:S22 P164:P171 G167:G169 M164:M171 J164:J171 S164:S171 V132:W157 V167:W167 V158:V160 V161:W161 G132:G161 J131:J161 M131:M161 P131:P161 S131:S161 V78:W104 V111:W111 G78:G105 M78:M105 J78:J105 S78:S105 P78:P105 P24:P29 G24:G29 M24:M29 J24:J29 S24:S29 G107:G127 M107:M127 J107:J127 S107:S127 P107:P127 M216:M217 P216:P217 S216:S217 J216:J217 G216:G217 D56 B52:D52 B55:D55 P52:P62 G52:G62 M52:M62 J52:J62 S52:S62 V52:W61 G177:G197 V177:W198 S177:S197 P177:P197 M177:M197 J177:J197 C46:D48 P34:P50 G34:G50 M34:M50 J34:J50 S34:S50 V34:W50">
     <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G173 B173:D173 B161:D163 J130 C174:D174 C165:D165 B135:D137 C139:D148 B140 D152:D157">
+  <conditionalFormatting sqref="G176 B176:D176 B164:D166 J130 C177:D177 C168:D168 B135:D137 C139:D148 B140 D153:D160">
     <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F170:T170">
+  <conditionalFormatting sqref="F173:T173">
     <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -20533,12 +20594,12 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
+  <conditionalFormatting sqref="B162:D162">
     <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H159">
+  <conditionalFormatting sqref="H162">
     <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -20578,47 +20639,47 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K159">
+  <conditionalFormatting sqref="K162">
     <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N159">
+  <conditionalFormatting sqref="N162">
     <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q159">
+  <conditionalFormatting sqref="Q162">
     <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T159">
+  <conditionalFormatting sqref="T162">
     <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
+  <conditionalFormatting sqref="K201">
     <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N198">
+  <conditionalFormatting sqref="N201">
     <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q198">
+  <conditionalFormatting sqref="Q201">
     <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T198">
+  <conditionalFormatting sqref="T201">
     <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B201">
+  <conditionalFormatting sqref="B204">
     <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -20658,12 +20719,12 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W159">
+  <conditionalFormatting sqref="W162">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W198">
+  <conditionalFormatting sqref="W201">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>

--- a/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40380" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4420" yWindow="480" windowWidth="29200" windowHeight="19420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑9" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="780">
   <si>
     <t>里程碑目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -5648,6 +5648,21 @@
   </si>
   <si>
     <t>第三四章数值设计，配置</t>
+  </si>
+  <si>
+    <t>道具翻译需求补充</t>
+  </si>
+  <si>
+    <t>0.8 对局外体验后修改 （抽蛋，大冒险，公会）</t>
+  </si>
+  <si>
+    <t>照妖镜培养系统</t>
+  </si>
+  <si>
+    <t>第一二章配置（补充）</t>
+  </si>
+  <si>
+    <t>觉醒系统 + 特色地下城 + 活动</t>
   </si>
 </sst>
 </file>
@@ -5954,7 +5969,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6210,16 +6225,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -6239,7 +6258,7 @@
     <cellStyle name="Normal 2" xfId="8"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="83">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6963,6 +6982,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -10766,13 +10792,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W242"/>
+  <dimension ref="A2:W247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B158" sqref="B158"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -11174,7 +11200,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="104" t="s">
         <v>361</v>
       </c>
       <c r="D10" s="54">
@@ -11303,7 +11329,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="110" t="s">
         <v>362</v>
       </c>
       <c r="D12" s="54">
@@ -11385,7 +11411,7 @@
       <c r="W13" s="76"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="104" t="s">
         <v>723</v>
       </c>
       <c r="G14" s="53"/>
@@ -11406,7 +11432,7 @@
       <c r="W14" s="76"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="106" t="s">
         <v>363</v>
       </c>
       <c r="D15" s="58">
@@ -11469,7 +11495,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="110" t="s">
         <v>364</v>
       </c>
       <c r="D16" s="54">
@@ -12272,43 +12298,43 @@
         <v>1</v>
       </c>
       <c r="G34" s="53" t="str">
-        <f t="shared" ref="G34:G60" si="12">IF($E34=1,$B34," ")</f>
+        <f t="shared" ref="G34:G59" si="12">IF($E34=1,$B34," ")</f>
         <v>前2天内容调整-测试版本配置，debug</v>
       </c>
       <c r="H34" s="59">
-        <f t="shared" ref="H34:H60" si="13">IF($E34=1,$D34," ")</f>
+        <f t="shared" ref="H34:H59" si="13">IF($E34=1,$D34," ")</f>
         <v>1</v>
       </c>
       <c r="I34" s="60"/>
       <c r="J34" s="53" t="str">
-        <f t="shared" ref="J34:J60" si="14">IF($E34=2,$B34," ")</f>
+        <f t="shared" ref="J34:J59" si="14">IF($E34=2,$B34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K34" s="59" t="str">
-        <f t="shared" ref="K34:K60" si="15">IF($E34=2,$D34," ")</f>
+        <f t="shared" ref="K34:K59" si="15">IF($E34=2,$D34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L34" s="60"/>
       <c r="M34" s="53" t="str">
-        <f t="shared" ref="M34:M60" si="16">IF($E34=3,$B34," ")</f>
+        <f t="shared" ref="M34:M59" si="16">IF($E34=3,$B34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N34" s="59" t="str">
-        <f t="shared" ref="N34:N60" si="17">IF($E34=3,$D34," ")</f>
+        <f t="shared" ref="N34:N59" si="17">IF($E34=3,$D34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O34" s="60"/>
       <c r="P34" s="53" t="str">
-        <f t="shared" ref="P34:P60" si="18">IF($E34=4,$B34," ")</f>
+        <f t="shared" ref="P34:P59" si="18">IF($E34=4,$B34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q34" s="59" t="str">
-        <f t="shared" ref="Q34:Q60" si="19">IF($E34=4,$D34," ")</f>
+        <f t="shared" ref="Q34:Q59" si="19">IF($E34=4,$D34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R34" s="60"/>
       <c r="S34" s="53" t="str">
-        <f t="shared" ref="S34:S60" si="20">IF($E34=5,$B34," ")</f>
+        <f t="shared" ref="S34:S59" si="20">IF($E34=5,$B34," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T34" s="59" t="str">
@@ -12375,15 +12401,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="T35" s="59" t="str">
-        <f t="shared" ref="T35:T60" si="21">IF($E35=5,$D35," ")</f>
+        <f t="shared" ref="T35:T59" si="21">IF($E35=5,$D35," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V35" s="53" t="str">
-        <f t="shared" ref="V35:V60" si="22">IF($E35=6,$B35," ")</f>
+        <f t="shared" ref="V35:V59" si="22">IF($E35=6,$B35," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W35" s="76" t="str">
-        <f t="shared" ref="W35:W60" si="23">IF($E35=6,$D35," ")</f>
+        <f t="shared" ref="W35:W59" si="23">IF($E35=6,$D35," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -12629,7 +12655,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="106" t="s">
         <v>161</v>
       </c>
       <c r="D40" s="54">
@@ -12692,7 +12718,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="109" t="s">
         <v>370</v>
       </c>
       <c r="C41" s="56"/>
@@ -12819,7 +12845,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="108" t="s">
+      <c r="B43" s="106" t="s">
         <v>371</v>
       </c>
       <c r="D43" s="54">
@@ -12904,7 +12930,7 @@
       <c r="W44" s="76"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="112" t="s">
         <v>724</v>
       </c>
       <c r="D45" s="54">
@@ -12931,7 +12957,7 @@
       <c r="W45" s="76"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="106" t="s">
         <v>372</v>
       </c>
       <c r="C46" s="56"/>
@@ -12991,60 +13017,75 @@
       </c>
       <c r="W46" s="76"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="52" t="s">
-        <v>767</v>
-      </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="54">
-        <v>1</v>
-      </c>
-      <c r="E47" s="54">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="54">
         <v>3</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="59"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="76"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="52"/>
-      <c r="C48" s="56"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="59"/>
+      <c r="E48" s="54">
+        <v>4</v>
+      </c>
+      <c r="G48" s="53" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H48" s="59" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I48" s="60"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="59"/>
+      <c r="J48" s="53" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K48" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L48" s="60"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="59"/>
+      <c r="M48" s="53" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N48" s="59" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O48" s="60"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="59"/>
+      <c r="P48" s="53" t="str">
+        <f t="shared" si="18"/>
+        <v>第4章副本配置（1/2)</v>
+      </c>
+      <c r="Q48" s="59">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
       <c r="R48" s="60"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="59"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="76"/>
+      <c r="S48" s="53" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T48" s="59" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V48" s="53" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W48" s="76" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>373</v>
+      <c r="B49" s="52" t="s">
+        <v>374</v>
       </c>
       <c r="D49" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="54">
         <v>4</v>
@@ -13078,11 +13119,11 @@
       <c r="O49" s="60"/>
       <c r="P49" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>第4章副本配置（1/2)</v>
+        <v>第3章副本 - debug</v>
       </c>
       <c r="Q49" s="59">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R49" s="60"/>
       <c r="S49" s="53" t="str">
@@ -13102,309 +13143,309 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B50" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="D50" s="54">
-        <v>2</v>
-      </c>
-      <c r="E50" s="54">
-        <v>4</v>
-      </c>
-      <c r="G50" s="53" t="str">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="59"/>
+      <c r="V51" s="53"/>
+      <c r="W51" s="76"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" s="54">
+        <v>3</v>
+      </c>
+      <c r="E52" s="54">
+        <v>5</v>
+      </c>
+      <c r="G52" s="53" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H50" s="59" t="str">
+      <c r="H52" s="59" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I50" s="60"/>
-      <c r="J50" s="53" t="str">
+      <c r="I52" s="60"/>
+      <c r="J52" s="53" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K50" s="59" t="str">
+      <c r="K52" s="59" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L50" s="60"/>
-      <c r="M50" s="53" t="str">
+      <c r="L52" s="60"/>
+      <c r="M52" s="53" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N50" s="59" t="str">
+      <c r="N52" s="59" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O50" s="60"/>
-      <c r="P50" s="53" t="str">
+      <c r="O52" s="60"/>
+      <c r="P52" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>第3章副本 - debug</v>
-      </c>
-      <c r="Q50" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q52" s="59" t="str">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="R50" s="60"/>
-      <c r="S50" s="53" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R52" s="60"/>
+      <c r="S52" s="53" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T50" s="59" t="str">
+        <v>第4章副本配置(2/2)</v>
+      </c>
+      <c r="T52" s="59">
         <f t="shared" si="21"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V50" s="53" t="str">
+        <v>3</v>
+      </c>
+      <c r="V52" s="53" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W50" s="76" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="59"/>
-      <c r="V52" s="53"/>
       <c r="W52" s="76"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="52" t="s">
-        <v>375</v>
+      <c r="B53" s="106" t="s">
+        <v>771</v>
       </c>
       <c r="D53" s="54">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="54">
         <v>5</v>
       </c>
-      <c r="G53" s="53" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H53" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G53" s="53"/>
+      <c r="H53" s="59"/>
       <c r="I53" s="60"/>
-      <c r="J53" s="53" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K53" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J53" s="53"/>
+      <c r="K53" s="59"/>
       <c r="L53" s="60"/>
-      <c r="M53" s="53" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N53" s="59" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M53" s="53"/>
+      <c r="N53" s="59"/>
       <c r="O53" s="60"/>
-      <c r="P53" s="53" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q53" s="59" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="59"/>
       <c r="R53" s="60"/>
-      <c r="S53" s="53" t="str">
-        <f t="shared" si="20"/>
-        <v>第4章副本配置(2/2)</v>
-      </c>
-      <c r="T53" s="59">
-        <f t="shared" si="21"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="59"/>
+      <c r="V53" s="53"/>
+      <c r="W53" s="76"/>
+    </row>
+    <row r="54" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B54" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="54">
         <v>3</v>
-      </c>
-      <c r="V53" s="53" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W53" s="76"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="52" t="s">
-        <v>771</v>
-      </c>
-      <c r="D54" s="54">
-        <v>0.5</v>
       </c>
       <c r="E54" s="54">
         <v>5</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="59"/>
+      <c r="F54" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="53" t="str">
+        <f>IF($E54=1,$B54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H54" s="59" t="str">
+        <f>IF($E54=1,$D54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I54" s="60"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="59"/>
+      <c r="J54" s="53" t="str">
+        <f>IF($E54=2,$B54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K54" s="59" t="str">
+        <f>IF($E54=2,$D54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L54" s="60"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="59"/>
+      <c r="M54" s="53" t="str">
+        <f>IF($E54=3,$B54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N54" s="59" t="str">
+        <f>IF($E54=3,$D54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O54" s="60"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="59"/>
+      <c r="P54" s="53" t="str">
+        <f>IF($E54=4,$B54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q54" s="59" t="str">
+        <f>IF($E54=4,$D54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R54" s="60"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="59"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="76"/>
-    </row>
-    <row r="55" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B55" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="56"/>
+      <c r="S54" s="53" t="str">
+        <f>IF($E54=5,$B54," ")</f>
+        <v>自动战斗逻辑</v>
+      </c>
+      <c r="T54" s="59">
+        <f>IF($E54=5,$D54," ")</f>
+        <v>3</v>
+      </c>
+      <c r="V54" s="53" t="str">
+        <f>IF($E54=6,$B54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W54" s="76" t="str">
+        <f>IF($E54=6,$D54," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="52" t="s">
+        <v>376</v>
+      </c>
       <c r="D55" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="54">
         <v>5</v>
       </c>
-      <c r="F55" s="53" t="s">
-        <v>107</v>
-      </c>
       <c r="G55" s="53" t="str">
-        <f>IF($E55=1,$B55," ")</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H55" s="59" t="str">
-        <f>IF($E55=1,$D55," ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I55" s="60"/>
       <c r="J55" s="53" t="str">
-        <f>IF($E55=2,$B55," ")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K55" s="59" t="str">
-        <f>IF($E55=2,$D55," ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L55" s="60"/>
       <c r="M55" s="53" t="str">
-        <f>IF($E55=3,$B55," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N55" s="59" t="str">
-        <f>IF($E55=3,$D55," ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O55" s="60"/>
       <c r="P55" s="53" t="str">
-        <f>IF($E55=4,$B55," ")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q55" s="59" t="str">
-        <f>IF($E55=4,$D55," ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R55" s="60"/>
       <c r="S55" s="53" t="str">
-        <f>IF($E55=5,$B55," ")</f>
-        <v>自动战斗逻辑</v>
+        <f t="shared" si="20"/>
+        <v>第4章副本 - debug</v>
       </c>
       <c r="T55" s="59">
-        <f>IF($E55=5,$D55," ")</f>
-        <v>3</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="V55" s="53" t="str">
-        <f>IF($E55=6,$B55," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W55" s="76" t="str">
-        <f>IF($E55=6,$D55," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B56" s="52" t="s">
-        <v>376</v>
-      </c>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W55" s="76"/>
+    </row>
+    <row r="56" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C56" s="56"/>
       <c r="D56" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="54">
         <v>5</v>
       </c>
       <c r="G56" s="53" t="str">
-        <f t="shared" si="12"/>
+        <f>IF($E56=1,$B56," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H56" s="59" t="str">
-        <f t="shared" si="13"/>
+        <f>IF($E56=1,$D56," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I56" s="60"/>
       <c r="J56" s="53" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($E56=2,$B56," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K56" s="59" t="str">
-        <f t="shared" si="15"/>
+        <f>IF($E56=2,$D56," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L56" s="60"/>
       <c r="M56" s="53" t="str">
-        <f t="shared" si="16"/>
+        <f>IF($E56=3,$B56," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N56" s="59" t="str">
-        <f t="shared" si="17"/>
+        <f>IF($E56=3,$D56," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O56" s="60"/>
       <c r="P56" s="53" t="str">
-        <f t="shared" si="18"/>
+        <f>IF($E56=4,$B56," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q56" s="59" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($E56=4,$D56," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R56" s="60"/>
       <c r="S56" s="53" t="str">
-        <f t="shared" si="20"/>
-        <v>第4章副本 - debug</v>
+        <f>IF($E56=5,$B56," ")</f>
+        <v>村落场景，主UI （配置，验收，Debug)</v>
       </c>
       <c r="T56" s="59">
-        <f t="shared" si="21"/>
-        <v>2</v>
+        <f>IF($E56=5,$D56," ")</f>
+        <v>1</v>
       </c>
       <c r="V56" s="53" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W56" s="76"/>
-    </row>
-    <row r="57" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="C57" s="56"/>
+        <f>IF($E56=6,$B56," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W56" s="76" t="str">
+        <f>IF($E56=6,$D56," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="D57" s="54">
         <v>1</v>
       </c>
@@ -13449,7 +13490,7 @@
       <c r="R57" s="60"/>
       <c r="S57" s="53" t="str">
         <f>IF($E57=5,$B57," ")</f>
-        <v>村落场景，主UI （配置，验收，Debug)</v>
+        <v>自动战斗逻辑验收，debug</v>
       </c>
       <c r="T57" s="59">
         <f>IF($E57=5,$D57," ")</f>
@@ -13466,73 +13507,73 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="D58" s="54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E58" s="54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58" s="53" t="str">
-        <f>IF($E58=1,$B58," ")</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H58" s="59" t="str">
-        <f>IF($E58=1,$D58," ")</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I58" s="60"/>
       <c r="J58" s="53" t="str">
-        <f>IF($E58=2,$B58," ")</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K58" s="59" t="str">
-        <f>IF($E58=2,$D58," ")</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L58" s="60"/>
       <c r="M58" s="53" t="str">
-        <f>IF($E58=3,$B58," ")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N58" s="59" t="str">
-        <f>IF($E58=3,$D58," ")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O58" s="60"/>
       <c r="P58" s="53" t="str">
-        <f>IF($E58=4,$B58," ")</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q58" s="59" t="str">
-        <f>IF($E58=4,$D58," ")</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R58" s="60"/>
       <c r="S58" s="53" t="str">
-        <f>IF($E58=5,$B58," ")</f>
-        <v>自动战斗逻辑验收，debug</v>
-      </c>
-      <c r="T58" s="59">
-        <f>IF($E58=5,$D58," ")</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T58" s="59" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="V58" s="53" t="str">
-        <f>IF($E58=6,$B58," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W58" s="76" t="str">
-        <f>IF($E58=6,$D58," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>通天塔-金钱，经验副本配置</v>
+      </c>
+      <c r="W58" s="76">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="34" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D59" s="54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59" s="54">
         <v>6</v>
@@ -13583,184 +13624,151 @@
       </c>
       <c r="V59" s="53" t="str">
         <f t="shared" si="22"/>
-        <v>通天塔-金钱，经验副本配置</v>
+        <v>通天塔-金钱，经验副本配置-debug</v>
       </c>
       <c r="W59" s="76">
         <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
-        <v>226</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="52" t="s">
+        <v>767</v>
+      </c>
+      <c r="C60" s="56"/>
       <c r="D60" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="54">
+        <v>3</v>
+      </c>
+      <c r="G60" s="53"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="59"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="76"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B61" s="52" t="s">
+        <v>778</v>
+      </c>
+      <c r="G61" s="53" t="str">
+        <f t="shared" ref="G61" si="24">IF($E61=1,$B61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H61" s="59" t="str">
+        <f t="shared" ref="H61" si="25">IF($E61=1,$D61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I61" s="60"/>
+      <c r="J61" s="53" t="str">
+        <f t="shared" ref="J61" si="26">IF($E61=2,$B61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K61" s="59" t="str">
+        <f t="shared" ref="K61" si="27">IF($E61=2,$D61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L61" s="60"/>
+      <c r="M61" s="53" t="str">
+        <f t="shared" ref="M61" si="28">IF($E61=3,$B61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N61" s="59" t="str">
+        <f t="shared" ref="N61" si="29">IF($E61=3,$D61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O61" s="60"/>
+      <c r="P61" s="53" t="str">
+        <f t="shared" ref="P61" si="30">IF($E61=4,$B61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q61" s="59" t="str">
+        <f t="shared" ref="Q61" si="31">IF($E61=4,$D61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R61" s="60"/>
+      <c r="S61" s="53" t="str">
+        <f t="shared" ref="S61" si="32">IF($E61=5,$B61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T61" s="59" t="str">
+        <f t="shared" ref="T61" si="33">IF($E61=5,$D61," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="35">
+        <f>SUM(D34:D61)</f>
+        <v>36</v>
+      </c>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
+      <c r="H62" s="87">
+        <f>SUM(H34:H61)</f>
+        <v>3</v>
+      </c>
+      <c r="I62" s="38"/>
+      <c r="K62" s="87">
+        <f>SUM(K34:K61)</f>
+        <v>6.5</v>
+      </c>
+      <c r="L62" s="38"/>
+      <c r="N62" s="87">
+        <f>SUM(N34:N61)</f>
+        <v>3</v>
+      </c>
+      <c r="O62" s="38"/>
+      <c r="Q62" s="87">
+        <f>SUM(Q34:Q61)</f>
+        <v>5</v>
+      </c>
+      <c r="R62" s="38"/>
+      <c r="T62" s="87">
+        <f>SUM(T34:T61)</f>
+        <v>10</v>
+      </c>
+      <c r="W62" s="87">
+        <f>SUM(W34:W61)</f>
         <v>6</v>
       </c>
-      <c r="G60" s="53" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H60" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I60" s="60"/>
-      <c r="J60" s="53" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K60" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L60" s="60"/>
-      <c r="M60" s="53" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N60" s="59" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O60" s="60"/>
-      <c r="P60" s="53" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q60" s="59" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R60" s="60"/>
-      <c r="S60" s="53" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T60" s="59" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V60" s="53" t="str">
-        <f t="shared" si="22"/>
-        <v>通天塔-金钱，经验副本配置-debug</v>
-      </c>
-      <c r="W60" s="76">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G61" s="53"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="59"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="76"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G62" s="53" t="str">
-        <f t="shared" ref="G62" si="24">IF($E62=1,$B62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H62" s="59" t="str">
-        <f t="shared" ref="H62" si="25">IF($E62=1,$D62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I62" s="60"/>
-      <c r="J62" s="53" t="str">
-        <f t="shared" ref="J62" si="26">IF($E62=2,$B62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K62" s="59" t="str">
-        <f t="shared" ref="K62" si="27">IF($E62=2,$D62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L62" s="60"/>
-      <c r="M62" s="53" t="str">
-        <f t="shared" ref="M62" si="28">IF($E62=3,$B62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N62" s="59" t="str">
-        <f t="shared" ref="N62" si="29">IF($E62=3,$D62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O62" s="60"/>
-      <c r="P62" s="53" t="str">
-        <f t="shared" ref="P62" si="30">IF($E62=4,$B62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q62" s="59" t="str">
-        <f t="shared" ref="Q62" si="31">IF($E62=4,$D62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R62" s="60"/>
-      <c r="S62" s="53" t="str">
-        <f t="shared" ref="S62" si="32">IF($E62=5,$B62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T62" s="59" t="str">
-        <f t="shared" ref="T62" si="33">IF($E62=5,$D62," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="35">
-        <f>SUM(D34:D62)</f>
-        <v>36</v>
-      </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="36"/>
-      <c r="H63" s="87">
-        <f>SUM(H34:H62)</f>
-        <v>3</v>
-      </c>
-      <c r="I63" s="38"/>
-      <c r="K63" s="87">
-        <f>SUM(K34:K62)</f>
-        <v>6.5</v>
-      </c>
-      <c r="L63" s="38"/>
-      <c r="N63" s="87">
-        <f>SUM(N34:N62)</f>
-        <v>3</v>
-      </c>
-      <c r="O63" s="38"/>
-      <c r="Q63" s="87">
-        <f>SUM(Q34:Q62)</f>
-        <v>5</v>
-      </c>
-      <c r="R63" s="38"/>
-      <c r="T63" s="87">
-        <f>SUM(T34:T62)</f>
-        <v>10</v>
-      </c>
-      <c r="W63" s="87">
-        <f>SUM(W34:W62)</f>
-        <v>6</v>
-      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G63" s="53"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="60"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="5"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="G64" s="53"/>
       <c r="H64" s="59"/>
       <c r="I64" s="60"/>
@@ -13775,9 +13783,17 @@
       <c r="R64" s="60"/>
       <c r="S64" s="53"/>
       <c r="T64" s="59"/>
-      <c r="U64" s="5"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D65" s="54">
+        <v>8</v>
+      </c>
+      <c r="E65" s="54">
+        <v>7</v>
+      </c>
       <c r="G65" s="53"/>
       <c r="H65" s="59"/>
       <c r="I65" s="60"/>
@@ -13793,43 +13809,84 @@
       <c r="S65" s="53"/>
       <c r="T65" s="59"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B66" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D66" s="54">
-        <v>8</v>
+    <row r="66" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B66" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" s="57">
+        <v>4</v>
       </c>
       <c r="E66" s="54">
         <v>7</v>
       </c>
-      <c r="G66" s="53"/>
-      <c r="H66" s="59"/>
+      <c r="F66" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G66" s="53" t="str">
+        <f>IF($E66=1,$B66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H66" s="59" t="str">
+        <f>IF($E66=1,$D66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I66" s="60"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="59"/>
+      <c r="J66" s="53" t="str">
+        <f>IF($E66=2,$B66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K66" s="59" t="str">
+        <f>IF($E66=2,$D66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L66" s="60"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="59"/>
+      <c r="M66" s="53" t="str">
+        <f>IF($E66=3,$B66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N66" s="59" t="str">
+        <f>IF($E66=3,$D66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O66" s="60"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="59"/>
+      <c r="P66" s="53" t="str">
+        <f>IF($E66=4,$B66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q66" s="59" t="str">
+        <f>IF($E66=4,$D66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R66" s="60"/>
-      <c r="S66" s="53"/>
-      <c r="T66" s="59"/>
-    </row>
-    <row r="67" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B67" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="57">
-        <v>4</v>
+      <c r="S66" s="53" t="str">
+        <f>IF($E66=5,$B66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T66" s="59" t="str">
+        <f>IF($E66=5,$D66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V66" s="53" t="str">
+        <f>IF($E66=6,$B66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W66" s="76" t="str">
+        <f>IF($E66=6,$D66," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="54">
+        <v>6</v>
       </c>
       <c r="E67" s="54">
         <v>7</v>
       </c>
       <c r="F67" s="53" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="G67" s="53" t="str">
         <f>IF($E67=1,$B67," ")</f>
@@ -13875,18 +13932,10 @@
         <f>IF($E67=5,$D67," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V67" s="53" t="str">
-        <f>IF($E67=6,$B67," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W67" s="76" t="str">
-        <f>IF($E67=6,$D67," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D68" s="54">
         <v>6</v>
@@ -13943,17 +13992,16 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C69" s="56"/>
       <c r="D69" s="54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E69" s="54">
         <v>7</v>
-      </c>
-      <c r="F69" s="53" t="s">
-        <v>381</v>
       </c>
       <c r="G69" s="53" t="str">
         <f>IF($E69=1,$B69," ")</f>
@@ -13999,71 +14047,37 @@
         <f>IF($E69=5,$D69," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="V69" s="53" t="str">
+        <f>IF($E69=6,$B69," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W69" s="76" t="str">
+        <f>IF($E69=6,$D69," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
-        <v>105</v>
+        <v>779</v>
       </c>
       <c r="C70" s="56"/>
-      <c r="D70" s="54">
-        <v>1</v>
-      </c>
-      <c r="E70" s="54">
-        <v>7</v>
-      </c>
-      <c r="G70" s="53" t="str">
-        <f>IF($E70=1,$B70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H70" s="59" t="str">
-        <f>IF($E70=1,$D70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G70" s="53"/>
+      <c r="H70" s="59"/>
       <c r="I70" s="60"/>
-      <c r="J70" s="53" t="str">
-        <f>IF($E70=2,$B70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K70" s="59" t="str">
-        <f>IF($E70=2,$D70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J70" s="53"/>
+      <c r="K70" s="59"/>
       <c r="L70" s="60"/>
-      <c r="M70" s="53" t="str">
-        <f>IF($E70=3,$B70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N70" s="59" t="str">
-        <f>IF($E70=3,$D70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M70" s="53"/>
+      <c r="N70" s="59"/>
       <c r="O70" s="60"/>
-      <c r="P70" s="53" t="str">
-        <f>IF($E70=4,$B70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q70" s="59" t="str">
-        <f>IF($E70=4,$D70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="59"/>
       <c r="R70" s="60"/>
-      <c r="S70" s="53" t="str">
-        <f>IF($E70=5,$B70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T70" s="59" t="str">
-        <f>IF($E70=5,$D70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V70" s="53" t="str">
-        <f>IF($E70=6,$B70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W70" s="76" t="str">
-        <f>IF($E70=6,$D70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S70" s="53"/>
+      <c r="T70" s="59"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="76"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
@@ -14092,7 +14106,7 @@
       </c>
       <c r="C72" s="56"/>
       <c r="D72" s="35">
-        <f>SUM(D66:D71)</f>
+        <f>SUM(D65:D70)</f>
         <v>25</v>
       </c>
       <c r="G72" s="53"/>
@@ -15960,77 +15974,34 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="52" t="s">
-        <v>115</v>
+      <c r="B111" s="61" t="s">
+        <v>776</v>
       </c>
       <c r="C111" s="52"/>
-      <c r="D111" s="61">
-        <v>3</v>
-      </c>
-      <c r="E111" s="54">
-        <v>7</v>
-      </c>
-      <c r="G111" s="53" t="str">
-        <f>IF($E111=1,$B111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H111" s="59" t="str">
-        <f>IF($E111=1,$D111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="D111" s="61"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="59"/>
       <c r="I111" s="60"/>
-      <c r="J111" s="53" t="str">
-        <f>IF($E111=2,$B111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K111" s="59" t="str">
-        <f>IF($E111=2,$D111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J111" s="53"/>
+      <c r="K111" s="59"/>
       <c r="L111" s="60"/>
-      <c r="M111" s="53" t="str">
-        <f>IF($E111=3,$B111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N111" s="59" t="str">
-        <f>IF($E111=3,$D111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M111" s="53"/>
+      <c r="N111" s="59"/>
       <c r="O111" s="60"/>
-      <c r="P111" s="53" t="str">
-        <f>IF($E111=4,$B111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q111" s="59" t="str">
-        <f>IF($E111=4,$D111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P111" s="53"/>
+      <c r="Q111" s="59"/>
       <c r="R111" s="60"/>
-      <c r="S111" s="53" t="str">
-        <f>IF($E111=5,$B111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T111" s="59" t="str">
-        <f>IF($E111=5,$D111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V111" s="53" t="str">
-        <f>IF($E111=6,$B111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W111" s="76" t="str">
-        <f>IF($E111=6,$D111," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S111" s="53"/>
+      <c r="T111" s="59"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="B112" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="C112" s="56"/>
-      <c r="D112" s="54">
-        <v>2</v>
+      <c r="B112" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="52"/>
+      <c r="D112" s="61">
+        <v>3</v>
       </c>
       <c r="E112" s="54">
         <v>7</v>
@@ -16079,14 +16050,23 @@
         <f>IF($E112=5,$D112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="V112" s="53" t="str">
+        <f>IF($E112=6,$B112," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W112" s="76" t="str">
+        <f>IF($E112=6,$D112," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="56" t="s">
-        <v>236</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C113" s="56"/>
       <c r="D113" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" s="54">
         <v>7</v>
@@ -16139,37 +16119,74 @@
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="C114" s="56"/>
+        <v>236</v>
+      </c>
       <c r="D114" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114" s="54">
         <v>7</v>
       </c>
-      <c r="F114" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="G114" s="53"/>
-      <c r="H114" s="59"/>
+      <c r="G114" s="53" t="str">
+        <f>IF($E114=1,$B114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H114" s="59" t="str">
+        <f>IF($E114=1,$D114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I114" s="60"/>
-      <c r="J114" s="53"/>
-      <c r="K114" s="59"/>
+      <c r="J114" s="53" t="str">
+        <f>IF($E114=2,$B114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K114" s="59" t="str">
+        <f>IF($E114=2,$D114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L114" s="60"/>
-      <c r="M114" s="53"/>
-      <c r="N114" s="59"/>
+      <c r="M114" s="53" t="str">
+        <f>IF($E114=3,$B114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N114" s="59" t="str">
+        <f>IF($E114=3,$D114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O114" s="60"/>
-      <c r="P114" s="53"/>
-      <c r="Q114" s="59"/>
+      <c r="P114" s="53" t="str">
+        <f>IF($E114=4,$B114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q114" s="59" t="str">
+        <f>IF($E114=4,$D114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R114" s="60"/>
-      <c r="S114" s="53"/>
-      <c r="T114" s="59"/>
+      <c r="S114" s="53" t="str">
+        <f>IF($E114=5,$B114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T114" s="59" t="str">
+        <f>IF($E114=5,$D114," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
-      <c r="B115" s="56"/>
+      <c r="B115" s="56" t="s">
+        <v>240</v>
+      </c>
       <c r="C115" s="56"/>
+      <c r="D115" s="54">
+        <v>2</v>
+      </c>
+      <c r="E115" s="54">
+        <v>7</v>
+      </c>
+      <c r="F115" s="53" t="s">
+        <v>388</v>
+      </c>
       <c r="G115" s="53"/>
       <c r="H115" s="59"/>
       <c r="I115" s="60"/>
@@ -16187,19 +16204,8 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="56" t="s">
-        <v>389</v>
-      </c>
+      <c r="B116" s="56"/>
       <c r="C116" s="56"/>
-      <c r="D116" s="54">
-        <v>2</v>
-      </c>
-      <c r="E116" s="54">
-        <v>7</v>
-      </c>
-      <c r="F116" s="53" t="s">
-        <v>390</v>
-      </c>
       <c r="G116" s="53"/>
       <c r="H116" s="59"/>
       <c r="I116" s="60"/>
@@ -16217,8 +16223,19 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
-      <c r="B117" s="56"/>
+      <c r="B117" s="56" t="s">
+        <v>389</v>
+      </c>
       <c r="C117" s="56"/>
+      <c r="D117" s="54">
+        <v>2</v>
+      </c>
+      <c r="E117" s="54">
+        <v>7</v>
+      </c>
+      <c r="F117" s="53" t="s">
+        <v>390</v>
+      </c>
       <c r="G117" s="53"/>
       <c r="H117" s="59"/>
       <c r="I117" s="60"/>
@@ -16236,16 +16253,8 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
-      <c r="B118" s="56" t="s">
-        <v>423</v>
-      </c>
+      <c r="B118" s="56"/>
       <c r="C118" s="56"/>
-      <c r="D118" s="54">
-        <v>1</v>
-      </c>
-      <c r="E118" s="54">
-        <v>7</v>
-      </c>
       <c r="G118" s="53"/>
       <c r="H118" s="59"/>
       <c r="I118" s="60"/>
@@ -16261,74 +16270,46 @@
       <c r="S118" s="53"/>
       <c r="T118" s="59"/>
     </row>
-    <row r="119" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
-      <c r="B119" s="52" t="s">
-        <v>391</v>
-      </c>
+      <c r="B119" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C119" s="56"/>
       <c r="D119" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" s="54">
         <v>7</v>
       </c>
-      <c r="F119" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="G119" s="53" t="str">
-        <f>IF($E119=1,$B119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H119" s="59" t="str">
-        <f>IF($E119=1,$D119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G119" s="53"/>
+      <c r="H119" s="59"/>
       <c r="I119" s="60"/>
-      <c r="J119" s="53" t="str">
-        <f>IF($E119=2,$B119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K119" s="59" t="str">
-        <f>IF($E119=2,$D119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J119" s="53"/>
+      <c r="K119" s="59"/>
       <c r="L119" s="60"/>
-      <c r="M119" s="53" t="str">
-        <f>IF($E119=3,$B119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N119" s="59" t="str">
-        <f>IF($E119=3,$D119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M119" s="53"/>
+      <c r="N119" s="59"/>
       <c r="O119" s="60"/>
-      <c r="P119" s="53" t="str">
-        <f>IF($E119=4,$B119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q119" s="59" t="str">
-        <f>IF($E119=4,$D119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P119" s="53"/>
+      <c r="Q119" s="59"/>
       <c r="R119" s="60"/>
-      <c r="S119" s="53" t="str">
-        <f>IF($E119=5,$B119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T119" s="59" t="str">
-        <f>IF($E119=5,$D119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S119" s="53"/>
+      <c r="T119" s="59"/>
+    </row>
+    <row r="120" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
       <c r="B120" s="52" t="s">
-        <v>202</v>
+        <v>391</v>
       </c>
       <c r="D120" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120" s="54">
         <v>7</v>
+      </c>
+      <c r="F120" s="53" t="s">
+        <v>392</v>
       </c>
       <c r="G120" s="53" t="str">
         <f>IF($E120=1,$B120," ")</f>
@@ -16377,7 +16358,7 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="D121" s="54">
         <v>1</v>
@@ -16432,31 +16413,69 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B122" s="52" t="s">
-        <v>725</v>
+        <v>237</v>
       </c>
       <c r="D122" s="54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E122" s="54">
         <v>7</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="59"/>
+      <c r="G122" s="53" t="str">
+        <f>IF($E122=1,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H122" s="59" t="str">
+        <f>IF($E122=1,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I122" s="60"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="59"/>
+      <c r="J122" s="53" t="str">
+        <f>IF($E122=2,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K122" s="59" t="str">
+        <f>IF($E122=2,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L122" s="60"/>
-      <c r="M122" s="53"/>
-      <c r="N122" s="59"/>
+      <c r="M122" s="53" t="str">
+        <f>IF($E122=3,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N122" s="59" t="str">
+        <f>IF($E122=3,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O122" s="60"/>
-      <c r="P122" s="53"/>
-      <c r="Q122" s="59"/>
+      <c r="P122" s="53" t="str">
+        <f>IF($E122=4,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q122" s="59" t="str">
+        <f>IF($E122=4,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R122" s="60"/>
-      <c r="S122" s="53"/>
-      <c r="T122" s="59"/>
+      <c r="S122" s="53" t="str">
+        <f>IF($E122=5,$B122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T122" s="59" t="str">
+        <f>IF($E122=5,$D122," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B123" s="52"/>
+      <c r="B123" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="D123" s="54">
+        <v>5</v>
+      </c>
+      <c r="E123" s="54">
+        <v>7</v>
+      </c>
       <c r="G123" s="53"/>
       <c r="H123" s="59"/>
       <c r="I123" s="60"/>
@@ -16473,13 +16492,7 @@
       <c r="T123" s="59"/>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B124" s="88" t="s">
-        <v>382</v>
-      </c>
-      <c r="D124" s="35">
-        <f>SUM(D111:D122)</f>
-        <v>20</v>
-      </c>
+      <c r="B124" s="52"/>
       <c r="G124" s="53"/>
       <c r="H124" s="59"/>
       <c r="I124" s="60"/>
@@ -16496,7 +16509,13 @@
       <c r="T124" s="59"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B125" s="52"/>
+      <c r="B125" s="88" t="s">
+        <v>382</v>
+      </c>
+      <c r="D125" s="35">
+        <f>SUM(D112:D123)</f>
+        <v>20</v>
+      </c>
       <c r="G125" s="53"/>
       <c r="H125" s="59"/>
       <c r="I125" s="60"/>
@@ -16512,282 +16531,231 @@
       <c r="S125" s="53"/>
       <c r="T125" s="59"/>
     </row>
-    <row r="126" spans="1:21" ht="34" x14ac:dyDescent="0.25">
-      <c r="B126" s="56" t="s">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B126" s="52"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="60"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="59"/>
+      <c r="L126" s="60"/>
+      <c r="M126" s="53"/>
+      <c r="N126" s="59"/>
+      <c r="O126" s="60"/>
+      <c r="P126" s="53"/>
+      <c r="Q126" s="59"/>
+      <c r="R126" s="60"/>
+      <c r="S126" s="53"/>
+      <c r="T126" s="59"/>
+    </row>
+    <row r="127" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="B127" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="56"/>
-      <c r="D126" s="54">
+      <c r="C127" s="56"/>
+      <c r="D127" s="54">
         <v>3</v>
-      </c>
-      <c r="E126" s="54">
-        <v>7</v>
-      </c>
-      <c r="F126" s="53" t="s">
-        <v>393</v>
-      </c>
-      <c r="G126" s="53" t="str">
-        <f>IF($E126=1,$B126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H126" s="59" t="str">
-        <f>IF($E126=1,$D126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I126" s="60"/>
-      <c r="J126" s="53" t="str">
-        <f>IF($E126=2,$B126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K126" s="59" t="str">
-        <f>IF($E126=2,$D126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L126" s="60"/>
-      <c r="M126" s="53" t="str">
-        <f>IF($E126=3,$B126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N126" s="59" t="str">
-        <f>IF($E126=3,$D126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O126" s="60"/>
-      <c r="P126" s="53" t="str">
-        <f>IF($E126=4,$B126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q126" s="59" t="str">
-        <f>IF($E126=4,$D126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R126" s="60"/>
-      <c r="S126" s="53" t="str">
-        <f>IF($E126=5,$B126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T126" s="59" t="str">
-        <f>IF($E126=5,$D126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U126" s="5"/>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B127" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D127" s="54">
-        <v>1</v>
       </c>
       <c r="E127" s="54">
         <v>7</v>
       </c>
+      <c r="F127" s="53" t="s">
+        <v>393</v>
+      </c>
       <c r="G127" s="53" t="str">
-        <f t="shared" ref="G127" si="47">IF($E127=1,$B127," ")</f>
+        <f>IF($E127=1,$B127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H127" s="59" t="str">
-        <f t="shared" ref="H127" si="48">IF($E127=1,$D127," ")</f>
+        <f>IF($E127=1,$D127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I127" s="60"/>
       <c r="J127" s="53" t="str">
-        <f t="shared" ref="J127" si="49">IF($E127=2,$B127," ")</f>
+        <f>IF($E127=2,$B127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K127" s="59" t="str">
-        <f t="shared" ref="K127" si="50">IF($E127=2,$D127," ")</f>
+        <f>IF($E127=2,$D127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L127" s="60"/>
       <c r="M127" s="53" t="str">
-        <f t="shared" ref="M127" si="51">IF($E127=3,$B127," ")</f>
+        <f>IF($E127=3,$B127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N127" s="59" t="str">
-        <f t="shared" ref="N127" si="52">IF($E127=3,$D127," ")</f>
+        <f>IF($E127=3,$D127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O127" s="60"/>
       <c r="P127" s="53" t="str">
-        <f t="shared" ref="P127" si="53">IF($E127=4,$B127," ")</f>
+        <f>IF($E127=4,$B127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q127" s="59" t="str">
-        <f t="shared" ref="Q127" si="54">IF($E127=4,$D127," ")</f>
+        <f>IF($E127=4,$D127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R127" s="60"/>
       <c r="S127" s="53" t="str">
-        <f t="shared" ref="S127" si="55">IF($E127=5,$B127," ")</f>
+        <f>IF($E127=5,$B127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T127" s="59" t="str">
-        <f t="shared" ref="T127" si="56">IF($E127=5,$D127," ")</f>
+        <f>IF($E127=5,$D127," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U127" s="5"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B129" s="56"/>
-      <c r="C129" s="56"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="59"/>
-      <c r="I129" s="60"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="59"/>
-      <c r="L129" s="60"/>
-      <c r="M129" s="53"/>
-      <c r="N129" s="59"/>
-      <c r="O129" s="60"/>
-      <c r="P129" s="53"/>
-      <c r="Q129" s="59"/>
-      <c r="R129" s="60"/>
-      <c r="S129" s="53"/>
-      <c r="T129" s="59"/>
-      <c r="U129" s="5"/>
-    </row>
-    <row r="130" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="66"/>
-      <c r="H130" s="68"/>
-      <c r="I130" s="69"/>
-      <c r="J130" s="71"/>
-      <c r="L130" s="69"/>
-      <c r="O130" s="69"/>
-      <c r="R130" s="69"/>
-      <c r="U130" s="69"/>
-      <c r="W130" s="68"/>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A131" s="34" t="s">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D128" s="54">
+        <v>1</v>
+      </c>
+      <c r="E128" s="54">
+        <v>7</v>
+      </c>
+      <c r="G128" s="53" t="str">
+        <f t="shared" ref="G128" si="47">IF($E128=1,$B128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H128" s="59" t="str">
+        <f t="shared" ref="H128" si="48">IF($E128=1,$D128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I128" s="60"/>
+      <c r="J128" s="53" t="str">
+        <f t="shared" ref="J128" si="49">IF($E128=2,$B128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K128" s="59" t="str">
+        <f t="shared" ref="K128" si="50">IF($E128=2,$D128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L128" s="60"/>
+      <c r="M128" s="53" t="str">
+        <f t="shared" ref="M128" si="51">IF($E128=3,$B128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N128" s="59" t="str">
+        <f t="shared" ref="N128" si="52">IF($E128=3,$D128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O128" s="60"/>
+      <c r="P128" s="53" t="str">
+        <f t="shared" ref="P128" si="53">IF($E128=4,$B128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q128" s="59" t="str">
+        <f t="shared" ref="Q128" si="54">IF($E128=4,$D128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R128" s="60"/>
+      <c r="S128" s="53" t="str">
+        <f t="shared" ref="S128" si="55">IF($E128=5,$B128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T128" s="59" t="str">
+        <f t="shared" ref="T128" si="56">IF($E128=5,$D128," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U128" s="5"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B130" s="56"/>
+      <c r="C130" s="56"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="59"/>
+      <c r="I130" s="60"/>
+      <c r="J130" s="53"/>
+      <c r="K130" s="59"/>
+      <c r="L130" s="60"/>
+      <c r="M130" s="53"/>
+      <c r="N130" s="59"/>
+      <c r="O130" s="60"/>
+      <c r="P130" s="53"/>
+      <c r="Q130" s="59"/>
+      <c r="R130" s="60"/>
+      <c r="S130" s="53"/>
+      <c r="T130" s="59"/>
+      <c r="U130" s="5"/>
+    </row>
+    <row r="131" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="39"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="66"/>
+      <c r="H131" s="68"/>
+      <c r="I131" s="69"/>
+      <c r="J131" s="71"/>
+      <c r="L131" s="69"/>
+      <c r="O131" s="69"/>
+      <c r="R131" s="69"/>
+      <c r="U131" s="69"/>
+      <c r="W131" s="68"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A132" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B131" s="72"/>
-      <c r="C131" s="72"/>
-      <c r="D131" s="58"/>
-      <c r="F131" s="53" t="str">
-        <f t="shared" ref="F131:G156" si="57">IF($E131=1,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G131" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H131" s="59" t="str">
-        <f t="shared" ref="H131:H161" si="58">IF($E131=1,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I131" s="60"/>
-      <c r="J131" s="53" t="str">
-        <f t="shared" ref="J131:J161" si="59">IF($E131=2,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K131" s="59" t="str">
-        <f t="shared" ref="K131:K161" si="60">IF($E131=2,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L131" s="60"/>
-      <c r="M131" s="53" t="str">
-        <f t="shared" ref="M131:M161" si="61">IF($E131=3,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N131" s="59" t="str">
-        <f t="shared" ref="N131:N161" si="62">IF($E131=3,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O131" s="60"/>
-      <c r="P131" s="53" t="str">
-        <f t="shared" ref="P131:P161" si="63">IF($E131=4,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q131" s="59" t="str">
-        <f t="shared" ref="Q131:Q161" si="64">IF($E131=4,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R131" s="60"/>
-      <c r="S131" s="53" t="str">
-        <f t="shared" ref="S131:S161" si="65">IF($E131=5,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T131" s="59" t="str">
-        <f t="shared" ref="T131:T161" si="66">IF($E131=5,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B132" s="106" t="s">
-        <v>229</v>
-      </c>
+      <c r="B132" s="72"/>
       <c r="C132" s="72"/>
-      <c r="D132" s="78">
-        <v>1</v>
-      </c>
-      <c r="E132" s="54">
-        <v>1</v>
-      </c>
+      <c r="D132" s="58"/>
       <c r="F132" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v>前2天内容调整-测试版本配置，debug</v>
+        <f t="shared" ref="F132:G159" si="57">IF($E132=1,$B132," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G132" s="53" t="str">
         <f t="shared" si="57"/>
-        <v>前2天内容调整-测试版本配置，debug</v>
-      </c>
-      <c r="H132" s="59">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H132" s="59" t="str">
+        <f t="shared" ref="H132:H164" si="58">IF($E132=1,$D132," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I132" s="60"/>
       <c r="J132" s="53" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="J132:J164" si="59">IF($E132=2,$B132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K132" s="59" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="K132:K164" si="60">IF($E132=2,$D132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L132" s="60"/>
       <c r="M132" s="53" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="M132:M164" si="61">IF($E132=3,$B132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N132" s="59" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="N132:N164" si="62">IF($E132=3,$D132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O132" s="60"/>
       <c r="P132" s="53" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="P132:P164" si="63">IF($E132=4,$B132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q132" s="59" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="Q132:Q164" si="64">IF($E132=4,$D132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R132" s="60"/>
       <c r="S132" s="53" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="S132:S164" si="65">IF($E132=5,$B132," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T132" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V132" s="53" t="str">
-        <f t="shared" ref="V132:V161" si="67">IF($E132=6,$B132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W132" s="76" t="str">
-        <f t="shared" ref="W132:W161" si="68">IF($E132=6,$D132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B133" s="107" t="s">
-        <v>702</v>
+        <f t="shared" ref="T132:T164" si="66">IF($E132=5,$D132," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B133" s="106" t="s">
+        <v>229</v>
       </c>
       <c r="C133" s="72"/>
       <c r="D133" s="78">
@@ -16796,12 +16764,13 @@
       <c r="E133" s="54">
         <v>1</v>
       </c>
-      <c r="F133" s="53" t="s">
-        <v>703</v>
+      <c r="F133" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v>前2天内容调整-测试版本配置，debug</v>
       </c>
       <c r="G133" s="53" t="str">
         <f t="shared" si="57"/>
-        <v>AOE特效具体需求</v>
+        <v>前2天内容调整-测试版本配置，debug</v>
       </c>
       <c r="H133" s="59">
         <f t="shared" si="58"/>
@@ -16844,17 +16813,17 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="V133" s="53" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="V133:V164" si="67">IF($E133=6,$B133," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W133" s="76" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="W133:W164" si="68">IF($E133=6,$D133," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B134" s="107" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C134" s="72"/>
       <c r="D134" s="78">
@@ -16863,98 +16832,108 @@
       <c r="E134" s="54">
         <v>1</v>
       </c>
-      <c r="G134" s="53"/>
-      <c r="H134" s="59"/>
+      <c r="F134" s="53" t="s">
+        <v>703</v>
+      </c>
+      <c r="G134" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v>AOE特效具体需求</v>
+      </c>
+      <c r="H134" s="59">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
       <c r="I134" s="60"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="59"/>
+      <c r="J134" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K134" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L134" s="60"/>
-      <c r="M134" s="53"/>
-      <c r="N134" s="59"/>
+      <c r="M134" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N134" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O134" s="60"/>
-      <c r="P134" s="53"/>
-      <c r="Q134" s="59"/>
+      <c r="P134" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q134" s="59" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R134" s="60"/>
-      <c r="S134" s="53"/>
-      <c r="T134" s="59"/>
-      <c r="V134" s="53"/>
-      <c r="W134" s="76"/>
+      <c r="S134" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T134" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V134" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W134" s="76" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B135" s="106" t="s">
-        <v>250</v>
-      </c>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73">
+      <c r="B135" s="107" t="s">
+        <v>704</v>
+      </c>
+      <c r="C135" s="72"/>
+      <c r="D135" s="78">
         <v>1</v>
       </c>
       <c r="E135" s="54">
         <v>1</v>
       </c>
-      <c r="G135" s="53" t="str">
+      <c r="G135" s="53"/>
+      <c r="H135" s="59"/>
+      <c r="I135" s="60"/>
+      <c r="J135" s="53"/>
+      <c r="K135" s="59"/>
+      <c r="L135" s="60"/>
+      <c r="M135" s="53"/>
+      <c r="N135" s="59"/>
+      <c r="O135" s="60"/>
+      <c r="P135" s="53"/>
+      <c r="Q135" s="59"/>
+      <c r="R135" s="60"/>
+      <c r="S135" s="53"/>
+      <c r="T135" s="59"/>
+      <c r="V135" s="53"/>
+      <c r="W135" s="76"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B136" s="106" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="73"/>
+      <c r="D136" s="73">
+        <v>1</v>
+      </c>
+      <c r="E136" s="54">
+        <v>1</v>
+      </c>
+      <c r="G136" s="53" t="str">
         <f t="shared" si="57"/>
         <v>通天塔场景， 金钱经验试炼场景需求</v>
       </c>
-      <c r="H135" s="59">
+      <c r="H136" s="59">
         <f t="shared" si="58"/>
         <v>1</v>
-      </c>
-      <c r="I135" s="60"/>
-      <c r="J135" s="53" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K135" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L135" s="60"/>
-      <c r="M135" s="53" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N135" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O135" s="60"/>
-      <c r="P135" s="53" t="str">
-        <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q135" s="59" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R135" s="60"/>
-      <c r="S135" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T135" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V135" s="53" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W135" s="76" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B136" s="52"/>
-      <c r="C136" s="73"/>
-      <c r="D136" s="73"/>
-      <c r="G136" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H136" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
       </c>
       <c r="I136" s="60"/>
       <c r="J136" s="53" t="str">
@@ -17001,21 +16980,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="137" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="34"/>
-      <c r="B137" s="106" t="s">
-        <v>73</v>
-      </c>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B137" s="52"/>
       <c r="C137" s="73"/>
-      <c r="D137" s="73">
-        <v>1</v>
-      </c>
-      <c r="E137" s="54">
-        <v>2</v>
-      </c>
-      <c r="F137" s="53" t="s">
-        <v>394</v>
-      </c>
+      <c r="D137" s="73"/>
       <c r="G137" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17027,11 +16995,11 @@
       <c r="I137" s="60"/>
       <c r="J137" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>第三四章副本设计</v>
-      </c>
-      <c r="K137" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K137" s="59" t="str">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L137" s="60"/>
       <c r="M137" s="53" t="str">
@@ -17069,19 +17037,20 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B138" s="107" t="s">
-        <v>242</v>
-      </c>
-      <c r="C138" s="72"/>
-      <c r="D138" s="58">
+    <row r="138" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="34"/>
+      <c r="B138" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" s="73"/>
+      <c r="D138" s="73">
         <v>1</v>
       </c>
       <c r="E138" s="54">
         <v>2</v>
       </c>
       <c r="F138" s="53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G138" s="53" t="str">
         <f t="shared" si="57"/>
@@ -17094,7 +17063,7 @@
       <c r="I138" s="60"/>
       <c r="J138" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>技能升级逻辑和界面需求</v>
+        <v>第三四章副本设计</v>
       </c>
       <c r="K138" s="59">
         <f t="shared" si="60"/>
@@ -17137,15 +17106,18 @@
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B139" s="106" t="s">
-        <v>223</v>
-      </c>
-      <c r="C139" s="73"/>
-      <c r="D139" s="73">
-        <v>3</v>
+      <c r="B139" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C139" s="72"/>
+      <c r="D139" s="58">
+        <v>1</v>
       </c>
       <c r="E139" s="54">
         <v>2</v>
+      </c>
+      <c r="F139" s="53" t="s">
+        <v>395</v>
       </c>
       <c r="G139" s="53" t="str">
         <f t="shared" si="57"/>
@@ -17158,11 +17130,11 @@
       <c r="I139" s="60"/>
       <c r="J139" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>第3章副本配置</v>
+        <v>技能升级逻辑和界面需求</v>
       </c>
       <c r="K139" s="59">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L139" s="60"/>
       <c r="M139" s="53" t="str">
@@ -17200,19 +17172,16 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B140" s="106" t="s">
-        <v>396</v>
+        <v>223</v>
       </c>
       <c r="C140" s="73"/>
       <c r="D140" s="73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E140" s="54">
         <v>2</v>
-      </c>
-      <c r="F140" s="53" t="s">
-        <v>685</v>
       </c>
       <c r="G140" s="53" t="str">
         <f t="shared" si="57"/>
@@ -17225,11 +17194,11 @@
       <c r="I140" s="60"/>
       <c r="J140" s="53" t="str">
         <f t="shared" si="59"/>
-        <v>总体怪投放修改</v>
+        <v>第3章副本配置</v>
       </c>
       <c r="K140" s="59">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L140" s="60"/>
       <c r="M140" s="53" t="str">
@@ -17267,10 +17236,20 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B141" s="52"/>
+    <row r="141" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B141" s="106" t="s">
+        <v>396</v>
+      </c>
       <c r="C141" s="73"/>
-      <c r="D141" s="73"/>
+      <c r="D141" s="73">
+        <v>1</v>
+      </c>
+      <c r="E141" s="54">
+        <v>2</v>
+      </c>
+      <c r="F141" s="53" t="s">
+        <v>685</v>
+      </c>
       <c r="G141" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17282,11 +17261,11 @@
       <c r="I141" s="60"/>
       <c r="J141" s="53" t="str">
         <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K141" s="59" t="str">
+        <v>总体怪投放修改</v>
+      </c>
+      <c r="K141" s="59">
         <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="L141" s="60"/>
       <c r="M141" s="53" t="str">
@@ -17324,21 +17303,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="34"/>
-      <c r="B142" s="106" t="s">
-        <v>222</v>
-      </c>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B142" s="52"/>
       <c r="C142" s="73"/>
-      <c r="D142" s="73">
-        <v>2</v>
-      </c>
-      <c r="E142" s="54">
-        <v>3</v>
-      </c>
-      <c r="F142" s="53" t="s">
-        <v>120</v>
-      </c>
+      <c r="D142" s="73"/>
       <c r="G142" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17359,11 +17327,11 @@
       <c r="L142" s="60"/>
       <c r="M142" s="53" t="str">
         <f t="shared" si="61"/>
-        <v>第3章副本-debug</v>
-      </c>
-      <c r="N142" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N142" s="59" t="str">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O142" s="60"/>
       <c r="P142" s="53" t="str">
@@ -17395,16 +17363,18 @@
     <row r="143" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="34"/>
       <c r="B143" s="106" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C143" s="73"/>
       <c r="D143" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E143" s="54">
         <v>3</v>
       </c>
-      <c r="F143" s="53"/>
+      <c r="F143" s="53" t="s">
+        <v>120</v>
+      </c>
       <c r="G143" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17425,11 +17395,11 @@
       <c r="L143" s="60"/>
       <c r="M143" s="53" t="str">
         <f t="shared" si="61"/>
-        <v>第4章副本配置</v>
+        <v>第3章副本-debug</v>
       </c>
       <c r="N143" s="59">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O143" s="60"/>
       <c r="P143" s="53" t="str">
@@ -17460,10 +17430,16 @@
     </row>
     <row r="144" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="34"/>
-      <c r="B144" s="5"/>
+      <c r="B144" s="106" t="s">
+        <v>224</v>
+      </c>
       <c r="C144" s="73"/>
-      <c r="D144" s="73"/>
-      <c r="E144" s="54"/>
+      <c r="D144" s="73">
+        <v>3</v>
+      </c>
+      <c r="E144" s="54">
+        <v>3</v>
+      </c>
       <c r="F144" s="53"/>
       <c r="G144" s="53" t="str">
         <f t="shared" si="57"/>
@@ -17485,11 +17461,11 @@
       <c r="L144" s="60"/>
       <c r="M144" s="53" t="str">
         <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N144" s="59" t="str">
+        <v>第4章副本配置</v>
+      </c>
+      <c r="N144" s="59">
         <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="O144" s="60"/>
       <c r="P144" s="53" t="str">
@@ -17520,113 +17496,106 @@
     </row>
     <row r="145" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="34"/>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="5"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="73"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H145" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I145" s="60"/>
+      <c r="J145" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K145" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L145" s="60"/>
+      <c r="M145" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N145" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O145" s="60"/>
+      <c r="P145" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q145" s="59" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R145" s="60"/>
+      <c r="S145" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T145" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V145" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W145" s="76" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="34"/>
+      <c r="B146" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C145" s="73"/>
-      <c r="D145" s="73">
+      <c r="C146" s="73"/>
+      <c r="D146" s="73">
         <v>1</v>
       </c>
-      <c r="E145" s="54">
+      <c r="E146" s="54">
         <v>4</v>
       </c>
-      <c r="F145" s="53"/>
-      <c r="G145" s="53"/>
-      <c r="H145" s="59"/>
-      <c r="I145" s="60"/>
-      <c r="J145" s="53"/>
-      <c r="K145" s="59"/>
-      <c r="L145" s="60"/>
-      <c r="M145" s="53"/>
-      <c r="N145" s="59"/>
-      <c r="O145" s="60"/>
-      <c r="P145" s="53"/>
-      <c r="Q145" s="59"/>
-      <c r="R145" s="60"/>
-      <c r="S145" s="53"/>
-      <c r="T145" s="59"/>
-      <c r="V145" s="53"/>
-      <c r="W145" s="76"/>
-    </row>
-    <row r="146" spans="1:23" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A146" s="36"/>
-      <c r="B146" s="106" t="s">
+      <c r="F146" s="53"/>
+      <c r="G146" s="53"/>
+      <c r="H146" s="59"/>
+      <c r="I146" s="60"/>
+      <c r="J146" s="53"/>
+      <c r="K146" s="59"/>
+      <c r="L146" s="60"/>
+      <c r="M146" s="53"/>
+      <c r="N146" s="59"/>
+      <c r="O146" s="60"/>
+      <c r="P146" s="53"/>
+      <c r="Q146" s="59"/>
+      <c r="R146" s="60"/>
+      <c r="S146" s="53"/>
+      <c r="T146" s="59"/>
+      <c r="V146" s="53"/>
+      <c r="W146" s="76"/>
+    </row>
+    <row r="147" spans="1:23" s="53" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A147" s="36"/>
+      <c r="B147" s="106" t="s">
         <v>397</v>
       </c>
-      <c r="C146" s="74"/>
-      <c r="D146" s="75">
+      <c r="C147" s="74"/>
+      <c r="D147" s="75">
         <v>4</v>
       </c>
-      <c r="E146" s="33">
+      <c r="E147" s="33">
         <v>4</v>
       </c>
-      <c r="G146" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H146" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I146" s="60"/>
-      <c r="J146" s="53" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K146" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L146" s="60"/>
-      <c r="M146" s="53" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N146" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O146" s="60"/>
-      <c r="P146" s="53" t="str">
-        <f t="shared" si="63"/>
-        <v>通天塔-试炼之塔 - Boss副本设计（4Boss,16普通）</v>
-      </c>
-      <c r="Q146" s="59">
-        <f t="shared" si="64"/>
-        <v>4</v>
-      </c>
-      <c r="R146" s="60"/>
-      <c r="S146" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T146" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U146" s="9"/>
-      <c r="V146" s="53" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W146" s="76" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="34"/>
-      <c r="B147" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C147" s="73"/>
-      <c r="D147" s="73">
-        <v>2</v>
-      </c>
-      <c r="E147" s="54">
-        <v>4</v>
-      </c>
-      <c r="F147" s="53"/>
       <c r="G147" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17656,11 +17625,11 @@
       <c r="O147" s="60"/>
       <c r="P147" s="53" t="str">
         <f t="shared" si="63"/>
-        <v>第4章副本-debug</v>
+        <v>通天塔-试炼之塔 - Boss副本设计（4Boss,16普通）</v>
       </c>
       <c r="Q147" s="59">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R147" s="60"/>
       <c r="S147" s="53" t="str">
@@ -17671,6 +17640,7 @@
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="U147" s="9"/>
       <c r="V147" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
@@ -17682,34 +17652,83 @@
     </row>
     <row r="148" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="34"/>
-      <c r="B148" s="106" t="s">
+      <c r="B148" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C148" s="73"/>
+      <c r="D148" s="73">
+        <v>2</v>
+      </c>
+      <c r="E148" s="54">
+        <v>4</v>
+      </c>
+      <c r="F148" s="53"/>
+      <c r="G148" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H148" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I148" s="60"/>
+      <c r="J148" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K148" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L148" s="60"/>
+      <c r="M148" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N148" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O148" s="60"/>
+      <c r="P148" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v>第4章副本-debug</v>
+      </c>
+      <c r="Q148" s="59">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="R148" s="60"/>
+      <c r="S148" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T148" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V148" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W148" s="76" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="34"/>
+      <c r="B149" s="106" t="s">
         <v>768</v>
       </c>
-      <c r="C148" s="73"/>
-      <c r="D148" s="73"/>
-      <c r="E148" s="54"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="53"/>
-      <c r="H148" s="59"/>
-      <c r="I148" s="60"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="59"/>
-      <c r="L148" s="60"/>
-      <c r="M148" s="53"/>
-      <c r="N148" s="59"/>
-      <c r="O148" s="60"/>
-      <c r="P148" s="53"/>
-      <c r="Q148" s="59"/>
-      <c r="R148" s="60"/>
-      <c r="S148" s="53"/>
-      <c r="T148" s="59"/>
-      <c r="V148" s="53"/>
-      <c r="W148" s="76"/>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B149" s="106" t="s">
-        <v>769</v>
-      </c>
+      <c r="C149" s="73"/>
+      <c r="D149" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="E149" s="54">
+        <v>4</v>
+      </c>
+      <c r="F149" s="53"/>
       <c r="G149" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
@@ -17739,11 +17758,11 @@
       <c r="O149" s="60"/>
       <c r="P149" s="53" t="str">
         <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q149" s="59" t="str">
+        <v>2章弱点图标需求</v>
+      </c>
+      <c r="Q149" s="59">
         <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
+        <v>0.5</v>
       </c>
       <c r="R149" s="60"/>
       <c r="S149" s="53" t="str">
@@ -17765,333 +17784,360 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B150" s="106" t="s">
+        <v>769</v>
+      </c>
+      <c r="D150" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="E150" s="54">
+        <v>4</v>
+      </c>
+      <c r="G150" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H150" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I150" s="60"/>
+      <c r="J150" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K150" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L150" s="60"/>
+      <c r="M150" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N150" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O150" s="60"/>
+      <c r="P150" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v>通用技能和大Boss图标需求</v>
+      </c>
+      <c r="Q150" s="59">
+        <f t="shared" si="64"/>
+        <v>0.5</v>
+      </c>
+      <c r="R150" s="60"/>
+      <c r="S150" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T150" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V150" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W150" s="76" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B151" s="106" t="s">
         <v>770</v>
       </c>
-      <c r="G150" s="53"/>
-      <c r="H150" s="59"/>
-      <c r="I150" s="60"/>
-      <c r="J150" s="53"/>
-      <c r="K150" s="59"/>
-      <c r="L150" s="60"/>
-      <c r="M150" s="53"/>
-      <c r="N150" s="59"/>
-      <c r="O150" s="60"/>
-      <c r="P150" s="53"/>
-      <c r="Q150" s="59"/>
-      <c r="R150" s="60"/>
-      <c r="S150" s="53"/>
-      <c r="T150" s="59"/>
-      <c r="V150" s="53"/>
-      <c r="W150" s="76"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B151" s="108" t="s">
-        <v>772</v>
-      </c>
-      <c r="G151" s="53"/>
+      <c r="D151" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="E151" s="54">
+        <v>4</v>
+      </c>
+      <c r="G151" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="H151" s="59"/>
       <c r="I151" s="60"/>
-      <c r="J151" s="53"/>
+      <c r="J151" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="K151" s="59"/>
       <c r="L151" s="60"/>
-      <c r="M151" s="53"/>
+      <c r="M151" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="N151" s="59"/>
       <c r="O151" s="60"/>
-      <c r="P151" s="53"/>
+      <c r="P151" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v>AOE和AI可选功能需求</v>
+      </c>
       <c r="Q151" s="59"/>
       <c r="R151" s="60"/>
-      <c r="S151" s="53"/>
+      <c r="S151" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="T151" s="59"/>
-      <c r="V151" s="53"/>
+      <c r="V151" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="W151" s="76"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B152" s="109" t="s">
-        <v>773</v>
-      </c>
-      <c r="G152" s="53"/>
+      <c r="B152" s="106" t="s">
+        <v>772</v>
+      </c>
+      <c r="D152" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="E152" s="54">
+        <v>4</v>
+      </c>
+      <c r="G152" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="H152" s="59"/>
       <c r="I152" s="60"/>
-      <c r="J152" s="53"/>
+      <c r="J152" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="K152" s="59"/>
       <c r="L152" s="60"/>
-      <c r="M152" s="53"/>
+      <c r="M152" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="N152" s="59"/>
       <c r="O152" s="60"/>
-      <c r="P152" s="53"/>
+      <c r="P152" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v>蘑菇怪， 黑龙， 冰龙设计</v>
+      </c>
       <c r="Q152" s="59"/>
       <c r="R152" s="60"/>
-      <c r="S152" s="53"/>
+      <c r="S152" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="T152" s="59"/>
-      <c r="V152" s="53"/>
+      <c r="V152" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="W152" s="76"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B153" s="5" t="s">
-        <v>398</v>
+    <row r="153" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B153" s="107" t="s">
+        <v>773</v>
       </c>
       <c r="D153" s="73">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E153" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G153" s="53" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H153" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="H153" s="59"/>
       <c r="I153" s="60"/>
       <c r="J153" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K153" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="K153" s="59"/>
       <c r="L153" s="60"/>
       <c r="M153" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N153" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="N153" s="59"/>
       <c r="O153" s="60"/>
       <c r="P153" s="53" t="str">
         <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q153" s="59" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
-      </c>
+        <v>第一二章副本数值修改（2，3，28，新手）</v>
+      </c>
+      <c r="Q153" s="59"/>
       <c r="R153" s="60"/>
       <c r="S153" s="53" t="str">
         <f t="shared" si="65"/>
-        <v>金钱，经验副本数值设计</v>
-      </c>
-      <c r="T153" s="59">
-        <f t="shared" si="66"/>
-        <v>2</v>
-      </c>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T153" s="59"/>
       <c r="V153" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W153" s="76" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B154" s="5" t="s">
+      <c r="W153" s="76"/>
+    </row>
+    <row r="154" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="113"/>
+      <c r="B154" s="114"/>
+      <c r="D154" s="73"/>
+      <c r="E154" s="61"/>
+      <c r="F154" s="70"/>
+      <c r="G154" s="70"/>
+      <c r="H154" s="89"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="70"/>
+      <c r="K154" s="89"/>
+      <c r="L154" s="60"/>
+      <c r="M154" s="70"/>
+      <c r="N154" s="89"/>
+      <c r="O154" s="60"/>
+      <c r="P154" s="70"/>
+      <c r="Q154" s="89"/>
+      <c r="R154" s="60"/>
+      <c r="S154" s="70"/>
+      <c r="T154" s="89"/>
+      <c r="U154" s="60"/>
+      <c r="V154" s="70"/>
+      <c r="W154" s="115"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D154" s="73">
+      <c r="D155" s="73">
         <v>3</v>
       </c>
-      <c r="E154" s="54">
+      <c r="E155" s="54">
         <v>5</v>
       </c>
-      <c r="G154" s="53" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H154" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I154" s="60"/>
-      <c r="J154" s="53" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K154" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L154" s="60"/>
-      <c r="M154" s="53" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N154" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O154" s="60"/>
-      <c r="P154" s="53" t="str">
-        <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q154" s="59" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R154" s="60"/>
-      <c r="S154" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v>通天塔-金钱，经验副本配置</v>
-      </c>
-      <c r="T154" s="59">
-        <f t="shared" si="66"/>
-        <v>3</v>
-      </c>
-      <c r="V154" s="53" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W154" s="76" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D155" s="73"/>
       <c r="G155" s="53" t="str">
-        <f t="shared" si="57"/>
+        <f>IF($E155=1,$B155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H155" s="59" t="str">
-        <f t="shared" si="58"/>
+        <f>IF($E155=1,$D155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I155" s="60"/>
       <c r="J155" s="53" t="str">
-        <f t="shared" si="59"/>
+        <f>IF($E155=2,$B155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K155" s="59" t="str">
-        <f t="shared" si="60"/>
+        <f>IF($E155=2,$D155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L155" s="60"/>
       <c r="M155" s="53" t="str">
-        <f t="shared" si="61"/>
+        <f>IF($E155=3,$B155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N155" s="59" t="str">
-        <f t="shared" si="62"/>
+        <f>IF($E155=3,$D155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O155" s="60"/>
       <c r="P155" s="53" t="str">
-        <f t="shared" si="63"/>
+        <f>IF($E155=4,$B155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q155" s="59" t="str">
-        <f t="shared" si="64"/>
+        <f>IF($E155=4,$D155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R155" s="60"/>
       <c r="S155" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T155" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
+        <f>IF($E155=5,$B155," ")</f>
+        <v>通天塔-金钱，经验副本配置</v>
+      </c>
+      <c r="T155" s="59">
+        <f>IF($E155=5,$D155," ")</f>
+        <v>3</v>
       </c>
       <c r="V155" s="53" t="str">
-        <f t="shared" si="67"/>
+        <f>IF($E155=6,$B155," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W155" s="76" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
+        <f>IF($E155=6,$D155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C156" s="52"/>
+        <v>400</v>
+      </c>
       <c r="D156" s="73">
+        <v>4</v>
+      </c>
+      <c r="E156" s="54">
+        <v>5</v>
+      </c>
+      <c r="G156" s="53" t="str">
+        <f>IF($E156=1,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H156" s="57" t="str">
+        <f>IF($E156=1,$D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J156" s="53" t="str">
+        <f>IF($E156=2,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K156" s="89" t="str">
+        <f>IF($E156=2,$D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M156" s="53" t="str">
+        <f>IF($E156=3,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N156" s="89" t="str">
+        <f>IF($E156=3,$D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P156" s="53" t="str">
+        <f>IF($E156=4,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q156" s="89" t="str">
+        <f>IF($E156=4,$D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S156" s="53" t="str">
+        <f>IF($E156=5,$B156," ")</f>
+        <v>5-6章Boss设计</v>
+      </c>
+      <c r="T156" s="89">
+        <f>IF($E156=5,$D156," ")</f>
+        <v>4</v>
+      </c>
+      <c r="V156" s="53" t="str">
+        <f>IF($E156=6,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W156" s="57" t="str">
+        <f>IF($E156=6,$D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D157" s="73">
         <v>2</v>
       </c>
-      <c r="E156" s="54">
-        <v>6</v>
-      </c>
-      <c r="F156" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="G156" s="53" t="str">
+      <c r="E157" s="54">
+        <v>5</v>
+      </c>
+      <c r="G157" s="53" t="str">
         <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H156" s="59" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I156" s="60"/>
-      <c r="J156" s="53" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K156" s="59" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L156" s="60"/>
-      <c r="M156" s="53" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N156" s="59" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O156" s="60"/>
-      <c r="P156" s="53" t="str">
-        <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q156" s="59" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R156" s="60"/>
-      <c r="S156" s="53" t="str">
-        <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T156" s="59" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V156" s="53" t="str">
-        <f t="shared" si="67"/>
-        <v>通天塔-金钱，经验副本配置-debug</v>
-      </c>
-      <c r="W156" s="76">
-        <f t="shared" si="68"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="34"/>
-      <c r="B157" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="C157" s="52"/>
-      <c r="D157" s="73">
-        <v>3</v>
-      </c>
-      <c r="E157" s="54">
-        <v>6</v>
-      </c>
-      <c r="F157" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="G157" s="53" t="str">
-        <f t="shared" ref="G157:G161" si="69">IF($E157=1,$B157," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H157" s="59" t="str">
@@ -18128,975 +18174,910 @@
       <c r="R157" s="60"/>
       <c r="S157" s="53" t="str">
         <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T157" s="59" t="str">
+        <v>金钱，经验副本数值设计</v>
+      </c>
+      <c r="T157" s="59">
         <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="V157" s="53" t="str">
         <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W157" s="76" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A159" s="34"/>
+      <c r="B159" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C159" s="52"/>
+      <c r="D159" s="73">
+        <v>2</v>
+      </c>
+      <c r="E159" s="54">
+        <v>6</v>
+      </c>
+      <c r="F159" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G159" s="53" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H159" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I159" s="60"/>
+      <c r="J159" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K159" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L159" s="60"/>
+      <c r="M159" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N159" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O159" s="60"/>
+      <c r="P159" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q159" s="59" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R159" s="60"/>
+      <c r="S159" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T159" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V159" s="53" t="str">
+        <f t="shared" si="67"/>
+        <v>通天塔-金钱，经验副本配置-debug</v>
+      </c>
+      <c r="W159" s="76">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="34"/>
+      <c r="B160" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="C160" s="52"/>
+      <c r="D160" s="73">
+        <v>3</v>
+      </c>
+      <c r="E160" s="54">
+        <v>6</v>
+      </c>
+      <c r="F160" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G160" s="53" t="str">
+        <f t="shared" ref="G160:G164" si="69">IF($E160=1,$B160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H160" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I160" s="60"/>
+      <c r="J160" s="53" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K160" s="59" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L160" s="60"/>
+      <c r="M160" s="53" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N160" s="59" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O160" s="60"/>
+      <c r="P160" s="53" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q160" s="59" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R160" s="60"/>
+      <c r="S160" s="53" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T160" s="59" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V160" s="53" t="str">
+        <f t="shared" si="67"/>
         <v>通天塔 - 试炼之塔 - 配置</v>
       </c>
-      <c r="W157" s="76">
+      <c r="W160" s="76">
         <f t="shared" si="68"/>
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B158" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D158" s="73">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D162" s="73">
         <v>4</v>
       </c>
-      <c r="E158" s="54">
+      <c r="E162" s="54">
         <v>6</v>
       </c>
-      <c r="G158" s="53" t="str">
+      <c r="G162" s="53" t="str">
         <f t="shared" si="69"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H158" s="57" t="str">
+      <c r="H162" s="57" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J158" s="53" t="str">
+      <c r="J162" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K158" s="89" t="str">
+      <c r="K162" s="89" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M158" s="53" t="str">
+      <c r="M162" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N158" s="89" t="str">
+      <c r="N162" s="89" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P158" s="53" t="str">
+      <c r="P162" s="53" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q158" s="89" t="str">
+      <c r="Q162" s="89" t="str">
         <f t="shared" si="64"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S158" s="53" t="str">
+      <c r="S162" s="53" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T158" s="89" t="str">
+      <c r="T162" s="89" t="str">
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V158" s="53" t="str">
+      <c r="V162" s="53" t="str">
         <f t="shared" si="67"/>
-        <v>5-6章Boss设计</v>
-      </c>
-      <c r="W158" s="57">
+        <v>第三四章数值设计，配置</v>
+      </c>
+      <c r="W162" s="57">
         <f t="shared" si="68"/>
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B159" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="D159" s="73"/>
-      <c r="G159" s="53"/>
-      <c r="J159" s="53"/>
-      <c r="K159" s="89"/>
-      <c r="M159" s="53"/>
-      <c r="N159" s="89"/>
-      <c r="P159" s="53"/>
-      <c r="Q159" s="89"/>
-      <c r="S159" s="53"/>
-      <c r="T159" s="89"/>
-      <c r="V159" s="53"/>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D160" s="73"/>
-      <c r="G160" s="53"/>
-      <c r="J160" s="53"/>
-      <c r="K160" s="89"/>
-      <c r="M160" s="53"/>
-      <c r="N160" s="89"/>
-      <c r="P160" s="53"/>
-      <c r="Q160" s="89"/>
-      <c r="S160" s="53"/>
-      <c r="T160" s="89"/>
-      <c r="V160" s="53"/>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G161" s="53" t="str">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D163" s="73"/>
+      <c r="G163" s="53"/>
+      <c r="J163" s="53"/>
+      <c r="K163" s="89"/>
+      <c r="M163" s="53"/>
+      <c r="N163" s="89"/>
+      <c r="P163" s="53"/>
+      <c r="Q163" s="89"/>
+      <c r="S163" s="53"/>
+      <c r="T163" s="89"/>
+      <c r="V163" s="53"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G164" s="53" t="str">
         <f t="shared" si="69"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H161" s="59" t="str">
+      <c r="H164" s="59" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I161" s="60"/>
-      <c r="J161" s="53" t="str">
+      <c r="I164" s="60"/>
+      <c r="J164" s="53" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K161" s="59" t="str">
+      <c r="K164" s="59" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L161" s="60"/>
-      <c r="M161" s="53" t="str">
+      <c r="L164" s="60"/>
+      <c r="M164" s="53" t="str">
         <f t="shared" si="61"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N161" s="59" t="str">
+      <c r="N164" s="59" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O161" s="60"/>
-      <c r="P161" s="53" t="str">
+      <c r="O164" s="60"/>
+      <c r="P164" s="53" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q161" s="59" t="str">
+      <c r="Q164" s="59" t="str">
         <f t="shared" si="64"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R161" s="60"/>
-      <c r="S161" s="53" t="str">
+      <c r="R164" s="60"/>
+      <c r="S164" s="53" t="str">
         <f t="shared" si="65"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T161" s="59" t="str">
+      <c r="T164" s="59" t="str">
         <f t="shared" si="66"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V161" s="53" t="str">
+      <c r="V164" s="53" t="str">
         <f t="shared" si="67"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W161" s="76" t="str">
+      <c r="W164" s="76" t="str">
         <f t="shared" si="68"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="162" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="37" t="s">
+    <row r="165" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C162" s="37"/>
-      <c r="D162" s="35">
-        <f>SUM(D133:D161)</f>
-        <v>35</v>
-      </c>
-      <c r="E162" s="35"/>
-      <c r="F162" s="36"/>
-      <c r="H162" s="35">
-        <f>SUM(H132:H161)</f>
+      <c r="C165" s="37"/>
+      <c r="D165" s="35">
+        <f>SUM(D134:D164)</f>
+        <v>41.5</v>
+      </c>
+      <c r="E165" s="35"/>
+      <c r="F165" s="36"/>
+      <c r="H165" s="35">
+        <f>SUM(H133:H164)</f>
         <v>3</v>
       </c>
-      <c r="I162" s="38"/>
-      <c r="K162" s="35">
-        <f>SUM(K133:K161)</f>
+      <c r="I165" s="38"/>
+      <c r="K165" s="35">
+        <f>SUM(K134:K164)</f>
         <v>6</v>
       </c>
-      <c r="L162" s="38"/>
-      <c r="N162" s="35">
-        <f>SUM(N133:N161)</f>
+      <c r="L165" s="38"/>
+      <c r="N165" s="35">
+        <f>SUM(N134:N164)</f>
         <v>5</v>
       </c>
-      <c r="O162" s="38"/>
-      <c r="Q162" s="35">
-        <f>SUM(Q133:Q161)</f>
+      <c r="O165" s="38"/>
+      <c r="Q165" s="35">
+        <f>SUM(Q134:Q164)</f>
+        <v>7</v>
+      </c>
+      <c r="R165" s="38"/>
+      <c r="T165" s="35">
+        <f>SUM(T134:T164)</f>
+        <v>9</v>
+      </c>
+      <c r="U165" s="38"/>
+      <c r="W165" s="35">
+        <f>SUM(W134:W164)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B167" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="C167" s="73"/>
+      <c r="D167" s="73"/>
+      <c r="G167" s="53"/>
+      <c r="H167" s="59"/>
+      <c r="I167" s="60"/>
+      <c r="J167" s="53"/>
+      <c r="K167" s="59"/>
+      <c r="L167" s="60"/>
+      <c r="M167" s="53"/>
+      <c r="N167" s="59"/>
+      <c r="O167" s="60"/>
+      <c r="P167" s="53"/>
+      <c r="Q167" s="59"/>
+      <c r="R167" s="60"/>
+      <c r="S167" s="53"/>
+      <c r="T167" s="59"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B168" s="73"/>
+      <c r="C168" s="73"/>
+      <c r="D168" s="73"/>
+      <c r="G168" s="53"/>
+      <c r="H168" s="59"/>
+      <c r="I168" s="60"/>
+      <c r="J168" s="53"/>
+      <c r="K168" s="59"/>
+      <c r="L168" s="60"/>
+      <c r="M168" s="53"/>
+      <c r="N168" s="59"/>
+      <c r="O168" s="60"/>
+      <c r="P168" s="53"/>
+      <c r="Q168" s="59"/>
+      <c r="R168" s="60"/>
+      <c r="S168" s="53"/>
+      <c r="T168" s="59"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B169" s="73" t="s">
+        <v>777</v>
+      </c>
+      <c r="C169" s="73"/>
+      <c r="D169" s="73"/>
+      <c r="G169" s="53"/>
+      <c r="H169" s="59"/>
+      <c r="I169" s="60"/>
+      <c r="J169" s="53"/>
+      <c r="K169" s="59"/>
+      <c r="L169" s="60"/>
+      <c r="M169" s="53"/>
+      <c r="N169" s="59"/>
+      <c r="O169" s="60"/>
+      <c r="P169" s="53"/>
+      <c r="Q169" s="59"/>
+      <c r="R169" s="60"/>
+      <c r="S169" s="53"/>
+      <c r="T169" s="59"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B170" s="73" t="s">
+        <v>699</v>
+      </c>
+      <c r="C170" s="73"/>
+      <c r="D170" s="73">
+        <v>3</v>
+      </c>
+      <c r="E170" s="54">
+        <v>7</v>
+      </c>
+      <c r="G170" s="53"/>
+      <c r="H170" s="59"/>
+      <c r="I170" s="60"/>
+      <c r="J170" s="53"/>
+      <c r="K170" s="59"/>
+      <c r="L170" s="60"/>
+      <c r="M170" s="53"/>
+      <c r="N170" s="59"/>
+      <c r="O170" s="60"/>
+      <c r="P170" s="53"/>
+      <c r="Q170" s="59"/>
+      <c r="R170" s="60"/>
+      <c r="S170" s="53"/>
+      <c r="T170" s="59"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D171" s="54">
+        <v>4</v>
+      </c>
+      <c r="E171" s="54">
         <v>6</v>
       </c>
-      <c r="R162" s="38"/>
-      <c r="T162" s="35">
-        <f>SUM(T133:T161)</f>
-        <v>5</v>
-      </c>
-      <c r="U162" s="38"/>
-      <c r="W162" s="35">
-        <f>SUM(W133:W161)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B164" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="C164" s="73"/>
-      <c r="D164" s="73"/>
-      <c r="G164" s="53"/>
-      <c r="H164" s="59"/>
-      <c r="I164" s="60"/>
-      <c r="J164" s="53"/>
-      <c r="K164" s="59"/>
-      <c r="L164" s="60"/>
-      <c r="M164" s="53"/>
-      <c r="N164" s="59"/>
-      <c r="O164" s="60"/>
-      <c r="P164" s="53"/>
-      <c r="Q164" s="59"/>
-      <c r="R164" s="60"/>
-      <c r="S164" s="53"/>
-      <c r="T164" s="59"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B165" s="73"/>
-      <c r="C165" s="73"/>
-      <c r="D165" s="73"/>
-      <c r="G165" s="53"/>
-      <c r="H165" s="59"/>
-      <c r="I165" s="60"/>
-      <c r="J165" s="53"/>
-      <c r="K165" s="59"/>
-      <c r="L165" s="60"/>
-      <c r="M165" s="53"/>
-      <c r="N165" s="59"/>
-      <c r="O165" s="60"/>
-      <c r="P165" s="53"/>
-      <c r="Q165" s="59"/>
-      <c r="R165" s="60"/>
-      <c r="S165" s="53"/>
-      <c r="T165" s="59"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B166" s="73" t="s">
-        <v>699</v>
-      </c>
-      <c r="C166" s="73"/>
-      <c r="D166" s="73">
+      <c r="G171" s="53" t="str">
+        <f>IF($E171=1,$B171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H171" s="59" t="str">
+        <f>IF($E171=1,$D171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I171" s="60"/>
+      <c r="J171" s="53" t="str">
+        <f>IF($E171=2,$B171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K171" s="59" t="str">
+        <f>IF($E171=2,$D171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L171" s="60"/>
+      <c r="M171" s="53" t="str">
+        <f>IF($E171=3,$B171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N171" s="59" t="str">
+        <f>IF($E171=3,$D171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O171" s="60"/>
+      <c r="P171" s="53" t="str">
+        <f>IF($E171=4,$B171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q171" s="59" t="str">
+        <f>IF($E171=4,$D171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R171" s="60"/>
+      <c r="S171" s="53" t="str">
+        <f>IF($E171=5,$B171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T171" s="59" t="str">
+        <f>IF($E171=5,$D171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V171" s="53" t="str">
+        <f>IF($E171=6,$B171," ")</f>
+        <v>1-2章困难副本数值设计</v>
+      </c>
+      <c r="W171" s="76">
+        <f>IF($E171=6,$D171," ")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="34"/>
+      <c r="B172" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C172" s="73"/>
+      <c r="D172" s="73">
         <v>3</v>
       </c>
-      <c r="E166" s="54">
-        <v>7</v>
-      </c>
-      <c r="G166" s="53"/>
-      <c r="H166" s="59"/>
-      <c r="I166" s="60"/>
-      <c r="J166" s="53"/>
-      <c r="K166" s="59"/>
-      <c r="L166" s="60"/>
-      <c r="M166" s="53"/>
-      <c r="N166" s="59"/>
-      <c r="O166" s="60"/>
-      <c r="P166" s="53"/>
-      <c r="Q166" s="59"/>
-      <c r="R166" s="60"/>
-      <c r="S166" s="53"/>
-      <c r="T166" s="59"/>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B167" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D167" s="54">
-        <v>4</v>
-      </c>
-      <c r="E167" s="54">
+      <c r="E172" s="54"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="53" t="str">
+        <f>IF($E172=1,$B172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H172" s="59" t="str">
+        <f>IF($E172=1,$D172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I172" s="60"/>
+      <c r="J172" s="53" t="str">
+        <f>IF($E172=2,$B172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K172" s="59" t="str">
+        <f>IF($E172=2,$D172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L172" s="60"/>
+      <c r="M172" s="53" t="str">
+        <f>IF($E172=3,$B172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N172" s="59" t="str">
+        <f>IF($E172=3,$D172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O172" s="60"/>
+      <c r="P172" s="53" t="str">
+        <f>IF($E172=4,$B172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q172" s="59" t="str">
+        <f>IF($E172=4,$D172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R172" s="60"/>
+      <c r="S172" s="53" t="str">
+        <f>IF($E172=5,$B172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T172" s="59" t="str">
+        <f>IF($E172=5,$D172," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V172" s="5"/>
+      <c r="W172" s="57"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D173" s="54">
+        <v>3</v>
+      </c>
+      <c r="G173" s="53" t="str">
+        <f>IF($E173=1,$B173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H173" s="59" t="str">
+        <f>IF($E173=1,$D173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I173" s="60"/>
+      <c r="J173" s="53" t="str">
+        <f>IF($E173=2,$B173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K173" s="59" t="str">
+        <f>IF($E173=2,$D173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L173" s="60"/>
+      <c r="M173" s="53" t="str">
+        <f>IF($E173=3,$B173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N173" s="59" t="str">
+        <f>IF($E173=3,$D173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O173" s="60"/>
+      <c r="P173" s="53" t="str">
+        <f>IF($E173=4,$B173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q173" s="59" t="str">
+        <f>IF($E173=4,$D173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R173" s="60"/>
+      <c r="S173" s="53" t="str">
+        <f>IF($E173=5,$B173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T173" s="59" t="str">
+        <f>IF($E173=5,$D173," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B174" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D174" s="61">
         <v>6</v>
       </c>
-      <c r="G167" s="53" t="str">
-        <f>IF($E167=1,$B167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H167" s="59" t="str">
-        <f>IF($E167=1,$D167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I167" s="60"/>
-      <c r="J167" s="53" t="str">
-        <f>IF($E167=2,$B167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K167" s="59" t="str">
-        <f>IF($E167=2,$D167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L167" s="60"/>
-      <c r="M167" s="53" t="str">
-        <f>IF($E167=3,$B167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N167" s="59" t="str">
-        <f>IF($E167=3,$D167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O167" s="60"/>
-      <c r="P167" s="53" t="str">
-        <f>IF($E167=4,$B167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q167" s="59" t="str">
-        <f>IF($E167=4,$D167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R167" s="60"/>
-      <c r="S167" s="53" t="str">
-        <f>IF($E167=5,$B167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T167" s="59" t="str">
-        <f>IF($E167=5,$D167," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V167" s="53" t="str">
-        <f>IF($E167=6,$B167," ")</f>
-        <v>1-2章困难副本数值设计</v>
-      </c>
-      <c r="W167" s="76">
-        <f>IF($E167=6,$D167," ")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="34"/>
-      <c r="B168" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C168" s="73"/>
-      <c r="D168" s="73">
-        <v>3</v>
-      </c>
-      <c r="E168" s="54"/>
-      <c r="F168" s="53"/>
-      <c r="G168" s="53" t="str">
-        <f>IF($E168=1,$B168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H168" s="59" t="str">
-        <f>IF($E168=1,$D168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I168" s="60"/>
-      <c r="J168" s="53" t="str">
-        <f>IF($E168=2,$B168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K168" s="59" t="str">
-        <f>IF($E168=2,$D168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L168" s="60"/>
-      <c r="M168" s="53" t="str">
-        <f>IF($E168=3,$B168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N168" s="59" t="str">
-        <f>IF($E168=3,$D168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O168" s="60"/>
-      <c r="P168" s="53" t="str">
-        <f>IF($E168=4,$B168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q168" s="59" t="str">
-        <f>IF($E168=4,$D168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R168" s="60"/>
-      <c r="S168" s="53" t="str">
-        <f>IF($E168=5,$B168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T168" s="59" t="str">
-        <f>IF($E168=5,$D168," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V168" s="5"/>
-      <c r="W168" s="57"/>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B169" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D169" s="54">
-        <v>3</v>
-      </c>
-      <c r="G169" s="53" t="str">
-        <f>IF($E169=1,$B169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H169" s="59" t="str">
-        <f>IF($E169=1,$D169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I169" s="60"/>
-      <c r="J169" s="53" t="str">
-        <f>IF($E169=2,$B169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K169" s="59" t="str">
-        <f>IF($E169=2,$D169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L169" s="60"/>
-      <c r="M169" s="53" t="str">
-        <f>IF($E169=3,$B169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N169" s="59" t="str">
-        <f>IF($E169=3,$D169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O169" s="60"/>
-      <c r="P169" s="53" t="str">
-        <f>IF($E169=4,$B169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q169" s="59" t="str">
-        <f>IF($E169=4,$D169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R169" s="60"/>
-      <c r="S169" s="53" t="str">
-        <f>IF($E169=5,$B169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T169" s="59" t="str">
-        <f>IF($E169=5,$D169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B170" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="D170" s="61">
-        <v>6</v>
-      </c>
-      <c r="G170" s="53" t="str">
-        <f>IF($E170=1,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H170" s="59" t="str">
-        <f>IF($E170=1,$D170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I170" s="60"/>
-      <c r="J170" s="53" t="str">
-        <f>IF($E170=2,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K170" s="59" t="str">
-        <f>IF($E170=2,$D170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L170" s="60"/>
-      <c r="M170" s="53" t="str">
-        <f>IF($E170=3,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N170" s="59" t="str">
-        <f>IF($E170=3,$D170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O170" s="60"/>
-      <c r="P170" s="53" t="str">
-        <f>IF($E170=4,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q170" s="59" t="str">
-        <f>IF($E170=4,$D170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R170" s="60"/>
-      <c r="S170" s="53" t="str">
-        <f>IF($E170=5,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T170" s="59" t="str">
-        <f>IF($E170=5,$D170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="171" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="34"/>
-      <c r="B171" s="52" t="s">
+      <c r="G174" s="53" t="str">
+        <f>IF($E174=1,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H174" s="59" t="str">
+        <f>IF($E174=1,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I174" s="60"/>
+      <c r="J174" s="53" t="str">
+        <f>IF($E174=2,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K174" s="59" t="str">
+        <f>IF($E174=2,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L174" s="60"/>
+      <c r="M174" s="53" t="str">
+        <f>IF($E174=3,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N174" s="59" t="str">
+        <f>IF($E174=3,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O174" s="60"/>
+      <c r="P174" s="53" t="str">
+        <f>IF($E174=4,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q174" s="59" t="str">
+        <f>IF($E174=4,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R174" s="60"/>
+      <c r="S174" s="53" t="str">
+        <f>IF($E174=5,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T174" s="59" t="str">
+        <f>IF($E174=5,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="34"/>
+      <c r="B175" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="C171" s="5"/>
-      <c r="D171" s="61">
+      <c r="C175" s="5"/>
+      <c r="D175" s="61">
         <v>12</v>
       </c>
-      <c r="E171" s="54"/>
-      <c r="F171" s="53"/>
-      <c r="G171" s="53"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="60"/>
-      <c r="J171" s="53"/>
-      <c r="K171" s="59"/>
-      <c r="L171" s="60"/>
-      <c r="M171" s="53"/>
-      <c r="N171" s="59"/>
-      <c r="O171" s="60"/>
-      <c r="P171" s="53"/>
-      <c r="Q171" s="59"/>
-      <c r="R171" s="60"/>
-      <c r="S171" s="53"/>
-      <c r="T171" s="59"/>
-      <c r="V171" s="5"/>
-      <c r="W171" s="57"/>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B173" s="37" t="s">
+      <c r="E175" s="54"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="59"/>
+      <c r="I175" s="60"/>
+      <c r="J175" s="53"/>
+      <c r="K175" s="59"/>
+      <c r="L175" s="60"/>
+      <c r="M175" s="53"/>
+      <c r="N175" s="59"/>
+      <c r="O175" s="60"/>
+      <c r="P175" s="53"/>
+      <c r="Q175" s="59"/>
+      <c r="R175" s="60"/>
+      <c r="S175" s="53"/>
+      <c r="T175" s="59"/>
+      <c r="V175" s="5"/>
+      <c r="W175" s="57"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B177" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="D173" s="35">
-        <f>SUM(D168:D172)</f>
+      <c r="D177" s="35">
+        <f>SUM(D172:D176)</f>
         <v>24</v>
       </c>
-      <c r="F173" s="53" t="str">
-        <f t="shared" ref="F173:T173" si="70">IF($E173=1,$B173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G173" s="53" t="str">
+      <c r="F177" s="53" t="str">
+        <f t="shared" ref="F177:T177" si="70">IF($E177=1,$B177," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H173" s="76" t="str">
+      <c r="H177" s="76" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I173" s="53" t="str">
+      <c r="I177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J173" s="53" t="str">
+      <c r="J177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K173" s="53" t="str">
+      <c r="K177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L173" s="53" t="str">
+      <c r="L177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M173" s="53" t="str">
+      <c r="M177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N173" s="53" t="str">
+      <c r="N177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O173" s="53" t="str">
+      <c r="O177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P173" s="53" t="str">
+      <c r="P177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q173" s="53" t="str">
+      <c r="Q177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R173" s="53" t="str">
+      <c r="R177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S173" s="53" t="str">
+      <c r="S177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T173" s="53" t="str">
+      <c r="T177" s="53" t="str">
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="175" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D175" s="65"/>
-      <c r="E175" s="65"/>
-      <c r="F175" s="66"/>
-      <c r="H175" s="68"/>
-      <c r="I175" s="69"/>
-      <c r="L175" s="69"/>
-      <c r="O175" s="69"/>
-      <c r="R175" s="69"/>
-      <c r="U175" s="69"/>
-      <c r="W175" s="68"/>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A176" s="34" t="s">
+    <row r="179" spans="1:23" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D179" s="65"/>
+      <c r="E179" s="65"/>
+      <c r="F179" s="66"/>
+      <c r="H179" s="68"/>
+      <c r="I179" s="69"/>
+      <c r="L179" s="69"/>
+      <c r="O179" s="69"/>
+      <c r="R179" s="69"/>
+      <c r="U179" s="69"/>
+      <c r="W179" s="68"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A180" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="B176" s="75"/>
-      <c r="C176" s="75"/>
-      <c r="D176" s="75"/>
-      <c r="G176" s="75"/>
-      <c r="H176" s="77"/>
-      <c r="I176" s="60"/>
-      <c r="J176" s="52"/>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B177" s="106" t="s">
+      <c r="B180" s="75"/>
+      <c r="C180" s="75"/>
+      <c r="D180" s="75"/>
+      <c r="G180" s="75"/>
+      <c r="H180" s="77"/>
+      <c r="I180" s="60"/>
+      <c r="J180" s="52"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B181" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="C177" s="75"/>
-      <c r="D177" s="75">
+      <c r="C181" s="75"/>
+      <c r="D181" s="75">
         <v>1</v>
       </c>
-      <c r="E177" s="54">
+      <c r="E181" s="54">
         <v>1</v>
       </c>
-      <c r="G177" s="53" t="str">
-        <f t="shared" ref="G177:G200" si="71">IF($E177=1,$B177," ")</f>
+      <c r="G181" s="53" t="str">
+        <f t="shared" ref="G181:G205" si="71">IF($E181=1,$B181," ")</f>
         <v>前2天内容调整-测试版本配置，debug</v>
       </c>
-      <c r="H177" s="59">
-        <f t="shared" ref="H177:H200" si="72">IF($E177=1,$D177," ")</f>
+      <c r="H181" s="59">
+        <f t="shared" ref="H181:H205" si="72">IF($E181=1,$D181," ")</f>
         <v>1</v>
       </c>
-      <c r="I177" s="60"/>
-      <c r="J177" s="53" t="str">
-        <f t="shared" ref="J177:J200" si="73">IF($E177=2,$B177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K177" s="59" t="str">
-        <f t="shared" ref="K177:K200" si="74">IF($E177=2,$D177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L177" s="60"/>
-      <c r="M177" s="53" t="str">
-        <f t="shared" ref="M177:M200" si="75">IF($E177=3,$B177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N177" s="59" t="str">
-        <f t="shared" ref="N177:N200" si="76">IF($E177=3,$D177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O177" s="60"/>
-      <c r="P177" s="53" t="str">
-        <f t="shared" ref="P177:P200" si="77">IF($E177=4,$B177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q177" s="59" t="str">
-        <f t="shared" ref="Q177:Q200" si="78">IF($E177=4,$D177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R177" s="60"/>
-      <c r="S177" s="53" t="str">
-        <f t="shared" ref="S177:S200" si="79">IF($E177=5,$B177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T177" s="59" t="str">
-        <f t="shared" ref="T177:T200" si="80">IF($E177=5,$D177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V177" s="53" t="str">
-        <f t="shared" ref="V177:V200" si="81">IF($E177=6,$B177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W177" s="76" t="str">
-        <f t="shared" ref="W177:W200" si="82">IF($E177=6,$D177," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="178" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B178" s="106" t="s">
+      <c r="I181" s="60"/>
+      <c r="J181" s="53" t="str">
+        <f t="shared" ref="J181:J205" si="73">IF($E181=2,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K181" s="59" t="str">
+        <f t="shared" ref="K181:K205" si="74">IF($E181=2,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L181" s="60"/>
+      <c r="M181" s="53" t="str">
+        <f t="shared" ref="M181:M205" si="75">IF($E181=3,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N181" s="59" t="str">
+        <f t="shared" ref="N181:N205" si="76">IF($E181=3,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O181" s="60"/>
+      <c r="P181" s="53" t="str">
+        <f t="shared" ref="P181:P205" si="77">IF($E181=4,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q181" s="59" t="str">
+        <f t="shared" ref="Q181:Q205" si="78">IF($E181=4,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R181" s="60"/>
+      <c r="S181" s="53" t="str">
+        <f t="shared" ref="S181:S205" si="79">IF($E181=5,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T181" s="59" t="str">
+        <f t="shared" ref="T181:T205" si="80">IF($E181=5,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V181" s="53" t="str">
+        <f t="shared" ref="V181:V205" si="81">IF($E181=6,$B181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W181" s="76" t="str">
+        <f t="shared" ref="W181:W205" si="82">IF($E181=6,$D181," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B182" s="106" t="s">
         <v>684</v>
       </c>
-      <c r="D178" s="54">
+      <c r="D182" s="54">
         <v>0.5</v>
       </c>
-      <c r="E178" s="54">
+      <c r="E182" s="54">
         <v>1</v>
       </c>
-      <c r="F178" s="53" t="s">
+      <c r="F182" s="53" t="s">
         <v>686</v>
       </c>
-      <c r="G178" s="53" t="str">
+      <c r="G182" s="53" t="str">
         <f t="shared" si="71"/>
         <v>道具指引回归</v>
       </c>
-      <c r="H178" s="59">
+      <c r="H182" s="59">
         <f t="shared" si="72"/>
         <v>0.5</v>
       </c>
-      <c r="I178" s="60"/>
-      <c r="J178" s="53" t="str">
+      <c r="I182" s="60"/>
+      <c r="J182" s="53" t="str">
         <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K178" s="59" t="str">
+      <c r="K182" s="59" t="str">
         <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L178" s="60"/>
-      <c r="M178" s="53" t="str">
+      <c r="L182" s="60"/>
+      <c r="M182" s="53" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N178" s="59" t="str">
+      <c r="N182" s="59" t="str">
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O178" s="60"/>
-      <c r="P178" s="53" t="str">
+      <c r="O182" s="60"/>
+      <c r="P182" s="53" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q178" s="59" t="str">
+      <c r="Q182" s="59" t="str">
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R178" s="60"/>
-      <c r="S178" s="53" t="str">
+      <c r="R182" s="60"/>
+      <c r="S182" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T178" s="59" t="str">
+      <c r="T182" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V178" s="53" t="str">
+      <c r="V182" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W178" s="76" t="str">
+      <c r="W182" s="76" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B179" s="106" t="s">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B183" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="D179" s="54">
+      <c r="D183" s="54">
         <v>1</v>
       </c>
-      <c r="E179" s="54">
+      <c r="E183" s="54">
         <v>1</v>
       </c>
-      <c r="G179" s="53" t="str">
+      <c r="G183" s="53" t="str">
         <f t="shared" si="71"/>
         <v>商店内容设计</v>
       </c>
-      <c r="H179" s="59">
+      <c r="H183" s="59">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
-      <c r="I179" s="60"/>
-      <c r="J179" s="53"/>
-      <c r="K179" s="59"/>
-      <c r="L179" s="60"/>
-      <c r="M179" s="53"/>
-      <c r="N179" s="59"/>
-      <c r="O179" s="60"/>
-      <c r="P179" s="53"/>
-      <c r="Q179" s="59"/>
-      <c r="R179" s="60"/>
-      <c r="S179" s="53"/>
-      <c r="T179" s="59"/>
-      <c r="V179" s="53"/>
-      <c r="W179" s="76"/>
-    </row>
-    <row r="180" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="B180" s="106" t="s">
-        <v>405</v>
-      </c>
-      <c r="D180" s="54">
-        <v>3</v>
-      </c>
-      <c r="E180" s="54">
-        <v>2</v>
-      </c>
-      <c r="F180" s="53" t="s">
-        <v>717</v>
-      </c>
-      <c r="G180" s="53" t="str">
-        <f t="shared" si="71"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H180" s="59" t="str">
-        <f t="shared" si="72"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I180" s="60"/>
-      <c r="J180" s="53" t="str">
-        <f t="shared" si="73"/>
-        <v>4个章节相关数值设计补漏</v>
-      </c>
-      <c r="K180" s="59">
-        <f t="shared" si="74"/>
-        <v>3</v>
-      </c>
-      <c r="L180" s="60"/>
-      <c r="M180" s="53" t="str">
-        <f t="shared" si="75"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N180" s="59" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O180" s="60"/>
-      <c r="P180" s="53" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q180" s="59" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R180" s="60"/>
-      <c r="S180" s="53" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T180" s="59" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V180" s="53" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W180" s="76" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B181" s="106" t="s">
-        <v>406</v>
-      </c>
-      <c r="D181" s="54">
-        <v>2</v>
-      </c>
-      <c r="E181" s="54">
-        <v>2</v>
-      </c>
-      <c r="G181" s="53" t="str">
-        <f>IF($E181=1,$B181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H181" s="59" t="str">
-        <f>IF($E181=1,$D181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I181" s="60"/>
-      <c r="J181" s="53" t="str">
-        <f>IF($E181=2,$B181," ")</f>
-        <v>第3 -4章副本配置Reward</v>
-      </c>
-      <c r="K181" s="59">
-        <f>IF($E181=2,$D181," ")</f>
-        <v>2</v>
-      </c>
-      <c r="L181" s="60"/>
-      <c r="M181" s="53" t="str">
-        <f>IF($E181=3,$B181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N181" s="59" t="str">
-        <f>IF($E181=3,$D181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O181" s="60"/>
-      <c r="P181" s="53" t="str">
-        <f>IF($E181=4,$B181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q181" s="59" t="str">
-        <f>IF($E181=4,$D181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R181" s="60"/>
-      <c r="S181" s="53" t="str">
-        <f>IF($E181=5,$B181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T181" s="59" t="str">
-        <f>IF($E181=5,$D181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V181" s="53" t="str">
-        <f>IF($E181=6,$B181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W181" s="76" t="str">
-        <f>IF($E181=6,$D181," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B182" s="106" t="s">
-        <v>694</v>
-      </c>
-      <c r="D182" s="54">
-        <v>1</v>
-      </c>
-      <c r="E182" s="54">
-        <v>2</v>
-      </c>
-      <c r="G182" s="53" t="str">
-        <f>IF($E182=1,$B182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H182" s="59" t="str">
-        <f>IF($E182=1,$D182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I182" s="60"/>
-      <c r="J182" s="53" t="str">
-        <f>IF($E182=2,$B182," ")</f>
-        <v>商店内容配置</v>
-      </c>
-      <c r="K182" s="59">
-        <f>IF($E182=2,$D182," ")</f>
-        <v>1</v>
-      </c>
-      <c r="L182" s="60"/>
-      <c r="M182" s="53" t="str">
-        <f>IF($E182=3,$B182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N182" s="59" t="str">
-        <f>IF($E182=3,$D182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O182" s="60"/>
-      <c r="P182" s="53" t="str">
-        <f>IF($E182=4,$B182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q182" s="59" t="str">
-        <f>IF($E182=4,$D182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R182" s="60"/>
-      <c r="S182" s="53" t="str">
-        <f>IF($E182=5,$B182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T182" s="59" t="str">
-        <f>IF($E182=5,$D182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V182" s="53" t="str">
-        <f>IF($E182=6,$B182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W182" s="76" t="str">
-        <f>IF($E182=6,$D182," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B183" s="108"/>
-      <c r="G183" s="53"/>
-      <c r="H183" s="59"/>
       <c r="I183" s="60"/>
       <c r="J183" s="53"/>
       <c r="K183" s="59"/>
@@ -19112,82 +19093,81 @@
       <c r="V183" s="53"/>
       <c r="W183" s="76"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B184" s="108" t="s">
-        <v>407</v>
+    <row r="184" spans="1:23" ht="51" x14ac:dyDescent="0.25">
+      <c r="B184" s="106" t="s">
+        <v>405</v>
       </c>
       <c r="D184" s="54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E184" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F184" s="53" t="s">
-        <v>122</v>
+        <v>717</v>
       </c>
       <c r="G184" s="53" t="str">
-        <f>IF($E184=1,$B184," ")</f>
+        <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H184" s="59" t="str">
-        <f>IF($E184=1,$D184," ")</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I184" s="60"/>
       <c r="J184" s="53" t="str">
-        <f>IF($E184=2,$B184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K184" s="59" t="str">
-        <f>IF($E184=2,$D184," ")</f>
-        <v xml:space="preserve"> </v>
+        <f t="shared" si="73"/>
+        <v>4个章节相关数值设计补漏</v>
+      </c>
+      <c r="K184" s="59">
+        <f t="shared" si="74"/>
+        <v>3</v>
       </c>
       <c r="L184" s="60"/>
       <c r="M184" s="53" t="str">
-        <f>IF($E184=3,$B184," ")</f>
-        <v>第3 -4章副本配置Reward - debug</v>
-      </c>
-      <c r="N184" s="59">
-        <f>IF($E184=3,$D184," ")</f>
-        <v>1</v>
+        <f t="shared" si="75"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N184" s="59" t="str">
+        <f t="shared" si="76"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O184" s="60"/>
       <c r="P184" s="53" t="str">
-        <f>IF($E184=4,$B184," ")</f>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q184" s="59" t="str">
-        <f>IF($E184=4,$D184," ")</f>
+        <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R184" s="60"/>
       <c r="S184" s="53" t="str">
-        <f>IF($E184=5,$B184," ")</f>
+        <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T184" s="59" t="str">
-        <f>IF($E184=5,$D184," ")</f>
+        <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V184" s="53" t="str">
-        <f>IF($E184=6,$B184," ")</f>
+        <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W184" s="76" t="str">
-        <f>IF($E184=6,$D184," ")</f>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
       <c r="B185" s="106" t="s">
-        <v>722</v>
+        <v>406</v>
       </c>
       <c r="D185" s="54">
         <v>2</v>
       </c>
       <c r="E185" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G185" s="53" t="str">
         <f>IF($E185=1,$B185," ")</f>
@@ -19200,20 +19180,20 @@
       <c r="I185" s="60"/>
       <c r="J185" s="53" t="str">
         <f>IF($E185=2,$B185," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K185" s="59" t="str">
+        <v>第3 -4章副本配置Reward</v>
+      </c>
+      <c r="K185" s="59">
         <f>IF($E185=2,$D185," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="L185" s="60"/>
       <c r="M185" s="53" t="str">
         <f>IF($E185=3,$B185," ")</f>
-        <v>战力模型 - （进阶公式补充， 3-4章）</v>
-      </c>
-      <c r="N185" s="59">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N185" s="59" t="str">
         <f>IF($E185=3,$D185," ")</f>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O185" s="60"/>
       <c r="P185" s="53" t="str">
@@ -19243,475 +19223,498 @@
       </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
-      <c r="B186" s="108" t="s">
-        <v>254</v>
+      <c r="B186" s="106" t="s">
+        <v>694</v>
       </c>
       <c r="D186" s="54">
+        <v>1</v>
+      </c>
+      <c r="E186" s="54">
         <v>2</v>
       </c>
-      <c r="E186" s="54">
-        <v>3</v>
-      </c>
-      <c r="F186" s="53" t="s">
-        <v>692</v>
-      </c>
       <c r="G186" s="53" t="str">
-        <f t="shared" si="71"/>
+        <f>IF($E186=1,$B186," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H186" s="59" t="str">
-        <f t="shared" si="72"/>
+        <f>IF($E186=1,$D186," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I186" s="60"/>
       <c r="J186" s="53" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K186" s="59" t="str">
-        <f t="shared" si="74"/>
-        <v xml:space="preserve"> </v>
+        <f>IF($E186=2,$B186," ")</f>
+        <v>商店内容配置</v>
+      </c>
+      <c r="K186" s="59">
+        <f>IF($E186=2,$D186," ")</f>
+        <v>1</v>
       </c>
       <c r="L186" s="60"/>
       <c r="M186" s="53" t="str">
+        <f>IF($E186=3,$B186," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N186" s="59" t="str">
+        <f>IF($E186=3,$D186," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O186" s="60"/>
+      <c r="P186" s="53" t="str">
+        <f>IF($E186=4,$B186," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q186" s="59" t="str">
+        <f>IF($E186=4,$D186," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R186" s="60"/>
+      <c r="S186" s="53" t="str">
+        <f>IF($E186=5,$B186," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T186" s="59" t="str">
+        <f>IF($E186=5,$D186," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V186" s="53" t="str">
+        <f>IF($E186=6,$B186," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W186" s="76" t="str">
+        <f>IF($E186=6,$D186," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B187" s="108"/>
+      <c r="G187" s="53"/>
+      <c r="H187" s="59"/>
+      <c r="I187" s="60"/>
+      <c r="J187" s="53"/>
+      <c r="K187" s="59"/>
+      <c r="L187" s="60"/>
+      <c r="M187" s="53"/>
+      <c r="N187" s="59"/>
+      <c r="O187" s="60"/>
+      <c r="P187" s="53"/>
+      <c r="Q187" s="59"/>
+      <c r="R187" s="60"/>
+      <c r="S187" s="53"/>
+      <c r="T187" s="59"/>
+      <c r="V187" s="53"/>
+      <c r="W187" s="76"/>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B188" s="108" t="s">
+        <v>407</v>
+      </c>
+      <c r="D188" s="54">
+        <v>1</v>
+      </c>
+      <c r="E188" s="54">
+        <v>3</v>
+      </c>
+      <c r="F188" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G188" s="53" t="str">
+        <f>IF($E188=1,$B188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H188" s="59" t="str">
+        <f>IF($E188=1,$D188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I188" s="60"/>
+      <c r="J188" s="53" t="str">
+        <f>IF($E188=2,$B188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K188" s="59" t="str">
+        <f>IF($E188=2,$D188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L188" s="60"/>
+      <c r="M188" s="53" t="str">
+        <f>IF($E188=3,$B188," ")</f>
+        <v>第3 -4章副本配置Reward - debug</v>
+      </c>
+      <c r="N188" s="59">
+        <f>IF($E188=3,$D188," ")</f>
+        <v>1</v>
+      </c>
+      <c r="O188" s="60"/>
+      <c r="P188" s="53" t="str">
+        <f>IF($E188=4,$B188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q188" s="59" t="str">
+        <f>IF($E188=4,$D188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R188" s="60"/>
+      <c r="S188" s="53" t="str">
+        <f>IF($E188=5,$B188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T188" s="59" t="str">
+        <f>IF($E188=5,$D188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V188" s="53" t="str">
+        <f>IF($E188=6,$B188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W188" s="76" t="str">
+        <f>IF($E188=6,$D188," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="B189" s="106" t="s">
+        <v>722</v>
+      </c>
+      <c r="D189" s="54">
+        <v>2</v>
+      </c>
+      <c r="E189" s="54">
+        <v>3</v>
+      </c>
+      <c r="G189" s="53" t="str">
+        <f>IF($E189=1,$B189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H189" s="59" t="str">
+        <f>IF($E189=1,$D189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I189" s="60"/>
+      <c r="J189" s="53" t="str">
+        <f>IF($E189=2,$B189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K189" s="59" t="str">
+        <f>IF($E189=2,$D189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L189" s="60"/>
+      <c r="M189" s="53" t="str">
+        <f>IF($E189=3,$B189," ")</f>
+        <v>战力模型 - （进阶公式补充， 3-4章）</v>
+      </c>
+      <c r="N189" s="59">
+        <f>IF($E189=3,$D189," ")</f>
+        <v>2</v>
+      </c>
+      <c r="O189" s="60"/>
+      <c r="P189" s="53" t="str">
+        <f>IF($E189=4,$B189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q189" s="59" t="str">
+        <f>IF($E189=4,$D189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R189" s="60"/>
+      <c r="S189" s="53" t="str">
+        <f>IF($E189=5,$B189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T189" s="59" t="str">
+        <f>IF($E189=5,$D189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V189" s="53" t="str">
+        <f>IF($E189=6,$B189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W189" s="76" t="str">
+        <f>IF($E189=6,$D189," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="B190" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="D190" s="54">
+        <v>2</v>
+      </c>
+      <c r="E190" s="54">
+        <v>3</v>
+      </c>
+      <c r="F190" s="53" t="s">
+        <v>692</v>
+      </c>
+      <c r="G190" s="53" t="str">
+        <f t="shared" si="71"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H190" s="59" t="str">
+        <f t="shared" si="72"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I190" s="60"/>
+      <c r="J190" s="53" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K190" s="59" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L190" s="60"/>
+      <c r="M190" s="53" t="str">
         <f t="shared" si="75"/>
         <v>抽蛋内容设计</v>
       </c>
-      <c r="N186" s="59">
+      <c r="N190" s="59">
         <f t="shared" si="76"/>
         <v>2</v>
       </c>
-      <c r="O186" s="60"/>
-      <c r="P186" s="53" t="str">
+      <c r="O190" s="60"/>
+      <c r="P190" s="53" t="str">
         <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q186" s="59" t="str">
+      <c r="Q190" s="59" t="str">
         <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R186" s="60"/>
-      <c r="S186" s="53" t="str">
+      <c r="R190" s="60"/>
+      <c r="S190" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T186" s="59" t="str">
+      <c r="T190" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V186" s="53" t="str">
+      <c r="V190" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W186" s="76" t="str">
+      <c r="W190" s="76" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B187" s="5" t="s">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D187" s="54">
+      <c r="D191" s="54">
         <v>1</v>
       </c>
-      <c r="E187" s="54">
+      <c r="E191" s="54">
         <v>3</v>
       </c>
-      <c r="G187" s="53" t="str">
-        <f>IF($E187=1,$B187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H187" s="59" t="str">
-        <f>IF($E187=1,$D187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I187" s="60"/>
-      <c r="J187" s="53" t="str">
-        <f>IF($E187=2,$B187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K187" s="59" t="str">
-        <f>IF($E187=2,$D187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L187" s="60"/>
-      <c r="M187" s="53" t="str">
-        <f>IF($E187=3,$B187," ")</f>
+      <c r="G191" s="53" t="str">
+        <f>IF($E191=1,$B191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H191" s="59" t="str">
+        <f>IF($E191=1,$D191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I191" s="60"/>
+      <c r="J191" s="53" t="str">
+        <f>IF($E191=2,$B191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K191" s="59" t="str">
+        <f>IF($E191=2,$D191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L191" s="60"/>
+      <c r="M191" s="53" t="str">
+        <f>IF($E191=3,$B191," ")</f>
         <v>通天塔-金钱，经验副本配置</v>
       </c>
-      <c r="N187" s="59">
-        <f>IF($E187=3,$D187," ")</f>
+      <c r="N191" s="59">
+        <f>IF($E191=3,$D191," ")</f>
         <v>1</v>
       </c>
-      <c r="O187" s="60"/>
-      <c r="P187" s="53" t="str">
-        <f>IF($E187=4,$B187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q187" s="59" t="str">
-        <f>IF($E187=4,$D187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R187" s="60"/>
-      <c r="S187" s="53" t="str">
-        <f>IF($E187=5,$B187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T187" s="59" t="str">
-        <f>IF($E187=5,$D187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V187" s="53" t="str">
-        <f>IF($E187=6,$B187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W187" s="76" t="str">
-        <f>IF($E187=6,$D187," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
-      <c r="B188" s="52"/>
-      <c r="G188" s="53"/>
-      <c r="H188" s="59"/>
-      <c r="I188" s="60"/>
-      <c r="J188" s="53"/>
-      <c r="K188" s="59"/>
-      <c r="L188" s="60"/>
-      <c r="M188" s="53"/>
-      <c r="N188" s="59"/>
-      <c r="O188" s="60"/>
-      <c r="P188" s="53"/>
-      <c r="Q188" s="59"/>
-      <c r="R188" s="60"/>
-      <c r="S188" s="53"/>
-      <c r="T188" s="59"/>
-      <c r="V188" s="53"/>
-      <c r="W188" s="76"/>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
-      <c r="B189" s="52" t="s">
+      <c r="O191" s="60"/>
+      <c r="P191" s="53" t="str">
+        <f>IF($E191=4,$B191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q191" s="59" t="str">
+        <f>IF($E191=4,$D191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R191" s="60"/>
+      <c r="S191" s="53" t="str">
+        <f>IF($E191=5,$B191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T191" s="59" t="str">
+        <f>IF($E191=5,$D191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V191" s="53" t="str">
+        <f>IF($E191=6,$B191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W191" s="76" t="str">
+        <f>IF($E191=6,$D191," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A192" s="5"/>
+      <c r="B192" s="52"/>
+      <c r="G192" s="53"/>
+      <c r="H192" s="59"/>
+      <c r="I192" s="60"/>
+      <c r="J192" s="53"/>
+      <c r="K192" s="59"/>
+      <c r="L192" s="60"/>
+      <c r="M192" s="53"/>
+      <c r="N192" s="59"/>
+      <c r="O192" s="60"/>
+      <c r="P192" s="53"/>
+      <c r="Q192" s="59"/>
+      <c r="R192" s="60"/>
+      <c r="S192" s="53"/>
+      <c r="T192" s="59"/>
+      <c r="V192" s="53"/>
+      <c r="W192" s="76"/>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="B193" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="D189" s="54">
+      <c r="D193" s="54">
         <v>2</v>
       </c>
-      <c r="E189" s="54">
+      <c r="E193" s="54">
         <v>4</v>
       </c>
-      <c r="F189" s="53" t="s">
+      <c r="F193" s="53" t="s">
         <v>695</v>
       </c>
-      <c r="G189" s="53" t="str">
+      <c r="G193" s="53" t="str">
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H189" s="59" t="str">
+      <c r="H193" s="59" t="str">
         <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I189" s="60"/>
-      <c r="J189" s="53" t="str">
+      <c r="I193" s="60"/>
+      <c r="J193" s="53" t="str">
         <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K189" s="59" t="str">
+      <c r="K193" s="59" t="str">
         <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L189" s="60"/>
-      <c r="M189" s="53" t="str">
+      <c r="L193" s="60"/>
+      <c r="M193" s="53" t="str">
         <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N189" s="59" t="str">
+      <c r="N193" s="59" t="str">
         <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O189" s="60"/>
-      <c r="P189" s="53" t="str">
+      <c r="O193" s="60"/>
+      <c r="P193" s="53" t="str">
         <f t="shared" si="77"/>
         <v>PVP奖励配置</v>
       </c>
-      <c r="Q189" s="59">
+      <c r="Q193" s="59">
         <f t="shared" si="78"/>
         <v>2</v>
       </c>
-      <c r="R189" s="60"/>
-      <c r="S189" s="53" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T189" s="59" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V189" s="53" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W189" s="76" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B190" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D190" s="54">
-        <v>2</v>
-      </c>
-      <c r="E190" s="54">
-        <v>4</v>
-      </c>
-      <c r="G190" s="53" t="str">
-        <f>IF($E190=1,$B190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H190" s="59" t="str">
-        <f>IF($E190=1,$D190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I190" s="60"/>
-      <c r="J190" s="53" t="str">
-        <f>IF($E190=2,$B190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K190" s="59" t="str">
-        <f>IF($E190=2,$D190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L190" s="60"/>
-      <c r="M190" s="53" t="str">
-        <f>IF($E190=3,$B190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N190" s="59" t="str">
-        <f>IF($E190=3,$D190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O190" s="60"/>
-      <c r="P190" s="53" t="str">
-        <f>IF($E190=4,$B190," ")</f>
-        <v>通天塔-金钱，经验副本配置-debug</v>
-      </c>
-      <c r="Q190" s="59">
-        <f>IF($E190=4,$D190," ")</f>
-        <v>2</v>
-      </c>
-      <c r="R190" s="60"/>
-      <c r="S190" s="53" t="str">
-        <f>IF($E190=5,$B190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T190" s="59" t="str">
-        <f>IF($E190=5,$D190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V190" s="53" t="str">
-        <f>IF($E190=6,$B190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W190" s="76" t="str">
-        <f>IF($E190=6,$D190," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G191" s="53"/>
-      <c r="H191" s="59"/>
-      <c r="I191" s="60"/>
-      <c r="J191" s="53"/>
-      <c r="K191" s="59"/>
-      <c r="L191" s="60"/>
-      <c r="M191" s="53"/>
-      <c r="N191" s="59"/>
-      <c r="O191" s="60"/>
-      <c r="P191" s="53"/>
-      <c r="Q191" s="59"/>
-      <c r="R191" s="60"/>
-      <c r="S191" s="53"/>
-      <c r="T191" s="59"/>
-      <c r="V191" s="53"/>
-      <c r="W191" s="76"/>
-    </row>
-    <row r="192" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B192" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D192" s="54">
-        <v>2</v>
-      </c>
-      <c r="E192" s="54">
-        <v>5</v>
-      </c>
-      <c r="F192" s="53" t="s">
-        <v>690</v>
-      </c>
-      <c r="G192" s="53" t="str">
-        <f>IF($E192=1,$B192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H192" s="59" t="str">
-        <f>IF($E192=1,$D192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I192" s="60"/>
-      <c r="J192" s="53" t="str">
-        <f>IF($E192=2,$B192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K192" s="59" t="str">
-        <f>IF($E192=2,$D192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L192" s="60"/>
-      <c r="M192" s="53" t="str">
-        <f>IF($E192=3,$B192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N192" s="59" t="str">
-        <f>IF($E192=3,$D192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O192" s="60"/>
-      <c r="P192" s="53" t="str">
-        <f>IF($E192=4,$B192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q192" s="59" t="str">
-        <f>IF($E192=4,$D192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R192" s="60"/>
-      <c r="S192" s="53" t="str">
-        <f>IF($E192=5,$B192," ")</f>
-        <v>公会任务， 祈福， 科技 Reward配置</v>
-      </c>
-      <c r="T192" s="59">
-        <f>IF($E192=5,$D192," ")</f>
-        <v>2</v>
-      </c>
-      <c r="V192" s="53" t="str">
-        <f>IF($E192=6,$B192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W192" s="76" t="str">
-        <f>IF($E192=6,$D192," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B193" s="52" t="s">
-        <v>691</v>
-      </c>
-      <c r="D193" s="54">
-        <v>2</v>
-      </c>
-      <c r="E193" s="54">
-        <v>5</v>
-      </c>
-      <c r="G193" s="53" t="str">
-        <f>IF($E193=1,$B193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H193" s="59" t="str">
-        <f>IF($E193=1,$D193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I193" s="60"/>
-      <c r="J193" s="53" t="str">
-        <f>IF($E193=2,$B193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K193" s="59" t="str">
-        <f>IF($E193=2,$D193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L193" s="60"/>
-      <c r="M193" s="53" t="str">
-        <f>IF($E193=3,$B193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N193" s="59" t="str">
-        <f>IF($E193=3,$D193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O193" s="60"/>
-      <c r="P193" s="53" t="str">
-        <f>IF($E193=4,$B193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q193" s="59" t="str">
-        <f>IF($E193=4,$D193," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="R193" s="60"/>
       <c r="S193" s="53" t="str">
-        <f>IF($E193=5,$B193," ")</f>
-        <v>道具指引配置 - 4-8前相关</v>
-      </c>
-      <c r="T193" s="59">
-        <f>IF($E193=5,$D193," ")</f>
-        <v>2</v>
+        <f t="shared" si="79"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T193" s="59" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="V193" s="53" t="str">
-        <f>IF($E193=6,$B193," ")</f>
+        <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W193" s="76" t="str">
-        <f>IF($E193=6,$D193," ")</f>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="34" x14ac:dyDescent="0.25">
-      <c r="B194" s="52" t="s">
-        <v>408</v>
+      <c r="B194" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="D194" s="54">
         <v>2</v>
       </c>
       <c r="E194" s="54">
-        <v>5</v>
-      </c>
-      <c r="G194" s="53"/>
-      <c r="H194" s="59"/>
+        <v>4</v>
+      </c>
+      <c r="G194" s="53" t="str">
+        <f>IF($E194=1,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H194" s="59" t="str">
+        <f>IF($E194=1,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I194" s="60"/>
-      <c r="J194" s="53"/>
-      <c r="K194" s="59"/>
+      <c r="J194" s="53" t="str">
+        <f>IF($E194=2,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K194" s="59" t="str">
+        <f>IF($E194=2,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L194" s="60"/>
-      <c r="M194" s="53"/>
-      <c r="N194" s="59"/>
+      <c r="M194" s="53" t="str">
+        <f>IF($E194=3,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N194" s="59" t="str">
+        <f>IF($E194=3,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O194" s="60"/>
-      <c r="P194" s="53"/>
-      <c r="Q194" s="59"/>
+      <c r="P194" s="53" t="str">
+        <f>IF($E194=4,$B194," ")</f>
+        <v>通天塔-金钱，经验副本配置-debug</v>
+      </c>
+      <c r="Q194" s="59">
+        <f>IF($E194=4,$D194," ")</f>
+        <v>2</v>
+      </c>
       <c r="R194" s="60"/>
       <c r="S194" s="53" t="str">
-        <f t="shared" ref="S194:S195" si="83">IF($E194=5,$B194," ")</f>
-        <v>抽蛋，PVP，公会内容配置 - debug</v>
-      </c>
-      <c r="T194" s="59">
-        <f t="shared" ref="T194:T195" si="84">IF($E194=5,$D194," ")</f>
-        <v>2</v>
-      </c>
-      <c r="V194" s="53"/>
-      <c r="W194" s="76"/>
+        <f>IF($E194=5,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T194" s="59" t="str">
+        <f>IF($E194=5,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V194" s="53" t="str">
+        <f>IF($E194=6,$B194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W194" s="76" t="str">
+        <f>IF($E194=6,$D194," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B195" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="D195" s="54">
-        <v>2</v>
-      </c>
-      <c r="E195" s="54">
-        <v>5</v>
-      </c>
       <c r="G195" s="53"/>
       <c r="H195" s="59"/>
       <c r="I195" s="60"/>
@@ -19724,19 +19727,21 @@
       <c r="P195" s="53"/>
       <c r="Q195" s="59"/>
       <c r="R195" s="60"/>
-      <c r="S195" s="53" t="str">
-        <f t="shared" si="83"/>
-        <v>收尾孔老师任务内容设计</v>
-      </c>
-      <c r="T195" s="59">
-        <f t="shared" si="84"/>
-        <v>2</v>
-      </c>
+      <c r="S195" s="53"/>
+      <c r="T195" s="59"/>
       <c r="V195" s="53"/>
       <c r="W195" s="76"/>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B196" s="52"/>
+      <c r="B196" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D196" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E196" s="54">
+        <v>5</v>
+      </c>
       <c r="G196" s="53"/>
       <c r="H196" s="59"/>
       <c r="I196" s="60"/>
@@ -19754,15 +19759,18 @@
       <c r="V196" s="53"/>
       <c r="W196" s="76"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="34" x14ac:dyDescent="0.25">
       <c r="B197" s="52" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="D197" s="54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E197" s="54">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F197" s="53" t="s">
+        <v>690</v>
       </c>
       <c r="G197" s="53" t="str">
         <f>IF($E197=1,$B197," ")</f>
@@ -19802,467 +19810,503 @@
       <c r="R197" s="60"/>
       <c r="S197" s="53" t="str">
         <f>IF($E197=5,$B197," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T197" s="59" t="str">
+        <v>公会任务， 祈福， 科技 Reward配置</v>
+      </c>
+      <c r="T197" s="59">
         <f>IF($E197=5,$D197," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="V197" s="53" t="str">
         <f>IF($E197=6,$B197," ")</f>
-        <v>任务内容配置</v>
-      </c>
-      <c r="W197" s="76">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W197" s="76" t="str">
         <f>IF($E197=6,$D197," ")</f>
-        <v>4</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B198" s="52" t="s">
-        <v>410</v>
+        <v>691</v>
       </c>
       <c r="D198" s="54">
         <v>2</v>
       </c>
       <c r="E198" s="54">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G198" s="53" t="str">
+        <f>IF($E198=1,$B198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H198" s="59" t="str">
+        <f>IF($E198=1,$D198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I198" s="60"/>
+      <c r="J198" s="53" t="str">
+        <f>IF($E198=2,$B198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K198" s="59" t="str">
+        <f>IF($E198=2,$D198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L198" s="60"/>
+      <c r="M198" s="53" t="str">
+        <f>IF($E198=3,$B198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N198" s="59" t="str">
+        <f>IF($E198=3,$D198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O198" s="60"/>
+      <c r="P198" s="53" t="str">
+        <f>IF($E198=4,$B198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q198" s="59" t="str">
+        <f>IF($E198=4,$D198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R198" s="60"/>
+      <c r="S198" s="53" t="str">
+        <f>IF($E198=5,$B198," ")</f>
+        <v>道具指引配置 - 4-8前相关</v>
+      </c>
+      <c r="T198" s="59">
+        <f>IF($E198=5,$D198," ")</f>
+        <v>2</v>
       </c>
       <c r="V198" s="53" t="str">
         <f>IF($E198=6,$B198," ")</f>
-        <v>任务内容配置 - debug</v>
-      </c>
-      <c r="W198" s="76">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W198" s="76" t="str">
         <f>IF($E198=6,$D198," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" ht="34" x14ac:dyDescent="0.25">
+      <c r="B199" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="D199" s="54">
         <v>2</v>
       </c>
+      <c r="E199" s="54">
+        <v>5</v>
+      </c>
+      <c r="G199" s="53"/>
+      <c r="H199" s="59"/>
+      <c r="I199" s="60"/>
+      <c r="J199" s="53"/>
+      <c r="K199" s="59"/>
+      <c r="L199" s="60"/>
+      <c r="M199" s="53"/>
+      <c r="N199" s="59"/>
+      <c r="O199" s="60"/>
+      <c r="P199" s="53"/>
+      <c r="Q199" s="59"/>
+      <c r="R199" s="60"/>
+      <c r="S199" s="53" t="str">
+        <f t="shared" ref="S199:S200" si="83">IF($E199=5,$B199," ")</f>
+        <v>抽蛋，PVP，公会内容配置 - debug</v>
+      </c>
+      <c r="T199" s="59">
+        <f t="shared" ref="T199:T200" si="84">IF($E199=5,$D199," ")</f>
+        <v>2</v>
+      </c>
+      <c r="V199" s="53"/>
+      <c r="W199" s="76"/>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
-      <c r="G200" s="53" t="str">
-        <f t="shared" si="71"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H200" s="59" t="str">
-        <f t="shared" si="72"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B200" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="D200" s="54">
+        <v>2</v>
+      </c>
+      <c r="E200" s="54">
+        <v>5</v>
+      </c>
+      <c r="G200" s="53"/>
+      <c r="H200" s="59"/>
       <c r="I200" s="60"/>
-      <c r="J200" s="53" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K200" s="59" t="str">
-        <f t="shared" si="74"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J200" s="53"/>
+      <c r="K200" s="59"/>
       <c r="L200" s="60"/>
-      <c r="M200" s="53" t="str">
-        <f t="shared" si="75"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N200" s="59" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M200" s="53"/>
+      <c r="N200" s="59"/>
       <c r="O200" s="60"/>
-      <c r="P200" s="53" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q200" s="59" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P200" s="53"/>
+      <c r="Q200" s="59"/>
       <c r="R200" s="60"/>
       <c r="S200" s="53" t="str">
+        <f t="shared" si="83"/>
+        <v>收尾孔老师任务内容设计</v>
+      </c>
+      <c r="T200" s="59">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
+      <c r="V200" s="53"/>
+      <c r="W200" s="76"/>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B201" s="52"/>
+      <c r="G201" s="53"/>
+      <c r="H201" s="59"/>
+      <c r="I201" s="60"/>
+      <c r="J201" s="53"/>
+      <c r="K201" s="59"/>
+      <c r="L201" s="60"/>
+      <c r="M201" s="53"/>
+      <c r="N201" s="59"/>
+      <c r="O201" s="60"/>
+      <c r="P201" s="53"/>
+      <c r="Q201" s="59"/>
+      <c r="R201" s="60"/>
+      <c r="S201" s="53"/>
+      <c r="T201" s="59"/>
+      <c r="V201" s="53"/>
+      <c r="W201" s="76"/>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B202" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D202" s="54">
+        <v>4</v>
+      </c>
+      <c r="E202" s="54">
+        <v>6</v>
+      </c>
+      <c r="G202" s="53" t="str">
+        <f>IF($E202=1,$B202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H202" s="59" t="str">
+        <f>IF($E202=1,$D202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I202" s="60"/>
+      <c r="J202" s="53" t="str">
+        <f>IF($E202=2,$B202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K202" s="59" t="str">
+        <f>IF($E202=2,$D202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L202" s="60"/>
+      <c r="M202" s="53" t="str">
+        <f>IF($E202=3,$B202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N202" s="59" t="str">
+        <f>IF($E202=3,$D202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O202" s="60"/>
+      <c r="P202" s="53" t="str">
+        <f>IF($E202=4,$B202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q202" s="59" t="str">
+        <f>IF($E202=4,$D202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R202" s="60"/>
+      <c r="S202" s="53" t="str">
+        <f>IF($E202=5,$B202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T202" s="59" t="str">
+        <f>IF($E202=5,$D202," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V202" s="53" t="str">
+        <f>IF($E202=6,$B202," ")</f>
+        <v>任务内容配置</v>
+      </c>
+      <c r="W202" s="76">
+        <f>IF($E202=6,$D202," ")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B203" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="D203" s="54">
+        <v>2</v>
+      </c>
+      <c r="E203" s="54">
+        <v>6</v>
+      </c>
+      <c r="V203" s="53" t="str">
+        <f>IF($E203=6,$B203," ")</f>
+        <v>任务内容配置 - debug</v>
+      </c>
+      <c r="W203" s="76">
+        <f>IF($E203=6,$D203," ")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="G205" s="53" t="str">
+        <f t="shared" si="71"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H205" s="59" t="str">
+        <f t="shared" si="72"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I205" s="60"/>
+      <c r="J205" s="53" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K205" s="59" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L205" s="60"/>
+      <c r="M205" s="53" t="str">
+        <f t="shared" si="75"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N205" s="59" t="str">
+        <f t="shared" si="76"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O205" s="60"/>
+      <c r="P205" s="53" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q205" s="59" t="str">
+        <f t="shared" si="78"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R205" s="60"/>
+      <c r="S205" s="53" t="str">
         <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T200" s="59" t="str">
+      <c r="T205" s="59" t="str">
         <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V200" s="53" t="str">
+      <c r="V205" s="53" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W200" s="76" t="str">
+      <c r="W205" s="76" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="201" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="37" t="s">
+    <row r="206" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C201" s="37"/>
-      <c r="D201" s="35">
-        <f>SUM(D177:D200)</f>
-        <v>32.5</v>
-      </c>
-      <c r="E201" s="35"/>
-      <c r="F201" s="36"/>
-      <c r="H201" s="35">
-        <f>SUM(H177:H200)</f>
+      <c r="C206" s="37"/>
+      <c r="D206" s="35">
+        <f>SUM(D181:D205)</f>
+        <v>33</v>
+      </c>
+      <c r="E206" s="35"/>
+      <c r="F206" s="36"/>
+      <c r="H206" s="35">
+        <f>SUM(H181:H205)</f>
         <v>2.5</v>
       </c>
-      <c r="I201" s="38"/>
-      <c r="K201" s="35">
-        <f>SUM(K177:K200)</f>
+      <c r="I206" s="38"/>
+      <c r="K206" s="35">
+        <f>SUM(K181:K205)</f>
         <v>6</v>
       </c>
-      <c r="L201" s="38"/>
-      <c r="N201" s="35">
-        <f>SUM(N177:N200)</f>
+      <c r="L206" s="38"/>
+      <c r="N206" s="35">
+        <f>SUM(N181:N205)</f>
         <v>6</v>
       </c>
-      <c r="O201" s="38"/>
-      <c r="Q201" s="35">
-        <f>SUM(Q177:Q200)</f>
+      <c r="O206" s="38"/>
+      <c r="Q206" s="35">
+        <f>SUM(Q181:Q205)</f>
         <v>4</v>
       </c>
-      <c r="R201" s="38"/>
-      <c r="T201" s="35">
-        <f>SUM(T177:T200)</f>
+      <c r="R206" s="38"/>
+      <c r="T206" s="35">
+        <f>SUM(T181:T205)</f>
         <v>8</v>
       </c>
-      <c r="U201" s="38"/>
-      <c r="W201" s="35">
-        <f>SUM(W177:W200)</f>
+      <c r="U206" s="38"/>
+      <c r="W206" s="35">
+        <f>SUM(W181:W205)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="37"/>
-      <c r="C202" s="37"/>
-      <c r="D202" s="35"/>
-      <c r="E202" s="35"/>
-      <c r="F202" s="36"/>
-      <c r="H202" s="35"/>
-      <c r="I202" s="38"/>
-      <c r="K202" s="35"/>
-      <c r="L202" s="38"/>
-      <c r="N202" s="35"/>
-      <c r="O202" s="38"/>
-      <c r="Q202" s="35"/>
-      <c r="R202" s="38"/>
-      <c r="T202" s="35"/>
-      <c r="U202" s="38"/>
-      <c r="W202" s="37"/>
-    </row>
-    <row r="203" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="35"/>
-      <c r="E203" s="35"/>
-      <c r="F203" s="36"/>
-      <c r="H203" s="35"/>
-      <c r="I203" s="38"/>
-      <c r="K203" s="35"/>
-      <c r="L203" s="38"/>
-      <c r="N203" s="35"/>
-      <c r="O203" s="38"/>
-      <c r="Q203" s="35"/>
-      <c r="R203" s="38"/>
-      <c r="T203" s="35"/>
-      <c r="U203" s="38"/>
-      <c r="W203" s="37"/>
-    </row>
-    <row r="204" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="73" t="s">
+    <row r="207" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="37"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="35"/>
+      <c r="E207" s="35"/>
+      <c r="F207" s="36"/>
+      <c r="H207" s="35"/>
+      <c r="I207" s="38"/>
+      <c r="K207" s="35"/>
+      <c r="L207" s="38"/>
+      <c r="N207" s="35"/>
+      <c r="O207" s="38"/>
+      <c r="Q207" s="35"/>
+      <c r="R207" s="38"/>
+      <c r="T207" s="35"/>
+      <c r="U207" s="38"/>
+      <c r="W207" s="37"/>
+    </row>
+    <row r="208" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="37"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="35"/>
+      <c r="E208" s="35"/>
+      <c r="F208" s="36"/>
+      <c r="H208" s="35"/>
+      <c r="I208" s="38"/>
+      <c r="K208" s="35"/>
+      <c r="L208" s="38"/>
+      <c r="N208" s="35"/>
+      <c r="O208" s="38"/>
+      <c r="Q208" s="35"/>
+      <c r="R208" s="38"/>
+      <c r="T208" s="35"/>
+      <c r="U208" s="38"/>
+      <c r="W208" s="37"/>
+    </row>
+    <row r="209" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="C204" s="37"/>
-      <c r="D204" s="35"/>
-      <c r="E204" s="35"/>
-      <c r="F204" s="36"/>
-      <c r="H204" s="35"/>
-      <c r="I204" s="38"/>
-      <c r="K204" s="35"/>
-      <c r="L204" s="38"/>
-      <c r="N204" s="35"/>
-      <c r="O204" s="38"/>
-      <c r="Q204" s="35"/>
-      <c r="R204" s="38"/>
-      <c r="T204" s="35"/>
-      <c r="U204" s="38"/>
-      <c r="W204" s="37"/>
-    </row>
-    <row r="205" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="37"/>
-      <c r="C205" s="37"/>
-      <c r="D205" s="35"/>
-      <c r="E205" s="35"/>
-      <c r="F205" s="36"/>
-      <c r="H205" s="35"/>
-      <c r="I205" s="38"/>
-      <c r="K205" s="35"/>
-      <c r="L205" s="38"/>
-      <c r="N205" s="35"/>
-      <c r="O205" s="38"/>
-      <c r="Q205" s="35"/>
-      <c r="R205" s="38"/>
-      <c r="T205" s="35"/>
-      <c r="U205" s="38"/>
-      <c r="W205" s="37"/>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
-      <c r="B206" s="56" t="s">
+      <c r="C209" s="37"/>
+      <c r="D209" s="35"/>
+      <c r="E209" s="35"/>
+      <c r="F209" s="36"/>
+      <c r="H209" s="35"/>
+      <c r="I209" s="38"/>
+      <c r="K209" s="35"/>
+      <c r="L209" s="38"/>
+      <c r="N209" s="35"/>
+      <c r="O209" s="38"/>
+      <c r="Q209" s="35"/>
+      <c r="R209" s="38"/>
+      <c r="T209" s="35"/>
+      <c r="U209" s="38"/>
+      <c r="W209" s="37"/>
+    </row>
+    <row r="210" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="37"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="35"/>
+      <c r="E210" s="35"/>
+      <c r="F210" s="36"/>
+      <c r="H210" s="35"/>
+      <c r="I210" s="38"/>
+      <c r="K210" s="35"/>
+      <c r="L210" s="38"/>
+      <c r="N210" s="35"/>
+      <c r="O210" s="38"/>
+      <c r="Q210" s="35"/>
+      <c r="R210" s="38"/>
+      <c r="T210" s="35"/>
+      <c r="U210" s="38"/>
+      <c r="W210" s="37"/>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="56" t="s">
         <v>715</v>
       </c>
-      <c r="C206" s="57"/>
-      <c r="D206" s="54">
+      <c r="C211" s="57"/>
+      <c r="D211" s="54">
         <v>2</v>
       </c>
-      <c r="E206" s="54">
+      <c r="E211" s="54">
         <v>7</v>
       </c>
-      <c r="H206" s="54"/>
-      <c r="K206" s="54"/>
-      <c r="N206" s="54"/>
-      <c r="Q206" s="54"/>
-      <c r="T206" s="54"/>
-    </row>
-    <row r="207" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="56" t="s">
+      <c r="H211" s="54"/>
+      <c r="K211" s="54"/>
+      <c r="N211" s="54"/>
+      <c r="Q211" s="54"/>
+      <c r="T211" s="54"/>
+    </row>
+    <row r="212" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="56" t="s">
         <v>696</v>
       </c>
-      <c r="D207" s="57">
+      <c r="D212" s="57">
         <v>3</v>
-      </c>
-      <c r="E207" s="57">
-        <v>7</v>
-      </c>
-      <c r="F207" s="53" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="D208" s="57">
-        <v>4</v>
-      </c>
-      <c r="E208" s="57">
-        <v>7</v>
-      </c>
-      <c r="F208" s="53"/>
-    </row>
-    <row r="209" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="D209" s="57">
-        <v>2</v>
-      </c>
-      <c r="E209" s="57">
-        <v>7</v>
-      </c>
-      <c r="F209" s="53"/>
-    </row>
-    <row r="210" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="56" t="s">
-        <v>683</v>
-      </c>
-      <c r="D210" s="57">
-        <v>3</v>
-      </c>
-      <c r="E210" s="57">
-        <v>7</v>
-      </c>
-      <c r="F210" s="53" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B211" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D211" s="57">
-        <v>1.5</v>
-      </c>
-      <c r="E211" s="57">
-        <v>7</v>
-      </c>
-      <c r="G211" s="53"/>
-      <c r="H211" s="59"/>
-      <c r="I211" s="60"/>
-      <c r="J211" s="53" t="str">
-        <f>IF($E211=2,$B211," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K211" s="59" t="str">
-        <f>IF($E211=2,$D211," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L211" s="60"/>
-      <c r="M211" s="53"/>
-      <c r="N211" s="59"/>
-      <c r="O211" s="60"/>
-      <c r="P211" s="53"/>
-      <c r="Q211" s="59"/>
-      <c r="R211" s="60"/>
-      <c r="S211" s="53"/>
-      <c r="T211" s="59"/>
-      <c r="U211" s="5"/>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B212" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="D212" s="57">
-        <v>1.5</v>
       </c>
       <c r="E212" s="57">
         <v>7</v>
       </c>
-      <c r="G212" s="53"/>
-      <c r="H212" s="59"/>
-      <c r="I212" s="60"/>
-      <c r="J212" s="53"/>
-      <c r="K212" s="59"/>
-      <c r="L212" s="60"/>
-      <c r="M212" s="53"/>
-      <c r="N212" s="59"/>
-      <c r="O212" s="60"/>
-      <c r="P212" s="53"/>
-      <c r="Q212" s="59"/>
-      <c r="R212" s="60"/>
-      <c r="S212" s="53"/>
-      <c r="T212" s="59"/>
-      <c r="U212" s="5"/>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5" t="s">
-        <v>123</v>
+      <c r="F212" s="53" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="56" t="s">
+        <v>411</v>
       </c>
       <c r="D213" s="57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E213" s="57">
         <v>7</v>
       </c>
-      <c r="G213" s="53" t="str">
-        <f>IF($E213=1,$B213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H213" s="59" t="str">
-        <f>IF($E213=1,$D213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I213" s="60"/>
-      <c r="J213" s="53" t="str">
-        <f>IF($E213=2,$B213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K213" s="59" t="str">
-        <f>IF($E213=2,$D213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L213" s="60"/>
-      <c r="M213" s="53" t="str">
-        <f>IF($E213=3,$B213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N213" s="59" t="str">
-        <f>IF($E213=3,$D213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O213" s="60"/>
-      <c r="P213" s="53" t="str">
-        <f>IF($E213=4,$B213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q213" s="59" t="str">
-        <f>IF($E213=4,$D213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R213" s="60"/>
-      <c r="S213" s="53" t="str">
-        <f>IF($E213=5,$B213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T213" s="59" t="str">
-        <f>IF($E213=5,$D213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V213" s="53" t="str">
-        <f>IF($E213=6,$B213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W213" s="76" t="str">
-        <f>IF($E213=6,$D213," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5" t="s">
-        <v>424</v>
+      <c r="F213" s="53"/>
+    </row>
+    <row r="214" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="56" t="s">
+        <v>412</v>
       </c>
       <c r="D214" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E214" s="57">
         <v>7</v>
       </c>
-      <c r="G214" s="53"/>
-      <c r="H214" s="59"/>
-      <c r="I214" s="60"/>
-      <c r="J214" s="53"/>
-      <c r="K214" s="59"/>
-      <c r="L214" s="60"/>
-      <c r="M214" s="53"/>
-      <c r="N214" s="59"/>
-      <c r="O214" s="60"/>
-      <c r="P214" s="53"/>
-      <c r="Q214" s="59"/>
-      <c r="R214" s="60"/>
-      <c r="S214" s="53"/>
-      <c r="T214" s="59"/>
-      <c r="V214" s="53"/>
-      <c r="W214" s="76"/>
-    </row>
-    <row r="215" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="35"/>
-      <c r="E215" s="57"/>
-      <c r="F215" s="36"/>
-      <c r="H215" s="35"/>
-      <c r="I215" s="38"/>
-      <c r="K215" s="35"/>
-      <c r="L215" s="38"/>
-      <c r="N215" s="35"/>
-      <c r="O215" s="38"/>
-      <c r="Q215" s="35"/>
-      <c r="R215" s="38"/>
-      <c r="T215" s="35"/>
-      <c r="U215" s="38"/>
-      <c r="W215" s="37"/>
+      <c r="F214" s="53"/>
+    </row>
+    <row r="215" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="D215" s="57">
+        <v>3</v>
+      </c>
+      <c r="E215" s="57">
+        <v>7</v>
+      </c>
+      <c r="F215" s="53" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
       <c r="B216" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D216" s="54">
-        <v>6</v>
+        <v>688</v>
+      </c>
+      <c r="D216" s="57">
+        <v>1.5</v>
       </c>
       <c r="E216" s="57">
         <v>7</v>
       </c>
-      <c r="G216" s="53" t="str">
-        <f>IF($E216=1,$B216," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H216" s="59" t="str">
-        <f>IF($E216=1,$D216," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G216" s="53"/>
+      <c r="H216" s="59"/>
       <c r="I216" s="60"/>
       <c r="J216" s="53" t="str">
         <f>IF($E216=2,$B216," ")</f>
@@ -20273,39 +20317,22 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="L216" s="60"/>
-      <c r="M216" s="53" t="str">
-        <f>IF($E216=3,$B216," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N216" s="59" t="str">
-        <f>IF($E216=3,$D216," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M216" s="53"/>
+      <c r="N216" s="59"/>
       <c r="O216" s="60"/>
-      <c r="P216" s="53" t="str">
-        <f>IF($E216=4,$B216," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q216" s="59" t="str">
-        <f>IF($E216=4,$D216," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P216" s="53"/>
+      <c r="Q216" s="59"/>
       <c r="R216" s="60"/>
-      <c r="S216" s="53" t="str">
-        <f>IF($E216=5,$B216," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T216" s="59" t="str">
-        <f>IF($E216=5,$D216," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S216" s="53"/>
+      <c r="T216" s="59"/>
       <c r="U216" s="5"/>
-      <c r="W216" s="5"/>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
       <c r="B217" s="5" t="s">
-        <v>124</v>
+        <v>689</v>
+      </c>
+      <c r="D217" s="57">
+        <v>1.5</v>
       </c>
       <c r="E217" s="57">
         <v>7</v>
@@ -20325,219 +20352,339 @@
       <c r="S217" s="53"/>
       <c r="T217" s="59"/>
       <c r="U217" s="5"/>
-      <c r="W217" s="5"/>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D218" s="57">
+        <v>2</v>
+      </c>
+      <c r="E218" s="57">
+        <v>7</v>
+      </c>
+      <c r="G218" s="53" t="str">
+        <f>IF($E218=1,$B218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H218" s="59" t="str">
+        <f>IF($E218=1,$D218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I218" s="60"/>
+      <c r="J218" s="53" t="str">
+        <f>IF($E218=2,$B218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K218" s="59" t="str">
+        <f>IF($E218=2,$D218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L218" s="60"/>
+      <c r="M218" s="53" t="str">
+        <f>IF($E218=3,$B218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N218" s="59" t="str">
+        <f>IF($E218=3,$D218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O218" s="60"/>
+      <c r="P218" s="53" t="str">
+        <f>IF($E218=4,$B218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q218" s="59" t="str">
+        <f>IF($E218=4,$D218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R218" s="60"/>
+      <c r="S218" s="53" t="str">
+        <f>IF($E218=5,$B218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T218" s="59" t="str">
+        <f>IF($E218=5,$D218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V218" s="53" t="str">
+        <f>IF($E218=6,$B218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W218" s="76" t="str">
+        <f>IF($E218=6,$D218," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B219" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="D219" s="35">
-        <f>SUM(D208:D217)</f>
-        <v>23</v>
-      </c>
-      <c r="W219" s="5"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D219" s="57">
+        <v>3</v>
+      </c>
+      <c r="E219" s="57">
+        <v>7</v>
+      </c>
+      <c r="G219" s="53"/>
+      <c r="H219" s="59"/>
+      <c r="I219" s="60"/>
+      <c r="J219" s="53"/>
+      <c r="K219" s="59"/>
+      <c r="L219" s="60"/>
+      <c r="M219" s="53"/>
+      <c r="N219" s="59"/>
+      <c r="O219" s="60"/>
+      <c r="P219" s="53"/>
+      <c r="Q219" s="59"/>
+      <c r="R219" s="60"/>
+      <c r="S219" s="53"/>
+      <c r="T219" s="59"/>
+      <c r="V219" s="53"/>
+      <c r="W219" s="76"/>
+    </row>
+    <row r="220" spans="1:23" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="37"/>
+      <c r="C220" s="37"/>
+      <c r="D220" s="35"/>
+      <c r="E220" s="57"/>
+      <c r="F220" s="36"/>
+      <c r="H220" s="35"/>
+      <c r="I220" s="38"/>
+      <c r="K220" s="35"/>
+      <c r="L220" s="38"/>
+      <c r="N220" s="35"/>
+      <c r="O220" s="38"/>
+      <c r="Q220" s="35"/>
+      <c r="R220" s="38"/>
+      <c r="T220" s="35"/>
+      <c r="U220" s="38"/>
+      <c r="W220" s="37"/>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
-      <c r="B221" s="34" t="s">
+      <c r="B221" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D221" s="54">
+        <v>6</v>
+      </c>
+      <c r="E221" s="57">
+        <v>7</v>
+      </c>
+      <c r="G221" s="53" t="str">
+        <f>IF($E221=1,$B221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H221" s="59" t="str">
+        <f>IF($E221=1,$D221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I221" s="60"/>
+      <c r="J221" s="53" t="str">
+        <f>IF($E221=2,$B221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K221" s="59" t="str">
+        <f>IF($E221=2,$D221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L221" s="60"/>
+      <c r="M221" s="53" t="str">
+        <f>IF($E221=3,$B221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N221" s="59" t="str">
+        <f>IF($E221=3,$D221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O221" s="60"/>
+      <c r="P221" s="53" t="str">
+        <f>IF($E221=4,$B221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q221" s="59" t="str">
+        <f>IF($E221=4,$D221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R221" s="60"/>
+      <c r="S221" s="53" t="str">
+        <f>IF($E221=5,$B221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T221" s="59" t="str">
+        <f>IF($E221=5,$D221," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U221" s="5"/>
+      <c r="W221" s="5"/>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E222" s="57">
+        <v>7</v>
+      </c>
+      <c r="G222" s="53"/>
+      <c r="H222" s="59"/>
+      <c r="I222" s="60"/>
+      <c r="J222" s="53"/>
+      <c r="K222" s="59"/>
+      <c r="L222" s="60"/>
+      <c r="M222" s="53"/>
+      <c r="N222" s="59"/>
+      <c r="O222" s="60"/>
+      <c r="P222" s="53"/>
+      <c r="Q222" s="59"/>
+      <c r="R222" s="60"/>
+      <c r="S222" s="53"/>
+      <c r="T222" s="59"/>
+      <c r="U222" s="5"/>
+      <c r="W222" s="5"/>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B224" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="D224" s="35">
+        <f>SUM(D213:D222)</f>
+        <v>23</v>
+      </c>
+      <c r="W224" s="5"/>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A226" s="5"/>
+      <c r="B226" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C221" s="34"/>
-      <c r="D221" s="35"/>
-      <c r="G221" s="34" t="s">
+      <c r="C226" s="34"/>
+      <c r="D226" s="35"/>
+      <c r="G226" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H221" s="37"/>
-      <c r="I221" s="38"/>
-      <c r="J221" s="34" t="s">
+      <c r="H226" s="37"/>
+      <c r="I226" s="38"/>
+      <c r="J226" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="K221" s="34"/>
-      <c r="L221" s="38"/>
-      <c r="M221" s="34" t="s">
+      <c r="K226" s="34"/>
+      <c r="L226" s="38"/>
+      <c r="M226" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="N221" s="34"/>
-      <c r="O221" s="38"/>
-      <c r="P221" s="34" t="s">
+      <c r="N226" s="34"/>
+      <c r="O226" s="38"/>
+      <c r="P226" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="Q221" s="34"/>
-      <c r="R221" s="38"/>
-      <c r="S221" s="34" t="s">
+      <c r="Q226" s="34"/>
+      <c r="R226" s="38"/>
+      <c r="S226" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="W221" s="5"/>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A225" s="5"/>
-      <c r="G225" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H225" s="37"/>
-      <c r="I225" s="38"/>
-      <c r="J225" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="K225" s="34"/>
-      <c r="L225" s="38"/>
-      <c r="M225" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="N225" s="34"/>
-      <c r="O225" s="38"/>
-      <c r="P225" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q225" s="34"/>
-      <c r="R225" s="38"/>
-      <c r="S225" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="W225" s="5"/>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A227" s="5"/>
-      <c r="G227" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J227" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="M227" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="P227" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W227" s="5"/>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
-      <c r="G228" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J228" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="M228" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="U228" s="5"/>
-      <c r="W228" s="5"/>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A229" s="5"/>
-      <c r="U229" s="5"/>
-      <c r="W229" s="5"/>
+      <c r="W226" s="5"/>
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
-      <c r="U230" s="5"/>
+      <c r="G230" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H230" s="37"/>
+      <c r="I230" s="38"/>
+      <c r="J230" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="K230" s="34"/>
+      <c r="L230" s="38"/>
+      <c r="M230" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="N230" s="34"/>
+      <c r="O230" s="38"/>
+      <c r="P230" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q230" s="34"/>
+      <c r="R230" s="38"/>
+      <c r="S230" s="34" t="s">
+        <v>127</v>
+      </c>
       <c r="W230" s="5"/>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A231" s="5"/>
-      <c r="G231" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="H231" s="37"/>
-      <c r="I231" s="34"/>
-      <c r="J231" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="K231" s="34"/>
-      <c r="L231" s="34"/>
-      <c r="M231" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="N231" s="34"/>
-      <c r="O231" s="34"/>
-      <c r="P231" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q231" s="34"/>
-      <c r="R231" s="34"/>
-      <c r="S231" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="U231" s="5"/>
-      <c r="W231" s="5"/>
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
-      <c r="I232" s="5"/>
-      <c r="L232" s="5"/>
-      <c r="O232" s="5"/>
-      <c r="R232" s="5"/>
-      <c r="U232" s="5"/>
+      <c r="G232" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="M232" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="P232" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="W232" s="5"/>
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
-      <c r="I233" s="5"/>
-      <c r="L233" s="5"/>
-      <c r="O233" s="5"/>
-      <c r="R233" s="5"/>
+      <c r="G233" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J233" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="M233" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="U233" s="5"/>
       <c r="W233" s="5"/>
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
-      <c r="G234" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="I234" s="5"/>
-      <c r="J234" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="L234" s="5"/>
-      <c r="M234" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="O234" s="5"/>
-      <c r="P234" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="R234" s="5"/>
-      <c r="S234" s="34" t="s">
-        <v>417</v>
-      </c>
       <c r="U234" s="5"/>
       <c r="W234" s="5"/>
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="L235" s="5"/>
-      <c r="O235" s="5"/>
-      <c r="R235" s="5"/>
       <c r="U235" s="5"/>
       <c r="W235" s="5"/>
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
-      <c r="G236" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I236" s="5"/>
-      <c r="J236" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="L236" s="5"/>
-      <c r="O236" s="5"/>
-      <c r="R236" s="5"/>
-      <c r="S236" s="5" t="s">
-        <v>420</v>
+      <c r="G236" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H236" s="37"/>
+      <c r="I236" s="34"/>
+      <c r="J236" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="K236" s="34"/>
+      <c r="L236" s="34"/>
+      <c r="M236" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="N236" s="34"/>
+      <c r="O236" s="34"/>
+      <c r="P236" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q236" s="34"/>
+      <c r="R236" s="34"/>
+      <c r="S236" s="34" t="s">
+        <v>128</v>
       </c>
       <c r="U236" s="5"/>
       <c r="W236" s="5"/>
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
-      <c r="G237" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="I237" s="5"/>
       <c r="L237" s="5"/>
       <c r="O237" s="5"/>
@@ -20546,30 +20693,102 @@
       <c r="W237" s="5"/>
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G238" s="5" t="s">
+      <c r="A238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="L238" s="5"/>
+      <c r="O238" s="5"/>
+      <c r="R238" s="5"/>
+      <c r="U238" s="5"/>
+      <c r="W238" s="5"/>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="G239" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="I239" s="5"/>
+      <c r="J239" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="L239" s="5"/>
+      <c r="M239" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="O239" s="5"/>
+      <c r="P239" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="R239" s="5"/>
+      <c r="S239" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="U239" s="5"/>
+      <c r="W239" s="5"/>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="L240" s="5"/>
+      <c r="O240" s="5"/>
+      <c r="R240" s="5"/>
+      <c r="U240" s="5"/>
+      <c r="W240" s="5"/>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A241" s="5"/>
+      <c r="G241" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="L241" s="5"/>
+      <c r="O241" s="5"/>
+      <c r="R241" s="5"/>
+      <c r="S241" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="U241" s="5"/>
+      <c r="W241" s="5"/>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A242" s="5"/>
+      <c r="G242" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I242" s="5"/>
+      <c r="L242" s="5"/>
+      <c r="O242" s="5"/>
+      <c r="R242" s="5"/>
+      <c r="U242" s="5"/>
+      <c r="W242" s="5"/>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G243" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="W238" s="5"/>
-    </row>
-    <row r="242" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B242" s="90" t="s">
+      <c r="W243" s="5"/>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B247" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="W242" s="5"/>
+      <c r="W247" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J31 M31 B74:D74 F164:G166 F82 B201:D203 K202:K210 N202:N210 H201:H210 T202:T210 Q202:Q210 B57:D57 C70:D72 B113 D113 D94:D95 B112:D112 F168 B205:D210 C204:D204 B215:D215 Q215 T215 H215 N215 K215 B97:D97 D98 G171 F156:F157 F170:G170 B31:D33 B36:D39 B41:D41 F131:G131 F132:F148 P75:P76 G75:G76 S75:S76 V76:W76 D67 D42 D50 V67:W67 D53:D54 P64:P73 G64:G73 M64:M76 J64:J76 S64:S73 V70:W72 B86:D89 D100:D103 B114:D118 V213:W214 S211:S214 J211:J214 M211:M214 G211:G214 P211:P214 V200:W200 S200 J200 M200 G200 P200 P5:P22 G5:G22 M5:M22 J5:J22 V5:W22 V24:W24 B129:D129 B126:D126 G129 M129 J129 S129 P129 S5:S22 P164:P171 G167:G169 M164:M171 J164:J171 S164:S171 V132:W157 V167:W167 V158:V160 V161:W161 G132:G161 J131:J161 M131:M161 P131:P161 S131:S161 V78:W104 V111:W111 G78:G105 M78:M105 J78:J105 S78:S105 P78:P105 P24:P29 G24:G29 M24:M29 J24:J29 S24:S29 G107:G127 M107:M127 J107:J127 S107:S127 P107:P127 M216:M217 P216:P217 S216:S217 J216:J217 G216:G217 D56 B52:D52 B55:D55 P52:P62 G52:G62 M52:M62 J52:J62 S52:S62 V52:W61 G177:G197 V177:W198 S177:S197 P177:P197 M177:M197 J177:J197 C46:D48 P34:P50 G34:G50 M34:M50 J34:J50 S34:S50 V34:W50">
+  <conditionalFormatting sqref="J31 M31 B74:D74 F167:G170 F82 B206:D208 K207:K215 N207:N215 H206:H215 T207:T215 Q207:Q215 B56:D56 C69:D72 B114 D114 D94:D95 B113:D113 F172 B210:D215 C209:D209 B220:D220 Q220 T220 H220 N220 K220 B97:D97 D98 G175 F174:G174 B31:D33 B36:D39 B41:D41 F132:G132 F133:F149 P75:P76 G75:G76 S75:S76 V76:W76 D66 D42 D49 V66:W66 D52:D53 P63:P73 G63:G73 M63:M76 J63:J76 S63:S73 V69:W72 B86:D89 D100:D103 B115:D119 V218:W219 S216:S219 J216:J219 M216:M219 G216:G219 P216:P219 V205:W205 S205 J205 M205 G205 P205 P5:P22 G5:G22 M5:M22 J5:J22 V5:W22 V24:W24 B130:D130 B127:D127 G130 M130 J130 S130 P130 S5:S22 P167:P175 G171:G173 M167:M175 J167:J175 S167:S175 V171:W171 V164:W164 V78:W104 V112:W112 G78:G105 M78:M105 J78:J105 S78:S105 P78:P105 P24:P29 G24:G29 M24:M29 J24:J29 S24:S29 G107:G128 M107:M128 J107:J128 S107:S128 P107:P128 M221:M222 P221:P222 S221:S222 J221:J222 G221:G222 D55 B51:D51 B54:D54 G181:G202 V181:W203 S181:S202 P181:P202 M181:M202 J181:J202 C46:D46 C60:D60 P34:P46 P51:P61 G34:G46 G51:G61 M34:M46 M51:M61 J34:J46 J51:J61 S34:S46 S51:S61 V34:W46 V51:W60 P48:P49 G48:G49 M48:M49 J48:J49 S48:S49 V48:W49 V157:W157 V162:V163 V156 S162:S164 P162:P164 M162:M164 J162:J164 G162:G164 V133:W155 S132:S157 P132:P157 M132:M157 J132:J157 G133:G157 V159:W160 S159:S160 P159:P160 M159:M160 J159:J160 F159:G160">
     <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176 B176:D176 B164:D166 J130 C177:D177 C168:D168 B135:D137 C139:D148 B140 D153:D160">
+  <conditionalFormatting sqref="G180 B180:D180 B167:D170 J131 C181:D181 C172:D172 B136:D138 C140:D149 B141 D162:D163 D150:D157 D159:D160">
     <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F173:T173">
+  <conditionalFormatting sqref="F177:T177">
     <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -20579,7 +20798,7 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:D63">
+  <conditionalFormatting sqref="B62:D62">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -20594,12 +20813,12 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B162:D162">
+  <conditionalFormatting sqref="B165:D165">
     <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H162">
+  <conditionalFormatting sqref="H165">
     <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -20639,47 +20858,47 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K162">
+  <conditionalFormatting sqref="K165">
     <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N162">
+  <conditionalFormatting sqref="N165">
     <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q162">
+  <conditionalFormatting sqref="Q165">
     <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T162">
+  <conditionalFormatting sqref="T165">
     <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K201">
+  <conditionalFormatting sqref="K206">
     <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N201">
+  <conditionalFormatting sqref="N206">
     <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q201">
+  <conditionalFormatting sqref="Q206">
     <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T201">
+  <conditionalFormatting sqref="T206">
     <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B204">
+  <conditionalFormatting sqref="B209">
     <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -20719,12 +20938,12 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W162">
+  <conditionalFormatting sqref="W165">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W201">
+  <conditionalFormatting sqref="W206">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -22388,7 +22607,7 @@
       <c r="I71" s="83"/>
       <c r="J71" s="83"/>
       <c r="K71" s="83"/>
-      <c r="L71" s="113" t="s">
+      <c r="L71" s="111" t="s">
         <v>764</v>
       </c>
       <c r="M71" s="83"/>

--- a/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑9/Demo-里程碑9计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="460" windowWidth="36500" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="39280" yWindow="460" windowWidth="36500" windowHeight="20000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑9" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="美术" sheetId="5" r:id="rId6"/>
     <sheet name="问题记录" sheetId="6" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">里程碑9!$A$13:$M$100</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="914">
   <si>
     <t>里程碑目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -6388,6 +6391,9 @@
       <t>zhang</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
 </sst>
 </file>
@@ -6628,7 +6634,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6670,6 +6676,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -6708,7 +6720,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -6743,8 +6755,10 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7039,8 +7053,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="34">
     <cellStyle name="Normal 2" xfId="8"/>
     <cellStyle name="差" xfId="29" builtinId="27"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -7057,6 +7074,7 @@
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -7073,15 +7091,9 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="124">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7872,257 +7884,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -8401,8 +8162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D57" sqref="D53:G57"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -9102,7 +8863,9 @@
       <c r="F28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="H28" s="113" t="s">
         <v>47</v>
       </c>
@@ -9305,7 +9068,9 @@
       <c r="F34" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="112" t="s">
@@ -9513,7 +9278,9 @@
       <c r="F40" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="19"/>
+      <c r="G40" s="121" t="s">
+        <v>902</v>
+      </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21" t="s">
@@ -9543,7 +9310,9 @@
       <c r="F41" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="19"/>
+      <c r="G41" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -9571,7 +9340,9 @@
       <c r="F42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="121" t="s">
+        <v>902</v>
+      </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -9599,7 +9370,9 @@
       <c r="F43" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="19"/>
+      <c r="G43" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -9627,7 +9400,9 @@
       <c r="F44" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="21"/>
+      <c r="G44" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -9717,7 +9492,9 @@
       <c r="F47" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="H47" s="21"/>
       <c r="I47" s="24" t="s">
         <v>42</v>
@@ -9750,7 +9527,9 @@
       <c r="F48" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="21"/>
+      <c r="G48" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21" t="s">
@@ -9847,7 +9626,9 @@
       <c r="F51" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="21"/>
+      <c r="G51" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21" t="s">
         <v>42</v>
@@ -9947,7 +9728,9 @@
       <c r="F54" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G54" s="21"/>
+      <c r="G54" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
@@ -10047,7 +9830,9 @@
       <c r="F57" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
@@ -10191,10 +9976,6 @@
       <c r="M61" s="21"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
       <c r="B62" s="23"/>
       <c r="C62" s="21"/>
       <c r="D62" s="26" t="s">
@@ -10212,8 +9993,8 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f>A61+1</f>
+        <v>48</v>
       </c>
       <c r="B63" s="23" t="s">
         <v>27</v>
@@ -10230,7 +10011,9 @@
       <c r="F63" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G63" s="21"/>
+      <c r="G63" s="121" t="s">
+        <v>902</v>
+      </c>
       <c r="H63" s="21" t="s">
         <v>622</v>
       </c>
@@ -10244,8 +10027,8 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>A63+1</f>
+        <v>49</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>82</v>
@@ -10262,7 +10045,9 @@
       <c r="F64" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G64" s="21"/>
+      <c r="G64" s="121" t="s">
+        <v>902</v>
+      </c>
       <c r="I64" s="24"/>
       <c r="J64" s="24" t="s">
         <v>51</v>
@@ -10274,7 +10059,7 @@
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>82</v>
@@ -10291,7 +10076,9 @@
       <c r="F65" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G65" s="21"/>
+      <c r="G65" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="H65" s="24"/>
       <c r="I65" s="24" t="s">
         <v>51</v>
@@ -10304,7 +10091,7 @@
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>82</v>
@@ -10321,7 +10108,9 @@
       <c r="F66" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G66" s="21"/>
+      <c r="G66" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="I66" s="21" t="s">
         <v>51</v>
       </c>
@@ -10333,7 +10122,7 @@
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>82</v>
@@ -10365,7 +10154,7 @@
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>82</v>
@@ -10395,10 +10184,6 @@
       <c r="M68" s="24"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="19">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
       <c r="B69" s="21"/>
       <c r="C69" s="19"/>
       <c r="D69" s="26" t="s">
@@ -10416,8 +10201,8 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <f>A68+1</f>
+        <v>54</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>37</v>
@@ -10432,7 +10217,9 @@
       <c r="F70" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G70" s="19"/>
+      <c r="G70" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
@@ -10442,8 +10229,8 @@
     </row>
     <row r="71" spans="1:13" ht="32" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>A70+1</f>
+        <v>55</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>37</v>
@@ -10458,7 +10245,9 @@
       <c r="F71" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="19"/>
+      <c r="G71" s="121" t="s">
+        <v>902</v>
+      </c>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
@@ -10467,10 +10256,7 @@
       <c r="M71" s="21"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
+      <c r="A72" s="19"/>
       <c r="B72" s="21"/>
       <c r="C72" s="19"/>
       <c r="D72" s="28" t="s">
@@ -10488,8 +10274,8 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f>A71+1</f>
+        <v>56</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>9</v>
@@ -10523,7 +10309,7 @@
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>9</v>
@@ -10559,7 +10345,7 @@
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>9</v>
@@ -10597,7 +10383,7 @@
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>9</v>
@@ -10635,7 +10421,7 @@
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>9</v>
@@ -10673,7 +10459,7 @@
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>9</v>
@@ -10707,7 +10493,7 @@
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>9</v>
@@ -10743,7 +10529,7 @@
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>9</v>
@@ -10779,7 +10565,7 @@
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>9</v>
@@ -10817,7 +10603,7 @@
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>9</v>
@@ -10834,7 +10620,9 @@
       <c r="F82" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G82" s="19"/>
+      <c r="G82" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="H82" s="114" t="s">
         <v>275</v>
       </c>
@@ -10853,7 +10641,7 @@
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>9</v>
@@ -10889,7 +10677,7 @@
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>9</v>
@@ -10921,7 +10709,7 @@
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>9</v>
@@ -10952,7 +10740,7 @@
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>9</v>
@@ -10990,7 +10778,7 @@
     <row r="87" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>9</v>
@@ -11022,7 +10810,7 @@
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>9</v>
@@ -11056,7 +10844,7 @@
     <row r="89" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <f t="shared" ref="A89:A99" si="3">A88+1</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>9</v>
@@ -11073,7 +10861,9 @@
       <c r="F89" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G89" s="19"/>
+      <c r="G89" s="121" t="s">
+        <v>902</v>
+      </c>
       <c r="H89" s="21"/>
       <c r="I89" s="114" t="s">
         <v>275</v>
@@ -11088,7 +10878,7 @@
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>9</v>
@@ -11105,7 +10895,9 @@
       <c r="F90" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G90" s="19"/>
+      <c r="G90" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="H90" s="21"/>
       <c r="I90" s="114" t="s">
         <v>275</v>
@@ -11120,7 +10912,7 @@
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>9</v>
@@ -11137,7 +10929,9 @@
       <c r="F91" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G91" s="19"/>
+      <c r="G91" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="114" t="s">
@@ -11152,7 +10946,7 @@
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>9</v>
@@ -11186,7 +10980,7 @@
     <row r="93" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>9</v>
@@ -11218,7 +11012,7 @@
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B94" s="21" t="s">
         <v>9</v>
@@ -11250,7 +11044,7 @@
     <row r="95" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B95" s="21" t="s">
         <v>9</v>
@@ -11267,7 +11061,9 @@
       <c r="F95" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G95" s="19"/>
+      <c r="G95" s="126" t="s">
+        <v>913</v>
+      </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
@@ -11278,7 +11074,7 @@
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>9</v>
@@ -11295,7 +11091,9 @@
       <c r="F96" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G96" s="19"/>
+      <c r="G96" s="126" t="s">
+        <v>913</v>
+      </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
@@ -11306,7 +11104,7 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>9</v>
@@ -11338,10 +11136,7 @@
       <c r="M97" s="22"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="19">
-        <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
+      <c r="A98" s="19"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="28" t="s">
@@ -11359,8 +11154,8 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
-        <f t="shared" si="3"/>
-        <v>85</v>
+        <f>A97+1</f>
+        <v>81</v>
       </c>
       <c r="B99" s="21" t="s">
         <v>3</v>
@@ -11373,7 +11168,9 @@
       <c r="F99" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G99" s="19"/>
+      <c r="G99" s="126" t="s">
+        <v>913</v>
+      </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="21" t="s">
@@ -11607,252 +11404,253 @@
       <c r="M114" s="31"/>
     </row>
   </sheetData>
+  <autoFilter ref="A13:M100"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="L106:M106 H106:J106 E108:F114 H107:M114 H72:L72 H59 J59 F7:F8 D13 F12 H65 M22 K22 K18:M18 M24:M25 H24:K25 H53:I54 E99:F99 A106:C114 K74:L74 I17:M17 A14:F14 K93:L93 K101:L105 B101:B105 D107:F107 E106:F106 E24:E25 H17:H18 E42:F43 H55:M55 F39:F43 B39:D44 E15:F16 H23:M23 H20:M21 H58:J58 J54:M54 L58:M59 H56:I57 E73:F81 I64:M66 H60:M63 B67:C68 E67:F68 H67:M71 B69:F71 B72:E72 D101:D103 B95:C95 H93:J94 H87:J88 B87:D90 B91:F91 B92:D94 B31:F40 D29:F30 F23:F28 B23:D28 H13:M16 I19:M19 A15:C16 B17:F20 I18:I20 I31:K31 H32:K32 H29:K30 L29:M32 H49:M49 H47:I47 H48:J48 L48:M48 L24 H86:L86 J85:L85 H85 H26:M28 K47:M47 K56:M57 L53:M53 H89:L89 H90:J90 H91:L92 K76:L81 B96:D100 H95:L100 H33:M46 H51:M52 H50:J50 L50:M50 B44:F66 H82:L84 D82:F86 B73:C86 M72:M105 A17:A105">
-    <cfRule type="cellIs" dxfId="90" priority="68" operator="equal">
+  <conditionalFormatting sqref="L106:M106 H106:J106 E108:F114 H107:M114 H72:L72 H59 J59 F7:F8 D13 F12 H65 M22 K22 K18:M18 M24:M25 H24:K25 H53:I54 E99:F99 A106:C114 K74:L74 I17:M17 A14:F14 K93:L93 K101:L105 B101:B105 D107:F107 E106:F106 E24:E25 H17:H18 E42:F43 H55:M55 F39:F43 B39:D44 E15:F16 H23:M23 H20:M21 H58:J58 J54:M54 L58:M59 H56:I57 E73:F81 I64:M66 H60:M63 B67:C68 E67:F68 H67:M71 B69:F71 B72:E72 D101:D103 B95:C95 H93:J94 H87:J88 B87:D90 B91:F91 B92:D94 B31:F40 D29:F30 F23:F28 B23:D28 H13:M16 I19:M19 A15:C16 B17:F20 I18:I20 I31:K31 H32:K32 H29:K30 L29:M32 H49:M49 H47:I47 H48:J48 L48:M48 L24 H86:L86 J85:L85 H85 H26:M28 K47:M47 K56:M57 L53:M53 H89:L89 H90:J90 H91:L92 K76:L81 B96:D100 H95:L100 H33:M46 H51:M52 H50:J50 L50:M50 B44:F66 H82:L84 D82:F86 B73:C86 M72:M105 A17:A61 A63:A68 A70:A105">
+    <cfRule type="cellIs" dxfId="89" priority="68" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L106 F106:F107 M72 H70:M70 E66:F67 E64:F64 E55:F55 H55:M55 H59 E51:F51 J23:M23 M22 K22 M24:M25 J24:K25 K39:M40 L59:M59 E58 K67:K68 K44 L38 H21:M21 F23:F25 H23:H25 I26:I28 F53:F54 I52:I54 F70:F71 F73:F75 F45 F38:F39 I49:I50 I60:I61 I56:I57 K62:K63 I69 F32:F33 F29:F30 H33:J44 H29:J30 K33:L33 I31:K31 L29:L32 H32:K32 J49:L49 I48:J48 L48 L24 F49:F50 F56:F59">
-    <cfRule type="cellIs" dxfId="89" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="66" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="67" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="87" priority="67" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L106 F106:F107 M72 H70:M70 E66:F67 E64:F64 E55:F55 H55:M55 H59 E51:F51 J23:M23 I1:I6 M22 K22 M24:M25 J24:K25 K39:M40 L59:M59 E58 K67:K68 K44 L38 H21:M21 F23:F25 H23:H25 I26:I28 F53:F54 I52:I54 F70:F71 F73:F75 F45 F38:F39 I49:I50 I60:I61 I56:I57 K62:K63 I69 F32:F33 F29:F30 H33:J44 H29:J30 K33:L33 I31:K31 L29:L32 H32:K32 J49:L49 I48:J48 L48 L24 F49:F50 F56:F59">
-    <cfRule type="cellIs" dxfId="87" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="65" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108:D114 D53:D54">
-    <cfRule type="cellIs" dxfId="86" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="64" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:J22 B21:F22 E23 E26:E28 E39:E43">
-    <cfRule type="cellIs" dxfId="85" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="63" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:J22 F21:F22">
-    <cfRule type="cellIs" dxfId="84" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="61" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="62" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:J22 F21:F22">
-    <cfRule type="cellIs" dxfId="82" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="60" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J57 J53:J54">
-    <cfRule type="cellIs" dxfId="81" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="59" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J57 J53:J54">
-    <cfRule type="cellIs" dxfId="80" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="57" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="58" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="78" priority="58" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:J57 J53:J54">
-    <cfRule type="cellIs" dxfId="78" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="56" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73:L73 K75:L75">
-    <cfRule type="cellIs" dxfId="77" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="47" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="76" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="46" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="75" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="44" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="45" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="73" priority="45" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="43" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="72" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="41" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="42" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="70" priority="42" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="70" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="40" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35 F39:F40">
-    <cfRule type="cellIs" dxfId="69" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="35" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="36" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="67" priority="36" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35 F39:F40">
-    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="32" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="33" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="64" priority="33" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="63" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="29" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="30" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="61" priority="30" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="61" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="28" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="60" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="27" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:L54">
-    <cfRule type="cellIs" dxfId="59" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="25" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="26" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="57" priority="26" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:L54">
-    <cfRule type="cellIs" dxfId="57" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:K59">
-    <cfRule type="cellIs" dxfId="56" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:K59">
-    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="22" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="53" priority="22" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:K59">
-    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73:J81">
-    <cfRule type="cellIs" dxfId="52" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D81">
-    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:D68">
-    <cfRule type="cellIs" dxfId="50" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L94">
-    <cfRule type="cellIs" dxfId="49" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule type="cellIs" dxfId="48" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C30">
-    <cfRule type="cellIs" dxfId="47" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19 B19:F19">
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L90">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11866,10 +11664,10 @@
   <dimension ref="A2:W315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G277" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B271" sqref="B271"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -22974,182 +22772,182 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J42 M42 B108:D108 F116 B268:D269 B67:D67 B162 D162 D127:D128 B161:D161 F228 C283:D283 B131:D131 D132 G231 F230:G230 B42:D44 B47:D50 B52:D52 F174:G174 F175:F191 P109:P110 G109:G110 S109:S110 V110:W110 D53 D60 D63:D64 B120:D123 V287:W288 P5:P23 G5:G23 M5:M23 J5:J23 V5:W23 V25:W25 B172:D172 B169:D169 G172 M172 J172 S172 P172 S5:S23 V206:W206 P25:P40 G25:G40 M25:M40 J25:J40 S25:S40 M285:M290 P285:P290 S285:S290 J285:J290 G285:G290 D66 B62:D62 B104:D104 C57:D57 C73:D74 P45:P57 G45:G57 M45:M57 J45:J57 S45:S57 V45:W57 P59:P60 G59:G60 M59:M60 J59:J60 S59:S60 V59:W60 V175:W197 F202:G203 G237:G253 V237:W253 S237:S253 P237:P253 M237:M253 J237:J253 K269 K254 N269 N254 H268:H269 H254 T269 T254 Q269 Q254 B254:D254 V198:V200 V73:W74 V72 C106:D106 V62:W64 S62:S64 J62:J64 M62:M64 G62:G64 P62:P64 V66:W67 V69:W71 S66:S67 S69:S74 J66:J67 J69:J74 M66:M67 M69:M74 G66:G67 G69:G74 P66:P67 P69:P74 V112:W128 G112:G128 M112:M128 J112:J128 S112:S128 P112:P128 J255:J257 J259 M255:M257 M259 P255:P257 P259 S255:S257 S259 V255:W257 G255:G257 G259 C102:D103 C85:D85 V102:W106 P102:P107 G102:G107 M102:M110 J102:J110 S102:S107 D75 B163:D165 P161:P165 S161:S165 J161:J165 M161:M165 G161:G165 F224:G227 F221:G221 G228:G229 P224:P231 M224:M231 J224:J231 S224:S231 Q283 T283 H283 N283 K283 J274 M274 P274 S274 V259:W261 V274:W274 G274 D78 D84 S80:S82 J80:J82 M80:M82 G80:G82 P80:P82 P167:P170 S167:S170 J167:J170 M167:M170 G167:G170 V205 V213:V214 G204:G206 V201:W204 K279:K281 N279:N281 H279:H281 T279:T281 Q279:Q281 B279:D281 G76:G77 M76:M77 J76:J77 S76:S77 P76:P77 V140:W140 V149:W149 G143:G149 M143:M149 J143:J149 S143:S149 P143:P149 V215:W215 V211:W212 G211:G215 S221 S211:S215 J221 J211:J215 M221 M211:M215 P221 P211:P215 G175:G201 J174:J206 M174:M206 P174:P206 S174:S206 V84:W98 P84:P100 G84:G100 M84:M100 J84:J100 S84:S100 D86:D98 D134:D137 V130:W137 G152:G154 G130:G141 M152:M154 M130:M141 J152:J154 J130:J141 S152:S154 S130:S141 P152:P154 P130:P141 P217 M217 J217 S217 G217 V217:W217 K264 K266 K272 N264 N266 N272 H264 H266 H272 T264 T266 T272 Q264 Q266 Q272 B264:D264 B266:D266 B272:D272">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G236 B236:D236 J173 C237:D237 C228:D228 B178:D180 C182:D191 B183 B224:D227 B221:D221 D205 D213:D215 D192:D203">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F233:T233">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T43:T44 Q43:Q44 N43:N44 K43:K44 H43:H44">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:D79">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:D142">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207:D207">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H207">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q142">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:D41">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K142">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N142">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T142">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K207">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N207">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q207">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T207">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K268">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N268">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q268">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T268">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B283">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26:V38">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26:W38">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W142">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W207">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W268">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P129 S129 J129 M129 G129 V129:W129">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V216:W216 G216 S216 J216 M216 P216">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
